--- a/outputs/ML_Results/dist_LR/Madrid.xlsx
+++ b/outputs/ML_Results/dist_LR/Madrid.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ23561050" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ23772948" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ23992773" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ24307249" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ24538281" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ24769961" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ24983987" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ25196026" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ25411513" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ25636391" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ25878982" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ26098536" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ26304563" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ26525598" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ26756650" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ26965717" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ27180015" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ27389038" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ27601066" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ27829468" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ28063503" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ28277579" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ28484610" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ28692358" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ28901388" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ29120311" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ29336784" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ29552338" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ29766892" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ29985917" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ30202978" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ30418006" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ30632029" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ30850073" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ31091698" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ31339736" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ31584818" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ31840210" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ32071593" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ32287633" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ32501193" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ32716222" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ32933436" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ33155554" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ33368085" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ33586870" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ33805567" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ34024974" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ34243006" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ34456034" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ59533399" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ59733421" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ59981475" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ00374905" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ00639527" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ00898632" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ01156689" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ01410682" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ01694899" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ01959828" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ02238718" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ02499740" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ02761799" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ03021213" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ03328539" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ03605118" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ03867184" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ04169025" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ04540287" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ04851388" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ05142581" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ05451431" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ05724571" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ05975544" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ06216587" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ06475126" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ06758452" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ07028507" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ07284034" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ07544600" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ07796845" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ08105238" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ08364813" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ08609844" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ08866718" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ09122425" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ09371583" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ09714138" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ09966435" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ10255067" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ10523722" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ10776004" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ11025314" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ11294242" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ11540940" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ11820431" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ12095818" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ12367703" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ12617264" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ12895321" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Madrid.xlsx
+++ b/outputs/ML_Results/dist_LR/Madrid.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ59533399" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ59733421" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ59981475" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ00374905" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ00639527" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ00898632" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ01156689" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ01410682" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ01694899" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ01959828" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ02238718" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ02499740" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ02761799" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ03021213" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ03328539" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ03605118" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ03867184" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ04169025" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ04540287" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ04851388" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ05142581" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ05451431" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ05724571" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ05975544" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ06216587" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ06475126" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ06758452" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ07028507" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ07284034" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ07544600" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ07796845" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ08105238" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ08364813" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ08609844" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ08866718" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ09122425" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ09371583" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ09714138" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ09966435" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ10255067" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ10523722" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ10776004" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ11025314" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ11294242" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ11540940" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ11820431" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ12095818" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ12367703" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ12617264" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ12895321" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ05633463" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ05805181" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ05969881" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ06138883" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ06298204" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ06467962" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ06638586" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ06799294" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ06957830" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ07123994" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ07292738" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ07488727" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ07706378" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ07917147" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ08122984" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ08317774" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ08526430" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ08737696" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ08979731" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ09233313" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ09452181" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ09666594" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ09884911" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ10097589" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ10312748" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ10528728" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ10762788" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ10977156" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ11188517" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ11399703" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ11630225" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ11843493" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ12057180" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ12277381" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ12559135" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ12802082" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ13015300" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ13367100" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ13569527" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ13794790" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ14052218" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ14283623" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ14511752" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ14755089" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ14980108" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ15281043" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ15571462" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ15790120" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ16004786" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ16224594" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1857.445366312195</v>
+        <v>1713.64950599115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02685952271843901</v>
+        <v>0.03731854298584022</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.6233548622492</v>
+        <v>163.2205505099599</v>
       </c>
       <c r="C3" t="n">
-        <v>7.485494247770995e-15</v>
+        <v>8.161797611075478e-15</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.3612170571727</v>
+        <v>113.7958224616305</v>
       </c>
       <c r="C4" t="n">
-        <v>1.020914174260893e-25</v>
+        <v>8.294370662908214e-27</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0165041817247247</v>
+        <v>-0.01710790573661673</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01925181229476046</v>
+        <v>0.01480441286108477</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.164071011461431e-07</v>
+        <v>3.910146331384621e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.892852419162883</v>
+        <v>0.8676699415162792</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.464852371023907</v>
+        <v>-8.317365926055043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004978059832354558</v>
+        <v>0.005685170147692722</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.274498885743586</v>
+        <v>8.719099962584707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04312008702025912</v>
+        <v>0.03182378230709447</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-244.1652323523674</v>
+        <v>-250.4466692059059</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6615798425718098</v>
+        <v>0.6532947798571065</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-537.0955763092841</v>
+        <v>-537.9946732381704</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1691323880104277</v>
+        <v>0.168262268057267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1903.740979626232</v>
+        <v>5044.516488906375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3663007997932712</v>
+        <v>1.184478932130766e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5075.815925289704</v>
+        <v>20.14572962760231</v>
       </c>
       <c r="C12" t="n">
-        <v>1.032082123195357e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.64096809305914</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1071807274530895</v>
+        <v>0.07854189936253192</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.022229683603</v>
+        <v>1624.166598442851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03122858107085006</v>
+        <v>0.04316059504957724</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.0891977879751</v>
+        <v>165.365034365153</v>
       </c>
       <c r="C3" t="n">
-        <v>3.401668508651756e-16</v>
+        <v>2.878958963641473e-16</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.8923513329532</v>
+        <v>113.1938766065808</v>
       </c>
       <c r="C4" t="n">
-        <v>1.242550800081056e-26</v>
+        <v>8.989394979996954e-28</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01056908530378494</v>
+        <v>-0.01065049891956682</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1008575828066863</v>
+        <v>0.09799684555447909</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.731149158757979e-07</v>
+        <v>-9.279180256659929e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9398383189822728</v>
+        <v>0.9676779120429453</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.57706333076437</v>
+        <v>-11.46281074570501</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002528212629694337</v>
+        <v>0.0002828899971906694</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.459142969680684</v>
+        <v>7.863036154402332</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06363523722967264</v>
+        <v>0.04872200832520305</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>526.6915435159203</v>
+        <v>504.8728011628152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3917811300867083</v>
+        <v>0.4108903637940092</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-647.8495090765634</v>
+        <v>-658.0018876127773</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0976188150370237</v>
+        <v>0.09210993862345106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1713.175249500179</v>
+        <v>5360.916592692201</v>
       </c>
       <c r="C11" t="n">
-        <v>0.418784848259282</v>
+        <v>5.990601169294378e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5343.423964510162</v>
+        <v>24.54539158299838</v>
       </c>
       <c r="C12" t="n">
-        <v>6.907969017215713e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22.7887968376849</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04646802481106884</v>
+        <v>0.0289357323235951</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3138.901956232828</v>
+        <v>3016.689992083713</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001965737721704006</v>
+        <v>0.0002722955807597683</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.9974035510099</v>
+        <v>164.1134807367495</v>
       </c>
       <c r="C3" t="n">
-        <v>9.520848940233815e-17</v>
+        <v>8.606468607375037e-17</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.9395720353311</v>
+        <v>108.3337767923396</v>
       </c>
       <c r="C4" t="n">
-        <v>6.455906253376188e-27</v>
+        <v>2.959027629499208e-28</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01437343615454497</v>
+        <v>-0.01485877312305725</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02587347778019749</v>
+        <v>0.02069610527946036</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.346241579280289e-07</v>
+        <v>-5.114807765251501e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7710297269845131</v>
+        <v>0.8140135822475596</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.26484150939241</v>
+        <v>-11.22944041725152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001787542724401375</v>
+        <v>0.0001849932043048959</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.262838616537927</v>
+        <v>3.557020806988156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4331458317383543</v>
+        <v>0.3908811299891436</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-806.4309523073703</v>
+        <v>-807.4197037930521</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1103459067019811</v>
+        <v>0.1096886920684552</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-866.6661242406554</v>
+        <v>-862.8537323888436</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02322633042204155</v>
+        <v>0.02373423420054577</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1610.13384204932</v>
+        <v>3854.617266259165</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4056649773293532</v>
+        <v>1.556524386291227e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3839.60795945905</v>
+        <v>18.06453134318916</v>
       </c>
       <c r="C12" t="n">
-        <v>1.703660704286236e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>16.89119623414509</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1354664954141579</v>
+        <v>0.1074816209650136</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.079375994378</v>
+        <v>1743.322482420137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.016469854444984</v>
+        <v>0.02052079156930315</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.525617775135</v>
+        <v>146.2160741112613</v>
       </c>
       <c r="C3" t="n">
-        <v>4.677491260770035e-13</v>
+        <v>4.767911975298947e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.8465860008651</v>
+        <v>116.9139257862102</v>
       </c>
       <c r="C4" t="n">
-        <v>2.040761823250539e-31</v>
+        <v>8.243124916265594e-33</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01282496867469912</v>
+        <v>-0.01311284248779568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03296915201267202</v>
+        <v>0.02863041926406854</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.397045508988258e-07</v>
+        <v>-1.672081038197501e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9101779321238794</v>
+        <v>0.9371127673436839</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.60393268765911</v>
+        <v>-6.467810496693032</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01953617607247358</v>
+        <v>0.02163655848912498</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.2934608210025</v>
+        <v>14.65931258468338</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00014768575444826</v>
+        <v>8.180801760150666e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-266.9161203524984</v>
+        <v>-265.6607611876238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6029220123081362</v>
+        <v>0.6041973756821417</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-64.88982031276646</v>
+        <v>-59.62918250788869</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8627897882469073</v>
+        <v>0.8736378577969156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1251.083409731467</v>
+        <v>5111.306936201338</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5204087127150892</v>
+        <v>8.330823800470239e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5136.056402136191</v>
+        <v>-3.00166777668367</v>
       </c>
       <c r="C12" t="n">
-        <v>7.729349056436977e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4.141348662948921</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7150115587658421</v>
+        <v>0.7884860527387102</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1956.016217209378</v>
+        <v>1758.929878186958</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01284192904325925</v>
+        <v>0.02282432916020211</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.8380904965535</v>
+        <v>156.1191856235101</v>
       </c>
       <c r="C3" t="n">
-        <v>3.649231015650796e-15</v>
+        <v>4.966385879893953e-15</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.880847440479</v>
+        <v>122.1406750154629</v>
       </c>
       <c r="C4" t="n">
-        <v>4.4188499651033e-29</v>
+        <v>1.442759127326252e-30</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01646258914545225</v>
+        <v>-0.01732206159022738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01504396344507128</v>
+        <v>0.01034842256307146</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.706788650986872e-06</v>
+        <v>2.849026310842913e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4708128033450917</v>
+        <v>0.448408151489463</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.579826943616677</v>
+        <v>-9.35362346338216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001183935914470705</v>
+        <v>0.001535561588395066</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.637798248327991</v>
+        <v>8.263661046458303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04253968996916423</v>
+        <v>0.02737184996418745</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-322.5633684984816</v>
+        <v>-339.6491837217677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5606599752044231</v>
+        <v>0.5406575732775972</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-637.5898544834974</v>
+        <v>-643.9465446366993</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09213127045400155</v>
+        <v>0.08944342334505501</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2824.410370116154</v>
+        <v>5173.80659775968</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1787061855341124</v>
+        <v>2.243377900496302e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5232.595050471211</v>
+        <v>19.92409792971637</v>
       </c>
       <c r="C12" t="n">
-        <v>1.572781931613485e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.85288419793871</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.10763467219719</v>
+        <v>0.07045690711411301</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1346.177657013211</v>
+        <v>1240.641624404354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09617412124427453</v>
+        <v>0.1172447869088893</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.8622681037498</v>
+        <v>147.7205822353116</v>
       </c>
       <c r="C3" t="n">
-        <v>9.770752633788657e-14</v>
+        <v>9.53975797983141e-14</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.8287295858133</v>
+        <v>119.9604868416144</v>
       </c>
       <c r="C4" t="n">
-        <v>2.952181301804568e-31</v>
+        <v>1.167151926653398e-32</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01260775803238639</v>
+        <v>-0.01282926220465323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05504800334822249</v>
+        <v>0.05038086609652757</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.620874964294497e-06</v>
+        <v>-1.550407360083103e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4874994720605037</v>
+        <v>0.5056784453883815</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.263899194621303</v>
+        <v>-8.249161873413753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005758540388623066</v>
+        <v>0.005786999225254003</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.265561460674549</v>
+        <v>8.458204482522827</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03340510940753837</v>
+        <v>0.02889446431295118</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-658.5394410060771</v>
+        <v>-670.6600561078578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2129098007420801</v>
+        <v>0.2038490423211257</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-793.0780883149755</v>
+        <v>-794.9121651416594</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0421513525544949</v>
+        <v>0.04144415608920535</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1533.190084927638</v>
+        <v>5587.726608788432</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5085732967228402</v>
+        <v>1.670709985957105e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5553.260166140379</v>
+        <v>29.64371878774041</v>
       </c>
       <c r="C12" t="n">
-        <v>2.290117920969036e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.5167846592925</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01346631194014008</v>
+        <v>0.009349802480873633</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1278.01509416246</v>
+        <v>1126.467369653237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1784666953366272</v>
+        <v>0.2244615286935027</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.6648440667954</v>
+        <v>142.1596225104931</v>
       </c>
       <c r="C3" t="n">
-        <v>7.163170709621125e-11</v>
+        <v>5.858194103247968e-11</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.3704505553708</v>
+        <v>116.5178491115787</v>
       </c>
       <c r="C4" t="n">
-        <v>3.276053849178045e-24</v>
+        <v>4.748205698455243e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01013732090968565</v>
+        <v>-0.01044960950697712</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1502678989062715</v>
+        <v>0.1371363716513357</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.228387259267217e-07</v>
+        <v>-2.300362256104354e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8946959656412461</v>
+        <v>0.9246987441626677</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.117167842944507</v>
+        <v>-7.997516140429634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01107852475743926</v>
+        <v>0.01212446851616804</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.18018524939053</v>
+        <v>15.67711029453107</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002209938532607459</v>
+        <v>0.001425228880622735</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-203.3843834342345</v>
+        <v>-196.7277879618773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7052556983738039</v>
+        <v>0.7141985652378802</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-797.5190157355514</v>
+        <v>-796.5576066981134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04761685533755126</v>
+        <v>0.04768872942239352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1593.665732265539</v>
+        <v>4338.004089504571</v>
       </c>
       <c r="C11" t="n">
-        <v>0.449237963149087</v>
+        <v>5.019212706384514e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4338.655553716708</v>
+        <v>24.50484408088158</v>
       </c>
       <c r="C12" t="n">
-        <v>5.103139862983174e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23.08575167740965</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05528709045117346</v>
+        <v>0.03936792214147626</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1877.197943206271</v>
+        <v>1678.265768312864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01946568108007455</v>
+        <v>0.03353779637105701</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.8616290443463</v>
+        <v>149.6280767191157</v>
       </c>
       <c r="C3" t="n">
-        <v>2.145122150730631e-14</v>
+        <v>2.485200644438885e-14</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.3986503567249</v>
+        <v>119.8914189380487</v>
       </c>
       <c r="C4" t="n">
-        <v>4.642528121517849e-28</v>
+        <v>8.622589249829308e-30</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0148542690775693</v>
+        <v>-0.01549493835635063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02419348501507962</v>
+        <v>0.01861953171982455</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.255967164794124e-07</v>
+        <v>5.029321816587558e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8852639436206259</v>
+        <v>0.8235827289211498</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.584968496873358</v>
+        <v>-6.369071478302041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02527170113593228</v>
+        <v>0.03041225300017615</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.70842173973211</v>
+        <v>11.2888482531995</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005393291669851539</v>
+        <v>0.003222387830224532</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-499.5417651865057</v>
+        <v>-520.6547230754568</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3397900669246918</v>
+        <v>0.3203188592614991</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-207.8867428095286</v>
+        <v>-209.7516324081373</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5936427848980463</v>
+        <v>0.5908978965304075</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2830.830891451473</v>
+        <v>5479.444926712127</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1858374968006481</v>
+        <v>8.223162192366302e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5484.96271027974</v>
+        <v>5.368985757666326</v>
       </c>
       <c r="C12" t="n">
-        <v>7.619873109483454e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.670674666211641</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7615160228229649</v>
+        <v>0.6558182643925057</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1387.447114793218</v>
+        <v>1235.338760202512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07234825398879671</v>
+        <v>0.0997684078519598</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.9140014626202</v>
+        <v>161.4168936770539</v>
       </c>
       <c r="C3" t="n">
-        <v>6.240093087118348e-16</v>
+        <v>6.923508295642255e-16</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.7293496557079</v>
+        <v>125.3756952867701</v>
       </c>
       <c r="C4" t="n">
-        <v>8.03904840885534e-33</v>
+        <v>1.14726632210125e-34</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01322848515810841</v>
+        <v>-0.01353405493291972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02731810150838616</v>
+        <v>0.0236574074939072</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.430723561437566e-07</v>
+        <v>4.065632570811344e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8732060575218998</v>
+        <v>0.8498318173764705</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.562973726001706</v>
+        <v>-8.531494167203725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002519070841580966</v>
+        <v>0.002594671349886698</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.588841263330112</v>
+        <v>8.955677154751875</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02024243212944747</v>
+        <v>0.0147878274043389</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1040.840522264092</v>
+        <v>-1040.809395219417</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03476195981084069</v>
+        <v>0.03466820072359367</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-820.2941833776551</v>
+        <v>-806.1635985261942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02265202808051371</v>
+        <v>0.02483407607412869</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1680.592550040721</v>
+        <v>5643.126287047194</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3916525210266576</v>
+        <v>2.105629699773799e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5624.01449298744</v>
+        <v>27.07855662305927</v>
       </c>
       <c r="C12" t="n">
-        <v>2.492134891446196e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.58077785605961</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01810486657126792</v>
+        <v>0.01125288208244201</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2127.19393717374</v>
+        <v>2035.106647841471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00909779098144458</v>
+        <v>0.01101432933345429</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.0635397644292</v>
+        <v>151.9712335487284</v>
       </c>
       <c r="C3" t="n">
-        <v>6.187521720168292e-13</v>
+        <v>5.935606987193793e-13</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.7977859703223</v>
+        <v>113.7753282557551</v>
       </c>
       <c r="C4" t="n">
-        <v>5.780591304754848e-27</v>
+        <v>5.488246715223129e-28</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01213315337279928</v>
+        <v>-0.01273288201515835</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07602146978349124</v>
+        <v>0.05977633770851782</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.093525053414356e-06</v>
+        <v>-4.894527840881909e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2408028036239255</v>
+        <v>0.2577421917237006</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.69487236241226</v>
+        <v>-10.59908211810459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000428302845416675</v>
+        <v>0.0004650767345612332</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.442077349376931</v>
+        <v>7.692666019545111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05955106177689948</v>
+        <v>0.05003193102873423</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-203.4077961589894</v>
+        <v>-216.5418122885964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7015045130046846</v>
+        <v>0.682643269529605</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-617.7658068479468</v>
+        <v>-618.114812486401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1205042899094122</v>
+        <v>0.1198366423674582</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1341.237238932064</v>
+        <v>4507.522220259496</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5339077721460479</v>
+        <v>8.161284702368004e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4514.965619887695</v>
+        <v>22.91429260335407</v>
       </c>
       <c r="C12" t="n">
-        <v>8.117147776292654e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21.93713598147235</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06080924231018812</v>
+        <v>0.04792003468365385</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2825.951037983497</v>
+        <v>2672.091315309233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001222984533985511</v>
+        <v>0.001930632646052982</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.0144285354531</v>
+        <v>132.1819302377175</v>
       </c>
       <c r="C3" t="n">
-        <v>2.552391720431552e-11</v>
+        <v>2.436591764630997e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.9737957721361</v>
+        <v>112.6006993319296</v>
       </c>
       <c r="C4" t="n">
-        <v>1.707481619039334e-28</v>
+        <v>9.29404109456616e-30</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01393891674161388</v>
+        <v>-0.0140933964585146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0279265202708321</v>
+        <v>0.02626837334693311</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.35373773265894e-08</v>
+        <v>1.59882596902644e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9740738243953952</v>
+        <v>0.9436557065474083</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.36600972119801</v>
+        <v>-11.32015630427102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000306911803276824</v>
+        <v>0.0003251271817551209</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.833505638129782</v>
+        <v>7.242814247498481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1061373020644802</v>
+        <v>0.08575766348944226</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>128.5482752819437</v>
+        <v>123.347481115871</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8193703577738722</v>
+        <v>0.8266162771411075</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-615.5600603444716</v>
+        <v>-619.6390469899584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1180629656782752</v>
+        <v>0.1157732178674801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2218.944294441086</v>
+        <v>4536.266965731604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2768642850475566</v>
+        <v>5.879428856472767e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4545.523066105154</v>
+        <v>10.44717988302849</v>
       </c>
       <c r="C12" t="n">
-        <v>5.608338820237495e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.897649967013244</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4260498491827195</v>
+        <v>0.3463573716860453</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962.4666766791806</v>
+        <v>1020.414231796628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2698476399318012</v>
+        <v>0.2309904025020035</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.013741366564</v>
+        <v>136.9824048056384</v>
       </c>
       <c r="C3" t="n">
-        <v>5.417360148927278e-12</v>
+        <v>5.004671213873463e-12</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.4731810101775</v>
+        <v>122.0350402376</v>
       </c>
       <c r="C4" t="n">
-        <v>5.067472938211267e-30</v>
+        <v>1.9121650130778e-30</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01238019064104799</v>
+        <v>-0.01231459187541776</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0499141742644287</v>
+        <v>0.05058879473341356</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.567717530308306e-07</v>
+        <v>-5.840090946935271e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7986727949577834</v>
+        <v>0.7885230171783681</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.751168145965002</v>
+        <v>-8.778562004357372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004089668284463757</v>
+        <v>0.003897261046457939</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.48434363404226</v>
+        <v>15.3082362089557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006265362974612106</v>
+        <v>0.0006419197460515313</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-769.5826439594584</v>
+        <v>-766.3023013353636</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1270430170029276</v>
+        <v>0.1278940766549213</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1028.209077445859</v>
+        <v>-1024.841281563639</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0093871321631218</v>
+        <v>0.009463502910416758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>702.4711975382397</v>
+        <v>4304.508054234551</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7486946729670257</v>
+        <v>1.058182518894401e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4300.919176501255</v>
+        <v>32.58518982041224</v>
       </c>
       <c r="C12" t="n">
-        <v>1.130950373527266e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>33.24229843191937</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.004403365796416013</v>
+        <v>0.004488597022925964</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1569.607296331998</v>
+        <v>1491.116469901462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07908220840822883</v>
+        <v>0.08560452786687797</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3455858049659</v>
+        <v>158.4328244293783</v>
       </c>
       <c r="C3" t="n">
-        <v>1.284771448482777e-13</v>
+        <v>1.128816134991749e-13</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9622131592525</v>
+        <v>109.473665126943</v>
       </c>
       <c r="C4" t="n">
-        <v>3.282047655343648e-25</v>
+        <v>6.919801821433852e-26</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009232954262033567</v>
+        <v>-0.009478152256856567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1965641507787779</v>
+        <v>0.1823952278913011</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.105836788424606e-07</v>
+        <v>-6.568569820953188e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7555397888830214</v>
+        <v>0.7726806885020043</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.185678994879659</v>
+        <v>-8.097478543091079</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007225461478459727</v>
+        <v>0.007579398714276579</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.40831600807588</v>
+        <v>14.65633634163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002365497592411546</v>
+        <v>0.00176552095777334</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-607.7532452868211</v>
+        <v>-599.1871625584425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.256066401124615</v>
+        <v>0.2615542368453679</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-901.9629328619267</v>
+        <v>-902.543859314654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0225222705255976</v>
+        <v>0.02220322235263912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-781.6654113435952</v>
+        <v>4232.299783475723</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7065665655468327</v>
+        <v>4.241436367547089e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4235.389855859641</v>
+        <v>21.31187600472788</v>
       </c>
       <c r="C12" t="n">
-        <v>4.343820409931006e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.51452275377121</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0832088612448265</v>
+        <v>0.06696624421096661</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>849.8142095353387</v>
+        <v>858.8551180221784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3269466445070089</v>
+        <v>0.3089642882777404</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.9654576192539</v>
+        <v>150.9831606780066</v>
       </c>
       <c r="C3" t="n">
-        <v>1.968273486811426e-12</v>
+        <v>1.75482540702016e-12</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.7265107670425</v>
+        <v>122.6381077360691</v>
       </c>
       <c r="C4" t="n">
-        <v>2.198541475680018e-32</v>
+        <v>1.585199134840224e-33</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007829729640050687</v>
+        <v>-0.007807559632825714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2429856773459469</v>
+        <v>0.2422315478299519</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.835352968489135e-07</v>
+        <v>-1.892197713881034e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9361011405485467</v>
+        <v>0.933904419881609</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.220064370148453</v>
+        <v>-9.224640012701649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003733098912801957</v>
+        <v>0.003632104059305957</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.96002707272354</v>
+        <v>13.93937781300975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002623320855475723</v>
+        <v>0.002497329077558784</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-566.2826102194817</v>
+        <v>-564.9330843671714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2837574232275945</v>
+        <v>0.2832408786206724</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-663.9477331958464</v>
+        <v>-663.6165133419503</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07856517685607248</v>
+        <v>0.0780625022967016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.74301979150641</v>
+        <v>5109.816133086772</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9620303420362584</v>
+        <v>5.966790244303091e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5111.71970277531</v>
+        <v>26.49357430807892</v>
       </c>
       <c r="C12" t="n">
-        <v>6.446366429037666e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>26.59542565602341</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02234493656099632</v>
+        <v>0.02034667126022687</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2516.711869898703</v>
+        <v>2369.069446599807</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001871616386966926</v>
+        <v>0.002846923873325076</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.4700170497453</v>
+        <v>160.7367757746086</v>
       </c>
       <c r="C3" t="n">
-        <v>6.37017037317918e-15</v>
+        <v>5.672245191957688e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.218185487839</v>
+        <v>111.6003227587104</v>
       </c>
       <c r="C4" t="n">
-        <v>4.963065334094429e-27</v>
+        <v>4.442385273213888e-28</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0108010782325475</v>
+        <v>-0.01119338164016016</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09671661440798324</v>
+        <v>0.08462771337004517</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.377148528936564e-07</v>
+        <v>-2.5792870937167e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8895924726275211</v>
+        <v>0.9155074804181579</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.295353460596241</v>
+        <v>-8.268524657191254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005526071796650304</v>
+        <v>0.005669949035347071</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.663695091260983</v>
+        <v>7.010440433814772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0904814610634038</v>
+        <v>0.07379283422726814</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-952.288928852287</v>
+        <v>-941.0742204565972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06937117762955555</v>
+        <v>0.07259392084687173</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-923.0607504423251</v>
+        <v>-913.0351990925184</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01640300688598222</v>
+        <v>0.01754024525313252</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2134.694815056014</v>
+        <v>4773.682689274356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3297016520031664</v>
+        <v>1.033480011318278e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4764.75197742109</v>
+        <v>14.19409457044914</v>
       </c>
       <c r="C12" t="n">
-        <v>1.096382921017525e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.72660387000469</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2503339723313117</v>
+        <v>0.1957362563964547</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1361.676572391299</v>
+        <v>1295.228379370243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08872608907687619</v>
+        <v>0.09870862731655498</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.7715844397883</v>
+        <v>133.6274858491238</v>
       </c>
       <c r="C3" t="n">
-        <v>7.111741809141309e-12</v>
+        <v>6.84147563686089e-12</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.6126840578618</v>
+        <v>120.3207132892503</v>
       </c>
       <c r="C4" t="n">
-        <v>5.226492643452069e-29</v>
+        <v>5.397665602246751e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01615651185222791</v>
+        <v>-0.01637674562852786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01425442591462234</v>
+        <v>0.01260147020586851</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.012813563814961e-07</v>
+        <v>-6.578346252831949e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7481069032475669</v>
+        <v>0.7626266099526349</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.30745547724675</v>
+        <v>-6.291313100011758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02913079519377709</v>
+        <v>0.02926638649095207</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.65350889142787</v>
+        <v>13.88820072944064</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004324332090359884</v>
+        <v>0.0002971717000435199</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-605.3268637026624</v>
+        <v>-602.0199243427508</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2412795857170911</v>
+        <v>0.2430421887543193</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-703.6658003380513</v>
+        <v>-699.1606998756231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07166915735651461</v>
+        <v>0.07293199162694358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-946.6938647389288</v>
+        <v>3880.667778584549</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6560890784605402</v>
+        <v>1.348660636719108e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3896.25354111399</v>
+        <v>24.84025940742193</v>
       </c>
       <c r="C12" t="n">
-        <v>1.310040343537827e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.21746793088673</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02818226820390832</v>
+        <v>0.02305186905844853</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2709.422139344304</v>
+        <v>2481.322231378724</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001571035211266792</v>
+        <v>0.00332701247591096</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.2219071360902</v>
+        <v>147.6117155329103</v>
       </c>
       <c r="C3" t="n">
-        <v>4.871429674637085e-13</v>
+        <v>4.836246472952578e-13</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.9004593691229</v>
+        <v>109.2810440885767</v>
       </c>
       <c r="C4" t="n">
-        <v>1.702463243894877e-26</v>
+        <v>6.449387905441502e-28</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01801342219686934</v>
+        <v>-0.01921748636435448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006464837770771515</v>
+        <v>0.003561405027414943</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.423382979359981e-06</v>
+        <v>-1.12427681825927e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6847025032002829</v>
+        <v>0.7487114645995689</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.81712557649994</v>
+        <v>-12.34434272880444</v>
       </c>
       <c r="C7" t="n">
-        <v>1.992813392176133e-05</v>
+        <v>3.718541378524671e-05</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.77384727452543</v>
+        <v>4.399011030923354</v>
       </c>
       <c r="C8" t="n">
-        <v>0.364205218158537</v>
+        <v>0.2893974644184541</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-68.98037211059636</v>
+        <v>-93.2296242838238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8963505503106962</v>
+        <v>0.8605678931165396</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-726.7441590573808</v>
+        <v>-733.0824377861641</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06260726667991702</v>
+        <v>0.06106648255696258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3202.932494831585</v>
+        <v>4913.831640171509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1226564366145135</v>
+        <v>8.662625847266227e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4914.254725663314</v>
+        <v>23.42866482115338</v>
       </c>
       <c r="C12" t="n">
-        <v>8.016906293349182e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21.52718248694413</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06097976538194118</v>
+        <v>0.04096239353423404</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2304.233786589593</v>
+        <v>2039.820345975127</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00457138174832653</v>
+        <v>0.0101006673198844</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.1603780652827</v>
+        <v>161.9765355264753</v>
       </c>
       <c r="C3" t="n">
-        <v>1.364210224225091e-16</v>
+        <v>1.654768306692404e-16</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.0358184597209</v>
+        <v>118.5307289501063</v>
       </c>
       <c r="C4" t="n">
-        <v>2.337411039198244e-27</v>
+        <v>7.551798369859916e-29</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0127045562095988</v>
+        <v>-0.01320187496361977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04461495714379732</v>
+        <v>0.03713338505491382</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.326454403266217e-08</v>
+        <v>3.006587455924658e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.966590030592315</v>
+        <v>0.8926329662347106</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.193331245632464</v>
+        <v>-8.019906946517535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00504734221309507</v>
+        <v>0.006117048746636901</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.231092594667635</v>
+        <v>9.983197631181504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01494778711971543</v>
+        <v>0.008117965235999711</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-143.1751665241825</v>
+        <v>-137.2316789228292</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7883515993849999</v>
+        <v>0.797404901835677</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-101.9467187047271</v>
+        <v>-107.3289146537445</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7916643920073245</v>
+        <v>0.7814368881171504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2881.01745823731</v>
+        <v>5677.907278943243</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1405187429061669</v>
+        <v>1.638260411531926e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5707.580563039939</v>
+        <v>-0.594442885355523</v>
       </c>
       <c r="C12" t="n">
-        <v>1.309035865782397e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.425977378651186</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7807112767768322</v>
+        <v>0.9610876018097669</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2304.217747937166</v>
+        <v>2090.34183928683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004968680820739584</v>
+        <v>0.008925453914480418</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.8519804207406</v>
+        <v>158.8884262907432</v>
       </c>
       <c r="C3" t="n">
-        <v>4.523409740736165e-16</v>
+        <v>4.596964024539852e-16</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.7323603263438</v>
+        <v>122.7378348038803</v>
       </c>
       <c r="C4" t="n">
-        <v>6.793478335579748e-30</v>
+        <v>2.16103629194253e-31</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01061424504588934</v>
+        <v>-0.01154858201296333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.109799494319449</v>
+        <v>0.08008304754437734</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.615393989003759e-06</v>
+        <v>-1.468284194447596e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4988209319826863</v>
+        <v>0.5384483557368399</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.27892191939732</v>
+        <v>-9.932289075170205</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007825615722194192</v>
+        <v>0.001111042063512006</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.777419564093158</v>
+        <v>9.383455235486345</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02341910964770924</v>
+        <v>0.01464745404338277</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>358.312080713931</v>
+        <v>344.37159838246</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5054841799277167</v>
+        <v>0.5223974196018981</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-583.9944805684557</v>
+        <v>-587.1161897585973</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1192820633459517</v>
+        <v>0.1176035890712047</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2430.278540895204</v>
+        <v>4123.639709744637</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2389815138488239</v>
+        <v>3.985881335123048e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4136.345577163205</v>
+        <v>14.0866956002347</v>
       </c>
       <c r="C12" t="n">
-        <v>3.683467381838898e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.96759417951558</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2776609686108333</v>
+        <v>0.1958292521155745</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.250903168172</v>
+        <v>1526.258623141688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04882538727070679</v>
+        <v>0.05570562275002719</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.1960345364519</v>
+        <v>146.135198572292</v>
       </c>
       <c r="C3" t="n">
-        <v>1.178749089499392e-12</v>
+        <v>1.107074821485893e-12</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.6737782561729</v>
+        <v>116.2091715352034</v>
       </c>
       <c r="C4" t="n">
-        <v>1.737290788914507e-28</v>
+        <v>4.481690021769776e-29</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0130312153965198</v>
+        <v>-0.01317042341070116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05614204823111749</v>
+        <v>0.05301328529034818</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.185672371246797e-06</v>
+        <v>1.193784384761321e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6210622727400033</v>
+        <v>0.6181321014795482</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.96565563744803</v>
+        <v>-10.98384525917242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002808001742202488</v>
+        <v>0.0002682743968747153</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.967313756874031</v>
+        <v>9.208382438125451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02309177207493014</v>
+        <v>0.01856397999748849</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-447.4361684258467</v>
+        <v>-444.9680926937316</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4023881575256005</v>
+        <v>0.404245533278987</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-411.879797819907</v>
+        <v>-408.7813550209798</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2893104075533652</v>
+        <v>0.2921434026994655</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1120.105233013215</v>
+        <v>5703.607050731528</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6233749190440911</v>
+        <v>1.977999725479714e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5702.178468180586</v>
+        <v>21.58389281592754</v>
       </c>
       <c r="C12" t="n">
-        <v>2.113800985940917e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.61232362420654</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07926597610248995</v>
+        <v>0.06195824828420456</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2341.870783292662</v>
+        <v>2176.040985734925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00446525810955504</v>
+        <v>0.007197134036541044</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.3422250887002</v>
+        <v>156.0276386998491</v>
       </c>
       <c r="C3" t="n">
-        <v>2.372557254606811e-14</v>
+        <v>1.854673769646411e-14</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.7533038656167</v>
+        <v>113.8428317863203</v>
       </c>
       <c r="C4" t="n">
-        <v>1.904935027579862e-28</v>
+        <v>3.124301989372325e-30</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01669756812922402</v>
+        <v>-0.01713899990543458</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00818501753058884</v>
+        <v>0.006582416502743954</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.071386673024244e-08</v>
+        <v>1.50785524062646e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9885939564294128</v>
+        <v>0.9439163862019262</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.852427843659514</v>
+        <v>-6.673429927072993</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02324232210031942</v>
+        <v>0.02691288697877599</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.670615456898174</v>
+        <v>8.142103624593087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05673770998072798</v>
+        <v>0.04218676644940961</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-483.7388435003838</v>
+        <v>-471.11228999732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3500373035777264</v>
+        <v>0.3628624039387656</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-259.6469479950956</v>
+        <v>-255.5503650421222</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5129268804286027</v>
+        <v>0.5197860888274666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2260.643843821028</v>
+        <v>5558.247598403099</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2637666692872179</v>
+        <v>4.23918300741506e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5541.982123006042</v>
+        <v>1.996219330974313</v>
       </c>
       <c r="C12" t="n">
-        <v>4.688399478924303e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9033690896769713</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9396843921060962</v>
+        <v>0.8668368779555052</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2433.743828808726</v>
+        <v>2265.319864930773</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003728295664188745</v>
+        <v>0.005982949906659799</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.4401670918664</v>
+        <v>150.8529870804394</v>
       </c>
       <c r="C3" t="n">
-        <v>1.549148960938574e-13</v>
+        <v>1.857242889136062e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.1384983463124</v>
+        <v>109.380438982847</v>
       </c>
       <c r="C4" t="n">
-        <v>1.89164805491067e-23</v>
+        <v>4.499629180645136e-25</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01426579441805651</v>
+        <v>-0.01490659146152075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03490843305734713</v>
+        <v>0.0270477659116116</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.583706501798916e-06</v>
+        <v>-1.283729160298765e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6636670753427363</v>
+        <v>0.7237994496133782</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.023225151228864</v>
+        <v>-8.943268245408849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003335446127031237</v>
+        <v>0.003622729225413452</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.659315333333476</v>
+        <v>8.147568916302344</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05781933608957317</v>
+        <v>0.04247849685187408</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-636.8247983851047</v>
+        <v>-649.50815579857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2348603951086632</v>
+        <v>0.2257602702578426</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-631.8826702865753</v>
+        <v>-624.6632176538908</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1115770873782323</v>
+        <v>0.1157899808062578</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2252.525829699965</v>
+        <v>4003.541446330484</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2759343422335157</v>
+        <v>6.195161492825364e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4044.387023352516</v>
+        <v>18.69917565393102</v>
       </c>
       <c r="C12" t="n">
-        <v>5.272669843304979e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.01681234871122</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1366680637021417</v>
+        <v>0.09911560008694943</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2600.447479205822</v>
+        <v>2353.933544093233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001454657451961907</v>
+        <v>0.003408358664675159</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.040364777775</v>
+        <v>148.3625585237423</v>
       </c>
       <c r="C3" t="n">
-        <v>9.069179162468407e-14</v>
+        <v>1.318350374967036e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.9418499474897</v>
+        <v>122.0189288785677</v>
       </c>
       <c r="C4" t="n">
-        <v>2.267361092225798e-29</v>
+        <v>2.501553984304586e-31</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0103657018538624</v>
+        <v>-0.01122845309706185</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1186717936338722</v>
+        <v>0.09116590779231058</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.446395129372594e-07</v>
+        <v>1.034632875659409e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7229720652742415</v>
+        <v>0.6648200700674689</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.826741479170522</v>
+        <v>-8.833472791398945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003176587943336224</v>
+        <v>0.00325323733707577</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.753582533273022</v>
+        <v>9.346918872032283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02685690517410906</v>
+        <v>0.01806703911102967</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-528.323890798602</v>
+        <v>-535.2881395429383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3240513410932988</v>
+        <v>0.319325339693964</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-832.9890855101896</v>
+        <v>-816.9962132088983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03651078668731985</v>
+        <v>0.04083075507089919</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3686.544321391224</v>
+        <v>3873.975608131936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1032883398706587</v>
+        <v>3.89392468353131e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3809.736432004123</v>
+        <v>12.43073246198013</v>
       </c>
       <c r="C12" t="n">
-        <v>4.971075902664983e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10.2502161788797</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3689760852267722</v>
+        <v>0.27440832870731</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1008.492919491796</v>
+        <v>938.7212676755366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2256871734290286</v>
+        <v>0.2479130396538108</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.4773400870623</v>
+        <v>139.3738826851031</v>
       </c>
       <c r="C3" t="n">
-        <v>7.360518099879498e-12</v>
+        <v>6.973916833955108e-12</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.7127130418041</v>
+        <v>122.2936958961353</v>
       </c>
       <c r="C4" t="n">
-        <v>1.733109264994352e-33</v>
+        <v>1.581627856503746e-34</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009869558771593331</v>
+        <v>-0.01002683860022451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1126885246141805</v>
+        <v>0.1058085225379663</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.509505929510597e-07</v>
+        <v>-2.094030417684778e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9056342267514316</v>
+        <v>0.9209736509040565</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.769258556942784</v>
+        <v>-6.70878294437139</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01717680688582264</v>
+        <v>0.01782627641752091</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.54067562926341</v>
+        <v>16.72117122173763</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002167125775514291</v>
+        <v>0.0001675910187772568</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1037.671170744125</v>
+        <v>-1041.913135667375</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04036228281339455</v>
+        <v>0.03918170332448339</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1235.605112917523</v>
+        <v>-1236.98933150221</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000958781259600372</v>
+        <v>0.0009272019839165053</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-778.9923999989721</v>
+        <v>4547.446847310465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6887057505146944</v>
+        <v>4.086392518857099e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4538.647082392898</v>
+        <v>28.19827192276256</v>
       </c>
       <c r="C12" t="n">
-        <v>4.524746679349899e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27.47552807388394</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01455298146273909</v>
+        <v>0.01096014695765661</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1857.529261919519</v>
+        <v>1822.241238615992</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02270987265879942</v>
+        <v>0.02305502559336051</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.857756637661</v>
+        <v>146.6890717819601</v>
       </c>
       <c r="C3" t="n">
-        <v>4.757908965774433e-13</v>
+        <v>4.41740878631731e-13</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.0444310788781</v>
+        <v>108.4528787601307</v>
       </c>
       <c r="C4" t="n">
-        <v>1.172551524159824e-26</v>
+        <v>1.452202818327064e-27</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01361817802389714</v>
+        <v>-0.01379454291854985</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03756293171603791</v>
+        <v>0.0338306687813541</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.21434919005718e-06</v>
+        <v>-1.190490830640087e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5781698646435535</v>
+        <v>0.5846054827315229</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.83211787325861</v>
+        <v>-10.80596779976842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002730493823846077</v>
+        <v>0.0002725631914443796</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.153936389831477</v>
+        <v>7.284999947981822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06510830626392899</v>
+        <v>0.05765802524800078</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-430.8312218305095</v>
+        <v>-431.0086532548651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3986695178699968</v>
+        <v>0.3975860338075049</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-384.632012564713</v>
+        <v>-382.5704186647499</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3084947627550522</v>
+        <v>0.3100672610004485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-554.4470669021953</v>
+        <v>4707.884360572876</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7983735151456776</v>
+        <v>1.473878193407289e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4722.277354602245</v>
+        <v>26.01579463310698</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5152763160138e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.67465397482034</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02296289179947664</v>
+        <v>0.02009289568313042</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>363.9391950874178</v>
+        <v>190.3885621046038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6628095493748041</v>
+        <v>0.8163732501335117</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.4486249115552</v>
+        <v>125.8192602532655</v>
       </c>
       <c r="C3" t="n">
-        <v>3.502259714042951e-11</v>
+        <v>3.111032451196915e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.5763014286121</v>
+        <v>138.2994836013027</v>
       </c>
       <c r="C4" t="n">
-        <v>5.20252376966479e-35</v>
+        <v>2.306507712727121e-36</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01373273457782086</v>
+        <v>-0.01412647206362398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03217262235776916</v>
+        <v>0.02741047277257407</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.021697817694358e-06</v>
+        <v>1.20937864785188e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6576958260972616</v>
+        <v>0.5991242713117669</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.476489267844016</v>
+        <v>-4.41424263080849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1243924619061007</v>
+        <v>0.1297781582388327</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.15446825501641</v>
+        <v>21.61684771547279</v>
       </c>
       <c r="C8" t="n">
-        <v>2.074973719495123e-06</v>
+        <v>1.144351941036203e-06</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-807.6317146781545</v>
+        <v>-805.5738122238339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1254224375196537</v>
+        <v>0.1265403873256914</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-897.8557856852678</v>
+        <v>-897.9026950165688</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01849451448393333</v>
+        <v>0.01853582214883154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2199.242966168596</v>
+        <v>4495.295905429908</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2710879874833763</v>
+        <v>6.034171467698897e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4479.401130720506</v>
+        <v>26.30363038512412</v>
       </c>
       <c r="C12" t="n">
-        <v>6.550291016372914e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.64751317025728</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03616176616200811</v>
+        <v>0.02431997364310989</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2313.992995952555</v>
+        <v>2154.905232722136</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006149268148865121</v>
+        <v>0.008589777361364476</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.8028751181064</v>
+        <v>150.3740701957748</v>
       </c>
       <c r="C3" t="n">
-        <v>4.959668615824832e-13</v>
+        <v>3.830297964089121e-13</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.3168613564932</v>
+        <v>110.6507818198905</v>
       </c>
       <c r="C4" t="n">
-        <v>9.041835074680873e-27</v>
+        <v>5.232201249493077e-28</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01445185821394892</v>
+        <v>-0.01469496779104308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02775091679653891</v>
+        <v>0.02500227975014108</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.555493744140539e-07</v>
+        <v>-3.723161437066726e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8386609985514959</v>
+        <v>0.8676065563286529</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.80862745398104</v>
+        <v>-10.65299979251816</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004517711593217054</v>
+        <v>0.0005247337691787095</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.830803255663231</v>
+        <v>6.19179283161132</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1502822796625629</v>
+        <v>0.1241507007239229</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118.1725459404424</v>
+        <v>105.7479269968317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8333590420360205</v>
+        <v>0.850502606472113</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-629.8694038754954</v>
+        <v>-636.6772499911283</v>
       </c>
       <c r="C10" t="n">
-        <v>0.101599959889905</v>
+        <v>0.09766125771965321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1894.683694100093</v>
+        <v>4786.13056395555</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4184075242740638</v>
+        <v>2.119706312389396e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4745.186439828048</v>
+        <v>20.68123489110436</v>
       </c>
       <c r="C12" t="n">
-        <v>2.824476306896162e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.08506016530665</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08861216227100054</v>
+        <v>0.06083023641315632</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2156.642178780902</v>
+        <v>2008.265440419335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01234691576376635</v>
+        <v>0.01670153446740439</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.8790168112371</v>
+        <v>160.5095942322993</v>
       </c>
       <c r="C3" t="n">
-        <v>7.219226088468812e-14</v>
+        <v>7.594212320132342e-14</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.2482528178434</v>
+        <v>111.5621598176172</v>
       </c>
       <c r="C4" t="n">
-        <v>3.134497090544754e-25</v>
+        <v>2.271942595954285e-26</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01327494169239755</v>
+        <v>-0.01372057415738351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05317931185627885</v>
+        <v>0.04480724892987931</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.556272608038079e-08</v>
+        <v>5.637884814759246e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.991813895345107</v>
+        <v>0.9819161606382695</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.16527882424864</v>
+        <v>-9.058466430598251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003065079226181992</v>
+        <v>0.0033624601350446</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.117357219175549</v>
+        <v>8.533640247196736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05755627160804812</v>
+        <v>0.04410081566673524</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-590.6026515618387</v>
+        <v>-587.5535971400502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2691724626665124</v>
+        <v>0.2712505079092032</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-841.5951883789355</v>
+        <v>-837.004859250213</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03351844335104161</v>
+        <v>0.03432202053752646</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1602.328135200525</v>
+        <v>5104.298451984037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4369698744250409</v>
+        <v>6.305199943415122e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5106.707735904241</v>
+        <v>17.94314397694995</v>
       </c>
       <c r="C12" t="n">
-        <v>6.386617819770152e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>16.40748676437477</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1569570785540673</v>
+        <v>0.1160843159929476</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2915.027516507474</v>
+        <v>2697.115316349458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001827263545191823</v>
+        <v>0.000428895355442925</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.9606537536465</v>
+        <v>166.5213475648477</v>
       </c>
       <c r="C3" t="n">
-        <v>6.494293920401496e-17</v>
+        <v>8.718240421107711e-17</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.1281479099176</v>
+        <v>114.5608126583609</v>
       </c>
       <c r="C4" t="n">
-        <v>1.237252283536517e-29</v>
+        <v>2.74304763163066e-31</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01053404440794372</v>
+        <v>-0.01128732041764786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09194159533363698</v>
+        <v>0.07089379051645782</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.321078910116428e-06</v>
+        <v>-2.127994414076072e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.487097178530364</v>
+        <v>0.5247737800384349</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.322783636111915</v>
+        <v>-8.101573634035711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0033907091500806</v>
+        <v>0.004372157292433045</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.172607338991394</v>
+        <v>8.756387453428944</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02577933024034654</v>
+        <v>0.01665060399430059</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-643.954770503808</v>
+        <v>-657.4884630968127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.195109648652408</v>
+        <v>0.1869747635819762</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-478.979742875997</v>
+        <v>-478.4126242390424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2167207808671987</v>
+        <v>0.2184410410493293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2769.272616187151</v>
+        <v>4901.189137888168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1317648188744903</v>
+        <v>5.216534151363316e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4916.127379027789</v>
+        <v>-3.12378225572979</v>
       </c>
       <c r="C12" t="n">
-        <v>4.552432014388021e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-5.227056720753794</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6427463569808535</v>
+        <v>0.7804943686283176</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2158.073275570966</v>
+        <v>1981.895194807352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01485200181577771</v>
+        <v>0.02147578401684944</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.4508752011658</v>
+        <v>152.8790693805335</v>
       </c>
       <c r="C3" t="n">
-        <v>7.92906148795676e-14</v>
+        <v>6.530557272120805e-14</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.8384378385507</v>
+        <v>122.1768020991972</v>
       </c>
       <c r="C4" t="n">
-        <v>1.748999799553037e-29</v>
+        <v>1.33316630602893e-30</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01210154561881209</v>
+        <v>-0.01256672859618936</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08589207222251924</v>
+        <v>0.07362951762383575</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.101855957921592e-06</v>
+        <v>-9.517812442019493e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6446588328404707</v>
+        <v>0.6894562519866418</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.380061021971441</v>
+        <v>-8.168889717683596</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009454513751583456</v>
+        <v>0.01112372156716001</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.623264500678089</v>
+        <v>8.085692710616396</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07434065701159903</v>
+        <v>0.05648603774801221</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-264.8495489167544</v>
+        <v>-258.2809929561378</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6326788899422924</v>
+        <v>0.6409568372220791</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-729.1627284173651</v>
+        <v>-740.6949794967381</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06696152080918014</v>
+        <v>0.06252416035965615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1862.919705835876</v>
+        <v>4294.271059779945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3779968062083137</v>
+        <v>6.047008780380153e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4297.841324042952</v>
+        <v>18.2040038549284</v>
       </c>
       <c r="C12" t="n">
-        <v>6.01094250003208e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>16.2629925643107</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1690210823532012</v>
+        <v>0.1171628661941125</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1776.882724407928</v>
+        <v>1627.051400635665</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03418227154124192</v>
+        <v>0.04643214862505578</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.3806831881579</v>
+        <v>145.4356228519682</v>
       </c>
       <c r="C3" t="n">
-        <v>1.53275632541841e-12</v>
+        <v>1.443855695479449e-12</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.2530905939706</v>
+        <v>113.4596532619385</v>
       </c>
       <c r="C4" t="n">
-        <v>8.11174015978276e-29</v>
+        <v>5.787555030539157e-30</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01325459893106487</v>
+        <v>-0.01374994857035903</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04167910754102441</v>
+        <v>0.03374598619877493</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.039367396927994e-07</v>
+        <v>-2.192736652336772e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.899022526522121</v>
+        <v>0.9269354542613918</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.17173868726284</v>
+        <v>-10.09038888531486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006694380672417332</v>
+        <v>0.0007259408686677583</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.500012367261725</v>
+        <v>9.831000317712853</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01719898394365996</v>
+        <v>0.01316371904671893</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-909.3202133589707</v>
+        <v>-907.3159984006006</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08656043222233768</v>
+        <v>0.08702577115264101</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-768.4425525280212</v>
+        <v>-756.7218077553716</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04929495682158651</v>
+        <v>0.05250360105274219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1586.622139692557</v>
+        <v>4360.315165327838</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4194015294768491</v>
+        <v>7.203477410667995e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4327.220354251041</v>
+        <v>29.98528735739863</v>
       </c>
       <c r="C12" t="n">
-        <v>8.684939425350107e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28.46366269658085</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.018940510449864</v>
+        <v>0.01232367774255185</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2180.230319743499</v>
+        <v>2077.7451823056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007512029883398338</v>
+        <v>0.00992615666445185</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.8850306129574</v>
+        <v>154.5568907781532</v>
       </c>
       <c r="C3" t="n">
-        <v>3.318732062114913e-13</v>
+        <v>3.516632480409228e-13</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.533832091301</v>
+        <v>114.9133478151114</v>
       </c>
       <c r="C4" t="n">
-        <v>5.536074329638521e-26</v>
+        <v>4.494381294421485e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01132618935188924</v>
+        <v>-0.0117004603938867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08304688329567859</v>
+        <v>0.07263250691805817</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.06867226522807e-06</v>
+        <v>-1.935660437407254e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5261717881431458</v>
+        <v>0.552435088162653</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.2124942953479</v>
+        <v>-10.10606305360636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005441979524320172</v>
+        <v>0.0006086253239278361</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.494451191880768</v>
+        <v>7.818197362087869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06137531691293732</v>
+        <v>0.04991194989174818</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-611.5047646784435</v>
+        <v>-632.0799664619218</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2496304244445338</v>
+        <v>0.2333727822470228</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-862.1890281052322</v>
+        <v>-876.0054998375506</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02781248462088339</v>
+        <v>0.02522661074317781</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1844.285062638846</v>
+        <v>4858.659044037766</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3903630776815888</v>
+        <v>1.606585194758763e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4868.470120492795</v>
+        <v>21.46685449449213</v>
       </c>
       <c r="C12" t="n">
-        <v>1.551440822486512e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.54697775630175</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06425661527776749</v>
+        <v>0.05205211444012486</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2217.203914439717</v>
+        <v>2014.077425592799</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007060167697781959</v>
+        <v>0.01226399418668248</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.7319387441431</v>
+        <v>147.5574604516164</v>
       </c>
       <c r="C3" t="n">
-        <v>1.69901886288077e-13</v>
+        <v>1.847659932726013e-13</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.678333749216</v>
+        <v>112.864675771894</v>
       </c>
       <c r="C4" t="n">
-        <v>5.077234746863382e-26</v>
+        <v>1.29709151733291e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01538721650684133</v>
+        <v>-0.01597002899634831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01834203297504589</v>
+        <v>0.01419814997738833</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.518944110150089e-07</v>
+        <v>1.090707056210063e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6799578484078925</v>
+        <v>0.6362780126072414</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.617826055753655</v>
+        <v>-9.606818925987563</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001039157963181324</v>
+        <v>0.001061395792928266</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.574285178744606</v>
+        <v>7.024732975630648</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08552708687880706</v>
+        <v>0.06512207440359449</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-835.8062831296088</v>
+        <v>-825.2037336695421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09766601249185877</v>
+        <v>0.1021731936049388</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-758.8277222512897</v>
+        <v>-741.28023463623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04816573442624709</v>
+        <v>0.05353576262113476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2619.456954437719</v>
+        <v>5371.689449434325</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2403765148027809</v>
+        <v>5.076234386110334e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5353.375256061754</v>
+        <v>20.24017912803524</v>
       </c>
       <c r="C12" t="n">
-        <v>5.58921110634359e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.12644932194739</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1158465917710333</v>
+        <v>0.07587908555874344</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1743.39783949368</v>
+        <v>1657.108999694974</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02140597504201892</v>
+        <v>0.02452952479186979</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.5337659105256</v>
+        <v>159.8486561146738</v>
       </c>
       <c r="C3" t="n">
-        <v>2.728375247364108e-16</v>
+        <v>2.105560579471598e-16</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.5155282019553</v>
+        <v>115.1771384913795</v>
       </c>
       <c r="C4" t="n">
-        <v>4.330918233533137e-32</v>
+        <v>4.883329892483195e-33</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01381637453402987</v>
+        <v>-0.01407404294419858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0200737819422182</v>
+        <v>0.01730749858061927</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.945898489463883e-07</v>
+        <v>3.630668068720391e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8856608255531802</v>
+        <v>0.858823236405971</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.806745641331767</v>
+        <v>-5.684713395130873</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0423589664458665</v>
+        <v>0.04574686951535556</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.8870573865606</v>
+        <v>12.11443777710863</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001388420615656124</v>
+        <v>0.001016990679737468</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-514.7219534023347</v>
+        <v>-503.5379715847409</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2852752891861726</v>
+        <v>0.2946187339279146</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-120.7956620208868</v>
+        <v>-120.212927938295</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7420387472606075</v>
+        <v>0.7428667528140338</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-923.5161744982281</v>
+        <v>5942.868430907056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.612045213597999</v>
+        <v>5.073866835478033e-12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5945.01298843475</v>
+        <v>-0.8328286168916144</v>
       </c>
       <c r="C12" t="n">
-        <v>5.385386601477149e-12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.644380955351238</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8801346215896111</v>
+        <v>0.9383631926565716</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1294.172871725103</v>
+        <v>1197.761855656117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09967682280100701</v>
+        <v>0.1189641144450457</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.0139769077675</v>
+        <v>155.8527340505883</v>
       </c>
       <c r="C3" t="n">
-        <v>7.231395964445445e-16</v>
+        <v>6.968166298732768e-16</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.1708437259053</v>
+        <v>119.2154614878128</v>
       </c>
       <c r="C4" t="n">
-        <v>3.437220612826688e-32</v>
+        <v>1.11040646767166e-33</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01186906425709326</v>
+        <v>-0.0121360531768373</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05581823002322916</v>
+        <v>0.049681091633154</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.898242096667135e-07</v>
+        <v>-1.489089494179647e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9288016552306253</v>
+        <v>0.9440187404673186</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.53558373921957</v>
+        <v>-6.443230828761565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02310552930283203</v>
+        <v>0.02470320362047322</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.91648530032699</v>
+        <v>17.27896268133576</v>
       </c>
       <c r="C8" t="n">
-        <v>6.052205397619915e-05</v>
+        <v>3.44691568719949e-05</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>298.9228136407447</v>
+        <v>290.3683950292773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5635519755950837</v>
+        <v>0.5741226250466978</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-86.60017152089074</v>
+        <v>-82.62583172373502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8155077912508671</v>
+        <v>0.8235810122028748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1169.029459741107</v>
+        <v>5477.772448470823</v>
       </c>
       <c r="C11" t="n">
-        <v>0.547761534275645</v>
+        <v>4.934935579534452e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5499.909997343859</v>
+        <v>0.839677468297328</v>
       </c>
       <c r="C12" t="n">
-        <v>4.645622798936605e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.001211876591604266</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9999117237202211</v>
+        <v>0.9383136678508388</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1635.841653487498</v>
+        <v>1368.670122438241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0593052552682394</v>
+        <v>0.1075288656246283</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.5694431089985</v>
+        <v>160.0356310688307</v>
       </c>
       <c r="C3" t="n">
-        <v>1.099675134672973e-14</v>
+        <v>1.477200349275627e-14</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.1847943364219</v>
+        <v>121.2146867515079</v>
       </c>
       <c r="C4" t="n">
-        <v>3.046030405203155e-26</v>
+        <v>4.891520635081183e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01115258983786288</v>
+        <v>-0.01156482566670066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09607642029388687</v>
+        <v>0.08500453358790673</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.032806585288983e-06</v>
+        <v>-8.220805861154496e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7666133891425082</v>
+        <v>0.813558721457752</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.174841006303514</v>
+        <v>-7.214680366866408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02012035086380641</v>
+        <v>0.01975125655693505</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.30126476777301</v>
+        <v>14.78295804772036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002061973011586135</v>
+        <v>0.001460267153471369</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-290.0130594328484</v>
+        <v>-307.1468031354098</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5761577617504625</v>
+        <v>0.55477102009419</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-663.7357906708207</v>
+        <v>-669.7808877326027</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09225770875134355</v>
+        <v>0.09015013491482197</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3116.816215238224</v>
+        <v>4363.311672395585</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1314601344792111</v>
+        <v>3.10916075843243e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4267.721726160916</v>
+        <v>16.70087632833533</v>
       </c>
       <c r="C12" t="n">
-        <v>4.972122045231203e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13.79444911353236</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2395273785892095</v>
+        <v>0.1501915970804242</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2355.636324553358</v>
+        <v>2199.745948980989</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003965547559737412</v>
+        <v>0.006127974916849346</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.9103137565462</v>
+        <v>131.6350664126286</v>
       </c>
       <c r="C3" t="n">
-        <v>1.529869618990879e-10</v>
+        <v>1.648022830490479e-10</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.1125357448848</v>
+        <v>111.0383816181622</v>
       </c>
       <c r="C4" t="n">
-        <v>8.193639968005734e-27</v>
+        <v>1.811259419884752e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01154564442312303</v>
+        <v>-0.01193888292385789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08189211358520194</v>
+        <v>0.07161718779559816</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.014790648857468e-06</v>
+        <v>1.098135922969365e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6507809311743107</v>
+        <v>0.6240544983305202</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.857907385947309</v>
+        <v>-9.775064312734958</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008010466921080169</v>
+        <v>0.0008811560776252153</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.994941756440475</v>
+        <v>7.498688312673531</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06609166623766836</v>
+        <v>0.04707812077876875</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-835.8898064373689</v>
+        <v>-828.5421642642277</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1155606018345497</v>
+        <v>0.1187791157284507</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-937.765818956692</v>
+        <v>-924.4893044982058</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01910342857968579</v>
+        <v>0.02079336473180825</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2061.110845767535</v>
+        <v>5065.63694878676</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3059147846736068</v>
+        <v>2.570549776940514e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5090.324019826166</v>
+        <v>18.72834526833734</v>
       </c>
       <c r="C12" t="n">
-        <v>2.247072077719293e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.43437912039714</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.120984557455238</v>
+        <v>0.09382385938652743</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.396627327434</v>
+        <v>1752.054884224677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02263527968885296</v>
+        <v>0.0297810666576138</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.8381897497843</v>
+        <v>155.89396098453</v>
       </c>
       <c r="C3" t="n">
-        <v>3.599647898652297e-15</v>
+        <v>3.399935818458409e-15</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.3134897967842</v>
+        <v>119.5506651275569</v>
       </c>
       <c r="C4" t="n">
-        <v>1.926982921921213e-28</v>
+        <v>2.141940286922443e-29</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0132504425418208</v>
+        <v>-0.01360480059085124</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04326724491697063</v>
+        <v>0.03758429472833564</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.867211122312103e-06</v>
+        <v>-1.754230020997262e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4408563454550347</v>
+        <v>0.468183370241157</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.49676218201502</v>
+        <v>-10.35843592004507</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006381660629218155</v>
+        <v>0.0007338344748732311</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.958064209525387</v>
+        <v>7.351200547574056</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0851436500017186</v>
+        <v>0.06727945618092701</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-269.1145265533855</v>
+        <v>-293.9779864709328</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6292942591529673</v>
+        <v>0.5973871346126676</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-766.0240660277479</v>
+        <v>-769.0928187029916</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04796083794516195</v>
+        <v>0.04698095906868457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2121.235367225542</v>
+        <v>5123.532371963647</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3710052180688405</v>
+        <v>1.689538249724501e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5192.186129187934</v>
+        <v>25.69587464500702</v>
       </c>
       <c r="C12" t="n">
-        <v>1.304591670564617e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.63525685185606</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03474275938497778</v>
+        <v>0.02684791785450609</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1747.617515502429</v>
+        <v>1648.30771128209</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02995842250815922</v>
+        <v>0.03554899917651424</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.238150708303</v>
+        <v>141.2488037213362</v>
       </c>
       <c r="C3" t="n">
-        <v>1.429285298757674e-13</v>
+        <v>1.314178611020794e-13</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.1219256767726</v>
+        <v>116.0021900865776</v>
       </c>
       <c r="C4" t="n">
-        <v>1.388633073412169e-29</v>
+        <v>1.070852887141089e-30</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01488234482463716</v>
+        <v>-0.01520081719806604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01992114654339772</v>
+        <v>0.01686264195604074</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.198002686751389e-07</v>
+        <v>-3.369402451085501e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8490507139484322</v>
+        <v>0.87815035343857</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.433666576078611</v>
+        <v>-8.333002739619877</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004243740586142429</v>
+        <v>0.004582991808185418</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.65271795828775</v>
+        <v>11.92525873041221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002182287263398086</v>
+        <v>0.001553751048747274</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-876.170542618331</v>
+        <v>-870.5610356805715</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1001679255491995</v>
+        <v>0.101817491391499</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-673.5251702859604</v>
+        <v>-675.6208819555925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07125911823678691</v>
+        <v>0.06998905158039426</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1132.033773252761</v>
+        <v>4731.72438030059</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5725766649518405</v>
+        <v>1.020398859297678e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4725.036869653036</v>
+        <v>20.18609434870115</v>
       </c>
       <c r="C12" t="n">
-        <v>1.108399991996613e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.20507666821102</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08537256965870445</v>
+        <v>0.0668822765900242</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2302.383075356982</v>
+        <v>2183.773032581854</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006548947437054469</v>
+        <v>0.007964282592447022</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.5395878998191</v>
+        <v>162.6822825318773</v>
       </c>
       <c r="C3" t="n">
-        <v>1.20277714100193e-13</v>
+        <v>1.064867056488399e-13</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.8801070249144</v>
+        <v>114.7606810203713</v>
       </c>
       <c r="C4" t="n">
-        <v>4.574875825721792e-30</v>
+        <v>4.197543598874522e-31</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01483616779339572</v>
+        <v>-0.01531400448266995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02322970760451001</v>
+        <v>0.01819895061791209</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.294292968492296e-07</v>
+        <v>2.983074331826088e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.920319069818753</v>
+        <v>0.8962662921018306</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.067532235324336</v>
+        <v>-7.946919819115356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006712281480679806</v>
+        <v>0.007361855267560963</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.029997477372223</v>
+        <v>8.334678015715561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05339964194605399</v>
+        <v>0.0432552640401624</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-57.8333056170984</v>
+        <v>-60.9224486826065</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9087449864886825</v>
+        <v>0.903769548863338</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-194.3138425837576</v>
+        <v>-192.168202156904</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6079400332311395</v>
+        <v>0.6114462497953803</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1226.155405872946</v>
+        <v>4817.166126531002</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5377891152212801</v>
+        <v>3.737852409001248e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4814.032978228036</v>
+        <v>5.201542535284851</v>
       </c>
       <c r="C12" t="n">
-        <v>3.93453398696051e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.881532131479844</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7387235591509924</v>
+        <v>0.6489175991168692</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2006.925290765801</v>
+        <v>1842.259686662019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01359229304249366</v>
+        <v>0.02003610476148356</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.263257042314</v>
+        <v>162.0427176516323</v>
       </c>
       <c r="C3" t="n">
-        <v>1.21962370268829e-17</v>
+        <v>1.270733200308004e-17</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.4510096285273</v>
+        <v>117.1599588752481</v>
       </c>
       <c r="C4" t="n">
-        <v>8.281852345000219e-29</v>
+        <v>2.015992974005971e-30</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01439917885780932</v>
+        <v>-0.01495642838082937</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02560584880169962</v>
+        <v>0.01987487702016601</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.715439563039152e-07</v>
+        <v>6.97550595459107e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.793001323392034</v>
+        <v>0.7482125824801853</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.844929711960087</v>
+        <v>-5.756220871835571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04769625863183585</v>
+        <v>0.05094638531880563</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.49955782395358</v>
+        <v>8.8343755290812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02771595894911393</v>
+        <v>0.02155444387658049</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-393.1814843013285</v>
+        <v>-394.3457913276197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4467065137623452</v>
+        <v>0.4452174335645003</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-358.1804452439712</v>
+        <v>-355.6115762709895</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3526848648590464</v>
+        <v>0.3559768691238727</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1924.749993908659</v>
+        <v>6146.657579396181</v>
       </c>
       <c r="C11" t="n">
-        <v>0.358882144577871</v>
+        <v>2.178275190668423e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6113.993183698978</v>
+        <v>1.795715240591797</v>
       </c>
       <c r="C12" t="n">
-        <v>2.873407991146163e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.03911824137480124</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9973922837635611</v>
+        <v>0.8791644906061649</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2302.176058102661</v>
+        <v>2186.761523392699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004703441830846378</v>
+        <v>0.006352115443604064</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.4107210031739</v>
+        <v>135.3356755190053</v>
       </c>
       <c r="C3" t="n">
-        <v>7.857704142320763e-13</v>
+        <v>7.74592467311604e-13</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.20199766278</v>
+        <v>115.553585897204</v>
       </c>
       <c r="C4" t="n">
-        <v>1.830169122990384e-28</v>
+        <v>9.963163551995183e-30</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01033039610878513</v>
+        <v>-0.01069388835684476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.108988769510339</v>
+        <v>0.09616198217646733</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.339057979090694e-07</v>
+        <v>-5.827457508202435e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7876600917306101</v>
+        <v>0.8042457863374888</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.41503516724237</v>
+        <v>-12.26819258694813</v>
       </c>
       <c r="C7" t="n">
-        <v>8.389211849397282e-05</v>
+        <v>9.753896108875647e-05</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.809753280223075</v>
+        <v>8.308765486885218</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04613490684802754</v>
+        <v>0.03176921463890645</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-516.9294961208111</v>
+        <v>-537.7194085026681</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3764021776870826</v>
+        <v>0.356794813768761</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-847.9396771986312</v>
+        <v>-852.29451264612</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02692731125133291</v>
+        <v>0.02605037044749557</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1735.451692391672</v>
+        <v>4518.92065457123</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4073531873867505</v>
+        <v>8.894841917165587e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4614.169318368714</v>
+        <v>23.92249397147263</v>
       </c>
       <c r="C12" t="n">
-        <v>6.773187651670662e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22.74586456856096</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05344046233030934</v>
+        <v>0.04069277498694467</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2490.610944921043</v>
+        <v>2311.267231333067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004996605302978414</v>
+        <v>0.00738493669588849</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.930976026402</v>
+        <v>171.5118212621192</v>
       </c>
       <c r="C3" t="n">
-        <v>3.664614847406345e-13</v>
+        <v>2.951094897027632e-13</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.1955097120962</v>
+        <v>113.5835242838469</v>
       </c>
       <c r="C4" t="n">
-        <v>1.055423453174328e-27</v>
+        <v>6.88451896908621e-29</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007753291488901394</v>
+        <v>-0.007993824146815324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2551317811049143</v>
+        <v>0.2401592897376924</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.028013889936209e-07</v>
+        <v>-7.965753067817196e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7097226543087585</v>
+        <v>0.7421756570656266</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.426016032900364</v>
+        <v>-8.346227687529204</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005106697061473126</v>
+        <v>0.005493797429374089</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.24415649055755</v>
+        <v>6.707860904682931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1519907746067987</v>
+        <v>0.1211095653082675</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-520.2280153416376</v>
+        <v>-515.9253129358941</v>
       </c>
       <c r="C9" t="n">
-        <v>0.329201324348165</v>
+        <v>0.33298937556397</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1105.869550854807</v>
+        <v>-1098.675195796871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005717532349464934</v>
+        <v>0.006003241562447419</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1858.202911023912</v>
+        <v>4501.494105389621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3728269441815627</v>
+        <v>1.131279814803145e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4481.32665183686</v>
+        <v>16.14452489153267</v>
       </c>
       <c r="C12" t="n">
-        <v>1.28083391957419e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.30409899059351</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2068672953450097</v>
+        <v>0.1473937654027208</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.1528950418815</v>
+        <v>564.944642662259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3734786847173597</v>
+        <v>0.4718338433117731</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.7722333783791</v>
+        <v>152.0102979057611</v>
       </c>
       <c r="C3" t="n">
-        <v>1.691625323855963e-13</v>
+        <v>2.079493099629093e-13</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.0197505235705</v>
+        <v>125.7888269345437</v>
       </c>
       <c r="C4" t="n">
-        <v>1.177271825649603e-32</v>
+        <v>2.904357718669083e-34</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01630959277508372</v>
+        <v>-0.01694139870559276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01149372566366623</v>
+        <v>0.008397708435738104</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.046846496363708e-06</v>
+        <v>-8.726415855375842e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7395813789503387</v>
+        <v>0.7814176582093576</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.431197522667582</v>
+        <v>-5.33999066960422</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05655264391399993</v>
+        <v>0.06069850729218152</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.84710981372125</v>
+        <v>18.30715104107304</v>
       </c>
       <c r="C8" t="n">
-        <v>2.916953960811094e-05</v>
+        <v>1.652701517046852e-05</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-410.8510460056416</v>
+        <v>-414.8555960021263</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4021565525471491</v>
+        <v>0.3976292534132809</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-461.6223863523178</v>
+        <v>-458.0762346399397</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2036157228099442</v>
+        <v>0.2071271316248583</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2006.118444910157</v>
+        <v>4450.467261923518</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3044961305234786</v>
+        <v>3.746959117592245e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4466.210862332904</v>
+        <v>22.41375233453366</v>
       </c>
       <c r="C12" t="n">
-        <v>3.43797351923548e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21.05291648079495</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04852597956529923</v>
+        <v>0.03440639287793681</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2505.37436157015</v>
+        <v>2258.499797752124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003069370947950653</v>
+        <v>0.006706676802736836</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.5282950736397</v>
+        <v>140.0136093163916</v>
       </c>
       <c r="C3" t="n">
-        <v>1.710925686755115e-11</v>
+        <v>2.24447964618475e-11</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.9087410149783</v>
+        <v>108.0908636646189</v>
       </c>
       <c r="C4" t="n">
-        <v>3.859562972324517e-25</v>
+        <v>3.390403987468233e-27</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01050133155055233</v>
+        <v>-0.01138850145346858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1244629976030959</v>
+        <v>0.09575474170628603</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.76514567900103e-06</v>
+        <v>-8.26561161256917e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0431228035157691</v>
+        <v>0.05648729154908268</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.0009635208057</v>
+        <v>-11.81178016337894</v>
       </c>
       <c r="C7" t="n">
-        <v>7.474617256389374e-05</v>
+        <v>9.958983606374325e-05</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.55497005405207</v>
+        <v>5.264661142696671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2533865993225231</v>
+        <v>0.1855998247855356</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-189.635167017374</v>
+        <v>-230.5355359627524</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7385258668907583</v>
+        <v>0.6855264582798692</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-701.0842516576108</v>
+        <v>-691.1242461507245</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06019299680620752</v>
+        <v>0.06468340255472703</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3189.423383926309</v>
+        <v>5206.046333274233</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1113007071306755</v>
+        <v>4.144704029897967e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5227.082908304307</v>
+        <v>22.76109349022619</v>
       </c>
       <c r="C12" t="n">
-        <v>3.474693228255793e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>20.4705676305366</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07680267072885229</v>
+        <v>0.04823460169388071</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2184.57476570636</v>
+        <v>2066.856955946243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008263131415449826</v>
+        <v>0.01068985095435286</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.2044374045812</v>
+        <v>138.3747825619052</v>
       </c>
       <c r="C3" t="n">
-        <v>1.056648667050848e-11</v>
+        <v>9.506062636299913e-12</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.1379104490694</v>
+        <v>111.1926359292896</v>
       </c>
       <c r="C4" t="n">
-        <v>1.538642284756526e-25</v>
+        <v>1.916573020318622e-26</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01536188667826163</v>
+        <v>-0.01570533731377677</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01928111557883773</v>
+        <v>0.01638056853229675</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.398872550111302e-09</v>
+        <v>9.267366106961344e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9995268380064105</v>
+        <v>0.9685843992702333</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.14513959930611</v>
+        <v>-11.99954360132259</v>
       </c>
       <c r="C7" t="n">
-        <v>4.711127379205536e-05</v>
+        <v>5.450845145634373e-05</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.901378345316045</v>
+        <v>8.199771642864004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04359568275403746</v>
+        <v>0.03510369931878315</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-445.1886670655367</v>
+        <v>-445.6387988213182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.390801558181998</v>
+        <v>0.3898706765349312</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-434.5461647900256</v>
+        <v>-435.7531336956162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.272934786952034</v>
+        <v>0.271145985714339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1543.656772201177</v>
+        <v>4514.211198457377</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4681534776044117</v>
+        <v>1.108512149507989e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4492.508938108403</v>
+        <v>23.90354962385742</v>
       </c>
       <c r="C12" t="n">
-        <v>1.287899221331533e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>22.88398475279272</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.04852585920604577</v>
+        <v>0.03778781554782707</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2368.352391900278</v>
+        <v>2312.309215205643</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006280800572092602</v>
+        <v>0.006632178753888798</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.4912220579355</v>
+        <v>145.4683194703873</v>
       </c>
       <c r="C3" t="n">
-        <v>6.423504587778649e-13</v>
+        <v>5.895779158923965e-13</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.4453726793428</v>
+        <v>116.0304536646766</v>
       </c>
       <c r="C4" t="n">
-        <v>1.408466733602065e-27</v>
+        <v>1.776212209631409e-28</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01413826448010706</v>
+        <v>-0.01440018312194488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03272175451489055</v>
+        <v>0.02846662966609035</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.512577621237681e-07</v>
+        <v>1.952363615792946e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9479572605235042</v>
+        <v>0.9326543628787509</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.04013822076558</v>
+        <v>-9.974643463822794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008978161619268955</v>
+        <v>0.0009300416936055849</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.598402462818645</v>
+        <v>6.753823941816072</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1159675105668277</v>
+        <v>0.1053292680810598</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1060.724684087865</v>
+        <v>-1069.011412124471</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04927699557631971</v>
+        <v>0.04697166076178855</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-914.6454895015252</v>
+        <v>-913.3968402584792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02131685552814177</v>
+        <v>0.02126218594404644</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-841.5977373630703</v>
+        <v>4456.727060650601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7090783624131438</v>
+        <v>1.448436694708751e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4457.133833387852</v>
+        <v>22.40102614152546</v>
       </c>
       <c r="C12" t="n">
-        <v>1.49649397053002e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>21.88299657096116</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06619168871048534</v>
+        <v>0.05789436784896465</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2202.680714976354</v>
+        <v>2064.303067667598</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004411512111134093</v>
+        <v>0.006257778269908532</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.1602129434646</v>
+        <v>141.3557740250282</v>
       </c>
       <c r="C3" t="n">
-        <v>1.81342489483778e-12</v>
+        <v>1.636805939703229e-12</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.8789671533376</v>
+        <v>113.1223042531411</v>
       </c>
       <c r="C4" t="n">
-        <v>1.667988371269604e-28</v>
+        <v>1.274829817720734e-29</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01229535697803925</v>
+        <v>-0.01288137496404323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05262887328346367</v>
+        <v>0.04106651935411418</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.892946616497107e-08</v>
+        <v>3.249691712387163e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9637755749842134</v>
+        <v>0.9880602381993618</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.630032367169179</v>
+        <v>-8.488722001507197</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002528980409020445</v>
+        <v>0.002900511779975095</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.35362879804642</v>
+        <v>12.73312801493772</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009231022664080579</v>
+        <v>0.0005833666122426101</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-596.7340346250392</v>
+        <v>-583.9260568398047</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2374194906524074</v>
+        <v>0.2471320534076168</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-632.6861157698546</v>
+        <v>-625.4603916422452</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08914394151524986</v>
+        <v>0.09256371787251355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1640.216443326377</v>
+        <v>4450.104103048508</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3962564108482041</v>
+        <v>1.994125694809849e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4444.800241763805</v>
+        <v>9.231870366067703</v>
       </c>
       <c r="C12" t="n">
-        <v>2.096646502794846e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.980913761047681</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4626302027694489</v>
+        <v>0.3909472647907543</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1621.510202718241</v>
+        <v>1382.245185940203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05941386770560911</v>
+        <v>0.1001561563298431</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.2336563152554</v>
+        <v>169.2213628837727</v>
       </c>
       <c r="C3" t="n">
-        <v>3.200725071311314e-15</v>
+        <v>4.563797381719536e-15</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.7737721220043</v>
+        <v>114.2218214388109</v>
       </c>
       <c r="C4" t="n">
-        <v>5.656926776566274e-31</v>
+        <v>3.890467375150944e-33</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01322596346020969</v>
+        <v>-0.01398824184205337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04562887718257717</v>
+        <v>0.0341467278956946</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.732293969165709e-07</v>
+        <v>-6.486273065331134e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7373012607107758</v>
+        <v>0.7785347579118662</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.436362973309823</v>
+        <v>-6.429747328974678</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03124379513476045</v>
+        <v>0.03165133509409351</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.13235915015304</v>
+        <v>13.71915298638099</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004289688137198404</v>
+        <v>0.00277429123766993</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-469.7423766892121</v>
+        <v>-462.3432458884043</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3346208596907038</v>
+        <v>0.3429236518963682</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-504.7609502590753</v>
+        <v>-497.9211821974181</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1956712347060527</v>
+        <v>0.2023695499649092</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2629.100205690971</v>
+        <v>5546.329323330308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.192410945692947</v>
+        <v>5.169718089174467e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5532.235155993218</v>
+        <v>9.285400015143733</v>
       </c>
       <c r="C12" t="n">
-        <v>5.435164026721931e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.463629653563249</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5935473469925219</v>
+        <v>0.4366533489253607</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1791.899220438455</v>
+        <v>1661.956898466414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02966895031883713</v>
+        <v>0.04142343392691671</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.9624456051616</v>
+        <v>130.7181283159021</v>
       </c>
       <c r="C3" t="n">
-        <v>3.443146936703197e-11</v>
+        <v>3.731288860615729e-11</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.6025283168454</v>
+        <v>130.3305099789088</v>
       </c>
       <c r="C4" t="n">
-        <v>2.775018651653358e-29</v>
+        <v>1.911616542921999e-30</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01634181828409723</v>
+        <v>-0.01682226007871142</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01609871642665979</v>
+        <v>0.01309816144865564</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.478002235637301e-06</v>
+        <v>-1.309843604249731e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6823138372205284</v>
+        <v>0.7166321688879964</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.995266041111215</v>
+        <v>-6.864134767044691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01885839564898531</v>
+        <v>0.02111384174634662</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.064640977379272</v>
+        <v>9.531401470181041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01882886506266094</v>
+        <v>0.01302197101346451</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-430.4910003065088</v>
+        <v>-435.757571881425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4003378675227205</v>
+        <v>0.3947472903251071</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-418.244517808706</v>
+        <v>-419.1353598276783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2765528125619641</v>
+        <v>0.2756953229507796</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2223.809360386113</v>
+        <v>4034.006912836479</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2796631967727372</v>
+        <v>2.358608618004344e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4094.049830213295</v>
+        <v>20.56406660535161</v>
       </c>
       <c r="C12" t="n">
-        <v>1.848256951852612e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.44590173697524</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07999393320776302</v>
+        <v>0.06314681509740899</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Madrid.xlsx
+++ b/outputs/ML_Results/dist_LR/Madrid.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ05633463" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ05805181" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ05969881" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ06138883" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ06298204" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ06467962" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ06638586" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ06799294" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ06957830" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ07123994" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ07292738" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ07488727" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ07706378" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ07917147" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ08122984" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ08317774" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ08526430" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ08737696" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ08979731" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ09233313" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ09452181" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ09666594" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ09884911" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ10097589" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ10312748" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ10528728" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ10762788" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ10977156" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ11188517" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ11399703" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ11630225" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ11843493" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ12057180" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ12277381" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ12559135" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ12802082" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ13015300" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ13367100" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ13569527" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ13794790" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ14052218" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ14283623" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ14511752" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ14755089" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ14980108" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ15281043" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ15571462" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ15790120" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ16004786" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ16224594" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ54712533" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ54897501" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ55072527" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ55237460" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ55397355" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ55557804" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ55715846" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ55979836" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ56142500" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ56304194" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ56464470" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ56625587" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ56786727" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ56945568" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ57103198" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ57262185" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ57422015" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ57581491" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ57738777" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ57907832" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ58091529" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ58316791" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ58557841" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ58798182" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ59015936" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ59281600" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ59535899" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ59757300" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ59987197" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ00237289" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ00447815" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ00672968" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ00920048" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ01197301" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ01448722" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ01690276" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ01946580" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ02202052" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ02533852" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ02759857" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ02992693" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ03209343" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ03420953" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ03644051" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ03868861" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ04092660" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ04341369" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ04567791" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ04801714" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ05014488" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Madrid.xlsx
+++ b/outputs/ML_Results/dist_LR/Madrid.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ54712533" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ54897501" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ55072527" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ55237460" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ55397355" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ55557804" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ55715846" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ55979836" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ56142500" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ56304194" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ56464470" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ56625587" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ56786727" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ56945568" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ57103198" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ57262185" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ57422015" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ57581491" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ57738777" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ57907832" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ58091529" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ58316791" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ58557841" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ58798182" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ59015936" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ59281600" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ59535899" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ59757300" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ59987197" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ00237289" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ00447815" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ00672968" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ00920048" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ01197301" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ01448722" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ01690276" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ01946580" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ02202052" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ02533852" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ02759857" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ02992693" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ03209343" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ03420953" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ03644051" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ03868861" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ04092660" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ04341369" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ04567791" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ04801714" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ05014488" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ08512913" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ08653419" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ08803092" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ08947037" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ09104132" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ09249394" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ09393111" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ09538560" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ09693180" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ09826472" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ09964787" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ10102478" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ10283496" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ10423937" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ10564087" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ10701227" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ10853552" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ10989315" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ11129957" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ11268705" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ11406327" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ11545499" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ11695404" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ11850462" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ12011167" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ12158627" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ12294703" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ12439732" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ12591346" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ12736921" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ12881357" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ13027748" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ13161376" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ13300387" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ13431760" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ13568293" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ13722477" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ13871017" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ14020237" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ14164258" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ14310269" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ14459993" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ14616273" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ14762112" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ14905865" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ15056841" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ15192390" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ15343037" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ15489140" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ15640941" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1713.64950599115</v>
+        <v>2738.771039054624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03731854298584022</v>
+        <v>3.966819004939179e-05</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.2205505099599</v>
+        <v>163.7096698760394</v>
       </c>
       <c r="C3" t="n">
-        <v>8.161797611075478e-15</v>
+        <v>1.771401018754165e-14</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.7958224616305</v>
+        <v>110.5330569684298</v>
       </c>
       <c r="C4" t="n">
-        <v>8.294370662908214e-27</v>
+        <v>2.593556379740213e-25</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01710790573661673</v>
+        <v>-0.01816893473342165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01480441286108477</v>
+        <v>0.009941731247377067</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.910146331384621e-07</v>
+        <v>-1.259522321406705e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8676699415162792</v>
+        <v>0.8072056165639753</v>
       </c>
     </row>
     <row r="7">
@@ -572,75 +572,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.317365926055043</v>
+        <v>-13.52202833316305</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005685170147692722</v>
+        <v>4.131145156426627e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.719099962584707</v>
+        <v>-597.3630595426021</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03182378230709447</v>
+        <v>0.1151934726363807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-250.4466692059059</v>
+        <v>5492.164822148528</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6532947798571065</v>
+        <v>6.504821219002959e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-537.9946732381704</v>
+        <v>27.11817277245024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168262268057267</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5044.516488906375</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.184478932130766e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.14572962760231</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07854189936253192</v>
+        <v>0.02422782001902367</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.166598442851</v>
+        <v>2947.065926132292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04316059504957724</v>
+        <v>1.456363071418672e-05</v>
       </c>
     </row>
     <row r="3">
@@ -699,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.365034365153</v>
+        <v>159.6735022683185</v>
       </c>
       <c r="C3" t="n">
-        <v>2.878958963641473e-16</v>
+        <v>2.078132317722499e-14</v>
       </c>
     </row>
     <row r="4">
@@ -712,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.1938766065808</v>
+        <v>104.1227743721289</v>
       </c>
       <c r="C4" t="n">
-        <v>8.989394979996954e-28</v>
+        <v>4.605451739535374e-26</v>
       </c>
     </row>
     <row r="5">
@@ -725,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01065049891956682</v>
+        <v>-0.01723339412098245</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09799684555447909</v>
+        <v>0.01242302658083764</v>
       </c>
     </row>
     <row r="6">
@@ -738,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.279180256659929e-08</v>
+        <v>-5.748072298729232e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9676779120429453</v>
+        <v>0.2381920890652119</v>
       </c>
     </row>
     <row r="7">
@@ -751,75 +725,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.46281074570501</v>
+        <v>-12.34538321746567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002828899971906694</v>
+        <v>1.273532812934352e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.863036154402332</v>
+        <v>-609.4268693926315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04872200832520305</v>
+        <v>0.102316160164421</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>504.8728011628152</v>
+        <v>5187.818219684739</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4108903637940092</v>
+        <v>1.809702638865282e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-658.0018876127773</v>
+        <v>23.72108849804042</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09210993862345106</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5360.916592692201</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.990601169294378e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.54539158299838</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0289357323235951</v>
+        <v>0.04549509862462046</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3016.689992083713</v>
+        <v>3143.963198662469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002722955807597683</v>
+        <v>8.206262439064676e-07</v>
       </c>
     </row>
     <row r="3">
@@ -878,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164.1134807367495</v>
+        <v>129.653918855813</v>
       </c>
       <c r="C3" t="n">
-        <v>8.606468607375037e-17</v>
+        <v>3.995941469107148e-11</v>
       </c>
     </row>
     <row r="4">
@@ -891,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.3337767923396</v>
+        <v>111.0988959296296</v>
       </c>
       <c r="C4" t="n">
-        <v>2.959027629499208e-28</v>
+        <v>3.616094301858406e-29</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01485877312305725</v>
+        <v>-0.01464685262003855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02069610527946036</v>
+        <v>0.02936867838900578</v>
       </c>
     </row>
     <row r="6">
@@ -917,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.114807765251501e-07</v>
+        <v>-6.61994339408227e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8140135822475596</v>
+        <v>0.1717599723475211</v>
       </c>
     </row>
     <row r="7">
@@ -930,75 +878,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.22944041725152</v>
+        <v>-11.11931158005014</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001849932043048959</v>
+        <v>1.339692913973289e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.557020806988156</v>
+        <v>-772.3027201761163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3908811299891436</v>
+        <v>0.03239413370921454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-807.4197037930521</v>
+        <v>4527.254924603883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1096886920684552</v>
+        <v>8.054129633688628e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-862.8537323888436</v>
+        <v>22.02038652014028</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02373423420054577</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3854.617266259165</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.556524386291227e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.06453134318916</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1074816209650136</v>
+        <v>0.05124365492131008</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1743.322482420137</v>
+        <v>3480.577680972028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02052079156930315</v>
+        <v>2.226354550293619e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1057,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.2160741112613</v>
+        <v>169.9477394001883</v>
       </c>
       <c r="C3" t="n">
-        <v>4.767911975298947e-13</v>
+        <v>5.953905134126271e-17</v>
       </c>
     </row>
     <row r="4">
@@ -1070,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.9139257862102</v>
+        <v>99.42830292791507</v>
       </c>
       <c r="C4" t="n">
-        <v>8.243124916265594e-33</v>
+        <v>1.447077692304967e-22</v>
       </c>
     </row>
     <row r="5">
@@ -1083,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01311284248779568</v>
+        <v>-0.01328300389749715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02863041926406854</v>
+        <v>0.03869764329125215</v>
       </c>
     </row>
     <row r="6">
@@ -1096,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.672081038197501e-07</v>
+        <v>-4.670458662985223e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9371127673436839</v>
+        <v>0.3039181297640692</v>
       </c>
     </row>
     <row r="7">
@@ -1109,75 +1031,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.467810496693032</v>
+        <v>-11.5399202731106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02163655848912498</v>
+        <v>3.611577758238992e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.65931258468338</v>
+        <v>-64.16496070070639</v>
       </c>
       <c r="C8" t="n">
-        <v>8.180801760150666e-05</v>
+        <v>0.8671247716804714</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-265.6607611876238</v>
+        <v>6336.758849659243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6041973756821417</v>
+        <v>9.428165886423954e-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-59.62918250788869</v>
+        <v>-2.945361324495593</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8736378577969156</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5111.306936201338</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.330823800470239e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.00166777668367</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7884860527387102</v>
+        <v>0.8140255888762686</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1758.929878186958</v>
+        <v>3465.267223659027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02282432916020211</v>
+        <v>4.612749267434077e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1236,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.1191856235101</v>
+        <v>153.4360841742265</v>
       </c>
       <c r="C3" t="n">
-        <v>4.966385879893953e-15</v>
+        <v>1.014744211574924e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1249,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.1406750154629</v>
+        <v>106.2963861596641</v>
       </c>
       <c r="C4" t="n">
-        <v>1.442759127326252e-30</v>
+        <v>1.662626428337944e-23</v>
       </c>
     </row>
     <row r="5">
@@ -1262,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01732206159022738</v>
+        <v>-0.01203890337386342</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01034842256307146</v>
+        <v>0.08701780051376065</v>
       </c>
     </row>
     <row r="6">
@@ -1275,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.849026310842913e-06</v>
+        <v>-6.901608153167342e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.448408151489463</v>
+        <v>0.1737576971169769</v>
       </c>
     </row>
     <row r="7">
@@ -1288,75 +1184,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.35362346338216</v>
+        <v>-13.41005604965146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001535561588395066</v>
+        <v>2.570257008250184e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.263661046458303</v>
+        <v>-594.4069727202759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02737184996418745</v>
+        <v>0.1225215462421499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-339.6491837217677</v>
+        <v>5025.629325242333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5406575732775972</v>
+        <v>8.651894993983665e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-643.9465446366993</v>
+        <v>13.84917685427205</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08944342334505501</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5173.80659775968</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.243377900496302e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.92409792971637</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07045690711411301</v>
+        <v>0.2523765032891638</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1240.641624404354</v>
+        <v>2707.68115447347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1172447869088893</v>
+        <v>2.820746137300173e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1415,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.7205822353116</v>
+        <v>154.2366857807909</v>
       </c>
       <c r="C3" t="n">
-        <v>9.53975797983141e-14</v>
+        <v>1.851669233896894e-14</v>
       </c>
     </row>
     <row r="4">
@@ -1428,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.9604868416144</v>
+        <v>118.871162458796</v>
       </c>
       <c r="C4" t="n">
-        <v>1.167151926653398e-32</v>
+        <v>3.092730596535981e-29</v>
       </c>
     </row>
     <row r="5">
@@ -1441,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01282926220465323</v>
+        <v>-0.01683230334214789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05038086609652757</v>
+        <v>0.01534938790051751</v>
       </c>
     </row>
     <row r="6">
@@ -1454,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.550407360083103e-06</v>
+        <v>-1.032185483434496e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5056784453883815</v>
+        <v>0.8541312251295079</v>
       </c>
     </row>
     <row r="7">
@@ -1467,75 +1337,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.249161873413753</v>
+        <v>-14.38565045062974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005786999225254003</v>
+        <v>4.52975437951776e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.458204482522827</v>
+        <v>-794.9151886955638</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02889446431295118</v>
+        <v>0.03281945860198665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-670.6600561078578</v>
+        <v>5383.316835993381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2038490423211257</v>
+        <v>1.618628684933013e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-794.9121651416594</v>
+        <v>29.76765871466957</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04144415608920535</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5587.726608788432</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.670709985957105e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>29.64371878774041</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.009349802480873633</v>
+        <v>0.01011125078936615</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1126.467369653237</v>
+        <v>3704.90442673263</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2244615286935027</v>
+        <v>2.590894018071798e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1594,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.1596225104931</v>
+        <v>165.3661469099637</v>
       </c>
       <c r="C3" t="n">
-        <v>5.858194103247968e-11</v>
+        <v>3.498731858072315e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1607,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.5178491115787</v>
+        <v>108.376091141371</v>
       </c>
       <c r="C4" t="n">
-        <v>4.748205698455243e-25</v>
+        <v>6.198263802515271e-27</v>
       </c>
     </row>
     <row r="5">
@@ -1620,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01044960950697712</v>
+        <v>-0.01245957553471161</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1371363716513357</v>
+        <v>0.08212198370010879</v>
       </c>
     </row>
     <row r="6">
@@ -1633,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.300362256104354e-07</v>
+        <v>-4.746626145123243e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9246987441626677</v>
+        <v>0.3789317651577647</v>
       </c>
     </row>
     <row r="7">
@@ -1646,75 +1490,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.997516140429634</v>
+        <v>-14.21795640336336</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01212446851616804</v>
+        <v>9.068793288767016e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.67711029453107</v>
+        <v>-813.9448286436582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001425228880622735</v>
+        <v>0.02952361224182182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-196.7277879618773</v>
+        <v>4519.950211547277</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7141985652378802</v>
+        <v>1.451575997108498e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-796.5576066981134</v>
+        <v>13.76998163869538</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04768872942239352</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4338.004089504571</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.019212706384514e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.50484408088158</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03936792214147626</v>
+        <v>0.244278097227059</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.265768312864</v>
+        <v>4000.775392604231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03353779637105701</v>
+        <v>3.112647115547863e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1773,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.6280767191157</v>
+        <v>149.8291502687159</v>
       </c>
       <c r="C3" t="n">
-        <v>2.485200644438885e-14</v>
+        <v>4.169970432555022e-14</v>
       </c>
     </row>
     <row r="4">
@@ -1786,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.8914189380487</v>
+        <v>104.4838946353464</v>
       </c>
       <c r="C4" t="n">
-        <v>8.622589249829308e-30</v>
+        <v>1.311535674196479e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1799,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01549493835635063</v>
+        <v>-0.015781848592228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01861953171982455</v>
+        <v>0.01976832309213206</v>
       </c>
     </row>
     <row r="6">
@@ -1812,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.029321816587558e-07</v>
+        <v>-4.11829693715556e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8235827289211498</v>
+        <v>0.4292005904376075</v>
       </c>
     </row>
     <row r="7">
@@ -1825,75 +1643,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.369071478302041</v>
+        <v>-11.34754658758639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03041225300017615</v>
+        <v>1.935902232976399e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.2888482531995</v>
+        <v>-46.38113392936998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003222387830224532</v>
+        <v>0.9065376168768766</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-520.6547230754568</v>
+        <v>5155.12684257512</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3203188592614991</v>
+        <v>1.685308368322165e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-209.7516324081373</v>
+        <v>-7.42406728293755</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5908978965304075</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5479.444926712127</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.223162192366302e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.368985757666326</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6558182643925057</v>
+        <v>0.560579762398852</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1235.338760202512</v>
+        <v>2933.465091338818</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0997684078519598</v>
+        <v>1.268569271418336e-05</v>
       </c>
     </row>
     <row r="3">
@@ -1952,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.4168936770539</v>
+        <v>154.7347040224446</v>
       </c>
       <c r="C3" t="n">
-        <v>6.923508295642255e-16</v>
+        <v>1.553061250896884e-14</v>
       </c>
     </row>
     <row r="4">
@@ -1965,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.3756952867701</v>
+        <v>109.4902060542594</v>
       </c>
       <c r="C4" t="n">
-        <v>1.14726632210125e-34</v>
+        <v>6.461912867689058e-24</v>
       </c>
     </row>
     <row r="5">
@@ -1978,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01353405493291972</v>
+        <v>-0.01471392505407709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0236574074939072</v>
+        <v>0.02867525937545504</v>
       </c>
     </row>
     <row r="6">
@@ -1991,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.065632570811344e-07</v>
+        <v>-5.455762372687286e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8498318173764705</v>
+        <v>0.2527887655433115</v>
       </c>
     </row>
     <row r="7">
@@ -2004,75 +1796,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.531494167203725</v>
+        <v>-12.49060829796527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002594671349886698</v>
+        <v>9.338448345133346e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.955677154751875</v>
+        <v>-793.1963013457607</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0147878274043389</v>
+        <v>0.03181632208750167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1040.809395219417</v>
+        <v>5504.655592391586</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03466820072359367</v>
+        <v>2.851953775775044e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-806.1635985261942</v>
+        <v>22.68444344275611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02483407607412869</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5643.126287047194</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.105629699773799e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.07855662305927</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01125288208244201</v>
+        <v>0.05659556050223818</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2035.106647841471</v>
+        <v>3362.797029930087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01101432933345429</v>
+        <v>4.630762172910424e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2131,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.9712335487284</v>
+        <v>160.3620803200339</v>
       </c>
       <c r="C3" t="n">
-        <v>5.935606987193793e-13</v>
+        <v>4.408742307522542e-16</v>
       </c>
     </row>
     <row r="4">
@@ -2144,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.7753282557551</v>
+        <v>106.4316520357618</v>
       </c>
       <c r="C4" t="n">
-        <v>5.488246715223129e-28</v>
+        <v>5.694347957565242e-26</v>
       </c>
     </row>
     <row r="5">
@@ -2157,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01273288201515835</v>
+        <v>-0.009571553272989279</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05977633770851782</v>
+        <v>0.1679889265054597</v>
       </c>
     </row>
     <row r="6">
@@ -2170,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.894527840881909e-06</v>
+        <v>-6.088929141284246e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2577421917237006</v>
+        <v>0.2495321877635407</v>
       </c>
     </row>
     <row r="7">
@@ -2183,75 +1949,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.59908211810459</v>
+        <v>-15.298423362862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004650767345612332</v>
+        <v>1.453968667844596e-09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.692666019545111</v>
+        <v>-616.8906096502817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05003193102873423</v>
+        <v>0.09364830022435032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-216.5418122885964</v>
+        <v>5335.889799013161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.682643269529605</v>
+        <v>1.160416953386524e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-618.114812486401</v>
+        <v>15.62464567054983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1198366423674582</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4507.522220259496</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.161284702368004e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.91429260335407</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04792003468365385</v>
+        <v>0.1804343887603268</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2672.091315309233</v>
+        <v>2767.051864704528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001930632646052982</v>
+        <v>1.800835001294167e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2310,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.1819302377175</v>
+        <v>174.8278734196605</v>
       </c>
       <c r="C3" t="n">
-        <v>2.436591764630997e-11</v>
+        <v>6.511065217988342e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2323,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.6006993319296</v>
+        <v>111.8147499709291</v>
       </c>
       <c r="C4" t="n">
-        <v>9.29404109456616e-30</v>
+        <v>6.033981674410917e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2336,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0140933964585146</v>
+        <v>-0.01127607032075169</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02626837334693311</v>
+        <v>0.1007684698058701</v>
       </c>
     </row>
     <row r="6">
@@ -2349,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.59882596902644e-07</v>
+        <v>-4.11670990607534e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9436557065474083</v>
+        <v>0.4618342653555515</v>
       </c>
     </row>
     <row r="7">
@@ -2362,75 +2102,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.32015630427102</v>
+        <v>-12.25019231819821</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003251271817551209</v>
+        <v>1.401162756617049e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.242814247498481</v>
+        <v>-827.482202979974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08575766348944226</v>
+        <v>0.02736891371818418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.347481115871</v>
+        <v>5114.478510293071</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8266162771411075</v>
+        <v>3.103284193154953e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-619.6390469899584</v>
+        <v>25.70044420916435</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1157732178674801</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4536.266965731604</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.879428856472767e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.44717988302849</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3463573716860453</v>
+        <v>0.0264983627214881</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1020.414231796628</v>
+        <v>3226.223633130088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2309904025020035</v>
+        <v>2.411333345081749e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2489,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.9824048056384</v>
+        <v>164.0402044302759</v>
       </c>
       <c r="C3" t="n">
-        <v>5.004671213873463e-12</v>
+        <v>1.450941444942937e-17</v>
       </c>
     </row>
     <row r="4">
@@ -2502,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.0350402376</v>
+        <v>115.764138528744</v>
       </c>
       <c r="C4" t="n">
-        <v>1.9121650130778e-30</v>
+        <v>1.77752271360819e-29</v>
       </c>
     </row>
     <row r="5">
@@ -2515,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01231459187541776</v>
+        <v>-0.01099739845163531</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05058879473341356</v>
+        <v>0.09722679535849985</v>
       </c>
     </row>
     <row r="6">
@@ -2528,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.840090946935271e-07</v>
+        <v>-6.464206606856764e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7885230171783681</v>
+        <v>0.1665913800117194</v>
       </c>
     </row>
     <row r="7">
@@ -2541,75 +2255,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.778562004357372</v>
+        <v>-12.4203915675731</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003897261046457939</v>
+        <v>5.124900795820049e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.3082362089557</v>
+        <v>-189.9106274227415</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006419197460515313</v>
+        <v>0.6038873299276339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-766.3023013353636</v>
+        <v>6099.700739067261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1278940766549213</v>
+        <v>1.249357061803305e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1024.841281563639</v>
+        <v>3.26809772360166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009463502910416758</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4304.508054234551</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.058182518894401e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>32.58518982041224</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.004488597022925964</v>
+        <v>0.7862757346702014</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.116469901462</v>
+        <v>3361.62671404236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08560452786687797</v>
+        <v>3.087918503404824e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2668,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.4328244293783</v>
+        <v>136.4823280812416</v>
       </c>
       <c r="C3" t="n">
-        <v>1.128816134991749e-13</v>
+        <v>9.381088896445733e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2681,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.473665126943</v>
+        <v>111.1639516560682</v>
       </c>
       <c r="C4" t="n">
-        <v>6.919801821433852e-26</v>
+        <v>4.553877729360507e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2694,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009478152256856567</v>
+        <v>-0.01728061118768175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1823952278913011</v>
+        <v>0.01526262530173162</v>
       </c>
     </row>
     <row r="6">
@@ -2707,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.568569820953188e-07</v>
+        <v>-5.748126870683773e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7726806885020043</v>
+        <v>0.2248469033720047</v>
       </c>
     </row>
     <row r="7">
@@ -2720,75 +2408,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.097478543091079</v>
+        <v>-13.28142403440515</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007579398714276579</v>
+        <v>9.862584056529192e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.65633634163</v>
+        <v>-720.2486027021944</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00176552095777334</v>
+        <v>0.05445832192276123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-599.1871625584425</v>
+        <v>4762.259650539256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2615542368453679</v>
+        <v>3.128540097696299e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-902.543859314654</v>
+        <v>20.96302728655744</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02220322235263912</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4232.299783475723</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.241436367547089e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>21.31187600472788</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06696624421096661</v>
+        <v>0.07293061638554228</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +2464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>858.8551180221784</v>
+        <v>2872.121125450461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3089642882777404</v>
+        <v>9.611670899935308e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2847,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.9831606780066</v>
+        <v>161.7993509680771</v>
       </c>
       <c r="C3" t="n">
-        <v>1.75482540702016e-12</v>
+        <v>2.477353372771176e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2860,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.6381077360691</v>
+        <v>105.5729093778739</v>
       </c>
       <c r="C4" t="n">
-        <v>1.585199134840224e-33</v>
+        <v>2.80359029929559e-24</v>
       </c>
     </row>
     <row r="5">
@@ -2873,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007807559632825714</v>
+        <v>-0.0158462131739617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2422315478299519</v>
+        <v>0.03129231813867688</v>
       </c>
     </row>
     <row r="6">
@@ -2886,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.892197713881034e-07</v>
+        <v>-3.479638410830556e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.933904419881609</v>
+        <v>0.5039001931018106</v>
       </c>
     </row>
     <row r="7">
@@ -2899,75 +2561,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.224640012701649</v>
+        <v>-13.38983773782309</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003632104059305957</v>
+        <v>1.368017066202288e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.93937781300975</v>
+        <v>-543.9878127575422</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002497329077558784</v>
+        <v>0.1388772978344482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-564.9330843671714</v>
+        <v>5300.572058639143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2832408786206724</v>
+        <v>2.133085138531017e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-663.6165133419503</v>
+        <v>25.09101827002649</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0780625022967016</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5109.816133086772</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.966790244303091e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.49357430807892</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02034667126022687</v>
+        <v>0.02958060344900743</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2369.069446599807</v>
+        <v>3517.905418355972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002846923873325076</v>
+        <v>5.150557742217168e-08</v>
       </c>
     </row>
     <row r="3">
@@ -3026,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.7367757746086</v>
+        <v>178.1186463069473</v>
       </c>
       <c r="C3" t="n">
-        <v>5.672245191957688e-15</v>
+        <v>1.147014626022121e-16</v>
       </c>
     </row>
     <row r="4">
@@ -3039,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.6003227587104</v>
+        <v>106.8501023877664</v>
       </c>
       <c r="C4" t="n">
-        <v>4.442385273213888e-28</v>
+        <v>4.869161053424664e-26</v>
       </c>
     </row>
     <row r="5">
@@ -3052,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01119338164016016</v>
+        <v>-0.01317522126489009</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08462771337004517</v>
+        <v>0.05506767910776292</v>
       </c>
     </row>
     <row r="6">
@@ -3065,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.5792870937167e-07</v>
+        <v>-5.883769014838671e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9155074804181579</v>
+        <v>0.2232003221730137</v>
       </c>
     </row>
     <row r="7">
@@ -3078,75 +2714,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.268524657191254</v>
+        <v>-11.67268281876962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005669949035347071</v>
+        <v>7.220425281870988e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.010440433814772</v>
+        <v>-662.0878442831242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07379283422726814</v>
+        <v>0.08844780930447979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-941.0742204565972</v>
+        <v>4341.530775995281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07259392084687173</v>
+        <v>2.890385209893937e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-913.0351990925184</v>
+        <v>14.08845865817005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01754024525313252</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4773.682689274356</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.033480011318278e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.19409457044914</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1957362563964547</v>
+        <v>0.2158817630382412</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.228379370243</v>
+        <v>3857.892121168622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09870862731655498</v>
+        <v>3.006124357756758e-09</v>
       </c>
     </row>
     <row r="3">
@@ -3205,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.6274858491238</v>
+        <v>150.9728596573505</v>
       </c>
       <c r="C3" t="n">
-        <v>6.84147563686089e-12</v>
+        <v>9.317965431150194e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3218,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.3207132892503</v>
+        <v>108.9370703641676</v>
       </c>
       <c r="C4" t="n">
-        <v>5.397665602246751e-30</v>
+        <v>3.250905827437997e-29</v>
       </c>
     </row>
     <row r="5">
@@ -3231,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01637674562852786</v>
+        <v>-0.01396243038377777</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01260147020586851</v>
+        <v>0.03200524817222203</v>
       </c>
     </row>
     <row r="6">
@@ -3244,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.578346252831949e-07</v>
+        <v>-5.799725922105266e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7626266099526349</v>
+        <v>0.2186638493732475</v>
       </c>
     </row>
     <row r="7">
@@ -3257,75 +2867,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.291313100011758</v>
+        <v>-13.0765651251507</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02926638649095207</v>
+        <v>2.954456326121681e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.88820072944064</v>
+        <v>-403.8805869216828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002971717000435199</v>
+        <v>0.2681251446166526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-602.0199243427508</v>
+        <v>5340.797878499929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2430421887543193</v>
+        <v>6.622299433922601e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-699.1606998756231</v>
+        <v>-0.1668916582829993</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07293199162694358</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3880.667778584549</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.348660636719108e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>24.84025940742193</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02305186905844853</v>
+        <v>0.989146413071603</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2481.322231378724</v>
+        <v>2918.070331112993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00332701247591096</v>
+        <v>1.624482139721656e-05</v>
       </c>
     </row>
     <row r="3">
@@ -3384,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.6117155329103</v>
+        <v>143.0024525516955</v>
       </c>
       <c r="C3" t="n">
-        <v>4.836246472952578e-13</v>
+        <v>8.132373512877996e-12</v>
       </c>
     </row>
     <row r="4">
@@ -3397,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.2810440885767</v>
+        <v>106.1077774339564</v>
       </c>
       <c r="C4" t="n">
-        <v>6.449387905441502e-28</v>
+        <v>2.760574535001139e-25</v>
       </c>
     </row>
     <row r="5">
@@ -3410,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01921748636435448</v>
+        <v>-0.01412834565112512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003561405027414943</v>
+        <v>0.0353793294228404</v>
       </c>
     </row>
     <row r="6">
@@ -3423,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.12427681825927e-06</v>
+        <v>-4.859390562954972e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7487114645995689</v>
+        <v>0.3096313226590139</v>
       </c>
     </row>
     <row r="7">
@@ -3436,75 +3020,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.34434272880444</v>
+        <v>-12.56984088697656</v>
       </c>
       <c r="C7" t="n">
-        <v>3.718541378524671e-05</v>
+        <v>1.052855629158892e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.399011030923354</v>
+        <v>-667.3628480600121</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2893974644184541</v>
+        <v>0.07384120989916775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-93.2296242838238</v>
+        <v>5937.864536961575</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8605678931165396</v>
+        <v>4.198346634344629e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-733.0824377861641</v>
+        <v>20.11551969982902</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06106648255696258</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4913.831640171509</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.662625847266227e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.42866482115338</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04096239353423404</v>
+        <v>0.09343931933361374</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +3076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2039.820345975127</v>
+        <v>3203.19235370644</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0101006673198844</v>
+        <v>3.869109918690675e-06</v>
       </c>
     </row>
     <row r="3">
@@ -3563,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.9765355264753</v>
+        <v>137.502012715063</v>
       </c>
       <c r="C3" t="n">
-        <v>1.654768306692404e-16</v>
+        <v>1.145271384255312e-11</v>
       </c>
     </row>
     <row r="4">
@@ -3576,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.5307289501063</v>
+        <v>116.0166244477439</v>
       </c>
       <c r="C4" t="n">
-        <v>7.551798369859916e-29</v>
+        <v>4.103699166133109e-26</v>
       </c>
     </row>
     <row r="5">
@@ -3589,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01320187496361977</v>
+        <v>-0.01211571107758382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03713338505491382</v>
+        <v>0.08225994484987095</v>
       </c>
     </row>
     <row r="6">
@@ -3602,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.006587455924658e-07</v>
+        <v>-5.888638788530842e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8926329662347106</v>
+        <v>0.3426891024774646</v>
       </c>
     </row>
     <row r="7">
@@ -3615,75 +3173,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.019906946517535</v>
+        <v>-14.37792510262243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006117048746636901</v>
+        <v>1.188003352488938e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.983197631181504</v>
+        <v>-831.5906269095258</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008117965235999711</v>
+        <v>0.02982402814057447</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-137.2316789228292</v>
+        <v>4843.989481715671</v>
       </c>
       <c r="C9" t="n">
-        <v>0.797404901835677</v>
+        <v>4.329382923314764e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-107.3289146537445</v>
+        <v>22.54409914725143</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7814368881171504</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5677.907278943243</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.638260411531926e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.594442885355523</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9610876018097669</v>
+        <v>0.0656650069979344</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +3229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2090.34183928683</v>
+        <v>2960.090402821319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008925453914480418</v>
+        <v>6.121769759434406e-06</v>
       </c>
     </row>
     <row r="3">
@@ -3742,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.8884262907432</v>
+        <v>162.0512411185801</v>
       </c>
       <c r="C3" t="n">
-        <v>4.596964024539852e-16</v>
+        <v>1.440408876787593e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3755,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.7378348038803</v>
+        <v>115.8444053598188</v>
       </c>
       <c r="C4" t="n">
-        <v>2.16103629194253e-31</v>
+        <v>6.232074342431141e-26</v>
       </c>
     </row>
     <row r="5">
@@ -3768,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01154858201296333</v>
+        <v>-0.0128371094557296</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08008304754437734</v>
+        <v>0.0652119593852301</v>
       </c>
     </row>
     <row r="6">
@@ -3781,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.468284194447596e-06</v>
+        <v>-4.290512850599353e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5384483557368399</v>
+        <v>0.369458190984354</v>
       </c>
     </row>
     <row r="7">
@@ -3794,75 +3326,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.932289075170205</v>
+        <v>-12.3389800722971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001111042063512006</v>
+        <v>1.553837170991669e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.383455235486345</v>
+        <v>-698.2979046205949</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01464745404338277</v>
+        <v>0.0598511206788818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>344.37159838246</v>
+        <v>4637.390421706202</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5223974196018981</v>
+        <v>5.1749697508797e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-587.1161897585973</v>
+        <v>23.64210805767731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1176035890712047</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4123.639709744637</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.985881335123048e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.0866956002347</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1958292521155745</v>
+        <v>0.04198283273400299</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +3382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1526.258623141688</v>
+        <v>3222.464189842587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05570562275002719</v>
+        <v>4.13066429152468e-07</v>
       </c>
     </row>
     <row r="3">
@@ -3921,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.135198572292</v>
+        <v>159.1916622612081</v>
       </c>
       <c r="C3" t="n">
-        <v>1.107074821485893e-12</v>
+        <v>4.979586506356841e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3934,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.2091715352034</v>
+        <v>113.4519578337578</v>
       </c>
       <c r="C4" t="n">
-        <v>4.481690021769776e-29</v>
+        <v>1.743727643110203e-28</v>
       </c>
     </row>
     <row r="5">
@@ -3947,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01317042341070116</v>
+        <v>-0.007847665611651927</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05301328529034818</v>
+        <v>0.2246606466735482</v>
       </c>
     </row>
     <row r="6">
@@ -3960,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.193784384761321e-06</v>
+        <v>-5.862332347285753e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6181321014795482</v>
+        <v>0.2145200673315475</v>
       </c>
     </row>
     <row r="7">
@@ -3973,75 +3479,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.98384525917242</v>
+        <v>-14.21189449067815</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002682743968747153</v>
+        <v>2.504815425477338e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.208382438125451</v>
+        <v>-1138.979962498173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01856397999748849</v>
+        <v>0.001898515998067361</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-444.9680926937316</v>
+        <v>4811.155280836741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.404245533278987</v>
+        <v>9.369224561064419e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-408.7813550209798</v>
+        <v>24.29231768434637</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2921434026994655</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5703.607050731528</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.977999725479714e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>21.58389281592754</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06195824828420456</v>
+        <v>0.03443829201066833</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +3535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2176.040985734925</v>
+        <v>3596.476859604883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007197134036541044</v>
+        <v>4.71634349021242e-08</v>
       </c>
     </row>
     <row r="3">
@@ -4100,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.0276386998491</v>
+        <v>139.4345273982351</v>
       </c>
       <c r="C3" t="n">
-        <v>1.854673769646411e-14</v>
+        <v>9.42968730006631e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4113,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.8428317863203</v>
+        <v>104.2132871393834</v>
       </c>
       <c r="C4" t="n">
-        <v>3.124301989372325e-30</v>
+        <v>3.629863764656129e-24</v>
       </c>
     </row>
     <row r="5">
@@ -4126,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01713899990543458</v>
+        <v>-0.01398969504558909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006582416502743954</v>
+        <v>0.04500573642981272</v>
       </c>
     </row>
     <row r="6">
@@ -4139,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.50785524062646e-07</v>
+        <v>-6.039491011689864e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9439163862019262</v>
+        <v>0.2188168190592873</v>
       </c>
     </row>
     <row r="7">
@@ -4152,75 +3632,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.673429927072993</v>
+        <v>-12.208000172795</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02691288697877599</v>
+        <v>2.30351478150317e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.142103624593087</v>
+        <v>-850.3067452198216</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04218676644940961</v>
+        <v>0.02065568101820854</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-471.11228999732</v>
+        <v>4365.560921694563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3628624039387656</v>
+        <v>3.396755940385125e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-255.5503650421222</v>
+        <v>15.91688586493774</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5197860888274666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5558.247598403099</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.23918300741506e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.996219330974313</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8668368779555052</v>
+        <v>0.1647784942569021</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +3688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2265.319864930773</v>
+        <v>3851.860706471375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005982949906659799</v>
+        <v>1.167559042999667e-08</v>
       </c>
     </row>
     <row r="3">
@@ -4279,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.8529870804394</v>
+        <v>153.5536598114718</v>
       </c>
       <c r="C3" t="n">
-        <v>1.857242889136062e-13</v>
+        <v>2.806909221818891e-14</v>
       </c>
     </row>
     <row r="4">
@@ -4292,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.380438982847</v>
+        <v>106.0644778998205</v>
       </c>
       <c r="C4" t="n">
-        <v>4.499629180645136e-25</v>
+        <v>7.077596210450895e-27</v>
       </c>
     </row>
     <row r="5">
@@ -4305,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01490659146152075</v>
+        <v>-0.01814421810239424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0270477659116116</v>
+        <v>0.009441315066022943</v>
       </c>
     </row>
     <row r="6">
@@ -4318,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.283729160298765e-06</v>
+        <v>-1.849932422725914e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7237994496133782</v>
+        <v>0.7362834332036862</v>
       </c>
     </row>
     <row r="7">
@@ -4331,75 +3785,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.943268245408849</v>
+        <v>-12.36130675140602</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003622729225413452</v>
+        <v>2.312150938057971e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.147568916302344</v>
+        <v>-91.32876712874395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04247849685187408</v>
+        <v>0.8106807689657727</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-649.50815579857</v>
+        <v>5926.921933099607</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2257602702578426</v>
+        <v>5.27650278866817e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-624.6632176538908</v>
+        <v>-6.484628486240037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1157899808062578</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4003.541446330484</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.195161492825364e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.69917565393102</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09911560008694943</v>
+        <v>0.5996755522313417</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +3841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2353.933544093233</v>
+        <v>3406.504901385104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003408358664675159</v>
+        <v>2.631993151774559e-07</v>
       </c>
     </row>
     <row r="3">
@@ -4458,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.3625585237423</v>
+        <v>146.8417434763803</v>
       </c>
       <c r="C3" t="n">
-        <v>1.318350374967036e-13</v>
+        <v>2.142682644705216e-12</v>
       </c>
     </row>
     <row r="4">
@@ -4471,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.0189288785677</v>
+        <v>106.295999529063</v>
       </c>
       <c r="C4" t="n">
-        <v>2.501553984304586e-31</v>
+        <v>1.394681990994593e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4484,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01122845309706185</v>
+        <v>-0.01657616674534582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09116590779231058</v>
+        <v>0.01531235496645829</v>
       </c>
     </row>
     <row r="6">
@@ -4497,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.034632875659409e-06</v>
+        <v>-5.70846314147958e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6648200700674689</v>
+        <v>0.237075219582699</v>
       </c>
     </row>
     <row r="7">
@@ -4510,75 +3938,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.833472791398945</v>
+        <v>-12.14761222587268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00325323733707577</v>
+        <v>1.128589741350014e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.346918872032283</v>
+        <v>-603.3800562969602</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01806703911102967</v>
+        <v>0.1173055319643482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-535.2881395429383</v>
+        <v>5190.885775110673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.319325339693964</v>
+        <v>2.820002932580589e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-816.9962132088983</v>
+        <v>13.53866146783059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04083075507089919</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3873.975608131936</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.89392468353131e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.43073246198013</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.27440832870731</v>
+        <v>0.2502118748151558</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>938.7212676755366</v>
+        <v>2710.965704419596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2479130396538108</v>
+        <v>8.157092905088334e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4637,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.3738826851031</v>
+        <v>147.0374518596249</v>
       </c>
       <c r="C3" t="n">
-        <v>6.973916833955108e-12</v>
+        <v>1.988567445224111e-12</v>
       </c>
     </row>
     <row r="4">
@@ -4650,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.2936958961353</v>
+        <v>104.869896506871</v>
       </c>
       <c r="C4" t="n">
-        <v>1.581627856503746e-34</v>
+        <v>1.203544260386946e-25</v>
       </c>
     </row>
     <row r="5">
@@ -4663,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01002683860022451</v>
+        <v>-0.01787925592651476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1058085225379663</v>
+        <v>0.0106730319386243</v>
       </c>
     </row>
     <row r="6">
@@ -4676,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.094030417684778e-07</v>
+        <v>-6.898489979072968e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9209736509040565</v>
+        <v>0.2166673376509037</v>
       </c>
     </row>
     <row r="7">
@@ -4689,75 +4091,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.70878294437139</v>
+        <v>-14.3357065433407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01782627641752091</v>
+        <v>4.069149225507637e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.72117122173763</v>
+        <v>-277.8030313349091</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001675910187772568</v>
+        <v>0.4741529558419602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1041.913135667375</v>
+        <v>6195.720256422497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03918170332448339</v>
+        <v>3.03669331033914e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1236.98933150221</v>
+        <v>24.86349505704358</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009272019839165053</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4547.446847310465</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.086392518857099e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.19827192276256</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01096014695765661</v>
+        <v>0.04463325273619338</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.241238615992</v>
+        <v>3640.412340220801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02305502559336051</v>
+        <v>3.373928412901869e-09</v>
       </c>
     </row>
     <row r="3">
@@ -4816,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.6890717819601</v>
+        <v>151.6780251767104</v>
       </c>
       <c r="C3" t="n">
-        <v>4.41740878631731e-13</v>
+        <v>5.833519317800701e-12</v>
       </c>
     </row>
     <row r="4">
@@ -4829,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.4528787601307</v>
+        <v>111.2441906299338</v>
       </c>
       <c r="C4" t="n">
-        <v>1.452202818327064e-27</v>
+        <v>8.895756706699904e-28</v>
       </c>
     </row>
     <row r="5">
@@ -4842,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01379454291854985</v>
+        <v>-0.01338158154081944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0338306687813541</v>
+        <v>0.03239271823897539</v>
       </c>
     </row>
     <row r="6">
@@ -4855,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.190490830640087e-06</v>
+        <v>-6.708367250853742e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5846054827315229</v>
+        <v>0.1443065073341254</v>
       </c>
     </row>
     <row r="7">
@@ -4868,75 +4244,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.80596779976842</v>
+        <v>-12.89804950895606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002725631914443796</v>
+        <v>9.399126011850956e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.284999947981822</v>
+        <v>-334.5107309997397</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05765802524800078</v>
+        <v>0.3502976660671517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-431.0086532548651</v>
+        <v>6297.701040245869</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3975860338075049</v>
+        <v>1.083363974177602e-11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-382.5704186647499</v>
+        <v>-2.17386437533591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3100672610004485</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4707.884360572876</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.473878193407289e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.01579463310698</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02009289568313042</v>
+        <v>0.8468312104361844</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +4300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190.3885621046038</v>
+        <v>2690.3265104711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8163732501335117</v>
+        <v>9.762823120024042e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4995,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.8192602532655</v>
+        <v>164.6182142987381</v>
       </c>
       <c r="C3" t="n">
-        <v>3.111032451196915e-11</v>
+        <v>6.974009965408071e-15</v>
       </c>
     </row>
     <row r="4">
@@ -5008,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.2994836013027</v>
+        <v>106.7371485704283</v>
       </c>
       <c r="C4" t="n">
-        <v>2.306507712727121e-36</v>
+        <v>1.575472393333396e-25</v>
       </c>
     </row>
     <row r="5">
@@ -5021,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01412647206362398</v>
+        <v>-0.01126730384256058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02741047277257407</v>
+        <v>0.09367922807947902</v>
       </c>
     </row>
     <row r="6">
@@ -5034,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.20937864785188e-06</v>
+        <v>-5.873205063826281e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5991242713117669</v>
+        <v>0.2360491762434141</v>
       </c>
     </row>
     <row r="7">
@@ -5047,75 +4397,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.41424263080849</v>
+        <v>-13.0233851883579</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1297781582388327</v>
+        <v>1.147890945269119e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.61684771547279</v>
+        <v>-692.4917479602196</v>
       </c>
       <c r="C8" t="n">
-        <v>1.144351941036203e-06</v>
+        <v>0.06085956119316656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-805.5738122238339</v>
+        <v>5613.185908078173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1265403873256914</v>
+        <v>2.49450628675394e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-897.9026950165688</v>
+        <v>26.38303358845455</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01853582214883154</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4495.295905429908</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.034171467698897e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>26.30363038512412</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02431997364310989</v>
+        <v>0.03042913892440402</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2154.905232722136</v>
+        <v>2864.456140504113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008589777361364476</v>
+        <v>1.818064844265922e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5174,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.3740701957748</v>
+        <v>153.9491490261036</v>
       </c>
       <c r="C3" t="n">
-        <v>3.830297964089121e-13</v>
+        <v>4.6116469541852e-14</v>
       </c>
     </row>
     <row r="4">
@@ -5187,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.6507818198905</v>
+        <v>110.3879951337792</v>
       </c>
       <c r="C4" t="n">
-        <v>5.232201249493077e-28</v>
+        <v>1.922350236054803e-27</v>
       </c>
     </row>
     <row r="5">
@@ -5200,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01469496779104308</v>
+        <v>-0.01741980525825395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02500227975014108</v>
+        <v>0.01827997279705343</v>
       </c>
     </row>
     <row r="6">
@@ -5213,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.723161437066726e-07</v>
+        <v>-7.414402074704227e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8676065563286529</v>
+        <v>0.9134610022871636</v>
       </c>
     </row>
     <row r="7">
@@ -5226,75 +4550,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.65299979251816</v>
+        <v>-12.87200724406946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005247337691787095</v>
+        <v>8.336136384932299e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.19179283161132</v>
+        <v>-609.8576087846845</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1241507007239229</v>
+        <v>0.1042925485838345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.7479269968317</v>
+        <v>5001.415982839922</v>
       </c>
       <c r="C9" t="n">
-        <v>0.850502606472113</v>
+        <v>7.360550929110895e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-636.6772499911283</v>
+        <v>25.70759322689787</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09766125771965321</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4786.13056395555</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.119706312389396e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.68123489110436</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06083023641315632</v>
+        <v>0.03548009084962383</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +4606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2008.265440419335</v>
+        <v>3058.002941615732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01670153446740439</v>
+        <v>6.403449503177041e-06</v>
       </c>
     </row>
     <row r="3">
@@ -5353,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.5095942322993</v>
+        <v>156.7126006909374</v>
       </c>
       <c r="C3" t="n">
-        <v>7.594212320132342e-14</v>
+        <v>4.145794068238842e-15</v>
       </c>
     </row>
     <row r="4">
@@ -5366,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.5621598176172</v>
+        <v>107.6087216976375</v>
       </c>
       <c r="C4" t="n">
-        <v>2.271942595954285e-26</v>
+        <v>1.146409352686518e-25</v>
       </c>
     </row>
     <row r="5">
@@ -5379,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01372057415738351</v>
+        <v>-0.01169274786338174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04480724892987931</v>
+        <v>0.0914546644589838</v>
       </c>
     </row>
     <row r="6">
@@ -5392,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.637884814759246e-08</v>
+        <v>-4.724365434097812e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9819161606382695</v>
+        <v>0.3286832217076618</v>
       </c>
     </row>
     <row r="7">
@@ -5405,75 +4703,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.058466430598251</v>
+        <v>-13.40467618042411</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0033624601350446</v>
+        <v>5.053104753867676e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.533640247196736</v>
+        <v>-976.3775424826855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04410081566673524</v>
+        <v>0.01411906434299721</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-587.5535971400502</v>
+        <v>5039.262127150467</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2712505079092032</v>
+        <v>2.287878499060578e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-837.004859250213</v>
+        <v>24.97927733718765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03432202053752646</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5104.298451984037</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.305199943415122e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.94314397694995</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1160843159929476</v>
+        <v>0.03836329609704869</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +4759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2697.115316349458</v>
+        <v>3953.828235354331</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000428895355442925</v>
+        <v>2.907699834366691e-09</v>
       </c>
     </row>
     <row r="3">
@@ -5532,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5213475648477</v>
+        <v>138.8280759716268</v>
       </c>
       <c r="C3" t="n">
-        <v>8.718240421107711e-17</v>
+        <v>6.298718842963698e-12</v>
       </c>
     </row>
     <row r="4">
@@ -5545,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.5608126583609</v>
+        <v>110.1729197092947</v>
       </c>
       <c r="C4" t="n">
-        <v>2.74304763163066e-31</v>
+        <v>2.974182032362568e-25</v>
       </c>
     </row>
     <row r="5">
@@ -5558,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01128732041764786</v>
+        <v>-0.01679194636181062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07089379051645782</v>
+        <v>0.01907810526420715</v>
       </c>
     </row>
     <row r="6">
@@ -5571,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.127994414076072e-06</v>
+        <v>-5.442283894833673e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5247737800384349</v>
+        <v>0.2591353584133881</v>
       </c>
     </row>
     <row r="7">
@@ -5584,75 +4856,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.101573634035711</v>
+        <v>-12.99139599456728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004372157292433045</v>
+        <v>4.388455586975196e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.756387453428944</v>
+        <v>-471.1565995770651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01665060399430059</v>
+        <v>0.2085931372818718</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-657.4884630968127</v>
+        <v>4118.227504851445</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1869747635819762</v>
+        <v>9.635406899407509e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-478.4126242390424</v>
+        <v>8.088915475665743</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2184410410493293</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4901.189137888168</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.216534151363316e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.12378225572979</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7804943686283176</v>
+        <v>0.4869636954674449</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +4912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1981.895194807352</v>
+        <v>3586.961725334197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02147578401684944</v>
+        <v>1.321555753948673e-07</v>
       </c>
     </row>
     <row r="3">
@@ -5711,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.8790693805335</v>
+        <v>140.9245225239304</v>
       </c>
       <c r="C3" t="n">
-        <v>6.530557272120805e-14</v>
+        <v>9.628624279157472e-13</v>
       </c>
     </row>
     <row r="4">
@@ -5724,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.1768020991972</v>
+        <v>119.4758379535096</v>
       </c>
       <c r="C4" t="n">
-        <v>1.33316630602893e-30</v>
+        <v>2.347165524582873e-27</v>
       </c>
     </row>
     <row r="5">
@@ -5737,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01256672859618936</v>
+        <v>-0.01509939942828467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07362951762383575</v>
+        <v>0.02889594934316322</v>
       </c>
     </row>
     <row r="6">
@@ -5750,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.517812442019493e-07</v>
+        <v>-6.79516095844145e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6894562519866418</v>
+        <v>0.1903754189671721</v>
       </c>
     </row>
     <row r="7">
@@ -5763,75 +5009,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.168889717683596</v>
+        <v>-12.26819195799747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01112372156716001</v>
+        <v>2.701018662325208e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.085692710616396</v>
+        <v>-678.5984322435874</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05648603774801221</v>
+        <v>0.06990100346302108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-258.2809929561378</v>
+        <v>4475.919143985646</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6409568372220791</v>
+        <v>1.46026183561759e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-740.6949794967381</v>
+        <v>12.40681042374619</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06252416035965615</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4294.271059779945</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.047008780380153e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.2040038549284</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1171628661941125</v>
+        <v>0.2932863019104636</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +5065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1627.051400635665</v>
+        <v>2974.847444013914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04643214862505578</v>
+        <v>8.158134271789134e-06</v>
       </c>
     </row>
     <row r="3">
@@ -5890,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.4356228519682</v>
+        <v>173.987533085193</v>
       </c>
       <c r="C3" t="n">
-        <v>1.443855695479449e-12</v>
+        <v>8.903411375083285e-17</v>
       </c>
     </row>
     <row r="4">
@@ -5903,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.4596532619385</v>
+        <v>106.8598484885836</v>
       </c>
       <c r="C4" t="n">
-        <v>5.787555030539157e-30</v>
+        <v>9.269737947251408e-25</v>
       </c>
     </row>
     <row r="5">
@@ -5916,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01374994857035903</v>
+        <v>-0.01193185054923085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03374598619877493</v>
+        <v>0.07905573966083086</v>
       </c>
     </row>
     <row r="6">
@@ -5929,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.192736652336772e-07</v>
+        <v>-6.711461803158197e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9269354542613918</v>
+        <v>0.1737061840677675</v>
       </c>
     </row>
     <row r="7">
@@ -5942,75 +5162,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.09038888531486</v>
+        <v>-13.98053408864442</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007259408686677583</v>
+        <v>2.999393038033954e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.831000317712853</v>
+        <v>-812.8046082337387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01316371904671893</v>
+        <v>0.02818631855377842</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-907.3159984006006</v>
+        <v>5289.902876929059</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08702577115264101</v>
+        <v>2.190154242508803e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-756.7218077553716</v>
+        <v>25.20121685103248</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05250360105274219</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4360.315165327838</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.203477410667995e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>29.98528735739863</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01232367774255185</v>
+        <v>0.0293920614657929</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +5218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2077.7451823056</v>
+        <v>3498.281955589024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00992615666445185</v>
+        <v>9.499430371136529e-08</v>
       </c>
     </row>
     <row r="3">
@@ -6069,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.5568907781532</v>
+        <v>161.7192809133393</v>
       </c>
       <c r="C3" t="n">
-        <v>3.516632480409228e-13</v>
+        <v>4.480272120805945e-14</v>
       </c>
     </row>
     <row r="4">
@@ -6082,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.9133478151114</v>
+        <v>106.0688812529312</v>
       </c>
       <c r="C4" t="n">
-        <v>4.494381294421485e-27</v>
+        <v>1.91806679169636e-26</v>
       </c>
     </row>
     <row r="5">
@@ -6095,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0117004603938867</v>
+        <v>-0.01809428089979023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07263250691805817</v>
+        <v>0.008989984639090865</v>
       </c>
     </row>
     <row r="6">
@@ -6108,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.935660437407254e-06</v>
+        <v>2.596622445019835e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.552435088162653</v>
+        <v>0.6525577959256297</v>
       </c>
     </row>
     <row r="7">
@@ -6121,75 +5315,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.10606305360636</v>
+        <v>-12.29185210416</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006086253239278361</v>
+        <v>6.481630156244712e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.818197362087869</v>
+        <v>-128.6836849473195</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04991194989174818</v>
+        <v>0.7349535460545671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-632.0799664619218</v>
+        <v>6600.554282208118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2333727822470228</v>
+        <v>1.92260952089706e-12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-876.0054998375506</v>
+        <v>-3.735168763812023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02522661074317781</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4858.659044037766</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.606585194758763e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>21.46685449449213</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05205211444012486</v>
+        <v>0.7574525058890471</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +5371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014.077425592799</v>
+        <v>3090.097734832637</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01226399418668248</v>
+        <v>7.332713996588997e-07</v>
       </c>
     </row>
     <row r="3">
@@ -6248,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.5574604516164</v>
+        <v>145.2812594150118</v>
       </c>
       <c r="C3" t="n">
-        <v>1.847659932726013e-13</v>
+        <v>2.589576917229316e-13</v>
       </c>
     </row>
     <row r="4">
@@ -6261,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.864675771894</v>
+        <v>105.6340229518037</v>
       </c>
       <c r="C4" t="n">
-        <v>1.29709151733291e-27</v>
+        <v>1.702003365711903e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6274,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01597002899634831</v>
+        <v>-0.01054149853898319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01419814997738833</v>
+        <v>0.1193171748207338</v>
       </c>
     </row>
     <row r="6">
@@ -6287,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.090707056210063e-06</v>
+        <v>-6.226142599631898e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6362780126072414</v>
+        <v>0.2051249972998062</v>
       </c>
     </row>
     <row r="7">
@@ -6300,75 +5468,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.606818925987563</v>
+        <v>-13.71911957135996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001061395792928266</v>
+        <v>4.1767885651226e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.024732975630648</v>
+        <v>-1016.408589357698</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06512207440359449</v>
+        <v>0.006012512768235399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-825.2037336695421</v>
+        <v>4766.684289906229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1021731936049388</v>
+        <v>7.953111451268456e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-741.28023463623</v>
+        <v>27.84694181469261</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05353576262113476</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5371.689449434325</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.076234386110334e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.24017912803524</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07587908555874344</v>
+        <v>0.014179897837391</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +5524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1657.108999694974</v>
+        <v>3354.955858050205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02452952479186979</v>
+        <v>9.170447933896197e-07</v>
       </c>
     </row>
     <row r="3">
@@ -6427,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.8486561146738</v>
+        <v>163.0269796772309</v>
       </c>
       <c r="C3" t="n">
-        <v>2.105560579471598e-16</v>
+        <v>2.922267741134175e-13</v>
       </c>
     </row>
     <row r="4">
@@ -6440,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.1771384913795</v>
+        <v>105.8110495847033</v>
       </c>
       <c r="C4" t="n">
-        <v>4.883329892483195e-33</v>
+        <v>6.574320526309681e-25</v>
       </c>
     </row>
     <row r="5">
@@ -6453,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01407404294419858</v>
+        <v>-0.01342260069015543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01730749858061927</v>
+        <v>0.05169962885363669</v>
       </c>
     </row>
     <row r="6">
@@ -6466,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.630668068720391e-07</v>
+        <v>-5.559452330363501e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.858823236405971</v>
+        <v>0.3644040702618536</v>
       </c>
     </row>
     <row r="7">
@@ -6479,75 +5621,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.684713395130873</v>
+        <v>-13.20394456802413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04574686951535556</v>
+        <v>8.610121164087258e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.11443777710863</v>
+        <v>-937.3052642457188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001016990679737468</v>
+        <v>0.009871762230222242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-503.5379715847409</v>
+        <v>4522.310817617849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2946187339279146</v>
+        <v>3.569087815577895e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-120.212927938295</v>
+        <v>20.89045942031801</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7428667528140338</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5942.868430907056</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.073866835478033e-12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.8328286168916144</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9383631926565716</v>
+        <v>0.07301626026105572</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +5677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1197.761855656117</v>
+        <v>3337.782477408731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1189641144450457</v>
+        <v>9.404755256756933e-07</v>
       </c>
     </row>
     <row r="3">
@@ -6606,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.8527340505883</v>
+        <v>145.0933077204452</v>
       </c>
       <c r="C3" t="n">
-        <v>6.968166298732768e-16</v>
+        <v>1.020000229092179e-11</v>
       </c>
     </row>
     <row r="4">
@@ -6619,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.2154614878128</v>
+        <v>106.8881866986178</v>
       </c>
       <c r="C4" t="n">
-        <v>1.11040646767166e-33</v>
+        <v>1.481109911854466e-25</v>
       </c>
     </row>
     <row r="5">
@@ -6632,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0121360531768373</v>
+        <v>-0.01501908937376788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.049681091633154</v>
+        <v>0.0284786209130491</v>
       </c>
     </row>
     <row r="6">
@@ -6645,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.489089494179647e-07</v>
+        <v>-5.638325890926164e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9440187404673186</v>
+        <v>0.2332079597758324</v>
       </c>
     </row>
     <row r="7">
@@ -6658,75 +5774,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.443230828761565</v>
+        <v>-13.1758494696198</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02470320362047322</v>
+        <v>4.661441321894303e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.27896268133576</v>
+        <v>-392.4538675182416</v>
       </c>
       <c r="C8" t="n">
-        <v>3.44691568719949e-05</v>
+        <v>0.2982812270989427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>290.3683950292773</v>
+        <v>4404.376890183998</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5741226250466978</v>
+        <v>4.108437976921518e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-82.62583172373502</v>
+        <v>18.41746468666616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8235810122028748</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5477.772448470823</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.934935579534452e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.839677468297328</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9383136678508388</v>
+        <v>0.1366571343454026</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +5830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1368.670122438241</v>
+        <v>3152.662941622688</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1075288656246283</v>
+        <v>2.328774064292059e-06</v>
       </c>
     </row>
     <row r="3">
@@ -6785,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.0356310688307</v>
+        <v>171.7665184806832</v>
       </c>
       <c r="C3" t="n">
-        <v>1.477200349275627e-14</v>
+        <v>6.57064202701627e-16</v>
       </c>
     </row>
     <row r="4">
@@ -6798,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.2146867515079</v>
+        <v>110.6496413476949</v>
       </c>
       <c r="C4" t="n">
-        <v>4.891520635081183e-28</v>
+        <v>3.17769652347479e-24</v>
       </c>
     </row>
     <row r="5">
@@ -6811,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01156482566670066</v>
+        <v>-0.0165753757256565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08500453358790673</v>
+        <v>0.02067371721230959</v>
       </c>
     </row>
     <row r="6">
@@ -6824,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.220805861154496e-07</v>
+        <v>-1.467619670220386e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.813558721457752</v>
+        <v>0.772309935019215</v>
       </c>
     </row>
     <row r="7">
@@ -6837,75 +5927,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.214680366866408</v>
+        <v>-13.2669481203852</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01975125655693505</v>
+        <v>3.779921187538561e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.78295804772036</v>
+        <v>-625.9496334751703</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001460267153471369</v>
+        <v>0.09339097874276867</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-307.1468031354098</v>
+        <v>5121.951285336863</v>
       </c>
       <c r="C9" t="n">
-        <v>0.55477102009419</v>
+        <v>1.222751750776078e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-669.7808877326027</v>
+        <v>19.21324629166727</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09015013491482197</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4363.311672395585</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.10916075843243e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.70087632833533</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1501915970804242</v>
+        <v>0.09868496975305108</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +5983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2199.745948980989</v>
+        <v>3630.487900857465</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006127974916849346</v>
+        <v>3.517665932693824e-08</v>
       </c>
     </row>
     <row r="3">
@@ -6964,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.6350664126286</v>
+        <v>162.6334423555431</v>
       </c>
       <c r="C3" t="n">
-        <v>1.648022830490479e-10</v>
+        <v>1.111632402956711e-16</v>
       </c>
     </row>
     <row r="4">
@@ -6977,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.0383816181622</v>
+        <v>105.8067132612403</v>
       </c>
       <c r="C4" t="n">
-        <v>1.811259419884752e-28</v>
+        <v>1.114678941673639e-26</v>
       </c>
     </row>
     <row r="5">
@@ -6990,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01193888292385789</v>
+        <v>-0.01536350988848283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07161718779559816</v>
+        <v>0.02284698201233786</v>
       </c>
     </row>
     <row r="6">
@@ -7003,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.098135922969365e-06</v>
+        <v>-5.194336547133503e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6240544983305202</v>
+        <v>0.284048183645205</v>
       </c>
     </row>
     <row r="7">
@@ -7016,75 +6080,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.775064312734958</v>
+        <v>-12.00388163121152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008811560776252153</v>
+        <v>1.450271969215365e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.498688312673531</v>
+        <v>-350.3507738501844</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04707812077876875</v>
+        <v>0.3425091254083384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-828.5421642642277</v>
+        <v>5822.298869136997</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1187791157284507</v>
+        <v>4.20943080031215e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-924.4893044982058</v>
+        <v>-0.118545082596377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02079336473180825</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5065.63694878676</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.570549776940514e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>18.72834526833734</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09382385938652743</v>
+        <v>0.9921944475671893</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +6136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1752.054884224677</v>
+        <v>2626.329448738248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0297810666576138</v>
+        <v>5.331649456402869e-05</v>
       </c>
     </row>
     <row r="3">
@@ -7143,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.89396098453</v>
+        <v>161.216721166667</v>
       </c>
       <c r="C3" t="n">
-        <v>3.399935818458409e-15</v>
+        <v>1.541784437438627e-15</v>
       </c>
     </row>
     <row r="4">
@@ -7156,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.5506651275569</v>
+        <v>115.926425166442</v>
       </c>
       <c r="C4" t="n">
-        <v>2.141940286922443e-29</v>
+        <v>2.244520250643097e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7169,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01360480059085124</v>
+        <v>-0.01200797453605265</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03758429472833564</v>
+        <v>0.06320074874434592</v>
       </c>
     </row>
     <row r="6">
@@ -7182,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.754230020997262e-06</v>
+        <v>-5.525815549570211e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.468183370241157</v>
+        <v>0.2475798523735505</v>
       </c>
     </row>
     <row r="7">
@@ -7195,75 +6233,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.35843592004507</v>
+        <v>-13.07021263025013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007338344748732311</v>
+        <v>3.250865117768013e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.351200547574056</v>
+        <v>-519.9810755674141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06727945618092701</v>
+        <v>0.1454484704032841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-293.9779864709328</v>
+        <v>5547.358525413363</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5973871346126676</v>
+        <v>1.959103571777388e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-769.0928187029916</v>
+        <v>24.74218629418513</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04698095906868457</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5123.532371963647</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.689538249724501e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.69587464500702</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02684791785450609</v>
+        <v>0.03357729973400438</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.30771128209</v>
+        <v>3362.020234381894</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03554899917651424</v>
+        <v>5.185688149952365e-07</v>
       </c>
     </row>
     <row r="3">
@@ -7322,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.2488037213362</v>
+        <v>140.561368372727</v>
       </c>
       <c r="C3" t="n">
-        <v>1.314178611020794e-13</v>
+        <v>1.452234053877049e-10</v>
       </c>
     </row>
     <row r="4">
@@ -7335,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.0021900865776</v>
+        <v>107.9681338543489</v>
       </c>
       <c r="C4" t="n">
-        <v>1.070852887141089e-30</v>
+        <v>3.361911362029724e-27</v>
       </c>
     </row>
     <row r="5">
@@ -7348,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01520081719806604</v>
+        <v>-0.01070014154219706</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01686264195604074</v>
+        <v>0.1203425071671322</v>
       </c>
     </row>
     <row r="6">
@@ -7361,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.369402451085501e-07</v>
+        <v>-8.056146641975617e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.87815035343857</v>
+        <v>0.1150447963000761</v>
       </c>
     </row>
     <row r="7">
@@ -7374,75 +6386,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.333002739619877</v>
+        <v>-14.47181980011396</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004582991808185418</v>
+        <v>3.240514452509545e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.92525873041221</v>
+        <v>-826.3627686037673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001553751048747274</v>
+        <v>0.03322447630996746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-870.5610356805715</v>
+        <v>5176.637033835435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.101817491391499</v>
+        <v>1.851079006317157e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-675.6208819555925</v>
+        <v>19.11201356027737</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06998905158039426</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4731.72438030059</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.020398859297678e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.18609434870115</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0668822765900242</v>
+        <v>0.1047763438604065</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2183.773032581854</v>
+        <v>3596.76504925992</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007964282592447022</v>
+        <v>6.461557078289014e-08</v>
       </c>
     </row>
     <row r="3">
@@ -7501,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.6822825318773</v>
+        <v>129.1613937694263</v>
       </c>
       <c r="C3" t="n">
-        <v>1.064867056488399e-13</v>
+        <v>3.519177611314659e-10</v>
       </c>
     </row>
     <row r="4">
@@ -7514,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.7606810203713</v>
+        <v>105.1610606536058</v>
       </c>
       <c r="C4" t="n">
-        <v>4.197543598874522e-31</v>
+        <v>7.307178417367844e-25</v>
       </c>
     </row>
     <row r="5">
@@ -7527,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01531400448266995</v>
+        <v>-0.01457041747998159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01819895061791209</v>
+        <v>0.04136342700425222</v>
       </c>
     </row>
     <row r="6">
@@ -7540,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.983074331826088e-07</v>
+        <v>-5.001668673090561e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8962662921018306</v>
+        <v>0.3732531632852288</v>
       </c>
     </row>
     <row r="7">
@@ -7553,75 +6539,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.946919819115356</v>
+        <v>-12.68314282646247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007361855267560963</v>
+        <v>2.140477901408607e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.334678015715561</v>
+        <v>-874.6965675334686</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0432552640401624</v>
+        <v>0.02584417355817532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-60.9224486826065</v>
+        <v>4024.924049539658</v>
       </c>
       <c r="C9" t="n">
-        <v>0.903769548863338</v>
+        <v>1.945196450404343e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-192.168202156904</v>
+        <v>20.39225390432392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6114462497953803</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4817.166126531002</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.737852409001248e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.201542535284851</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6489175991168692</v>
+        <v>0.09237780600510777</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +6595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1842.259686662019</v>
+        <v>3798.31014106666</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02003610476148356</v>
+        <v>6.050731751849945e-10</v>
       </c>
     </row>
     <row r="3">
@@ -7680,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.0427176516323</v>
+        <v>160.6716537480346</v>
       </c>
       <c r="C3" t="n">
-        <v>1.270733200308004e-17</v>
+        <v>7.768547512031049e-16</v>
       </c>
     </row>
     <row r="4">
@@ -7693,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.1599588752481</v>
+        <v>107.0642200909777</v>
       </c>
       <c r="C4" t="n">
-        <v>2.015992974005971e-30</v>
+        <v>6.845890941715533e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7706,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01495642838082937</v>
+        <v>-0.01342500424964039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01987487702016601</v>
+        <v>0.05372520321423729</v>
       </c>
     </row>
     <row r="6">
@@ -7719,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.97550595459107e-07</v>
+        <v>-4.347569391769879e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7482125824801853</v>
+        <v>0.3439102697364103</v>
       </c>
     </row>
     <row r="7">
@@ -7732,75 +6692,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.756220871835571</v>
+        <v>-12.25128989638746</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05094638531880563</v>
+        <v>3.655233577821788e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.8343755290812</v>
+        <v>-536.7035120479434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02155444387658049</v>
+        <v>0.1293542531377582</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-394.3457913276197</v>
+        <v>5578.495698055983</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4452174335645003</v>
+        <v>4.651853159733335e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-355.6115762709895</v>
+        <v>-1.153657423877238</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3559768691238727</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6146.657579396181</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.178275190668423e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.795715240591797</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8791644906061649</v>
+        <v>0.9185793693599325</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +6748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2186.761523392699</v>
+        <v>2832.663259457113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006352115443604064</v>
+        <v>2.44897893158733e-05</v>
       </c>
     </row>
     <row r="3">
@@ -7859,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.3356755190053</v>
+        <v>168.3029851022099</v>
       </c>
       <c r="C3" t="n">
-        <v>7.74592467311604e-13</v>
+        <v>1.098444569786047e-16</v>
       </c>
     </row>
     <row r="4">
@@ -7872,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.553585897204</v>
+        <v>111.1279730351711</v>
       </c>
       <c r="C4" t="n">
-        <v>9.963163551995183e-30</v>
+        <v>2.204879822959495e-26</v>
       </c>
     </row>
     <row r="5">
@@ -7885,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01069388835684476</v>
+        <v>-0.01652388654081702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09616198217646733</v>
+        <v>0.01445227613242625</v>
       </c>
     </row>
     <row r="6">
@@ -7898,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.827457508202435e-07</v>
+        <v>-5.006360913692289e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8042457863374888</v>
+        <v>0.9322104069497236</v>
       </c>
     </row>
     <row r="7">
@@ -7911,75 +6845,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.26819258694813</v>
+        <v>-13.34225763603833</v>
       </c>
       <c r="C7" t="n">
-        <v>9.753896108875647e-05</v>
+        <v>5.248097711468229e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.308765486885218</v>
+        <v>-516.2874699200701</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03176921463890645</v>
+        <v>0.1678300594605008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-537.7194085026681</v>
+        <v>5069.016867359573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.356794813768761</v>
+        <v>2.746146239220673e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-852.29451264612</v>
+        <v>24.85631630777308</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02605037044749557</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4518.92065457123</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.894841917165587e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.92249397147263</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04069277498694467</v>
+        <v>0.03817280314741882</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +6901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2311.267231333067</v>
+        <v>2597.326419269787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00738493669588849</v>
+        <v>7.07369258714469e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8038,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.5118212621192</v>
+        <v>156.674668897268</v>
       </c>
       <c r="C3" t="n">
-        <v>2.951094897027632e-13</v>
+        <v>3.895868806637987e-15</v>
       </c>
     </row>
     <row r="4">
@@ -8051,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.5835242838469</v>
+        <v>109.7778916786014</v>
       </c>
       <c r="C4" t="n">
-        <v>6.88451896908621e-29</v>
+        <v>8.115210891901614e-27</v>
       </c>
     </row>
     <row r="5">
@@ -8064,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007993824146815324</v>
+        <v>-0.01057954517498445</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2401592897376924</v>
+        <v>0.1159106887043248</v>
       </c>
     </row>
     <row r="6">
@@ -8077,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.965753067817196e-07</v>
+        <v>-7.494964559719996e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7421756570656266</v>
+        <v>0.1359633688215388</v>
       </c>
     </row>
     <row r="7">
@@ -8090,75 +6998,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.346227687529204</v>
+        <v>-15.14008182216519</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005493797429374089</v>
+        <v>7.681329935807885e-09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.707860904682931</v>
+        <v>-660.9066674993938</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1211095653082675</v>
+        <v>0.0684530910987734</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-515.9253129358941</v>
+        <v>5751.461355702728</v>
       </c>
       <c r="C9" t="n">
-        <v>0.33298937556397</v>
+        <v>7.36502173675302e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1098.675195796871</v>
+        <v>31.5276605915969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006003241562447419</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4501.494105389621</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.131279814803145e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.14452489153267</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1473937654027208</v>
+        <v>0.006975538816217625</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +7054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>564.944642662259</v>
+        <v>3530.831192672035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4718338433117731</v>
+        <v>2.739778798383515e-07</v>
       </c>
     </row>
     <row r="3">
@@ -8217,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.0102979057611</v>
+        <v>154.4220323015357</v>
       </c>
       <c r="C3" t="n">
-        <v>2.079493099629093e-13</v>
+        <v>1.817564166247061e-14</v>
       </c>
     </row>
     <row r="4">
@@ -8230,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.7888269345437</v>
+        <v>107.733216422433</v>
       </c>
       <c r="C4" t="n">
-        <v>2.904357718669083e-34</v>
+        <v>2.78187110735969e-25</v>
       </c>
     </row>
     <row r="5">
@@ -8243,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01694139870559276</v>
+        <v>-0.01192742706755315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008397708435738104</v>
+        <v>0.09106770600332507</v>
       </c>
     </row>
     <row r="6">
@@ -8256,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.726415855375842e-07</v>
+        <v>-5.803044612842906e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7814176582093576</v>
+        <v>0.2571497504579743</v>
       </c>
     </row>
     <row r="7">
@@ -8269,75 +7151,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.33999066960422</v>
+        <v>-11.37632474587215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06069850729218152</v>
+        <v>1.265683960349869e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.30715104107304</v>
+        <v>-794.8995415661548</v>
       </c>
       <c r="C8" t="n">
-        <v>1.652701517046852e-05</v>
+        <v>0.04526025980118265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-414.8555960021263</v>
+        <v>4471.094798119779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3976292534132809</v>
+        <v>6.78043058605876e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-458.0762346399397</v>
+        <v>12.96835041832517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2071271316248583</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4450.467261923518</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.746959117592245e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.41375233453366</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03440639287793681</v>
+        <v>0.2843889547019073</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +7207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2258.499797752124</v>
+        <v>3654.513290405866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006706676802736836</v>
+        <v>6.263429932809288e-08</v>
       </c>
     </row>
     <row r="3">
@@ -8396,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.0136093163916</v>
+        <v>131.2018769792128</v>
       </c>
       <c r="C3" t="n">
-        <v>2.24447964618475e-11</v>
+        <v>4.383531473768788e-11</v>
       </c>
     </row>
     <row r="4">
@@ -8409,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.0908636646189</v>
+        <v>107.0753598643371</v>
       </c>
       <c r="C4" t="n">
-        <v>3.390403987468233e-27</v>
+        <v>2.092221840597903e-25</v>
       </c>
     </row>
     <row r="5">
@@ -8422,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01138850145346858</v>
+        <v>-0.009914683788377385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09575474170628603</v>
+        <v>0.1528558770941022</v>
       </c>
     </row>
     <row r="6">
@@ -8435,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.26561161256917e-06</v>
+        <v>-6.627966363068747e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05648729154908268</v>
+        <v>0.1779919237595156</v>
       </c>
     </row>
     <row r="7">
@@ -8448,75 +7304,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.81178016337894</v>
+        <v>-14.3548096882386</v>
       </c>
       <c r="C7" t="n">
-        <v>9.958983606374325e-05</v>
+        <v>6.580157169644204e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.264661142696671</v>
+        <v>-745.7622394917448</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1855998247855356</v>
+        <v>0.05315985050777661</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-230.5355359627524</v>
+        <v>4525.25862173203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6855264582798692</v>
+        <v>2.697365529980544e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-691.1242461507245</v>
+        <v>16.28371731136527</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06468340255472703</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5206.046333274233</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.144704029897967e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.76109349022619</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04823460169388071</v>
+        <v>0.1715703100731348</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +7360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2066.856955946243</v>
+        <v>3650.134392457545</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01068985095435286</v>
+        <v>1.429057321346327e-07</v>
       </c>
     </row>
     <row r="3">
@@ -8575,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.3747825619052</v>
+        <v>118.3388087560827</v>
       </c>
       <c r="C3" t="n">
-        <v>9.506062636299913e-12</v>
+        <v>6.126962853097219e-07</v>
       </c>
     </row>
     <row r="4">
@@ -8588,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.1926359292896</v>
+        <v>107.8506221113724</v>
       </c>
       <c r="C4" t="n">
-        <v>1.916573020318622e-26</v>
+        <v>2.213743290149299e-24</v>
       </c>
     </row>
     <row r="5">
@@ -8601,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01570533731377677</v>
+        <v>-0.01593938879820696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01638056853229675</v>
+        <v>0.02106719477270303</v>
       </c>
     </row>
     <row r="6">
@@ -8614,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.267366106961344e-08</v>
+        <v>-6.574561645578624e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9685843992702333</v>
+        <v>0.186310700393235</v>
       </c>
     </row>
     <row r="7">
@@ -8627,75 +7457,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.99954360132259</v>
+        <v>-13.98189085210949</v>
       </c>
       <c r="C7" t="n">
-        <v>5.450845145634373e-05</v>
+        <v>2.223036137857969e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.199771642864004</v>
+        <v>-618.3821463506832</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03510369931878315</v>
+        <v>0.1099408056684751</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-445.6387988213182</v>
+        <v>4900.745931919946</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3898706765349312</v>
+        <v>3.110990451748414e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-435.7531336956162</v>
+        <v>14.605000028603</v>
       </c>
       <c r="C10" t="n">
-        <v>0.271145985714339</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4514.211198457377</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.108512149507989e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.90354962385742</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03778781554782707</v>
+        <v>0.234398886539628</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +7513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2312.309215205643</v>
+        <v>3197.556713284553</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006632178753888798</v>
+        <v>9.716885950175192e-07</v>
       </c>
     </row>
     <row r="3">
@@ -8754,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.4683194703873</v>
+        <v>145.3236513264021</v>
       </c>
       <c r="C3" t="n">
-        <v>5.895779158923965e-13</v>
+        <v>1.558180355313086e-12</v>
       </c>
     </row>
     <row r="4">
@@ -8767,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.0304536646766</v>
+        <v>108.7934866587037</v>
       </c>
       <c r="C4" t="n">
-        <v>1.776212209631409e-28</v>
+        <v>1.173020795598723e-26</v>
       </c>
     </row>
     <row r="5">
@@ -8780,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01440018312194488</v>
+        <v>-0.01302819108023448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02846662966609035</v>
+        <v>0.0718726400124832</v>
       </c>
     </row>
     <row r="6">
@@ -8793,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.952363615792946e-07</v>
+        <v>-5.44755395266791e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9326543628787509</v>
+        <v>0.2718780617347573</v>
       </c>
     </row>
     <row r="7">
@@ -8806,75 +7610,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.974643463822794</v>
+        <v>-14.1590459111179</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009300416936055849</v>
+        <v>7.800490574505759e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.753823941816072</v>
+        <v>-933.6077426348074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1053292680810598</v>
+        <v>0.01692042072395672</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1069.011412124471</v>
+        <v>5298.315193165905</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04697166076178855</v>
+        <v>1.719783686330874e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-913.3968402584792</v>
+        <v>21.8791158528543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02126218594404644</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4456.727060650601</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.448436694708751e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22.40102614152546</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05789436784896465</v>
+        <v>0.06349811174061498</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +7666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2064.303067667598</v>
+        <v>3428.940322651563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006257778269908532</v>
+        <v>2.46137624829066e-07</v>
       </c>
     </row>
     <row r="3">
@@ -8933,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.3557740250282</v>
+        <v>143.5059500700256</v>
       </c>
       <c r="C3" t="n">
-        <v>1.636805939703229e-12</v>
+        <v>2.439953011741101e-11</v>
       </c>
     </row>
     <row r="4">
@@ -8946,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.1223042531411</v>
+        <v>105.3936248083292</v>
       </c>
       <c r="C4" t="n">
-        <v>1.274829817720734e-29</v>
+        <v>1.158496799087901e-23</v>
       </c>
     </row>
     <row r="5">
@@ -8959,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01288137496404323</v>
+        <v>-0.01281662872443915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04106651935411418</v>
+        <v>0.05538350414358714</v>
       </c>
     </row>
     <row r="6">
@@ -8972,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.249691712387163e-08</v>
+        <v>-2.991188115531314e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9880602381993618</v>
+        <v>0.569450219417782</v>
       </c>
     </row>
     <row r="7">
@@ -8985,75 +7763,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.488722001507197</v>
+        <v>-13.03853195858351</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002900511779975095</v>
+        <v>5.725635898437432e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.73312801493772</v>
+        <v>-626.3326395474572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005833666122426101</v>
+        <v>0.08893126003124448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-583.9260568398047</v>
+        <v>4698.580245785777</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2471320534076168</v>
+        <v>1.225897300566411e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-625.4603916422452</v>
+        <v>16.44543360748168</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09256371787251355</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4450.104103048508</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.994125694809849e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.231870366067703</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3909472647907543</v>
+        <v>0.1558690918019791</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +7819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1382.245185940203</v>
+        <v>3371.780938118977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1001561563298431</v>
+        <v>2.474926566577713e-07</v>
       </c>
     </row>
     <row r="3">
@@ -9112,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.2213628837727</v>
+        <v>168.4476042754383</v>
       </c>
       <c r="C3" t="n">
-        <v>4.563797381719536e-15</v>
+        <v>1.993515529139913e-15</v>
       </c>
     </row>
     <row r="4">
@@ -9125,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.2218214388109</v>
+        <v>111.3378877196304</v>
       </c>
       <c r="C4" t="n">
-        <v>3.890467375150944e-33</v>
+        <v>1.514273996647215e-27</v>
       </c>
     </row>
     <row r="5">
@@ -9138,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01398824184205337</v>
+        <v>-0.01580296900319854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0341467278956946</v>
+        <v>0.02381415145456829</v>
       </c>
     </row>
     <row r="6">
@@ -9151,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.486273065331134e-07</v>
+        <v>-4.293939331987426e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7785347579118662</v>
+        <v>0.3738504254656693</v>
       </c>
     </row>
     <row r="7">
@@ -9164,75 +7916,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.429747328974678</v>
+        <v>-12.62379424269806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03165133509409351</v>
+        <v>7.898188834013721e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.71915298638099</v>
+        <v>-638.5426915416492</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00277429123766993</v>
+        <v>0.09491140086664597</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-462.3432458884043</v>
+        <v>4905.534394492541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3429236518963682</v>
+        <v>1.534160998061295e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-497.9211821974181</v>
+        <v>14.51816506588307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2023695499649092</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5546.329323330308</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.169718089174467e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.285400015143733</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4366533489253607</v>
+        <v>0.2184454862701903</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +7972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.956898466414</v>
+        <v>3350.584398322961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04142343392691671</v>
+        <v>5.395780694353699e-07</v>
       </c>
     </row>
     <row r="3">
@@ -9291,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.7181283159021</v>
+        <v>151.8546104201028</v>
       </c>
       <c r="C3" t="n">
-        <v>3.731288860615729e-11</v>
+        <v>5.152446441891155e-15</v>
       </c>
     </row>
     <row r="4">
@@ -9304,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.3305099789088</v>
+        <v>115.527932970344</v>
       </c>
       <c r="C4" t="n">
-        <v>1.911616542921999e-30</v>
+        <v>4.0850512868553e-27</v>
       </c>
     </row>
     <row r="5">
@@ -9317,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01682226007871142</v>
+        <v>-0.009877094115395254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01309816144865564</v>
+        <v>0.1364984537054947</v>
       </c>
     </row>
     <row r="6">
@@ -9330,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.309843604249731e-06</v>
+        <v>-8.091411999983305e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7166321688879964</v>
+        <v>0.1536232239700252</v>
       </c>
     </row>
     <row r="7">
@@ -9343,75 +8069,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.864134767044691</v>
+        <v>-12.9928726774696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02111384174634662</v>
+        <v>7.241124389200483e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.531401470181041</v>
+        <v>-325.6272568053853</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01302197101346451</v>
+        <v>0.374913529458231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-435.757571881425</v>
+        <v>5633.323940104477</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3947472903251071</v>
+        <v>2.821680861207349e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-419.1353598276783</v>
+        <v>6.89595311282924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2756953229507796</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4034.006912836479</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.358608618004344e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>20.56406660535161</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06314681509740899</v>
+        <v>0.5806048994226012</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Madrid.xlsx
+++ b/outputs/ML_Results/dist_LR/Madrid.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ08512913" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ08653419" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ08803092" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ08947037" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ09104132" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ09249394" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ09393111" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ09538560" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ09693180" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ09826472" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ09964787" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ10102478" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ10283496" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ10423937" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ10564087" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ10701227" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ10853552" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ10989315" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ11129957" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ11268705" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ11406327" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ11545499" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ11695404" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ11850462" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ12011167" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ12158627" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ12294703" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ12439732" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ12591346" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ12736921" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ12881357" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ13027748" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ13161376" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ13300387" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ13431760" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ13568293" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ13722477" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ13871017" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ14020237" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ14164258" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ14310269" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ14459993" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ14616273" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ14762112" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ14905865" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ15056841" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ15192390" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ15343037" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ15489140" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ15640941" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ46875735" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ46975651" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ47073585" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ47188704" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ47306065" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ47422272" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ47557703" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ47686740" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ47805935" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ47940770" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ48072367" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ48205600" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ48340843" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ48487837" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ48695504" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ48840640" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ48978742" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ49107923" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ49239971" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ49375025" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ49521939" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ49655140" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ49791075" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ49921840" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ50055843" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ50189378" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ50326987" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ50455261" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ50590714" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ50724683" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ50854194" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ50989947" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ51124089" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ51255028" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ51390872" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ51528643" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ51658142" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ51789157" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ51921825" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ52058870" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ52191625" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ52324251" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ52455022" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ52594645" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ52738888" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ52873211" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ53010908" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ53140362" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ53289629" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ53407605" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2738.771039054624</v>
+        <v>2621.875060046917</v>
       </c>
       <c r="C2" t="n">
-        <v>3.966819004939179e-05</v>
+        <v>5.332346588916471e-05</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.7096698760394</v>
+        <v>143.4397651406465</v>
       </c>
       <c r="C3" t="n">
-        <v>1.771401018754165e-14</v>
+        <v>4.09198374683918e-13</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.5330569684298</v>
+        <v>122.2565083984531</v>
       </c>
       <c r="C4" t="n">
-        <v>2.593556379740213e-25</v>
+        <v>8.955769762900846e-30</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01816893473342165</v>
+        <v>-0.01869086371389439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009941731247377067</v>
+        <v>0.005472982080577602</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.259522321406705e-06</v>
+        <v>1.027303632198271e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8072056165639753</v>
+        <v>0.9666043825991224</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.52202833316305</v>
+        <v>-13.08199783351073</v>
       </c>
       <c r="C7" t="n">
-        <v>4.131145156426627e-07</v>
+        <v>9.831659112936291e-07</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-597.3630595426021</v>
+        <v>-673.016613848728</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1151934726363807</v>
+        <v>0.07179090693374079</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5492.164822148528</v>
+        <v>5222.359528424327</v>
       </c>
       <c r="C9" t="n">
-        <v>6.504821219002959e-09</v>
+        <v>1.56179634204089e-08</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.11817277245024</v>
+        <v>29.32388285410815</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02422782001902367</v>
+        <v>0.01424254302756554</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2947.065926132292</v>
+        <v>3100.622023402408</v>
       </c>
       <c r="C2" t="n">
-        <v>1.456363071418672e-05</v>
+        <v>2.829445772715908e-06</v>
       </c>
     </row>
     <row r="3">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.6735022683185</v>
+        <v>166.9248584764526</v>
       </c>
       <c r="C3" t="n">
-        <v>2.078132317722499e-14</v>
+        <v>2.036552849235598e-16</v>
       </c>
     </row>
     <row r="4">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.1227743721289</v>
+        <v>107.939038111282</v>
       </c>
       <c r="C4" t="n">
-        <v>4.605451739535374e-26</v>
+        <v>1.637825233512179e-26</v>
       </c>
     </row>
     <row r="5">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01723339412098245</v>
+        <v>-0.02040959140840458</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01242302658083764</v>
+        <v>0.003505378015071036</v>
       </c>
     </row>
     <row r="6">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.748072298729232e-06</v>
+        <v>-3.063013178628326e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2381920890652119</v>
+        <v>0.894617564216492</v>
       </c>
     </row>
     <row r="7">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.34538321746567</v>
+        <v>-12.17412193219449</v>
       </c>
       <c r="C7" t="n">
-        <v>1.273532812934352e-06</v>
+        <v>1.983256460650877e-06</v>
       </c>
     </row>
     <row r="8">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-609.4268693926315</v>
+        <v>-441.4866119048249</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102316160164421</v>
+        <v>0.2352107489377774</v>
       </c>
     </row>
     <row r="9">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5187.818219684739</v>
+        <v>4570.944439213941</v>
       </c>
       <c r="C9" t="n">
-        <v>1.809702638865282e-08</v>
+        <v>7.042794282729691e-07</v>
       </c>
     </row>
     <row r="10">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.72108849804042</v>
+        <v>20.95944177323013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04549509862462046</v>
+        <v>0.07948857020332503</v>
       </c>
     </row>
   </sheetData>
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3143.963198662469</v>
+        <v>2616.208594753939</v>
       </c>
       <c r="C2" t="n">
-        <v>8.206262439064676e-07</v>
+        <v>4.073684982012347e-05</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.653918855813</v>
+        <v>161.2730359468564</v>
       </c>
       <c r="C3" t="n">
-        <v>3.995941469107148e-11</v>
+        <v>1.125674047370522e-14</v>
       </c>
     </row>
     <row r="4">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.0988959296296</v>
+        <v>111.2482691908339</v>
       </c>
       <c r="C4" t="n">
-        <v>3.616094301858406e-29</v>
+        <v>4.66448727902748e-29</v>
       </c>
     </row>
     <row r="5">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01464685262003855</v>
+        <v>-0.009784423562975337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02936867838900578</v>
+        <v>0.1389258153419081</v>
       </c>
     </row>
     <row r="6">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.61994339408227e-06</v>
+        <v>-6.885378031964481e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1717599723475211</v>
+        <v>0.06919228358074229</v>
       </c>
     </row>
     <row r="7">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.11931158005014</v>
+        <v>-13.06774518899521</v>
       </c>
       <c r="C7" t="n">
-        <v>1.339692913973289e-05</v>
+        <v>8.190167929590008e-07</v>
       </c>
     </row>
     <row r="8">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-772.3027201761163</v>
+        <v>-750.6981850392604</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03239413370921454</v>
+        <v>0.04432426220235681</v>
       </c>
     </row>
     <row r="9">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4527.254924603883</v>
+        <v>5785.437638817057</v>
       </c>
       <c r="C9" t="n">
-        <v>8.054129633688628e-07</v>
+        <v>3.997041567224073e-10</v>
       </c>
     </row>
     <row r="10">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.02038652014028</v>
+        <v>26.83646208346889</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05124365492131008</v>
+        <v>0.02080675656621635</v>
       </c>
     </row>
   </sheetData>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3480.577680972028</v>
+        <v>3554.769791442134</v>
       </c>
       <c r="C2" t="n">
-        <v>2.226354550293619e-07</v>
+        <v>3.629943857313886e-08</v>
       </c>
     </row>
     <row r="3">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.9477394001883</v>
+        <v>177.7816503128502</v>
       </c>
       <c r="C3" t="n">
-        <v>5.953905134126271e-17</v>
+        <v>3.407931534402767e-19</v>
       </c>
     </row>
     <row r="4">
@@ -992,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.42830292791507</v>
+        <v>108.5397101109839</v>
       </c>
       <c r="C4" t="n">
-        <v>1.447077692304967e-22</v>
+        <v>5.84472547963176e-27</v>
       </c>
     </row>
     <row r="5">
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01328300389749715</v>
+        <v>-0.01671395333113968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03869764329125215</v>
+        <v>0.008526744181375735</v>
       </c>
     </row>
     <row r="6">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.670458662985223e-06</v>
+        <v>2.756383511065975e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3039181297640692</v>
+        <v>0.8999697744832761</v>
       </c>
     </row>
     <row r="7">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.5399202731106</v>
+        <v>-11.14927274492829</v>
       </c>
       <c r="C7" t="n">
-        <v>3.611577758238992e-06</v>
+        <v>1.108010166460686e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-64.16496070070639</v>
+        <v>-202.7341352920707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8671247716804714</v>
+        <v>0.5702688784521531</v>
       </c>
     </row>
     <row r="9">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6336.758849659243</v>
+        <v>5122.021857311835</v>
       </c>
       <c r="C9" t="n">
-        <v>9.428165886423954e-12</v>
+        <v>3.375550883198382e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.945361324495593</v>
+        <v>0.786239626752625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8140255888762686</v>
+        <v>0.9469513817411167</v>
       </c>
     </row>
   </sheetData>
@@ -1119,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3465.267223659027</v>
+        <v>3306.556153353542</v>
       </c>
       <c r="C2" t="n">
-        <v>4.612749267434077e-07</v>
+        <v>1.020897512912923e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.4360841742265</v>
+        <v>151.5266778430201</v>
       </c>
       <c r="C3" t="n">
-        <v>1.014744211574924e-13</v>
+        <v>2.262074191651034e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.2963861596641</v>
+        <v>105.0878207440277</v>
       </c>
       <c r="C4" t="n">
-        <v>1.662626428337944e-23</v>
+        <v>4.85346221593697e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1158,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01203890337386342</v>
+        <v>-0.02017822745407302</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08701780051376065</v>
+        <v>0.003543944909966392</v>
       </c>
     </row>
     <row r="6">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.901608153167342e-06</v>
+        <v>8.073400080777171e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1737576971169769</v>
+        <v>0.973567860810888</v>
       </c>
     </row>
     <row r="7">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.41005604965146</v>
+        <v>-12.86434256823663</v>
       </c>
       <c r="C7" t="n">
-        <v>2.570257008250184e-07</v>
+        <v>6.494960652834869e-07</v>
       </c>
     </row>
     <row r="8">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-594.4069727202759</v>
+        <v>-387.063950596694</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1225215462421499</v>
+        <v>0.2964613058252111</v>
       </c>
     </row>
     <row r="9">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5025.629325242333</v>
+        <v>5016.037090224342</v>
       </c>
       <c r="C9" t="n">
-        <v>8.651894993983665e-07</v>
+        <v>4.903200402487114e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.84917685427205</v>
+        <v>16.25366372694178</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2523765032891638</v>
+        <v>0.1708654188034111</v>
       </c>
     </row>
   </sheetData>
@@ -1272,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2707.68115447347</v>
+        <v>3007.985365688936</v>
       </c>
       <c r="C2" t="n">
-        <v>2.820746137300173e-05</v>
+        <v>5.133066391328194e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.2366857807909</v>
+        <v>142.627432497271</v>
       </c>
       <c r="C3" t="n">
-        <v>1.851669233896894e-14</v>
+        <v>3.785348175326691e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.871162458796</v>
+        <v>117.4313726128399</v>
       </c>
       <c r="C4" t="n">
-        <v>3.092730596535981e-29</v>
+        <v>2.329727928837518e-29</v>
       </c>
     </row>
     <row r="5">
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01683230334214789</v>
+        <v>-0.01351459022631869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01534938790051751</v>
+        <v>0.05143180897817096</v>
       </c>
     </row>
     <row r="6">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.032185483434496e-06</v>
+        <v>1.546331478485973e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8541312251295079</v>
+        <v>0.5279206958264002</v>
       </c>
     </row>
     <row r="7">
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.38565045062974</v>
+        <v>-13.99593365143666</v>
       </c>
       <c r="C7" t="n">
-        <v>4.52975437951776e-08</v>
+        <v>4.6383104538725e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-794.9151886955638</v>
+        <v>-870.0031909026836</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03281945860198665</v>
+        <v>0.02439955809198657</v>
       </c>
     </row>
     <row r="9">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5383.316835993381</v>
+        <v>4955.767067927056</v>
       </c>
       <c r="C9" t="n">
-        <v>1.618628684933013e-08</v>
+        <v>1.08157948414093e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.76765871466957</v>
+        <v>24.72829897639161</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01011125078936615</v>
+        <v>0.03634584201216973</v>
       </c>
     </row>
   </sheetData>
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3704.90442673263</v>
+        <v>3759.160335851658</v>
       </c>
       <c r="C2" t="n">
-        <v>2.590894018071798e-08</v>
+        <v>2.529538920259654e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3661469099637</v>
+        <v>139.7315315480717</v>
       </c>
       <c r="C3" t="n">
-        <v>3.498731858072315e-13</v>
+        <v>4.790937125199467e-11</v>
       </c>
     </row>
     <row r="4">
@@ -1451,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.376091141371</v>
+        <v>109.85405784027</v>
       </c>
       <c r="C4" t="n">
-        <v>6.198263802515271e-27</v>
+        <v>8.882779074481665e-29</v>
       </c>
     </row>
     <row r="5">
@@ -1464,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01245957553471161</v>
+        <v>-0.01491437470069817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08212198370010879</v>
+        <v>0.03570350512532631</v>
       </c>
     </row>
     <row r="6">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.746626145123243e-06</v>
+        <v>9.502284257043688e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3789317651577647</v>
+        <v>0.9678449234643903</v>
       </c>
     </row>
     <row r="7">
@@ -1490,10 +1490,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.21795640336336</v>
+        <v>-13.87911648326587</v>
       </c>
       <c r="C7" t="n">
-        <v>9.068793288767016e-08</v>
+        <v>4.684548416337433e-08</v>
       </c>
     </row>
     <row r="8">
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-813.9448286436582</v>
+        <v>-823.2637760740421</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02952361224182182</v>
+        <v>0.03042855789204734</v>
       </c>
     </row>
     <row r="9">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4519.950211547277</v>
+        <v>4426.805527240505</v>
       </c>
       <c r="C9" t="n">
-        <v>1.451575997108498e-06</v>
+        <v>2.47249753320129e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.76998163869538</v>
+        <v>12.85622728958485</v>
       </c>
       <c r="C10" t="n">
-        <v>0.244278097227059</v>
+        <v>0.2821308224265593</v>
       </c>
     </row>
   </sheetData>
@@ -1578,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4000.775392604231</v>
+        <v>3509.452814986274</v>
       </c>
       <c r="C2" t="n">
-        <v>3.112647115547863e-09</v>
+        <v>2.162862803934544e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.8291502687159</v>
+        <v>143.1031745536359</v>
       </c>
       <c r="C3" t="n">
-        <v>4.169970432555022e-14</v>
+        <v>5.465098733294558e-14</v>
       </c>
     </row>
     <row r="4">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.4838946353464</v>
+        <v>105.8803889679605</v>
       </c>
       <c r="C4" t="n">
-        <v>1.311535674196479e-26</v>
+        <v>8.667867736242413e-29</v>
       </c>
     </row>
     <row r="5">
@@ -1617,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.015781848592228</v>
+        <v>-0.01498736547891556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01976832309213206</v>
+        <v>0.02159210337084745</v>
       </c>
     </row>
     <row r="6">
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.11829693715556e-06</v>
+        <v>-2.165141810921911e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4292005904376075</v>
+        <v>0.521946405301686</v>
       </c>
     </row>
     <row r="7">
@@ -1643,10 +1643,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.34754658758639</v>
+        <v>-14.76070923186805</v>
       </c>
       <c r="C7" t="n">
-        <v>1.935902232976399e-05</v>
+        <v>2.542054932279559e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-46.38113392936998</v>
+        <v>-447.8116948234674</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9065376168768766</v>
+        <v>0.2196049797649918</v>
       </c>
     </row>
     <row r="9">
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5155.12684257512</v>
+        <v>4787.889739033339</v>
       </c>
       <c r="C9" t="n">
-        <v>1.685308368322165e-06</v>
+        <v>2.07029928009684e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-7.42406728293755</v>
+        <v>15.21950678438832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.560579762398852</v>
+        <v>0.1836437006675188</v>
       </c>
     </row>
   </sheetData>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2933.465091338818</v>
+        <v>2986.657284296791</v>
       </c>
       <c r="C2" t="n">
-        <v>1.268569271418336e-05</v>
+        <v>5.074921135126356e-06</v>
       </c>
     </row>
     <row r="3">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.7347040224446</v>
+        <v>150.2322816916873</v>
       </c>
       <c r="C3" t="n">
-        <v>1.553061250896884e-14</v>
+        <v>4.604210518995322e-13</v>
       </c>
     </row>
     <row r="4">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.4902060542594</v>
+        <v>114.118468246656</v>
       </c>
       <c r="C4" t="n">
-        <v>6.461912867689058e-24</v>
+        <v>3.276092862975789e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01471392505407709</v>
+        <v>-0.01696614783087717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02867525937545504</v>
+        <v>0.01308710577560673</v>
       </c>
     </row>
     <row r="6">
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.455762372687286e-06</v>
+        <v>9.637719002215721e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2527887655433115</v>
+        <v>0.9671710413474467</v>
       </c>
     </row>
     <row r="7">
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.49060829796527</v>
+        <v>-10.61382648085841</v>
       </c>
       <c r="C7" t="n">
-        <v>9.338448345133346e-07</v>
+        <v>3.558333428309861e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-793.1963013457607</v>
+        <v>-865.8618488221209</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03181632208750167</v>
+        <v>0.02046815476372505</v>
       </c>
     </row>
     <row r="9">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5504.655592391586</v>
+        <v>4607.978329410199</v>
       </c>
       <c r="C9" t="n">
-        <v>2.851953775775044e-09</v>
+        <v>4.54830066639108e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.68444344275611</v>
+        <v>23.31083011863815</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05659556050223818</v>
+        <v>0.04686245597731416</v>
       </c>
     </row>
   </sheetData>
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3362.797029930087</v>
+        <v>3585.631596991364</v>
       </c>
       <c r="C2" t="n">
-        <v>4.630762172910424e-07</v>
+        <v>1.318503908908816e-07</v>
       </c>
     </row>
     <row r="3">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.3620803200339</v>
+        <v>172.5889349998631</v>
       </c>
       <c r="C3" t="n">
-        <v>4.408742307522542e-16</v>
+        <v>1.023478266373782e-15</v>
       </c>
     </row>
     <row r="4">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.4316520357618</v>
+        <v>108.1091492155891</v>
       </c>
       <c r="C4" t="n">
-        <v>5.694347957565242e-26</v>
+        <v>3.978808146002141e-27</v>
       </c>
     </row>
     <row r="5">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009571553272989279</v>
+        <v>-0.009435517499352116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1679889265054597</v>
+        <v>0.1773771309051499</v>
       </c>
     </row>
     <row r="6">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.088929141284246e-06</v>
+        <v>-2.243068825066162e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2495321877635407</v>
+        <v>0.9241101420715956</v>
       </c>
     </row>
     <row r="7">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.298423362862</v>
+        <v>-14.36951748950664</v>
       </c>
       <c r="C7" t="n">
-        <v>1.453968667844596e-09</v>
+        <v>1.310270696588532e-07</v>
       </c>
     </row>
     <row r="8">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-616.8906096502817</v>
+        <v>-1020.969311925655</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09364830022435032</v>
+        <v>0.007283127562959855</v>
       </c>
     </row>
     <row r="9">
@@ -1975,10 +1975,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5335.889799013161</v>
+        <v>4689.106906339923</v>
       </c>
       <c r="C9" t="n">
-        <v>1.160416953386524e-08</v>
+        <v>7.33081424002211e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.62464567054983</v>
+        <v>15.30319235118609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1804343887603268</v>
+        <v>0.2078508979435334</v>
       </c>
     </row>
   </sheetData>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2767.051864704528</v>
+        <v>3354.815407009993</v>
       </c>
       <c r="C2" t="n">
-        <v>1.800835001294167e-05</v>
+        <v>1.726151984578922e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174.8278734196605</v>
+        <v>175.3023064225928</v>
       </c>
       <c r="C3" t="n">
-        <v>6.511065217988342e-14</v>
+        <v>8.755883296544953e-17</v>
       </c>
     </row>
     <row r="4">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.8147499709291</v>
+        <v>111.4634681247555</v>
       </c>
       <c r="C4" t="n">
-        <v>6.033981674410917e-27</v>
+        <v>2.031192350327943e-28</v>
       </c>
     </row>
     <row r="5">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01127607032075169</v>
+        <v>-0.01365744531561988</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1007684698058701</v>
+        <v>0.03595913626651149</v>
       </c>
     </row>
     <row r="6">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.11670990607534e-06</v>
+        <v>1.442270920377702e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4618342653555515</v>
+        <v>0.5778874611661137</v>
       </c>
     </row>
     <row r="7">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.25019231819821</v>
+        <v>-11.97009900926389</v>
       </c>
       <c r="C7" t="n">
-        <v>1.401162756617049e-06</v>
+        <v>1.673311040602811e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-827.482202979974</v>
+        <v>-344.1677931993005</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02736891371818418</v>
+        <v>0.3510749866698502</v>
       </c>
     </row>
     <row r="9">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5114.478510293071</v>
+        <v>5990.371494627805</v>
       </c>
       <c r="C9" t="n">
-        <v>3.103284193154953e-08</v>
+        <v>6.65565187851041e-10</v>
       </c>
     </row>
     <row r="10">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.70044420916435</v>
+        <v>1.163283724765094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0264983627214881</v>
+        <v>0.9223896193654075</v>
       </c>
     </row>
   </sheetData>
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3226.223633130088</v>
+        <v>2909.87059424362</v>
       </c>
       <c r="C2" t="n">
-        <v>2.411333345081749e-07</v>
+        <v>1.228316942285441e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164.0402044302759</v>
+        <v>169.7466272456305</v>
       </c>
       <c r="C3" t="n">
-        <v>1.450941444942937e-17</v>
+        <v>5.549879618050112e-17</v>
       </c>
     </row>
     <row r="4">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.764138528744</v>
+        <v>110.7930006058299</v>
       </c>
       <c r="C4" t="n">
-        <v>1.77752271360819e-29</v>
+        <v>1.019068863978563e-26</v>
       </c>
     </row>
     <row r="5">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01099739845163531</v>
+        <v>-0.0145006283396765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09722679535849985</v>
+        <v>0.04023138256702534</v>
       </c>
     </row>
     <row r="6">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.464206606856764e-06</v>
+        <v>-5.723399230902798e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1665913800117194</v>
+        <v>0.8043769671086599</v>
       </c>
     </row>
     <row r="7">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.4203915675731</v>
+        <v>-13.74022169557779</v>
       </c>
       <c r="C7" t="n">
-        <v>5.124900795820049e-07</v>
+        <v>7.448980156774599e-08</v>
       </c>
     </row>
     <row r="8">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-189.9106274227415</v>
+        <v>-619.4332807310775</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6038873299276339</v>
+        <v>0.09243807399293849</v>
       </c>
     </row>
     <row r="9">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6099.700739067261</v>
+        <v>4922.292956580612</v>
       </c>
       <c r="C9" t="n">
-        <v>1.249357061803305e-10</v>
+        <v>2.013820783654607e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.26809772360166</v>
+        <v>24.93146874157495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7862757346702014</v>
+        <v>0.03305255551392945</v>
       </c>
     </row>
   </sheetData>
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3361.62671404236</v>
+        <v>2895.584045193394</v>
       </c>
       <c r="C2" t="n">
-        <v>3.087918503404824e-07</v>
+        <v>9.22354687513905e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.4823280812416</v>
+        <v>132.950724612109</v>
       </c>
       <c r="C3" t="n">
-        <v>9.381088896445733e-11</v>
+        <v>1.889624040703471e-10</v>
       </c>
     </row>
     <row r="4">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.1639516560682</v>
+        <v>115.571541281197</v>
       </c>
       <c r="C4" t="n">
-        <v>4.553877729360507e-27</v>
+        <v>1.429508969304128e-29</v>
       </c>
     </row>
     <row r="5">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01728061118768175</v>
+        <v>-0.02206568257894345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01526262530173162</v>
+        <v>0.001870658160703918</v>
       </c>
     </row>
     <row r="6">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.748126870683773e-06</v>
+        <v>-3.521364242236916e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2248469033720047</v>
+        <v>0.8792078017996201</v>
       </c>
     </row>
     <row r="7">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.28142403440515</v>
+        <v>-13.50466457806262</v>
       </c>
       <c r="C7" t="n">
-        <v>9.862584056529192e-07</v>
+        <v>2.540161640412483e-07</v>
       </c>
     </row>
     <row r="8">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-720.2486027021944</v>
+        <v>-267.0269710515335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05445832192276123</v>
+        <v>0.4839491345315711</v>
       </c>
     </row>
     <row r="9">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4762.259650539256</v>
+        <v>5065.79214562615</v>
       </c>
       <c r="C9" t="n">
-        <v>3.128540097696299e-07</v>
+        <v>1.974022687425533e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.96302728655744</v>
+        <v>24.29176904787629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07293061638554228</v>
+        <v>0.04087533868492128</v>
       </c>
     </row>
   </sheetData>
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2872.121125450461</v>
+        <v>2988.304762937098</v>
       </c>
       <c r="C2" t="n">
-        <v>9.611670899935308e-06</v>
+        <v>3.592035006553959e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.7993509680771</v>
+        <v>145.0392712479534</v>
       </c>
       <c r="C3" t="n">
-        <v>2.477353372771176e-14</v>
+        <v>1.083286177703583e-12</v>
       </c>
     </row>
     <row r="4">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.5729093778739</v>
+        <v>106.4084680855777</v>
       </c>
       <c r="C4" t="n">
-        <v>2.80359029929559e-24</v>
+        <v>3.917548227449999e-25</v>
       </c>
     </row>
     <row r="5">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0158462131739617</v>
+        <v>-0.01738528478626983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03129231813867688</v>
+        <v>0.01740145915945288</v>
       </c>
     </row>
     <row r="6">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.479638410830556e-06</v>
+        <v>-1.724547811368842e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5039001931018106</v>
+        <v>0.637877687514443</v>
       </c>
     </row>
     <row r="7">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.38983773782309</v>
+        <v>-14.37599744391544</v>
       </c>
       <c r="C7" t="n">
-        <v>1.368017066202288e-07</v>
+        <v>2.247566758442952e-08</v>
       </c>
     </row>
     <row r="8">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-543.9878127575422</v>
+        <v>-554.6137447841295</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1388772978344482</v>
+        <v>0.1331417274685543</v>
       </c>
     </row>
     <row r="9">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5300.572058639143</v>
+        <v>5508.707078272058</v>
       </c>
       <c r="C9" t="n">
-        <v>2.133085138531017e-08</v>
+        <v>1.321290614121782e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.09101827002649</v>
+        <v>23.99875909935331</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02958060344900743</v>
+        <v>0.03678650773711041</v>
       </c>
     </row>
   </sheetData>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3517.905418355972</v>
+        <v>3551.049755725082</v>
       </c>
       <c r="C2" t="n">
-        <v>5.150557742217168e-08</v>
+        <v>2.711316667088824e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178.1186463069473</v>
+        <v>181.8411115362332</v>
       </c>
       <c r="C3" t="n">
-        <v>1.147014626022121e-16</v>
+        <v>4.401855334135152e-17</v>
       </c>
     </row>
     <row r="4">
@@ -2675,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.8501023877664</v>
+        <v>114.1579370789772</v>
       </c>
       <c r="C4" t="n">
-        <v>4.869161053424664e-26</v>
+        <v>6.854062117343067e-30</v>
       </c>
     </row>
     <row r="5">
@@ -2688,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01317522126489009</v>
+        <v>-0.011208439554259</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05506767910776292</v>
+        <v>0.09595328918680464</v>
       </c>
     </row>
     <row r="6">
@@ -2701,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.883769014838671e-06</v>
+        <v>1.392058926079076e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2232003221730137</v>
+        <v>0.9506132007712181</v>
       </c>
     </row>
     <row r="7">
@@ -2714,10 +2714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.67268281876962</v>
+        <v>-11.74051618299555</v>
       </c>
       <c r="C7" t="n">
-        <v>7.220425281870988e-06</v>
+        <v>5.117046604232996e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-662.0878442831242</v>
+        <v>-1123.174983163417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08844780930447979</v>
+        <v>0.003217705421983618</v>
       </c>
     </row>
     <row r="9">
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4341.530775995281</v>
+        <v>3561.303882634254</v>
       </c>
       <c r="C9" t="n">
-        <v>2.890385209893937e-06</v>
+        <v>8.531142374791895e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2753,10 +2753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.08845865817005</v>
+        <v>17.9745169260304</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2158817630382412</v>
+        <v>0.1152230750874907</v>
       </c>
     </row>
   </sheetData>
@@ -2802,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3857.892121168622</v>
+        <v>3274.899487537828</v>
       </c>
       <c r="C2" t="n">
-        <v>3.006124357756758e-09</v>
+        <v>1.54475840923005e-06</v>
       </c>
     </row>
     <row r="3">
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.9728596573505</v>
+        <v>144.4066092441162</v>
       </c>
       <c r="C3" t="n">
-        <v>9.317965431150194e-15</v>
+        <v>4.109439753841049e-13</v>
       </c>
     </row>
     <row r="4">
@@ -2828,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9370703641676</v>
+        <v>112.6105579077099</v>
       </c>
       <c r="C4" t="n">
-        <v>3.250905827437997e-29</v>
+        <v>1.458475232897591e-29</v>
       </c>
     </row>
     <row r="5">
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01396243038377777</v>
+        <v>-0.01486422063804502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03200524817222203</v>
+        <v>0.02657325447772748</v>
       </c>
     </row>
     <row r="6">
@@ -2854,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.799725922105266e-06</v>
+        <v>8.382301467348584e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2186638493732475</v>
+        <v>0.9713888988782126</v>
       </c>
     </row>
     <row r="7">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.0765651251507</v>
+        <v>-12.67591007125351</v>
       </c>
       <c r="C7" t="n">
-        <v>2.954456326121681e-07</v>
+        <v>1.305690744823738e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2880,10 +2880,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-403.8805869216828</v>
+        <v>-743.1549689104843</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2681251446166526</v>
+        <v>0.04156340909150292</v>
       </c>
     </row>
     <row r="9">
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5340.797878499929</v>
+        <v>4660.057083735577</v>
       </c>
       <c r="C9" t="n">
-        <v>6.622299433922601e-09</v>
+        <v>3.578232852710343e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2906,10 +2906,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1668916582829993</v>
+        <v>18.04053810068263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.989146413071603</v>
+        <v>0.1296945566034416</v>
       </c>
     </row>
   </sheetData>
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2918.070331112993</v>
+        <v>3459.788000421228</v>
       </c>
       <c r="C2" t="n">
-        <v>1.624482139721656e-05</v>
+        <v>6.086045467372716e-07</v>
       </c>
     </row>
     <row r="3">
@@ -2968,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.0024525516955</v>
+        <v>148.3176558197531</v>
       </c>
       <c r="C3" t="n">
-        <v>8.132373512877996e-12</v>
+        <v>1.555157435427663e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.1077774339564</v>
+        <v>106.767370923669</v>
       </c>
       <c r="C4" t="n">
-        <v>2.760574535001139e-25</v>
+        <v>8.891816249422765e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01412834565112512</v>
+        <v>-0.01799162929772961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0353793294228404</v>
+        <v>0.006814429621634649</v>
       </c>
     </row>
     <row r="6">
@@ -3007,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.859390562954972e-06</v>
+        <v>-1.964944857597561e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3096313226590139</v>
+        <v>0.9323455479779161</v>
       </c>
     </row>
     <row r="7">
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.56984088697656</v>
+        <v>-13.88738130571781</v>
       </c>
       <c r="C7" t="n">
-        <v>1.052855629158892e-06</v>
+        <v>1.12227617066163e-07</v>
       </c>
     </row>
     <row r="8">
@@ -3033,10 +3033,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-667.3628480600121</v>
+        <v>-474.0886111520263</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07384120989916775</v>
+        <v>0.2050887363796928</v>
       </c>
     </row>
     <row r="9">
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5937.864536961575</v>
+        <v>5017.082129234101</v>
       </c>
       <c r="C9" t="n">
-        <v>4.198346634344629e-09</v>
+        <v>8.77177227654873e-07</v>
       </c>
     </row>
     <row r="10">
@@ -3059,10 +3059,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.11551969982902</v>
+        <v>14.21307375999216</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09343931933361374</v>
+        <v>0.2416332114683396</v>
       </c>
     </row>
   </sheetData>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3203.19235370644</v>
+        <v>3163.87289907787</v>
       </c>
       <c r="C2" t="n">
-        <v>3.869109918690675e-06</v>
+        <v>9.26197077841449e-07</v>
       </c>
     </row>
     <row r="3">
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.502012715063</v>
+        <v>163.5620012456357</v>
       </c>
       <c r="C3" t="n">
-        <v>1.145271384255312e-11</v>
+        <v>1.07605707500223e-16</v>
       </c>
     </row>
     <row r="4">
@@ -3134,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.0166244477439</v>
+        <v>114.1537632014165</v>
       </c>
       <c r="C4" t="n">
-        <v>4.103699166133109e-26</v>
+        <v>1.896289374460344e-28</v>
       </c>
     </row>
     <row r="5">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01211571107758382</v>
+        <v>-0.01491834093970052</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08225994484987095</v>
+        <v>0.02503566827742771</v>
       </c>
     </row>
     <row r="6">
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.888638788530842e-06</v>
+        <v>4.263432110596428e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3426891024774646</v>
+        <v>0.8673816455698009</v>
       </c>
     </row>
     <row r="7">
@@ -3173,10 +3173,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.37792510262243</v>
+        <v>-12.0718955224544</v>
       </c>
       <c r="C7" t="n">
-        <v>1.188003352488938e-07</v>
+        <v>1.498830150065467e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-831.5906269095258</v>
+        <v>-110.2917066706998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02982402814057447</v>
+        <v>0.7720958322223685</v>
       </c>
     </row>
     <row r="9">
@@ -3199,10 +3199,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4843.989481715671</v>
+        <v>6269.164551752484</v>
       </c>
       <c r="C9" t="n">
-        <v>4.329382923314764e-07</v>
+        <v>1.250535978856227e-11</v>
       </c>
     </row>
     <row r="10">
@@ -3212,10 +3212,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.54409914725143</v>
+        <v>2.475540089271227</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0656650069979344</v>
+        <v>0.8389945526453003</v>
       </c>
     </row>
   </sheetData>
@@ -3261,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2960.090402821319</v>
+        <v>3168.196440770969</v>
       </c>
       <c r="C2" t="n">
-        <v>6.121769759434406e-06</v>
+        <v>2.161189968185539e-06</v>
       </c>
     </row>
     <row r="3">
@@ -3274,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.0512411185801</v>
+        <v>164.3053137046925</v>
       </c>
       <c r="C3" t="n">
-        <v>1.440408876787593e-15</v>
+        <v>1.857419597969593e-13</v>
       </c>
     </row>
     <row r="4">
@@ -3287,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.8444053598188</v>
+        <v>120.4028397752743</v>
       </c>
       <c r="C4" t="n">
-        <v>6.232074342431141e-26</v>
+        <v>4.005997082728514e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3300,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0128371094557296</v>
+        <v>-0.01175372293388437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0652119593852301</v>
+        <v>0.08373028595629986</v>
       </c>
     </row>
     <row r="6">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.290512850599353e-06</v>
+        <v>-2.965559152497651e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.369458190984354</v>
+        <v>0.897445086829346</v>
       </c>
     </row>
     <row r="7">
@@ -3326,10 +3326,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.3389800722971</v>
+        <v>-13.37313612613295</v>
       </c>
       <c r="C7" t="n">
-        <v>1.553837170991669e-06</v>
+        <v>1.831679004554088e-07</v>
       </c>
     </row>
     <row r="8">
@@ -3339,10 +3339,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-698.2979046205949</v>
+        <v>-795.5466026303191</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0598511206788818</v>
+        <v>0.03879491847404681</v>
       </c>
     </row>
     <row r="9">
@@ -3352,10 +3352,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4637.390421706202</v>
+        <v>4538.000243015236</v>
       </c>
       <c r="C9" t="n">
-        <v>5.1749697508797e-07</v>
+        <v>1.235345559531273e-06</v>
       </c>
     </row>
     <row r="10">
@@ -3365,10 +3365,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.64210805767731</v>
+        <v>20.58359416034956</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04198283273400299</v>
+        <v>0.08590630334909366</v>
       </c>
     </row>
   </sheetData>
@@ -3414,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3222.464189842587</v>
+        <v>2369.220102641873</v>
       </c>
       <c r="C2" t="n">
-        <v>4.13066429152468e-07</v>
+        <v>0.0002174975302830569</v>
       </c>
     </row>
     <row r="3">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.1916622612081</v>
+        <v>157.6586970909415</v>
       </c>
       <c r="C3" t="n">
-        <v>4.979586506356841e-15</v>
+        <v>1.313027956291648e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3440,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.4519578337578</v>
+        <v>113.7044259010567</v>
       </c>
       <c r="C4" t="n">
-        <v>1.743727643110203e-28</v>
+        <v>2.205419472110798e-28</v>
       </c>
     </row>
     <row r="5">
@@ -3453,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007847665611651927</v>
+        <v>-0.01691211335847587</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2246606466735482</v>
+        <v>0.01028572322476894</v>
       </c>
     </row>
     <row r="6">
@@ -3466,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.862332347285753e-06</v>
+        <v>-1.076065276173323e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2145200673315475</v>
+        <v>0.6586560301386233</v>
       </c>
     </row>
     <row r="7">
@@ -3479,10 +3479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.21189449067815</v>
+        <v>-13.9555478111841</v>
       </c>
       <c r="C7" t="n">
-        <v>2.504815425477338e-08</v>
+        <v>6.254433134768391e-08</v>
       </c>
     </row>
     <row r="8">
@@ -3492,10 +3492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1138.979962498173</v>
+        <v>-750.0193496870785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001898515998067361</v>
+        <v>0.03652015694832882</v>
       </c>
     </row>
     <row r="9">
@@ -3505,10 +3505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4811.155280836741</v>
+        <v>5590.172382800461</v>
       </c>
       <c r="C9" t="n">
-        <v>9.369224561064419e-08</v>
+        <v>5.037706102859915e-10</v>
       </c>
     </row>
     <row r="10">
@@ -3518,10 +3518,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.29231768434637</v>
+        <v>36.02707272952414</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03443829201066833</v>
+        <v>0.002072513608534586</v>
       </c>
     </row>
   </sheetData>
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3596.476859604883</v>
+        <v>3523.744395687403</v>
       </c>
       <c r="C2" t="n">
-        <v>4.71634349021242e-08</v>
+        <v>4.030108887489739e-08</v>
       </c>
     </row>
     <row r="3">
@@ -3580,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.4345273982351</v>
+        <v>152.3547591188411</v>
       </c>
       <c r="C3" t="n">
-        <v>9.42968730006631e-11</v>
+        <v>3.079862231199702e-14</v>
       </c>
     </row>
     <row r="4">
@@ -3593,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.2132871393834</v>
+        <v>104.8606672137159</v>
       </c>
       <c r="C4" t="n">
-        <v>3.629863764656129e-24</v>
+        <v>2.217153994219462e-25</v>
       </c>
     </row>
     <row r="5">
@@ -3606,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01398969504558909</v>
+        <v>-0.01662288768751822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04500573642981272</v>
+        <v>0.0165789958672964</v>
       </c>
     </row>
     <row r="6">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.039491011689864e-06</v>
+        <v>-2.208038169772482e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2188168190592873</v>
+        <v>0.5053004378340697</v>
       </c>
     </row>
     <row r="7">
@@ -3632,10 +3632,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.208000172795</v>
+        <v>-12.71338550298508</v>
       </c>
       <c r="C7" t="n">
-        <v>2.30351478150317e-06</v>
+        <v>6.931309003107888e-07</v>
       </c>
     </row>
     <row r="8">
@@ -3645,10 +3645,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-850.3067452198216</v>
+        <v>-468.5462903936199</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02065568101820854</v>
+        <v>0.2072042873477772</v>
       </c>
     </row>
     <row r="9">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4365.560921694563</v>
+        <v>4114.020642111866</v>
       </c>
       <c r="C9" t="n">
-        <v>3.396755940385125e-06</v>
+        <v>5.539719823737453e-06</v>
       </c>
     </row>
     <row r="10">
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.91688586493774</v>
+        <v>15.03356326690871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1647784942569021</v>
+        <v>0.1731595061429528</v>
       </c>
     </row>
   </sheetData>
@@ -3720,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3851.860706471375</v>
+        <v>3505.079324973729</v>
       </c>
       <c r="C2" t="n">
-        <v>1.167559042999667e-08</v>
+        <v>2.533571406990361e-08</v>
       </c>
     </row>
     <row r="3">
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.5536598114718</v>
+        <v>153.0337647211035</v>
       </c>
       <c r="C3" t="n">
-        <v>2.806909221818891e-14</v>
+        <v>1.502059767661414e-14</v>
       </c>
     </row>
     <row r="4">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0644778998205</v>
+        <v>107.8433970416413</v>
       </c>
       <c r="C4" t="n">
-        <v>7.077596210450895e-27</v>
+        <v>1.639483146083661e-29</v>
       </c>
     </row>
     <row r="5">
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01814421810239424</v>
+        <v>-0.01694666037554177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009441315066022943</v>
+        <v>0.01066956737945862</v>
       </c>
     </row>
     <row r="6">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.849932422725914e-06</v>
+        <v>1.773665249652832e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7362834332036862</v>
+        <v>0.4358093036775242</v>
       </c>
     </row>
     <row r="7">
@@ -3785,10 +3785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.36130675140602</v>
+        <v>-12.28530452695712</v>
       </c>
       <c r="C7" t="n">
-        <v>2.312150938057971e-06</v>
+        <v>1.537927442223698e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3798,10 +3798,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-91.32876712874395</v>
+        <v>-299.5966864664797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8106807689657727</v>
+        <v>0.4031891845537804</v>
       </c>
     </row>
     <row r="9">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5926.921933099607</v>
+        <v>6300.263438777326</v>
       </c>
       <c r="C9" t="n">
-        <v>5.27650278866817e-10</v>
+        <v>7.146202751459743e-12</v>
       </c>
     </row>
     <row r="10">
@@ -3824,10 +3824,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.484628486240037</v>
+        <v>-1.025301532498592</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5996755522313417</v>
+        <v>0.9309275856542649</v>
       </c>
     </row>
   </sheetData>
@@ -3873,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3406.504901385104</v>
+        <v>3628.079450721475</v>
       </c>
       <c r="C2" t="n">
-        <v>2.631993151774559e-07</v>
+        <v>2.014978954737396e-08</v>
       </c>
     </row>
     <row r="3">
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8417434763803</v>
+        <v>144.9495559286579</v>
       </c>
       <c r="C3" t="n">
-        <v>2.142682644705216e-12</v>
+        <v>7.146819397426787e-12</v>
       </c>
     </row>
     <row r="4">
@@ -3899,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.295999529063</v>
+        <v>107.7173066814396</v>
       </c>
       <c r="C4" t="n">
-        <v>1.394681990994593e-26</v>
+        <v>4.35102438941332e-29</v>
       </c>
     </row>
     <row r="5">
@@ -3912,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01657616674534582</v>
+        <v>-0.01231002581171656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01531235496645829</v>
+        <v>0.06107344721450601</v>
       </c>
     </row>
     <row r="6">
@@ -3925,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.70846314147958e-06</v>
+        <v>-2.676456360683889e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.237075219582699</v>
+        <v>0.4316295470970227</v>
       </c>
     </row>
     <row r="7">
@@ -3938,10 +3938,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.14761222587268</v>
+        <v>-11.44840262583625</v>
       </c>
       <c r="C7" t="n">
-        <v>1.128589741350014e-06</v>
+        <v>3.080691971986169e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3951,10 +3951,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-603.3800562969602</v>
+        <v>-788.1892976291924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1173055319643482</v>
+        <v>0.02980313426807706</v>
       </c>
     </row>
     <row r="9">
@@ -3964,10 +3964,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5190.885775110673</v>
+        <v>4627.447649001498</v>
       </c>
       <c r="C9" t="n">
-        <v>2.820002932580589e-08</v>
+        <v>2.909517324990879e-07</v>
       </c>
     </row>
     <row r="10">
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.53866146783059</v>
+        <v>9.918119519505316</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2502118748151558</v>
+        <v>0.3856210757794852</v>
       </c>
     </row>
   </sheetData>
@@ -4026,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2710.965704419596</v>
+        <v>3836.414522442972</v>
       </c>
       <c r="C2" t="n">
-        <v>8.157092905088334e-05</v>
+        <v>1.153618816662074e-07</v>
       </c>
     </row>
     <row r="3">
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.0374518596249</v>
+        <v>150.0075777165103</v>
       </c>
       <c r="C3" t="n">
-        <v>1.988567445224111e-12</v>
+        <v>1.278457224924031e-12</v>
       </c>
     </row>
     <row r="4">
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.869896506871</v>
+        <v>108.4978087148307</v>
       </c>
       <c r="C4" t="n">
-        <v>1.203544260386946e-25</v>
+        <v>4.760777294781306e-27</v>
       </c>
     </row>
     <row r="5">
@@ -4065,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01787925592651476</v>
+        <v>-0.01545977386044495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0106730319386243</v>
+        <v>0.02533563753799335</v>
       </c>
     </row>
     <row r="6">
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.898489979072968e-06</v>
+        <v>3.985276792894547e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2166673376509037</v>
+        <v>0.8754568563589769</v>
       </c>
     </row>
     <row r="7">
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.3357065433407</v>
+        <v>-12.50829390571072</v>
       </c>
       <c r="C7" t="n">
-        <v>4.069149225507637e-08</v>
+        <v>1.323107011804024e-06</v>
       </c>
     </row>
     <row r="8">
@@ -4104,10 +4104,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-277.8030313349091</v>
+        <v>-618.7424427403284</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4741529558419602</v>
+        <v>0.1141879633080675</v>
       </c>
     </row>
     <row r="9">
@@ -4117,10 +4117,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6195.720256422497</v>
+        <v>4329.698682444035</v>
       </c>
       <c r="C9" t="n">
-        <v>3.03669331033914e-09</v>
+        <v>7.627167297591804e-05</v>
       </c>
     </row>
     <row r="10">
@@ -4130,10 +4130,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.86349505704358</v>
+        <v>7.756328856784933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04463325273619338</v>
+        <v>0.5373752071848595</v>
       </c>
     </row>
   </sheetData>
@@ -4179,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3640.412340220801</v>
+        <v>2853.933403819795</v>
       </c>
       <c r="C2" t="n">
-        <v>3.373928412901869e-09</v>
+        <v>1.885669997974749e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.6780251767104</v>
+        <v>156.9201844481645</v>
       </c>
       <c r="C3" t="n">
-        <v>5.833519317800701e-12</v>
+        <v>5.670983809179012e-15</v>
       </c>
     </row>
     <row r="4">
@@ -4205,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.2441906299338</v>
+        <v>117.3513048294734</v>
       </c>
       <c r="C4" t="n">
-        <v>8.895756706699904e-28</v>
+        <v>2.668581093876496e-24</v>
       </c>
     </row>
     <row r="5">
@@ -4218,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01338158154081944</v>
+        <v>-0.01731351560646212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03239271823897539</v>
+        <v>0.01021439925592015</v>
       </c>
     </row>
     <row r="6">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.708367250853742e-06</v>
+        <v>-1.384984765116364e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1443065073341254</v>
+        <v>0.5820365637055744</v>
       </c>
     </row>
     <row r="7">
@@ -4244,10 +4244,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.89804950895606</v>
+        <v>-14.23968789840169</v>
       </c>
       <c r="C7" t="n">
-        <v>9.399126011850956e-08</v>
+        <v>1.319248934489812e-07</v>
       </c>
     </row>
     <row r="8">
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-334.5107309997397</v>
+        <v>-453.2488297822956</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3502976660671517</v>
+        <v>0.2217912844556424</v>
       </c>
     </row>
     <row r="9">
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6297.701040245869</v>
+        <v>5186.876748282837</v>
       </c>
       <c r="C9" t="n">
-        <v>1.083363974177602e-11</v>
+        <v>2.199400000017436e-08</v>
       </c>
     </row>
     <row r="10">
@@ -4283,10 +4283,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.17386437533591</v>
+        <v>24.75669023931793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8468312104361844</v>
+        <v>0.03682814283610433</v>
       </c>
     </row>
   </sheetData>
@@ -4332,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2690.3265104711</v>
+        <v>3214.333610084076</v>
       </c>
       <c r="C2" t="n">
-        <v>9.762823120024042e-05</v>
+        <v>2.527669725304385e-06</v>
       </c>
     </row>
     <row r="3">
@@ -4345,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164.6182142987381</v>
+        <v>147.7175813154132</v>
       </c>
       <c r="C3" t="n">
-        <v>6.974009965408071e-15</v>
+        <v>5.436761872665186e-12</v>
       </c>
     </row>
     <row r="4">
@@ -4358,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.7371485704283</v>
+        <v>103.8332735328299</v>
       </c>
       <c r="C4" t="n">
-        <v>1.575472393333396e-25</v>
+        <v>2.015168178753475e-24</v>
       </c>
     </row>
     <row r="5">
@@ -4371,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01126730384256058</v>
+        <v>-0.01354680134952173</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09367922807947902</v>
+        <v>0.0537818851870266</v>
       </c>
     </row>
     <row r="6">
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.873205063826281e-06</v>
+        <v>-2.978188872641805e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2360491762434141</v>
+        <v>0.4333324501987056</v>
       </c>
     </row>
     <row r="7">
@@ -4397,10 +4397,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.0233851883579</v>
+        <v>-13.47195523503881</v>
       </c>
       <c r="C7" t="n">
-        <v>1.147890945269119e-06</v>
+        <v>8.309767762198651e-07</v>
       </c>
     </row>
     <row r="8">
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-692.4917479602196</v>
+        <v>-699.0581541872782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06085956119316656</v>
+        <v>0.06847969413140996</v>
       </c>
     </row>
     <row r="9">
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5613.185908078173</v>
+        <v>5407.87058784597</v>
       </c>
       <c r="C9" t="n">
-        <v>2.49450628675394e-08</v>
+        <v>9.19228387339944e-09</v>
       </c>
     </row>
     <row r="10">
@@ -4436,10 +4436,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.38303358845455</v>
+        <v>18.26953581144251</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03042913892440402</v>
+        <v>0.1363342862564232</v>
       </c>
     </row>
   </sheetData>
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2864.456140504113</v>
+        <v>3502.252452462971</v>
       </c>
       <c r="C2" t="n">
-        <v>1.818064844265922e-05</v>
+        <v>2.516416845922764e-07</v>
       </c>
     </row>
     <row r="3">
@@ -4498,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.9491490261036</v>
+        <v>147.7977375563621</v>
       </c>
       <c r="C3" t="n">
-        <v>4.6116469541852e-14</v>
+        <v>1.474999741730285e-12</v>
       </c>
     </row>
     <row r="4">
@@ -4511,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.3879951337792</v>
+        <v>106.3895757695556</v>
       </c>
       <c r="C4" t="n">
-        <v>1.922350236054803e-27</v>
+        <v>8.189972314958296e-28</v>
       </c>
     </row>
     <row r="5">
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01741980525825395</v>
+        <v>-0.01550648339863189</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01827997279705343</v>
+        <v>0.0201092286637785</v>
       </c>
     </row>
     <row r="6">
@@ -4537,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.414402074704227e-07</v>
+        <v>7.372283116602582e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9134610022871636</v>
+        <v>0.7569755885451783</v>
       </c>
     </row>
     <row r="7">
@@ -4550,10 +4550,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.87200724406946</v>
+        <v>-13.13303544775699</v>
       </c>
       <c r="C7" t="n">
-        <v>8.336136384932299e-07</v>
+        <v>1.67120751389499e-07</v>
       </c>
     </row>
     <row r="8">
@@ -4563,10 +4563,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-609.8576087846845</v>
+        <v>-908.7168251485866</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1042925485838345</v>
+        <v>0.01607117578503022</v>
       </c>
     </row>
     <row r="9">
@@ -4576,10 +4576,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5001.415982839922</v>
+        <v>3848.921993104062</v>
       </c>
       <c r="C9" t="n">
-        <v>7.360550929110895e-08</v>
+        <v>0.0001464837340288325</v>
       </c>
     </row>
     <row r="10">
@@ -4589,10 +4589,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.70759322689787</v>
+        <v>21.72058936250705</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03548009084962383</v>
+        <v>0.072911212773733</v>
       </c>
     </row>
   </sheetData>
@@ -4638,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3058.002941615732</v>
+        <v>3096.559182593299</v>
       </c>
       <c r="C2" t="n">
-        <v>6.403449503177041e-06</v>
+        <v>3.817235098081932e-07</v>
       </c>
     </row>
     <row r="3">
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.7126006909374</v>
+        <v>143.7773266797822</v>
       </c>
       <c r="C3" t="n">
-        <v>4.145794068238842e-15</v>
+        <v>3.184742021732892e-14</v>
       </c>
     </row>
     <row r="4">
@@ -4664,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.6087216976375</v>
+        <v>112.2985531194978</v>
       </c>
       <c r="C4" t="n">
-        <v>1.146409352686518e-25</v>
+        <v>3.631047446130161e-34</v>
       </c>
     </row>
     <row r="5">
@@ -4677,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01169274786338174</v>
+        <v>-0.01830951515844222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0914546644589838</v>
+        <v>0.004856370854635296</v>
       </c>
     </row>
     <row r="6">
@@ -4690,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.724365434097812e-06</v>
+        <v>1.558686058715922e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3286832217076618</v>
+        <v>0.4635420202434806</v>
       </c>
     </row>
     <row r="7">
@@ -4703,10 +4703,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.40467618042411</v>
+        <v>-11.67487090195686</v>
       </c>
       <c r="C7" t="n">
-        <v>5.053104753867676e-07</v>
+        <v>9.527684965226396e-07</v>
       </c>
     </row>
     <row r="8">
@@ -4716,10 +4716,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-976.3775424826855</v>
+        <v>-239.0194515097428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01411906434299721</v>
+        <v>0.5077839062305254</v>
       </c>
     </row>
     <row r="9">
@@ -4729,10 +4729,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5039.262127150467</v>
+        <v>6611.940687917388</v>
       </c>
       <c r="C9" t="n">
-        <v>2.287878499060578e-07</v>
+        <v>4.777343647961421e-12</v>
       </c>
     </row>
     <row r="10">
@@ -4742,10 +4742,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.97927733718765</v>
+        <v>4.507662780980525</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03836329609704869</v>
+        <v>0.6835242568738182</v>
       </c>
     </row>
   </sheetData>
@@ -4791,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3953.828235354331</v>
+        <v>3540.130382587786</v>
       </c>
       <c r="C2" t="n">
-        <v>2.907699834366691e-09</v>
+        <v>5.506862990176683e-08</v>
       </c>
     </row>
     <row r="3">
@@ -4804,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.8280759716268</v>
+        <v>181.993078884848</v>
       </c>
       <c r="C3" t="n">
-        <v>6.298718842963698e-12</v>
+        <v>4.641435846172637e-17</v>
       </c>
     </row>
     <row r="4">
@@ -4817,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.1729197092947</v>
+        <v>117.6638103822148</v>
       </c>
       <c r="C4" t="n">
-        <v>2.974182032362568e-25</v>
+        <v>8.258914882437049e-31</v>
       </c>
     </row>
     <row r="5">
@@ -4830,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01679194636181062</v>
+        <v>-0.01268757762014034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01907810526420715</v>
+        <v>0.06406975662745519</v>
       </c>
     </row>
     <row r="6">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.442283894833673e-06</v>
+        <v>-7.105961749824213e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2591353584133881</v>
+        <v>0.9750881392428934</v>
       </c>
     </row>
     <row r="7">
@@ -4856,10 +4856,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.99139599456728</v>
+        <v>-11.97084762731764</v>
       </c>
       <c r="C7" t="n">
-        <v>4.388455586975196e-07</v>
+        <v>2.009777878971312e-06</v>
       </c>
     </row>
     <row r="8">
@@ -4869,10 +4869,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-471.1565995770651</v>
+        <v>-601.6295476502492</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2085931372818718</v>
+        <v>0.1042170335277193</v>
       </c>
     </row>
     <row r="9">
@@ -4882,10 +4882,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4118.227504851445</v>
+        <v>4232.202061583235</v>
       </c>
       <c r="C9" t="n">
-        <v>9.635406899407509e-06</v>
+        <v>2.518728471903565e-06</v>
       </c>
     </row>
     <row r="10">
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.088915475665743</v>
+        <v>9.624714902559617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4869636954674449</v>
+        <v>0.4057758019728175</v>
       </c>
     </row>
   </sheetData>
@@ -4944,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3586.961725334197</v>
+        <v>3230.861248354885</v>
       </c>
       <c r="C2" t="n">
-        <v>1.321555753948673e-07</v>
+        <v>1.635739337998198e-06</v>
       </c>
     </row>
     <row r="3">
@@ -4957,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.9245225239304</v>
+        <v>144.4078390205881</v>
       </c>
       <c r="C3" t="n">
-        <v>9.628624279157472e-13</v>
+        <v>1.11363565295184e-12</v>
       </c>
     </row>
     <row r="4">
@@ -4970,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.4758379535096</v>
+        <v>116.7485518078469</v>
       </c>
       <c r="C4" t="n">
-        <v>2.347165524582873e-27</v>
+        <v>3.045139986946945e-29</v>
       </c>
     </row>
     <row r="5">
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01509939942828467</v>
+        <v>-0.01685846998059261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02889594934316322</v>
+        <v>0.0132609799248739</v>
       </c>
     </row>
     <row r="6">
@@ -4996,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.79516095844145e-06</v>
+        <v>1.637237102841072e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1903754189671721</v>
+        <v>0.9464154502441436</v>
       </c>
     </row>
     <row r="7">
@@ -5009,10 +5009,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.26819195799747</v>
+        <v>-13.20107015153698</v>
       </c>
       <c r="C7" t="n">
-        <v>2.701018662325208e-06</v>
+        <v>5.363744247444418e-07</v>
       </c>
     </row>
     <row r="8">
@@ -5022,10 +5022,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-678.5984322435874</v>
+        <v>-625.2545311024526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06990100346302108</v>
+        <v>0.1039156163576746</v>
       </c>
     </row>
     <row r="9">
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4475.919143985646</v>
+        <v>4889.086633745947</v>
       </c>
       <c r="C9" t="n">
-        <v>1.46026183561759e-05</v>
+        <v>1.850904599183048e-07</v>
       </c>
     </row>
     <row r="10">
@@ -5048,10 +5048,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.40681042374619</v>
+        <v>18.88982592528418</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2932863019104636</v>
+        <v>0.107981589069891</v>
       </c>
     </row>
   </sheetData>
@@ -5097,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2974.847444013914</v>
+        <v>3739.999371878404</v>
       </c>
       <c r="C2" t="n">
-        <v>8.158134271789134e-06</v>
+        <v>5.867762750661033e-08</v>
       </c>
     </row>
     <row r="3">
@@ -5110,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173.987533085193</v>
+        <v>157.2985945754048</v>
       </c>
       <c r="C3" t="n">
-        <v>8.903411375083285e-17</v>
+        <v>3.887082110187511e-13</v>
       </c>
     </row>
     <row r="4">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.8598484885836</v>
+        <v>112.9573635589253</v>
       </c>
       <c r="C4" t="n">
-        <v>9.269737947251408e-25</v>
+        <v>7.028013932929308e-27</v>
       </c>
     </row>
     <row r="5">
@@ -5136,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01193185054923085</v>
+        <v>-0.01785319875714274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07905573966083086</v>
+        <v>0.007163141876112666</v>
       </c>
     </row>
     <row r="6">
@@ -5149,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.711461803158197e-06</v>
+        <v>3.376426765342628e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1737061840677675</v>
+        <v>0.9881958543312334</v>
       </c>
     </row>
     <row r="7">
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.98053408864442</v>
+        <v>-13.88740351945642</v>
       </c>
       <c r="C7" t="n">
-        <v>2.999393038033954e-07</v>
+        <v>5.696088681500844e-08</v>
       </c>
     </row>
     <row r="8">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-812.8046082337387</v>
+        <v>-640.7856423181718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02818631855377842</v>
+        <v>0.09028151281557129</v>
       </c>
     </row>
     <row r="9">
@@ -5188,10 +5188,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5289.902876929059</v>
+        <v>4115.49112520026</v>
       </c>
       <c r="C9" t="n">
-        <v>2.190154242508803e-08</v>
+        <v>2.685067274404871e-05</v>
       </c>
     </row>
     <row r="10">
@@ -5201,10 +5201,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.20121685103248</v>
+        <v>12.82154769205798</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0293920614657929</v>
+        <v>0.2760428239211813</v>
       </c>
     </row>
   </sheetData>
@@ -5250,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3498.281955589024</v>
+        <v>2705.26421743459</v>
       </c>
       <c r="C2" t="n">
-        <v>9.499430371136529e-08</v>
+        <v>1.195787129693982e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5263,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.7192809133393</v>
+        <v>160.8528249383988</v>
       </c>
       <c r="C3" t="n">
-        <v>4.480272120805945e-14</v>
+        <v>4.614512670917429e-17</v>
       </c>
     </row>
     <row r="4">
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0688812529312</v>
+        <v>108.9898152778058</v>
       </c>
       <c r="C4" t="n">
-        <v>1.91806679169636e-26</v>
+        <v>2.724079751236266e-31</v>
       </c>
     </row>
     <row r="5">
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01809428089979023</v>
+        <v>-0.01345358302063334</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008989984639090865</v>
+        <v>0.03901586310018983</v>
       </c>
     </row>
     <row r="6">
@@ -5302,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.596622445019835e-06</v>
+        <v>-1.255522158458197e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6525577959256297</v>
+        <v>0.96914013718681</v>
       </c>
     </row>
     <row r="7">
@@ -5315,10 +5315,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.29185210416</v>
+        <v>-12.00037429403607</v>
       </c>
       <c r="C7" t="n">
-        <v>6.481630156244712e-07</v>
+        <v>1.707401387447668e-06</v>
       </c>
     </row>
     <row r="8">
@@ -5328,10 +5328,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-128.6836849473195</v>
+        <v>-355.673017007867</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7349535460545671</v>
+        <v>0.3107611716443198</v>
       </c>
     </row>
     <row r="9">
@@ -5341,10 +5341,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6600.554282208118</v>
+        <v>6435.143498883755</v>
       </c>
       <c r="C9" t="n">
-        <v>1.92260952089706e-12</v>
+        <v>3.709128435783894e-12</v>
       </c>
     </row>
     <row r="10">
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.735168763812023</v>
+        <v>14.38722326707749</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7574525058890471</v>
+        <v>0.2251488766496856</v>
       </c>
     </row>
   </sheetData>
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3090.097734832637</v>
+        <v>3469.876325596312</v>
       </c>
       <c r="C2" t="n">
-        <v>7.332713996588997e-07</v>
+        <v>1.168128514756171e-07</v>
       </c>
     </row>
     <row r="3">
@@ -5416,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.2812594150118</v>
+        <v>143.806519246463</v>
       </c>
       <c r="C3" t="n">
-        <v>2.589576917229316e-13</v>
+        <v>3.175857961967319e-12</v>
       </c>
     </row>
     <row r="4">
@@ -5429,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.6340229518037</v>
+        <v>110.2934276345837</v>
       </c>
       <c r="C4" t="n">
-        <v>1.702003365711903e-27</v>
+        <v>8.780649882650748e-26</v>
       </c>
     </row>
     <row r="5">
@@ -5442,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01054149853898319</v>
+        <v>-0.01384308284595626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1193171748207338</v>
+        <v>0.04737593772080451</v>
       </c>
     </row>
     <row r="6">
@@ -5455,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.226142599631898e-06</v>
+        <v>-1.228913566368863e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2051249972998062</v>
+        <v>0.9598491900539516</v>
       </c>
     </row>
     <row r="7">
@@ -5468,10 +5468,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.71911957135996</v>
+        <v>-13.98497224755349</v>
       </c>
       <c r="C7" t="n">
-        <v>4.1767885651226e-08</v>
+        <v>8.383142698943573e-08</v>
       </c>
     </row>
     <row r="8">
@@ -5481,10 +5481,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1016.408589357698</v>
+        <v>-658.5445393327592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006012512768235399</v>
+        <v>0.0748429293775188</v>
       </c>
     </row>
     <row r="9">
@@ -5494,10 +5494,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4766.684289906229</v>
+        <v>4866.292708868843</v>
       </c>
       <c r="C9" t="n">
-        <v>7.953111451268456e-08</v>
+        <v>1.870728408741854e-07</v>
       </c>
     </row>
     <row r="10">
@@ -5507,10 +5507,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.84694181469261</v>
+        <v>15.09907966361443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.014179897837391</v>
+        <v>0.1967760124022278</v>
       </c>
     </row>
   </sheetData>
@@ -5556,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3354.955858050205</v>
+        <v>3305.083697191531</v>
       </c>
       <c r="C2" t="n">
-        <v>9.170447933896197e-07</v>
+        <v>4.113127008700128e-07</v>
       </c>
     </row>
     <row r="3">
@@ -5569,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.0269796772309</v>
+        <v>160.9746086587803</v>
       </c>
       <c r="C3" t="n">
-        <v>2.922267741134175e-13</v>
+        <v>1.868577903175892e-14</v>
       </c>
     </row>
     <row r="4">
@@ -5582,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.8110495847033</v>
+        <v>110.0205513277785</v>
       </c>
       <c r="C4" t="n">
-        <v>6.574320526309681e-25</v>
+        <v>3.025330169829994e-29</v>
       </c>
     </row>
     <row r="5">
@@ -5595,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01342260069015543</v>
+        <v>-0.01948958481221431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05169962885363669</v>
+        <v>0.004098376637430979</v>
       </c>
     </row>
     <row r="6">
@@ -5608,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.559452330363501e-06</v>
+        <v>1.313304258392085e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3644040702618536</v>
+        <v>0.5766951942287523</v>
       </c>
     </row>
     <row r="7">
@@ -5621,10 +5621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.20394456802413</v>
+        <v>-11.50629297351646</v>
       </c>
       <c r="C7" t="n">
-        <v>8.610121164087258e-07</v>
+        <v>6.334307973953645e-06</v>
       </c>
     </row>
     <row r="8">
@@ -5634,10 +5634,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-937.3052642457188</v>
+        <v>-153.3523486507004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009871762230222242</v>
+        <v>0.6876071046847338</v>
       </c>
     </row>
     <row r="9">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4522.310817617849</v>
+        <v>5484.031651469613</v>
       </c>
       <c r="C9" t="n">
-        <v>3.569087815577895e-06</v>
+        <v>3.962184688645782e-08</v>
       </c>
     </row>
     <row r="10">
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.89045942031801</v>
+        <v>5.189093600279765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07301626026105572</v>
+        <v>0.6679359790852286</v>
       </c>
     </row>
   </sheetData>
@@ -5709,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3337.782477408731</v>
+        <v>3186.765504995266</v>
       </c>
       <c r="C2" t="n">
-        <v>9.404755256756933e-07</v>
+        <v>1.976376258176762e-06</v>
       </c>
     </row>
     <row r="3">
@@ -5722,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.0933077204452</v>
+        <v>171.3030575458105</v>
       </c>
       <c r="C3" t="n">
-        <v>1.020000229092179e-11</v>
+        <v>3.113365766249647e-15</v>
       </c>
     </row>
     <row r="4">
@@ -5735,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.8881866986178</v>
+        <v>105.7667178226181</v>
       </c>
       <c r="C4" t="n">
-        <v>1.481109911854466e-25</v>
+        <v>1.102245215281866e-26</v>
       </c>
     </row>
     <row r="5">
@@ -5748,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01501908937376788</v>
+        <v>-0.01427151174464588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0284786209130491</v>
+        <v>0.04274329830358717</v>
       </c>
     </row>
     <row r="6">
@@ -5761,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.638325890926164e-06</v>
+        <v>-7.18506353284047e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2332079597758324</v>
+        <v>0.7714705345560183</v>
       </c>
     </row>
     <row r="7">
@@ -5774,10 +5774,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.1758494696198</v>
+        <v>-12.10499628543049</v>
       </c>
       <c r="C7" t="n">
-        <v>4.661441321894303e-07</v>
+        <v>2.977889362743422e-06</v>
       </c>
     </row>
     <row r="8">
@@ -5787,10 +5787,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-392.4538675182416</v>
+        <v>-699.8938036364193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2982812270989427</v>
+        <v>0.07126271197758688</v>
       </c>
     </row>
     <row r="9">
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4404.376890183998</v>
+        <v>4736.079685820368</v>
       </c>
       <c r="C9" t="n">
-        <v>4.108437976921518e-06</v>
+        <v>7.380064352351887e-07</v>
       </c>
     </row>
     <row r="10">
@@ -5813,10 +5813,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.41746468666616</v>
+        <v>18.33266871175582</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1366571343454026</v>
+        <v>0.1317145013147567</v>
       </c>
     </row>
   </sheetData>
@@ -5862,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3152.662941622688</v>
+        <v>3531.093792977059</v>
       </c>
       <c r="C2" t="n">
-        <v>2.328774064292059e-06</v>
+        <v>3.625913327102302e-07</v>
       </c>
     </row>
     <row r="3">
@@ -5875,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.7665184806832</v>
+        <v>145.0309905595947</v>
       </c>
       <c r="C3" t="n">
-        <v>6.57064202701627e-16</v>
+        <v>4.783041163886778e-12</v>
       </c>
     </row>
     <row r="4">
@@ -5888,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.6496413476949</v>
+        <v>109.321544942902</v>
       </c>
       <c r="C4" t="n">
-        <v>3.17769652347479e-24</v>
+        <v>4.357973228262282e-24</v>
       </c>
     </row>
     <row r="5">
@@ -5901,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0165753757256565</v>
+        <v>-0.01619866805554981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02067371721230959</v>
+        <v>0.01543594369723946</v>
       </c>
     </row>
     <row r="6">
@@ -5914,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.467619670220386e-06</v>
+        <v>-2.174005138881245e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.772309935019215</v>
+        <v>0.9259422344544872</v>
       </c>
     </row>
     <row r="7">
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.2669481203852</v>
+        <v>-12.14720295594765</v>
       </c>
       <c r="C7" t="n">
-        <v>3.779921187538561e-07</v>
+        <v>2.814978611689837e-06</v>
       </c>
     </row>
     <row r="8">
@@ -5940,10 +5940,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-625.9496334751703</v>
+        <v>-555.6350826932676</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09339097874276867</v>
+        <v>0.1344787179276888</v>
       </c>
     </row>
     <row r="9">
@@ -5953,10 +5953,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5121.951285336863</v>
+        <v>4717.815176915248</v>
       </c>
       <c r="C9" t="n">
-        <v>1.222751750776078e-07</v>
+        <v>9.044515108085174e-07</v>
       </c>
     </row>
     <row r="10">
@@ -5966,10 +5966,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.21324629166727</v>
+        <v>10.71640466013935</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09868496975305108</v>
+        <v>0.3782132216421197</v>
       </c>
     </row>
   </sheetData>
@@ -6015,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3630.487900857465</v>
+        <v>3808.171099088694</v>
       </c>
       <c r="C2" t="n">
-        <v>3.517665932693824e-08</v>
+        <v>1.121183402860662e-09</v>
       </c>
     </row>
     <row r="3">
@@ -6028,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.6334423555431</v>
+        <v>156.7518223857501</v>
       </c>
       <c r="C3" t="n">
-        <v>1.111632402956711e-16</v>
+        <v>5.437802533436361e-16</v>
       </c>
     </row>
     <row r="4">
@@ -6041,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.8067132612403</v>
+        <v>102.9900851738777</v>
       </c>
       <c r="C4" t="n">
-        <v>1.114678941673639e-26</v>
+        <v>3.896025043962702e-28</v>
       </c>
     </row>
     <row r="5">
@@ -6054,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01536350988848283</v>
+        <v>-0.01749810918569042</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02284698201233786</v>
+        <v>0.006772645869572435</v>
       </c>
     </row>
     <row r="6">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.194336547133503e-06</v>
+        <v>1.985724423627242e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284048183645205</v>
+        <v>0.3909073494825702</v>
       </c>
     </row>
     <row r="7">
@@ -6080,10 +6080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.00388163121152</v>
+        <v>-12.91227987112801</v>
       </c>
       <c r="C7" t="n">
-        <v>1.450271969215365e-06</v>
+        <v>1.1845122773438e-07</v>
       </c>
     </row>
     <row r="8">
@@ -6093,10 +6093,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-350.3507738501844</v>
+        <v>-307.3033864264636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3425091254083384</v>
+        <v>0.3786121647930564</v>
       </c>
     </row>
     <row r="9">
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5822.298869136997</v>
+        <v>5821.469344450431</v>
       </c>
       <c r="C9" t="n">
-        <v>4.20943080031215e-10</v>
+        <v>8.423029449923177e-11</v>
       </c>
     </row>
     <row r="10">
@@ -6119,10 +6119,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.118545082596377</v>
+        <v>-1.662127316758614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9921944475671893</v>
+        <v>0.8832788768913274</v>
       </c>
     </row>
   </sheetData>
@@ -6168,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2626.329448738248</v>
+        <v>2841.086033577695</v>
       </c>
       <c r="C2" t="n">
-        <v>5.331649456402869e-05</v>
+        <v>1.188881070515593e-05</v>
       </c>
     </row>
     <row r="3">
@@ -6181,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.216721166667</v>
+        <v>145.8986378694292</v>
       </c>
       <c r="C3" t="n">
-        <v>1.541784437438627e-15</v>
+        <v>7.74621872782592e-13</v>
       </c>
     </row>
     <row r="4">
@@ -6194,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.926425166442</v>
+        <v>115.1447683796569</v>
       </c>
       <c r="C4" t="n">
-        <v>2.244520250643097e-28</v>
+        <v>2.351772948420033e-30</v>
       </c>
     </row>
     <row r="5">
@@ -6207,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01200797453605265</v>
+        <v>-0.01357317133947896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06320074874434592</v>
+        <v>0.04752748313383469</v>
       </c>
     </row>
     <row r="6">
@@ -6220,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.525815549570211e-06</v>
+        <v>-2.550708566873592e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2475798523735505</v>
+        <v>0.9139749010965218</v>
       </c>
     </row>
     <row r="7">
@@ -6233,10 +6233,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.07021263025013</v>
+        <v>-13.63082655052523</v>
       </c>
       <c r="C7" t="n">
-        <v>3.250865117768013e-07</v>
+        <v>5.793173686306066e-08</v>
       </c>
     </row>
     <row r="8">
@@ -6246,10 +6246,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-519.9810755674141</v>
+        <v>-698.3484362888188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1454484704032841</v>
+        <v>0.06536945071545924</v>
       </c>
     </row>
     <row r="9">
@@ -6259,10 +6259,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5547.358525413363</v>
+        <v>4736.379687732252</v>
       </c>
       <c r="C9" t="n">
-        <v>1.959103571777388e-09</v>
+        <v>2.100204550765767e-07</v>
       </c>
     </row>
     <row r="10">
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.74218629418513</v>
+        <v>27.643963982047</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03357729973400438</v>
+        <v>0.02170459154117368</v>
       </c>
     </row>
   </sheetData>
@@ -6321,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3362.020234381894</v>
+        <v>3440.35716298669</v>
       </c>
       <c r="C2" t="n">
-        <v>5.185688149952365e-07</v>
+        <v>1.965780985055018e-07</v>
       </c>
     </row>
     <row r="3">
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.561368372727</v>
+        <v>146.4228827131214</v>
       </c>
       <c r="C3" t="n">
-        <v>1.452234053877049e-10</v>
+        <v>6.965654974211649e-13</v>
       </c>
     </row>
     <row r="4">
@@ -6347,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.9681338543489</v>
+        <v>114.4995389322824</v>
       </c>
       <c r="C4" t="n">
-        <v>3.361911362029724e-27</v>
+        <v>1.916616597539669e-28</v>
       </c>
     </row>
     <row r="5">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01070014154219706</v>
+        <v>-0.01423757786272743</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1203425071671322</v>
+        <v>0.03930779909004999</v>
       </c>
     </row>
     <row r="6">
@@ -6373,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.056146641975617e-06</v>
+        <v>-2.525509722825136e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1150447963000761</v>
+        <v>0.4526481415406703</v>
       </c>
     </row>
     <row r="7">
@@ -6386,10 +6386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.47181980011396</v>
+        <v>-13.40876666466572</v>
       </c>
       <c r="C7" t="n">
-        <v>3.240514452509545e-08</v>
+        <v>3.664902268249216e-07</v>
       </c>
     </row>
     <row r="8">
@@ -6399,10 +6399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-826.3627686037673</v>
+        <v>-680.3851333247828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03322447630996746</v>
+        <v>0.08686438847710728</v>
       </c>
     </row>
     <row r="9">
@@ -6412,10 +6412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5176.637033835435</v>
+        <v>4163.357544947175</v>
       </c>
       <c r="C9" t="n">
-        <v>1.851079006317157e-07</v>
+        <v>9.96371977989492e-06</v>
       </c>
     </row>
     <row r="10">
@@ -6425,10 +6425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.11201356027737</v>
+        <v>18.77237887857257</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1047763438604065</v>
+        <v>0.1096961784711285</v>
       </c>
     </row>
   </sheetData>
@@ -6474,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3596.76504925992</v>
+        <v>2670.802537998554</v>
       </c>
       <c r="C2" t="n">
-        <v>6.461557078289014e-08</v>
+        <v>7.063254908182293e-05</v>
       </c>
     </row>
     <row r="3">
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.1613937694263</v>
+        <v>179.7812382993794</v>
       </c>
       <c r="C3" t="n">
-        <v>3.519177611314659e-10</v>
+        <v>3.167237800406993e-16</v>
       </c>
     </row>
     <row r="4">
@@ -6500,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.1610606536058</v>
+        <v>112.2340644926851</v>
       </c>
       <c r="C4" t="n">
-        <v>7.307178417367844e-25</v>
+        <v>6.827922314634367e-29</v>
       </c>
     </row>
     <row r="5">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01457041747998159</v>
+        <v>-0.01606465777849949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04136342700425222</v>
+        <v>0.02208994334274864</v>
       </c>
     </row>
     <row r="6">
@@ -6526,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.001668673090561e-06</v>
+        <v>-6.712473356747178e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3732531632852288</v>
+        <v>0.7870441237554704</v>
       </c>
     </row>
     <row r="7">
@@ -6539,10 +6539,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.68314282646247</v>
+        <v>-12.95411068680114</v>
       </c>
       <c r="C7" t="n">
-        <v>2.140477901408607e-06</v>
+        <v>1.420557809044692e-06</v>
       </c>
     </row>
     <row r="8">
@@ -6552,10 +6552,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-874.6965675334686</v>
+        <v>-695.0846478512203</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02584417355817532</v>
+        <v>0.06366656154339624</v>
       </c>
     </row>
     <row r="9">
@@ -6565,10 +6565,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4024.924049539658</v>
+        <v>5682.801978973081</v>
       </c>
       <c r="C9" t="n">
-        <v>1.945196450404343e-05</v>
+        <v>2.36090676018855e-08</v>
       </c>
     </row>
     <row r="10">
@@ -6578,10 +6578,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.39225390432392</v>
+        <v>24.82731025618736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09237780600510777</v>
+        <v>0.03697120143695512</v>
       </c>
     </row>
   </sheetData>
@@ -6627,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3798.31014106666</v>
+        <v>3385.210625563451</v>
       </c>
       <c r="C2" t="n">
-        <v>6.050731751849945e-10</v>
+        <v>1.706618792091937e-07</v>
       </c>
     </row>
     <row r="3">
@@ -6640,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.6716537480346</v>
+        <v>165.4894339384814</v>
       </c>
       <c r="C3" t="n">
-        <v>7.768547512031049e-16</v>
+        <v>3.655229023350877e-17</v>
       </c>
     </row>
     <row r="4">
@@ -6653,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.0642200909777</v>
+        <v>106.4226369946551</v>
       </c>
       <c r="C4" t="n">
-        <v>6.845890941715533e-28</v>
+        <v>4.185277773659614e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6666,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01342500424964039</v>
+        <v>-0.01522216628353167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05372520321423729</v>
+        <v>0.02547946383545469</v>
       </c>
     </row>
     <row r="6">
@@ -6679,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.347569391769879e-06</v>
+        <v>2.35070365953308e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3439102697364103</v>
+        <v>0.3404997998001854</v>
       </c>
     </row>
     <row r="7">
@@ -6692,10 +6692,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.25128989638746</v>
+        <v>-13.5013368388536</v>
       </c>
       <c r="C7" t="n">
-        <v>3.655233577821788e-07</v>
+        <v>5.154405269271439e-08</v>
       </c>
     </row>
     <row r="8">
@@ -6705,10 +6705,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-536.7035120479434</v>
+        <v>-851.4174911944467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1293542531377582</v>
+        <v>0.01538211183303092</v>
       </c>
     </row>
     <row r="9">
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5578.495698055983</v>
+        <v>5072.657283569792</v>
       </c>
       <c r="C9" t="n">
-        <v>4.651853159733335e-10</v>
+        <v>2.885730443023104e-08</v>
       </c>
     </row>
     <row r="10">
@@ -6731,10 +6731,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.153657423877238</v>
+        <v>16.38086041615726</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9185793693599325</v>
+        <v>0.1482182431933827</v>
       </c>
     </row>
   </sheetData>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2832.663259457113</v>
+        <v>4086.767841931945</v>
       </c>
       <c r="C2" t="n">
-        <v>2.44897893158733e-05</v>
+        <v>2.068141436319605e-09</v>
       </c>
     </row>
     <row r="3">
@@ -6793,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.3029851022099</v>
+        <v>117.7731264324894</v>
       </c>
       <c r="C3" t="n">
-        <v>1.098444569786047e-16</v>
+        <v>1.96284271790158e-08</v>
       </c>
     </row>
     <row r="4">
@@ -6806,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.1279730351711</v>
+        <v>115.6771549596529</v>
       </c>
       <c r="C4" t="n">
-        <v>2.204879822959495e-26</v>
+        <v>8.570129198463854e-32</v>
       </c>
     </row>
     <row r="5">
@@ -6819,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01652388654081702</v>
+        <v>-0.01754457083922067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01445227613242625</v>
+        <v>0.00744817180308597</v>
       </c>
     </row>
     <row r="6">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.006360913692289e-07</v>
+        <v>2.288156285526418e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9322104069497236</v>
+        <v>0.9188933722210566</v>
       </c>
     </row>
     <row r="7">
@@ -6845,10 +6845,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.34225763603833</v>
+        <v>-12.9441089993089</v>
       </c>
       <c r="C7" t="n">
-        <v>5.248097711468229e-07</v>
+        <v>2.290398866274092e-07</v>
       </c>
     </row>
     <row r="8">
@@ -6858,10 +6858,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-516.2874699200701</v>
+        <v>-176.7931034641236</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1678300594605008</v>
+        <v>0.6515785341593621</v>
       </c>
     </row>
     <row r="9">
@@ -6871,10 +6871,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5069.016867359573</v>
+        <v>5313.548004334999</v>
       </c>
       <c r="C9" t="n">
-        <v>2.746146239220673e-07</v>
+        <v>2.214122260027982e-07</v>
       </c>
     </row>
     <row r="10">
@@ -6884,10 +6884,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.85631630777308</v>
+        <v>-7.889975284109251</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03817280314741882</v>
+        <v>0.5230553545606398</v>
       </c>
     </row>
   </sheetData>
@@ -6933,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2597.326419269787</v>
+        <v>3063.20520561663</v>
       </c>
       <c r="C2" t="n">
-        <v>7.07369258714469e-05</v>
+        <v>3.678018343299647e-06</v>
       </c>
     </row>
     <row r="3">
@@ -6946,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.674668897268</v>
+        <v>163.4456663241401</v>
       </c>
       <c r="C3" t="n">
-        <v>3.895868806637987e-15</v>
+        <v>2.605700829264005e-15</v>
       </c>
     </row>
     <row r="4">
@@ -6959,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.7778916786014</v>
+        <v>110.4466907417159</v>
       </c>
       <c r="C4" t="n">
-        <v>8.115210891901614e-27</v>
+        <v>1.042861990087754e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6972,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01057954517498445</v>
+        <v>-0.0171799187028072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1159106887043248</v>
+        <v>0.01187012034592034</v>
       </c>
     </row>
     <row r="6">
@@ -6985,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.494964559719996e-06</v>
+        <v>-1.215322355235631e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1359633688215388</v>
+        <v>0.6173414430826862</v>
       </c>
     </row>
     <row r="7">
@@ -6998,10 +6998,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.14008182216519</v>
+        <v>-11.44732444806259</v>
       </c>
       <c r="C7" t="n">
-        <v>7.681329935807885e-09</v>
+        <v>1.560283490897255e-05</v>
       </c>
     </row>
     <row r="8">
@@ -7011,10 +7011,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-660.9066674993938</v>
+        <v>-560.5848049785479</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0684530910987734</v>
+        <v>0.1357205500621555</v>
       </c>
     </row>
     <row r="9">
@@ -7024,10 +7024,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5751.461355702728</v>
+        <v>4798.361200860301</v>
       </c>
       <c r="C9" t="n">
-        <v>7.36502173675302e-10</v>
+        <v>2.505184172589378e-07</v>
       </c>
     </row>
     <row r="10">
@@ -7037,10 +7037,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.5276605915969</v>
+        <v>19.66367762779132</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006975538816217625</v>
+        <v>0.08867666954964828</v>
       </c>
     </row>
   </sheetData>
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3530.831192672035</v>
+        <v>2754.532108991401</v>
       </c>
       <c r="C2" t="n">
-        <v>2.739778798383515e-07</v>
+        <v>2.01365545800462e-05</v>
       </c>
     </row>
     <row r="3">
@@ -7099,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.4220323015357</v>
+        <v>160.6189699002988</v>
       </c>
       <c r="C3" t="n">
-        <v>1.817564166247061e-14</v>
+        <v>1.63334913987814e-15</v>
       </c>
     </row>
     <row r="4">
@@ -7112,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.733216422433</v>
+        <v>111.2313698322315</v>
       </c>
       <c r="C4" t="n">
-        <v>2.78187110735969e-25</v>
+        <v>2.21879219875578e-27</v>
       </c>
     </row>
     <row r="5">
@@ -7125,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01192742706755315</v>
+        <v>-0.01298093688130224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09106770600332507</v>
+        <v>0.05512246189093051</v>
       </c>
     </row>
     <row r="6">
@@ -7138,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.803044612842906e-06</v>
+        <v>-1.199125491761109e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2571497504579743</v>
+        <v>0.9586793432565495</v>
       </c>
     </row>
     <row r="7">
@@ -7151,10 +7151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.37632474587215</v>
+        <v>-13.98758975684878</v>
       </c>
       <c r="C7" t="n">
-        <v>1.265683960349869e-05</v>
+        <v>5.150724568208033e-08</v>
       </c>
     </row>
     <row r="8">
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-794.8995415661548</v>
+        <v>-609.8899442300719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04526025980118265</v>
+        <v>0.1040271402834</v>
       </c>
     </row>
     <row r="9">
@@ -7177,10 +7177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4471.094798119779</v>
+        <v>5262.723154733871</v>
       </c>
       <c r="C9" t="n">
-        <v>6.78043058605876e-06</v>
+        <v>1.141712086565302e-08</v>
       </c>
     </row>
     <row r="10">
@@ -7190,10 +7190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.96835041832517</v>
+        <v>26.06815578847387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2843889547019073</v>
+        <v>0.02575724434078796</v>
       </c>
     </row>
   </sheetData>
@@ -7239,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3654.513290405866</v>
+        <v>3819.647999769835</v>
       </c>
       <c r="C2" t="n">
-        <v>6.263429932809288e-08</v>
+        <v>2.400713934741492e-08</v>
       </c>
     </row>
     <row r="3">
@@ -7252,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.2018769792128</v>
+        <v>150.8590292225207</v>
       </c>
       <c r="C3" t="n">
-        <v>4.383531473768788e-11</v>
+        <v>8.843813986794233e-13</v>
       </c>
     </row>
     <row r="4">
@@ -7265,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.0753598643371</v>
+        <v>105.7559731783918</v>
       </c>
       <c r="C4" t="n">
-        <v>2.092221840597903e-25</v>
+        <v>1.113765374120513e-25</v>
       </c>
     </row>
     <row r="5">
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009914683788377385</v>
+        <v>-0.01214390465315411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1528558770941022</v>
+        <v>0.07313883211772722</v>
       </c>
     </row>
     <row r="6">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.627966363068747e-06</v>
+        <v>-2.995348431843984e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1779919237595156</v>
+        <v>0.9010015414235428</v>
       </c>
     </row>
     <row r="7">
@@ -7304,10 +7304,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.3548096882386</v>
+        <v>-15.28566685757289</v>
       </c>
       <c r="C7" t="n">
-        <v>6.580157169644204e-08</v>
+        <v>9.434736725620279e-09</v>
       </c>
     </row>
     <row r="8">
@@ -7317,10 +7317,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-745.7622394917448</v>
+        <v>-740.1806087655767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05315985050777661</v>
+        <v>0.05331600220895744</v>
       </c>
     </row>
     <row r="9">
@@ -7330,10 +7330,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4525.25862173203</v>
+        <v>4828.043008216484</v>
       </c>
       <c r="C9" t="n">
-        <v>2.697365529980544e-06</v>
+        <v>4.517064451734557e-07</v>
       </c>
     </row>
     <row r="10">
@@ -7343,10 +7343,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.28371731136527</v>
+        <v>11.45910896819615</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1715703100731348</v>
+        <v>0.3394513781627609</v>
       </c>
     </row>
   </sheetData>
@@ -7392,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3650.134392457545</v>
+        <v>3152.444581879548</v>
       </c>
       <c r="C2" t="n">
-        <v>1.429057321346327e-07</v>
+        <v>2.259403789692995e-06</v>
       </c>
     </row>
     <row r="3">
@@ -7405,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.3388087560827</v>
+        <v>161.7629864414556</v>
       </c>
       <c r="C3" t="n">
-        <v>6.126962853097219e-07</v>
+        <v>1.471984324101257e-13</v>
       </c>
     </row>
     <row r="4">
@@ -7418,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.8506221113724</v>
+        <v>109.6178033855575</v>
       </c>
       <c r="C4" t="n">
-        <v>2.213743290149299e-24</v>
+        <v>5.815243344708485e-26</v>
       </c>
     </row>
     <row r="5">
@@ -7431,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01593938879820696</v>
+        <v>-0.01313570095543729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02106719477270303</v>
+        <v>0.05860026422632784</v>
       </c>
     </row>
     <row r="6">
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.574561645578624e-06</v>
+        <v>-2.726587763741839e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.186310700393235</v>
+        <v>0.427187675088829</v>
       </c>
     </row>
     <row r="7">
@@ -7457,10 +7457,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.98189085210949</v>
+        <v>-13.90181551616129</v>
       </c>
       <c r="C7" t="n">
-        <v>2.223036137857969e-07</v>
+        <v>2.560770286803829e-07</v>
       </c>
     </row>
     <row r="8">
@@ -7470,10 +7470,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-618.3821463506832</v>
+        <v>-709.8400050894339</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1099408056684751</v>
+        <v>0.05922041114687216</v>
       </c>
     </row>
     <row r="9">
@@ -7483,10 +7483,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4900.745931919946</v>
+        <v>4895.041272293329</v>
       </c>
       <c r="C9" t="n">
-        <v>3.110990451748414e-07</v>
+        <v>2.070959623782498e-07</v>
       </c>
     </row>
     <row r="10">
@@ -7496,10 +7496,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.605000028603</v>
+        <v>22.13361106836447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.234398886539628</v>
+        <v>0.07247815841645788</v>
       </c>
     </row>
   </sheetData>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3197.556713284553</v>
+        <v>3438.400507780536</v>
       </c>
       <c r="C2" t="n">
-        <v>9.716885950175192e-07</v>
+        <v>9.995979870791138e-08</v>
       </c>
     </row>
     <row r="3">
@@ -7558,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.3236513264021</v>
+        <v>161.5151197533415</v>
       </c>
       <c r="C3" t="n">
-        <v>1.558180355313086e-12</v>
+        <v>1.090348155775713e-13</v>
       </c>
     </row>
     <row r="4">
@@ -7571,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.7934866587037</v>
+        <v>107.9000658427241</v>
       </c>
       <c r="C4" t="n">
-        <v>1.173020795598723e-26</v>
+        <v>2.670399833395985e-29</v>
       </c>
     </row>
     <row r="5">
@@ -7584,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01302819108023448</v>
+        <v>-0.01605539338693351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0718726400124832</v>
+        <v>0.01510708811416562</v>
       </c>
     </row>
     <row r="6">
@@ -7597,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.44755395266791e-06</v>
+        <v>2.033755023042325e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2718780617347573</v>
+        <v>0.5741985405162597</v>
       </c>
     </row>
     <row r="7">
@@ -7610,10 +7610,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.1590459111179</v>
+        <v>-11.42350800313195</v>
       </c>
       <c r="C7" t="n">
-        <v>7.800490574505759e-08</v>
+        <v>4.867815881088614e-06</v>
       </c>
     </row>
     <row r="8">
@@ -7623,10 +7623,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-933.6077426348074</v>
+        <v>-509.3420533001213</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01692042072395672</v>
+        <v>0.1708721604158631</v>
       </c>
     </row>
     <row r="9">
@@ -7636,10 +7636,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5298.315193165905</v>
+        <v>6176.507983363989</v>
       </c>
       <c r="C9" t="n">
-        <v>1.719783686330874e-08</v>
+        <v>2.009136058044901e-11</v>
       </c>
     </row>
     <row r="10">
@@ -7649,10 +7649,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.8791158528543</v>
+        <v>1.611184499144713</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06349811174061498</v>
+        <v>0.8952376188680566</v>
       </c>
     </row>
   </sheetData>
@@ -7698,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3428.940322651563</v>
+        <v>2850.997946616769</v>
       </c>
       <c r="C2" t="n">
-        <v>2.46137624829066e-07</v>
+        <v>1.715837042133914e-05</v>
       </c>
     </row>
     <row r="3">
@@ -7711,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.5059500700256</v>
+        <v>163.8524728439541</v>
       </c>
       <c r="C3" t="n">
-        <v>2.439953011741101e-11</v>
+        <v>5.826445210599269e-16</v>
       </c>
     </row>
     <row r="4">
@@ -7724,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.3936248083292</v>
+        <v>115.7964535137885</v>
       </c>
       <c r="C4" t="n">
-        <v>1.158496799087901e-23</v>
+        <v>1.478256444192437e-27</v>
       </c>
     </row>
     <row r="5">
@@ -7737,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01281662872443915</v>
+        <v>-0.01416786152272095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05538350414358714</v>
+        <v>0.03523355867283752</v>
       </c>
     </row>
     <row r="6">
@@ -7750,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.991188115531314e-06</v>
+        <v>-2.406719466053141e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.569450219417782</v>
+        <v>0.9173521639442451</v>
       </c>
     </row>
     <row r="7">
@@ -7763,10 +7763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.03853195858351</v>
+        <v>-12.85557453731455</v>
       </c>
       <c r="C7" t="n">
-        <v>5.725635898437432e-07</v>
+        <v>4.088654421459865e-07</v>
       </c>
     </row>
     <row r="8">
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-626.3326395474572</v>
+        <v>-656.4722211620974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08893126003124448</v>
+        <v>0.07640707286965678</v>
       </c>
     </row>
     <row r="9">
@@ -7789,10 +7789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4698.580245785777</v>
+        <v>4753.54821804385</v>
       </c>
       <c r="C9" t="n">
-        <v>1.225897300566411e-06</v>
+        <v>4.027162061126131e-07</v>
       </c>
     </row>
     <row r="10">
@@ -7802,10 +7802,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44543360748168</v>
+        <v>24.79979128617918</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1558690918019791</v>
+        <v>0.03247498308400899</v>
       </c>
     </row>
   </sheetData>
@@ -7851,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3371.780938118977</v>
+        <v>3762.212670329923</v>
       </c>
       <c r="C2" t="n">
-        <v>2.474926566577713e-07</v>
+        <v>5.533967403649064e-09</v>
       </c>
     </row>
     <row r="3">
@@ -7864,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.4476042754383</v>
+        <v>150.6005966468292</v>
       </c>
       <c r="C3" t="n">
-        <v>1.993515529139913e-15</v>
+        <v>2.766425630100368e-13</v>
       </c>
     </row>
     <row r="4">
@@ -7877,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.3378877196304</v>
+        <v>112.0608725325033</v>
       </c>
       <c r="C4" t="n">
-        <v>1.514273996647215e-27</v>
+        <v>2.497278341080408e-30</v>
       </c>
     </row>
     <row r="5">
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01580296900319854</v>
+        <v>-0.01337211628694057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02381415145456829</v>
+        <v>0.04801634256838658</v>
       </c>
     </row>
     <row r="6">
@@ -7903,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.293939331987426e-06</v>
+        <v>1.624442416176378e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3738504254656693</v>
+        <v>0.9438502035893488</v>
       </c>
     </row>
     <row r="7">
@@ -7916,10 +7916,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.62379424269806</v>
+        <v>-14.65962329735314</v>
       </c>
       <c r="C7" t="n">
-        <v>7.898188834013721e-07</v>
+        <v>1.402330289478846e-08</v>
       </c>
     </row>
     <row r="8">
@@ -7929,10 +7929,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-638.5426915416492</v>
+        <v>-717.8522501132911</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09491140086664597</v>
+        <v>0.05150998840385901</v>
       </c>
     </row>
     <row r="9">
@@ -7942,10 +7942,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4905.534394492541</v>
+        <v>5067.013486494112</v>
       </c>
       <c r="C9" t="n">
-        <v>1.534160998061295e-07</v>
+        <v>7.664775735918291e-08</v>
       </c>
     </row>
     <row r="10">
@@ -7955,10 +7955,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.51816506588307</v>
+        <v>8.582275826694813</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2184454862701903</v>
+        <v>0.4457979098051665</v>
       </c>
     </row>
   </sheetData>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3350.584398322961</v>
+        <v>3071.829591733247</v>
       </c>
       <c r="C2" t="n">
-        <v>5.395780694353699e-07</v>
+        <v>7.859710953380144e-06</v>
       </c>
     </row>
     <row r="3">
@@ -8017,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.8546104201028</v>
+        <v>130.9851753369153</v>
       </c>
       <c r="C3" t="n">
-        <v>5.152446441891155e-15</v>
+        <v>1.432078200257562e-10</v>
       </c>
     </row>
     <row r="4">
@@ -8030,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.527932970344</v>
+        <v>112.3953040147813</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0850512868553e-27</v>
+        <v>2.176757678650812e-26</v>
       </c>
     </row>
     <row r="5">
@@ -8043,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009877094115395254</v>
+        <v>-0.0140966762880045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1364984537054947</v>
+        <v>0.03953521658523602</v>
       </c>
     </row>
     <row r="6">
@@ -8056,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.091411999983305e-06</v>
+        <v>-1.530735585158232e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1536232239700252</v>
+        <v>0.5463778385777402</v>
       </c>
     </row>
     <row r="7">
@@ -8069,10 +8069,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.9928726774696</v>
+        <v>-14.10987933230417</v>
       </c>
       <c r="C7" t="n">
-        <v>7.241124389200483e-07</v>
+        <v>1.746083755223099e-07</v>
       </c>
     </row>
     <row r="8">
@@ -8082,10 +8082,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-325.6272568053853</v>
+        <v>-592.5046818291348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.374913529458231</v>
+        <v>0.1254341515422749</v>
       </c>
     </row>
     <row r="9">
@@ -8095,10 +8095,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5633.323940104477</v>
+        <v>4605.014932720265</v>
       </c>
       <c r="C9" t="n">
-        <v>2.821680861207349e-08</v>
+        <v>4.396579645168694e-06</v>
       </c>
     </row>
     <row r="10">
@@ -8108,10 +8108,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.89595311282924</v>
+        <v>24.99281588206861</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5806048994226012</v>
+        <v>0.04109910022614943</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Madrid.xlsx
+++ b/outputs/ML_Results/dist_LR/Madrid.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ46875735" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ46975651" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ47073585" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ47188704" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ47306065" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ47422272" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ47557703" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ47686740" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ47805935" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ47940770" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ48072367" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ48205600" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ48340843" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ48487837" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ48695504" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ48840640" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ48978742" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ49107923" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ49239971" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ49375025" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ49521939" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ49655140" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ49791075" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ49921840" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ50055843" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ50189378" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ50326987" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ50455261" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ50590714" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ50724683" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ50854194" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ50989947" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ51124089" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ51255028" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ51390872" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ51528643" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ51658142" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ51789157" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ51921825" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ52058870" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ52191625" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ52324251" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ52455022" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ52594645" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ52738888" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ52873211" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ53010908" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ53140362" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ53289629" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ53407605" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ49436523" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ49540240" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ49639753" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ49740275" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ49842308" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ49951819" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ50051330" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ50253351" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ50354859" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ50455366" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ50557876" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ50659466" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ50758977" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ50861486" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ50962998" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ51067292" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ51167801" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ51268829" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ51368339" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ51468847" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ51572355" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ51674864" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ51774375" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ51880407" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ51983985" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ52088491" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ52194011" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ52293523" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ52393032" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ52495543" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ52612037" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ52725870" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ52839380" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ52955891" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ53069404" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ53181914" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ53296007" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ53409525" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ53523544" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ53636062" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ53748573" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ53861683" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ53977042" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ54091552" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ54203065" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ54317581" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ54433170" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ54550163" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ54664829" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ54778344" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2621.875060046917</v>
+        <v>889.3787087395226</v>
       </c>
       <c r="C2" t="n">
-        <v>5.332346588916471e-05</v>
+        <v>0.2931567817911774</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.4397651406465</v>
+        <v>134.6836398974627</v>
       </c>
       <c r="C3" t="n">
-        <v>4.09198374683918e-13</v>
+        <v>1.030974711165211e-11</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.2565083984531</v>
+        <v>129.8966973794487</v>
       </c>
       <c r="C4" t="n">
-        <v>8.955769762900846e-30</v>
+        <v>1.121322771444949e-31</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01869086371389439</v>
+        <v>-0.01709646655846566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005472982080577602</v>
+        <v>0.01001932458794366</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.027303632198271e-07</v>
+        <v>-5.033779232837609e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9666043825991224</v>
+        <v>0.9834139280883935</v>
       </c>
     </row>
     <row r="7">
@@ -572,49 +572,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.08199783351073</v>
+        <v>-7.534382028148062</v>
       </c>
       <c r="C7" t="n">
-        <v>9.831659112936291e-07</v>
+        <v>0.01587764697784792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-673.016613848728</v>
+        <v>14.16417684777739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07179090693374079</v>
+        <v>0.00183044174651427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5222.359528424327</v>
+        <v>95.60389461975888</v>
       </c>
       <c r="C9" t="n">
-        <v>1.56179634204089e-08</v>
+        <v>0.8577845048448848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-591.2381541986712</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1354690322814007</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4865.612411582225</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.371497937773886e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>29.32388285410815</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01424254302756554</v>
+      <c r="B12" t="n">
+        <v>30.1055810150121</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01062498707413889</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3100.622023402408</v>
+        <v>2060.461713492299</v>
       </c>
       <c r="C2" t="n">
-        <v>2.829445772715908e-06</v>
+        <v>0.01258716993926297</v>
       </c>
     </row>
     <row r="3">
@@ -673,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.9248584764526</v>
+        <v>159.170560487451</v>
       </c>
       <c r="C3" t="n">
-        <v>2.036552849235598e-16</v>
+        <v>7.826793724268398e-15</v>
       </c>
     </row>
     <row r="4">
@@ -686,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.939038111282</v>
+        <v>113.8381052043135</v>
       </c>
       <c r="C4" t="n">
-        <v>1.637825233512179e-26</v>
+        <v>1.233935322536002e-27</v>
       </c>
     </row>
     <row r="5">
@@ -699,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02040959140840458</v>
+        <v>-0.02004367758586516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003505378015071036</v>
+        <v>0.003868345723408024</v>
       </c>
     </row>
     <row r="6">
@@ -712,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.063013178628326e-07</v>
+        <v>-1.982967846769983e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.894617564216492</v>
+        <v>0.9310851490052758</v>
       </c>
     </row>
     <row r="7">
@@ -725,49 +751,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.17412193219449</v>
+        <v>-7.918692473927718</v>
       </c>
       <c r="C7" t="n">
-        <v>1.983256460650877e-06</v>
+        <v>0.009271066218685314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-441.4866119048249</v>
+        <v>8.87918775243776</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2352107489377774</v>
+        <v>0.02359378377300681</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4570.944439213941</v>
+        <v>-298.0426799981237</v>
       </c>
       <c r="C9" t="n">
-        <v>7.042794282729691e-07</v>
+        <v>0.5644341044226888</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-425.5854007596416</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2799765274559066</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4384.507312749474</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.868991208841587e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>20.95944177323013</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07948857020332503</v>
+      <c r="B12" t="n">
+        <v>20.28088351992533</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.08700832984774111</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2616.208594753939</v>
+        <v>1956.321637825527</v>
       </c>
       <c r="C2" t="n">
-        <v>4.073684982012347e-05</v>
+        <v>0.0134871921950987</v>
       </c>
     </row>
     <row r="3">
@@ -826,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.2730359468564</v>
+        <v>158.1568760273948</v>
       </c>
       <c r="C3" t="n">
-        <v>1.125674047370522e-14</v>
+        <v>5.009717357387572e-14</v>
       </c>
     </row>
     <row r="4">
@@ -839,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.2482691908339</v>
+        <v>115.4742224404666</v>
       </c>
       <c r="C4" t="n">
-        <v>4.66448727902748e-29</v>
+        <v>6.323883003071274e-29</v>
       </c>
     </row>
     <row r="5">
@@ -852,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009784423562975337</v>
+        <v>-0.009318985609069658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1389258153419081</v>
+        <v>0.1585914428762002</v>
       </c>
     </row>
     <row r="6">
@@ -865,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.885378031964481e-06</v>
+        <v>-6.60273727159413e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06919228358074229</v>
+        <v>0.08125326791081897</v>
       </c>
     </row>
     <row r="7">
@@ -878,49 +930,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.06774518899521</v>
+        <v>-10.24698661321821</v>
       </c>
       <c r="C7" t="n">
-        <v>8.190167929590008e-07</v>
+        <v>0.001090057117064817</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-750.6981850392604</v>
+        <v>5.663026525118875</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04432426220235681</v>
+        <v>0.1386653159289634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5785.437638817057</v>
+        <v>-249.3547063065505</v>
       </c>
       <c r="C9" t="n">
-        <v>3.997041567224073e-10</v>
+        <v>0.6537531643260295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-769.9381657501401</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05418617003545237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5655.772501646544</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.300174300377273e-09</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>26.83646208346889</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02080675656621635</v>
+      <c r="B12" t="n">
+        <v>26.23237487786811</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02381855401660291</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3554.769791442134</v>
+        <v>2823.860097818516</v>
       </c>
       <c r="C2" t="n">
-        <v>3.629943857313886e-08</v>
+        <v>0.00112514090108683</v>
       </c>
     </row>
     <row r="3">
@@ -979,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177.7816503128502</v>
+        <v>174.7042150008078</v>
       </c>
       <c r="C3" t="n">
-        <v>3.407931534402767e-19</v>
+        <v>4.796895615155161e-18</v>
       </c>
     </row>
     <row r="4">
@@ -992,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.5397101109839</v>
+        <v>112.0671787614718</v>
       </c>
       <c r="C4" t="n">
-        <v>5.84472547963176e-27</v>
+        <v>4.540140384225665e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1005,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01671395333113968</v>
+        <v>-0.01652219202757429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008526744181375735</v>
+        <v>0.009391885631660341</v>
       </c>
     </row>
     <row r="6">
@@ -1018,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.756383511065975e-07</v>
+        <v>3.634089393818235e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8999697744832761</v>
+        <v>0.8686652985657118</v>
       </c>
     </row>
     <row r="7">
@@ -1031,49 +1109,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.14927274492829</v>
+        <v>-8.95228361955102</v>
       </c>
       <c r="C7" t="n">
-        <v>1.108010166460686e-05</v>
+        <v>0.004321043658629004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-202.7341352920707</v>
+        <v>5.215283165054505</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5702688784521531</v>
+        <v>0.2145793925341484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5122.021857311835</v>
+        <v>197.1354748080366</v>
       </c>
       <c r="C9" t="n">
-        <v>3.375550883198382e-08</v>
+        <v>0.6976044687084009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-96.59360585751347</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8042921637529755</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5135.400732365289</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.065720050427265e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.786239626752625</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9469513817411167</v>
+      <c r="B12" t="n">
+        <v>0.6002540683624105</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9595275439344391</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3306.556153353542</v>
+        <v>2662.203668398153</v>
       </c>
       <c r="C2" t="n">
-        <v>1.020897512912923e-06</v>
+        <v>0.002252209581619581</v>
       </c>
     </row>
     <row r="3">
@@ -1132,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.5266778430201</v>
+        <v>147.6438388822684</v>
       </c>
       <c r="C3" t="n">
-        <v>2.262074191651034e-13</v>
+        <v>1.530290583577078e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1145,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.0878207440277</v>
+        <v>109.5794316824273</v>
       </c>
       <c r="C4" t="n">
-        <v>4.85346221593697e-25</v>
+        <v>6.672625266877785e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1158,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02017822745407302</v>
+        <v>-0.01965741385596263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003543944909966392</v>
+        <v>0.00452319233484827</v>
       </c>
     </row>
     <row r="6">
@@ -1171,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.073400080777171e-08</v>
+        <v>1.679990690371964e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.973567860810888</v>
+        <v>0.9449640434811859</v>
       </c>
     </row>
     <row r="7">
@@ -1184,49 +1288,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.86434256823663</v>
+        <v>-10.0999994263359</v>
       </c>
       <c r="C7" t="n">
-        <v>6.494960652834869e-07</v>
+        <v>0.001150695673040302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-387.063950596694</v>
+        <v>5.783564518685064</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2964613058252111</v>
+        <v>0.1718299582461147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5016.037090224342</v>
+        <v>-365.0462481612956</v>
       </c>
       <c r="C9" t="n">
-        <v>4.903200402487114e-07</v>
+        <v>0.5002671794218785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-423.4797933618941</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2868752611830777</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4820.253767763365</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.86426318661806e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>16.25366372694178</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1708654188034111</v>
+      <c r="B12" t="n">
+        <v>16.04661253615579</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1761107576119771</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1272,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3007.985365688936</v>
+        <v>1137.303293261014</v>
       </c>
       <c r="C2" t="n">
-        <v>5.133066391328194e-06</v>
+        <v>0.1833092468789549</v>
       </c>
     </row>
     <row r="3">
@@ -1285,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.627432497271</v>
+        <v>133.2172213873169</v>
       </c>
       <c r="C3" t="n">
-        <v>3.785348175326691e-12</v>
+        <v>6.815082486287272e-11</v>
       </c>
     </row>
     <row r="4">
@@ -1298,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.4313726128399</v>
+        <v>125.8605569258829</v>
       </c>
       <c r="C4" t="n">
-        <v>2.329727928837518e-29</v>
+        <v>1.00507096555987e-31</v>
       </c>
     </row>
     <row r="5">
@@ -1311,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01351459022631869</v>
+        <v>-0.01187523469952134</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05143180897817096</v>
+        <v>0.08162892070319074</v>
       </c>
     </row>
     <row r="6">
@@ -1324,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.546331478485973e-06</v>
+        <v>1.738796801587956e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5279206958264002</v>
+        <v>0.4697142948369645</v>
       </c>
     </row>
     <row r="7">
@@ -1337,49 +1467,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.99593365143666</v>
+        <v>-7.541670352078797</v>
       </c>
       <c r="C7" t="n">
-        <v>4.6383104538725e-08</v>
+        <v>0.01410056477659548</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-870.0031909026836</v>
+        <v>15.48463747937254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02439955809198657</v>
+        <v>0.0007034293322132728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4955.767067927056</v>
+        <v>-48.185186594377</v>
       </c>
       <c r="C9" t="n">
-        <v>1.08157948414093e-07</v>
+        <v>0.9265432228378321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-867.8543475815243</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02984335118339094</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4605.875233123611</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.295939687047899e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.72829897639161</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03634584201216973</v>
+      <c r="B12" t="n">
+        <v>25.33014449813165</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02890324962796665</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3759.160335851658</v>
+        <v>2469.370319751518</v>
       </c>
       <c r="C2" t="n">
-        <v>2.529538920259654e-08</v>
+        <v>0.002138002874978263</v>
       </c>
     </row>
     <row r="3">
@@ -1438,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.7315315480717</v>
+        <v>128.2844567120036</v>
       </c>
       <c r="C3" t="n">
-        <v>4.790937125199467e-11</v>
+        <v>1.614997246256722e-09</v>
       </c>
     </row>
     <row r="4">
@@ -1451,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.85405784027</v>
+        <v>117.5972743687593</v>
       </c>
       <c r="C4" t="n">
-        <v>8.882779074481665e-29</v>
+        <v>3.067046827227611e-31</v>
       </c>
     </row>
     <row r="5">
@@ -1464,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01491437470069817</v>
+        <v>-0.0140383550372064</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03570350512532631</v>
+        <v>0.04526135748916596</v>
       </c>
     </row>
     <row r="6">
@@ -1477,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.502284257043688e-08</v>
+        <v>3.41327246246556e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9678449234643903</v>
+        <v>0.8825196019486514</v>
       </c>
     </row>
     <row r="7">
@@ -1490,49 +1646,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.87911648326587</v>
+        <v>-8.351186230987157</v>
       </c>
       <c r="C7" t="n">
-        <v>4.684548416337433e-08</v>
+        <v>0.004272567155203674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-823.2637760740421</v>
+        <v>11.77922134613604</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03042855789204734</v>
+        <v>0.002694191491341868</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4426.805527240505</v>
+        <v>-720.2767259631178</v>
       </c>
       <c r="C9" t="n">
-        <v>2.47249753320129e-06</v>
+        <v>0.2059816659296761</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-906.5578301973694</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02212329834330024</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4270.805538760508</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.445957940328165e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>12.85622728958485</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2821308224265593</v>
+      <c r="B12" t="n">
+        <v>11.45669574017903</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3279561238087806</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1578,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3509.452814986274</v>
+        <v>2752.857701389874</v>
       </c>
       <c r="C2" t="n">
-        <v>2.162862803934544e-07</v>
+        <v>0.000981738226970259</v>
       </c>
     </row>
     <row r="3">
@@ -1591,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.1031745536359</v>
+        <v>135.8591182407918</v>
       </c>
       <c r="C3" t="n">
-        <v>5.465098733294558e-14</v>
+        <v>1.597583182017723e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1604,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.8803889679605</v>
+        <v>111.4672443958624</v>
       </c>
       <c r="C4" t="n">
-        <v>8.667867736242413e-29</v>
+        <v>3.012496204489031e-29</v>
       </c>
     </row>
     <row r="5">
@@ -1617,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01498736547891556</v>
+        <v>-0.01464538968646062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02159210337084745</v>
+        <v>0.02406329208713262</v>
       </c>
     </row>
     <row r="6">
@@ -1630,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.165141810921911e-06</v>
+        <v>-1.543712252911129e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.521946405301686</v>
+        <v>0.6472162184105005</v>
       </c>
     </row>
     <row r="7">
@@ -1643,49 +1825,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.76070923186805</v>
+        <v>-11.3721591542172</v>
       </c>
       <c r="C7" t="n">
-        <v>2.542054932279559e-09</v>
+        <v>0.0001052604576922119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-447.8116948234674</v>
+        <v>7.03338845509987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2196049797649918</v>
+        <v>0.07131312756914633</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4787.889739033339</v>
+        <v>-517.9592518747866</v>
       </c>
       <c r="C9" t="n">
-        <v>2.07029928009684e-06</v>
+        <v>0.3143773779162818</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-560.5201700007924</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1488550308900531</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4677.222001559365</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.571086446369897e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>15.21950678438832</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1836437006675188</v>
+      <c r="B12" t="n">
+        <v>14.65633371075226</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1982814349664165</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1731,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2986.657284296791</v>
+        <v>2156.857207055837</v>
       </c>
       <c r="C2" t="n">
-        <v>5.074921135126356e-06</v>
+        <v>0.01159458620773395</v>
       </c>
     </row>
     <row r="3">
@@ -1744,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2322816916873</v>
+        <v>148.1815395227101</v>
       </c>
       <c r="C3" t="n">
-        <v>4.604210518995322e-13</v>
+        <v>1.997014116867838e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1757,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.118468246656</v>
+        <v>118.7407219754958</v>
       </c>
       <c r="C4" t="n">
-        <v>3.276092862975789e-26</v>
+        <v>3.579883758531697e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1770,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01696614783087717</v>
+        <v>-0.01617218403944379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01308710577560673</v>
+        <v>0.01819996723919582</v>
       </c>
     </row>
     <row r="6">
@@ -1783,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.637719002215721e-08</v>
+        <v>1.974361539164598e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9671710413474467</v>
+        <v>0.9327526136877706</v>
       </c>
     </row>
     <row r="7">
@@ -1796,49 +2004,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.61382648085841</v>
+        <v>-7.723385509948054</v>
       </c>
       <c r="C7" t="n">
-        <v>3.558333428309861e-05</v>
+        <v>0.01255399096334725</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-865.8618488221209</v>
+        <v>6.391465512868358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02046815476372505</v>
+        <v>0.1198512485389444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4607.978329410199</v>
+        <v>-103.0476822368493</v>
       </c>
       <c r="C9" t="n">
-        <v>4.54830066639108e-07</v>
+        <v>0.8476360068832436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-840.2878424366486</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0335804948917633</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4511.595329010166</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.049975108707461e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>23.31083011863815</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04686245597731416</v>
+      <c r="B12" t="n">
+        <v>23.75524402224998</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04263322813737359</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1884,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3585.631596991364</v>
+        <v>2670.460057750735</v>
       </c>
       <c r="C2" t="n">
-        <v>1.318503908908816e-07</v>
+        <v>0.001221079774595083</v>
       </c>
     </row>
     <row r="3">
@@ -1897,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.5889349998631</v>
+        <v>163.680140372997</v>
       </c>
       <c r="C3" t="n">
-        <v>1.023478266373782e-15</v>
+        <v>2.918109197611114e-14</v>
       </c>
     </row>
     <row r="4">
@@ -1910,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.1091492155891</v>
+        <v>114.0844437621171</v>
       </c>
       <c r="C4" t="n">
-        <v>3.978808146002141e-27</v>
+        <v>3.909273737736947e-28</v>
       </c>
     </row>
     <row r="5">
@@ -1923,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009435517499352116</v>
+        <v>-0.008921074442057269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1773771309051499</v>
+        <v>0.1993867330740271</v>
       </c>
     </row>
     <row r="6">
@@ -1936,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.243068825066162e-07</v>
+        <v>-1.054746659993786e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9241101420715956</v>
+        <v>0.96394154062906</v>
       </c>
     </row>
     <row r="7">
@@ -1949,49 +2183,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.36951748950664</v>
+        <v>-10.11475344752601</v>
       </c>
       <c r="C7" t="n">
-        <v>1.310270696588532e-07</v>
+        <v>0.00150269402074215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1020.969311925655</v>
+        <v>8.394210942333597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007283127562959855</v>
+        <v>0.03904027745869444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4689.106906339923</v>
+        <v>-565.2104755060143</v>
       </c>
       <c r="C9" t="n">
-        <v>7.33081424002211e-07</v>
+        <v>0.2904043982344852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1110.679306176313</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.006573005439584595</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4580.009770704016</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.886009364162055e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>15.30319235118609</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2078508979435334</v>
+      <c r="B12" t="n">
+        <v>14.11393477140027</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2417338121539686</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2037,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3354.815407009993</v>
+        <v>2303.094609256772</v>
       </c>
       <c r="C2" t="n">
-        <v>1.726151984578922e-07</v>
+        <v>0.004086467594457671</v>
       </c>
     </row>
     <row r="3">
@@ -2050,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>175.3023064225928</v>
+        <v>172.2310155191157</v>
       </c>
       <c r="C3" t="n">
-        <v>8.755883296544953e-17</v>
+        <v>8.590503018112569e-16</v>
       </c>
     </row>
     <row r="4">
@@ -2063,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.4634681247555</v>
+        <v>116.0780603635808</v>
       </c>
       <c r="C4" t="n">
-        <v>2.031192350327943e-28</v>
+        <v>8.079504055777915e-29</v>
       </c>
     </row>
     <row r="5">
@@ -2076,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01365744531561988</v>
+        <v>-0.01283492589236857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03595913626651149</v>
+        <v>0.04842191125316174</v>
       </c>
     </row>
     <row r="6">
@@ -2089,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.442270920377702e-06</v>
+        <v>1.357182080036262e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5778874611661137</v>
+        <v>0.5989447422866624</v>
       </c>
     </row>
     <row r="7">
@@ -2102,49 +2362,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.97009900926389</v>
+        <v>-8.431105989708172</v>
       </c>
       <c r="C7" t="n">
-        <v>1.673311040602811e-06</v>
+        <v>0.0050865277030665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-344.1677931993005</v>
+        <v>8.377621023093049</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3510749866698502</v>
+        <v>0.03342058456469852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5990.371494627805</v>
+        <v>248.2518195750094</v>
       </c>
       <c r="C9" t="n">
-        <v>6.65565187851041e-10</v>
+        <v>0.6683150550023679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-196.7936390185657</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6194284615467529</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5859.615285126274</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.353759642454286e-09</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1.163283724765094</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9223896193654075</v>
+      <c r="B12" t="n">
+        <v>-0.5587417077957966</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.962615975484955</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2909.87059424362</v>
+        <v>2226.53735333832</v>
       </c>
       <c r="C2" t="n">
-        <v>1.228316942285441e-05</v>
+        <v>0.008787663220811452</v>
       </c>
     </row>
     <row r="3">
@@ -2203,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.7466272456305</v>
+        <v>162.572544018084</v>
       </c>
       <c r="C3" t="n">
-        <v>5.549879618050112e-17</v>
+        <v>1.663747566679439e-15</v>
       </c>
     </row>
     <row r="4">
@@ -2216,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.7930006058299</v>
+        <v>115.2514745625507</v>
       </c>
       <c r="C4" t="n">
-        <v>1.019068863978563e-26</v>
+        <v>4.694499227663066e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2229,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0145006283396765</v>
+        <v>-0.01426008488755263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04023138256702534</v>
+        <v>0.04314139987538083</v>
       </c>
     </row>
     <row r="6">
@@ -2242,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.723399230902798e-07</v>
+        <v>-4.112069632095563e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8043769671086599</v>
+        <v>0.8582317833318059</v>
       </c>
     </row>
     <row r="7">
@@ -2255,49 +2541,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.74022169557779</v>
+        <v>-10.73572103888059</v>
       </c>
       <c r="C7" t="n">
-        <v>7.448980156774599e-08</v>
+        <v>0.0004234392090133231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-619.4332807310775</v>
+        <v>5.877827874566544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09243807399293849</v>
+        <v>0.1501270621707323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4922.292956580612</v>
+        <v>-573.0583027914124</v>
       </c>
       <c r="C9" t="n">
-        <v>2.013820783654607e-07</v>
+        <v>0.2865795075697797</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-709.4580843522938</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07131658860270763</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4950.130422355018</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.610455338456977e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.93146874157495</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03305255551392945</v>
+      <c r="B12" t="n">
+        <v>25.16456681492967</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03074215575033704</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2343,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2895.584045193394</v>
+        <v>1021.491781161061</v>
       </c>
       <c r="C2" t="n">
-        <v>9.22354687513905e-06</v>
+        <v>0.2467977826767675</v>
       </c>
     </row>
     <row r="3">
@@ -2356,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.950724612109</v>
+        <v>125.9039695502987</v>
       </c>
       <c r="C3" t="n">
-        <v>1.889624040703471e-10</v>
+        <v>1.137039224154353e-09</v>
       </c>
     </row>
     <row r="4">
@@ -2369,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.571541281197</v>
+        <v>124.2258292779611</v>
       </c>
       <c r="C4" t="n">
-        <v>1.429508969304128e-29</v>
+        <v>1.955853011759753e-31</v>
       </c>
     </row>
     <row r="5">
@@ -2382,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02206568257894345</v>
+        <v>-0.02065406399263897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001870658160703918</v>
+        <v>0.00312653965060373</v>
       </c>
     </row>
     <row r="6">
@@ -2395,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.521364242236916e-07</v>
+        <v>-9.312618547549933e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8792078017996201</v>
+        <v>0.9674578839364261</v>
       </c>
     </row>
     <row r="7">
@@ -2408,49 +2720,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.50466457806262</v>
+        <v>-7.521248402938691</v>
       </c>
       <c r="C7" t="n">
-        <v>2.540161640412483e-07</v>
+        <v>0.01697371334417121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-267.0269710515335</v>
+        <v>14.66757262209974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4839491345315711</v>
+        <v>0.001798852578935303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5065.79214562615</v>
+        <v>110.2300703935671</v>
       </c>
       <c r="C9" t="n">
-        <v>1.974022687425533e-08</v>
+        <v>0.8386187125890819</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-175.6976251965976</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6599994902190895</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4762.768692974625</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.077752397033116e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.29176904787629</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04087533868492128</v>
+      <c r="B12" t="n">
+        <v>25.45818357104836</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02974573188026898</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2496,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2988.304762937098</v>
+        <v>1484.193498732592</v>
       </c>
       <c r="C2" t="n">
-        <v>3.592035006553959e-06</v>
+        <v>0.08118059676946682</v>
       </c>
     </row>
     <row r="3">
@@ -2509,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.0392712479534</v>
+        <v>137.9283198097619</v>
       </c>
       <c r="C3" t="n">
-        <v>1.083286177703583e-12</v>
+        <v>1.563935261729056e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2522,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.4084680855777</v>
+        <v>113.9149974666341</v>
       </c>
       <c r="C4" t="n">
-        <v>3.917548227449999e-25</v>
+        <v>2.384802470045002e-26</v>
       </c>
     </row>
     <row r="5">
@@ -2535,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01738528478626983</v>
+        <v>-0.01615040816798899</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01740145915945288</v>
+        <v>0.02585071440651212</v>
       </c>
     </row>
     <row r="6">
@@ -2548,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.724547811368842e-06</v>
+        <v>-1.245639227838442e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.637877687514443</v>
+        <v>0.7318915408272773</v>
       </c>
     </row>
     <row r="7">
@@ -2561,49 +2899,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.37599744391544</v>
+        <v>-9.592409936824215</v>
       </c>
       <c r="C7" t="n">
-        <v>2.247566758442952e-08</v>
+        <v>0.001807195217005128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-554.6137447841295</v>
+        <v>11.95296489207871</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1331417274685543</v>
+        <v>0.007981314693268729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5508.707078272058</v>
+        <v>16.33221317031757</v>
       </c>
       <c r="C9" t="n">
-        <v>1.321290614121782e-08</v>
+        <v>0.9775790987123344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-490.2383180447737</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2073325794527212</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5222.637041794082</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.844908786650087e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>23.99875909935331</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03678650773711041</v>
+      <c r="B12" t="n">
+        <v>25.1129292989321</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0274431396413221</v>
       </c>
     </row>
   </sheetData>
@@ -2617,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2649,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3551.049755725082</v>
+        <v>2974.408642330779</v>
       </c>
       <c r="C2" t="n">
-        <v>2.711316667088824e-08</v>
+        <v>0.0002431200585130702</v>
       </c>
     </row>
     <row r="3">
@@ -2662,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.8411115362332</v>
+        <v>175.2771782340622</v>
       </c>
       <c r="C3" t="n">
-        <v>4.401855334135152e-17</v>
+        <v>1.098376543811971e-15</v>
       </c>
     </row>
     <row r="4">
@@ -2675,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.1579370789772</v>
+        <v>118.5541316819979</v>
       </c>
       <c r="C4" t="n">
-        <v>6.854062117343067e-30</v>
+        <v>1.760151231856512e-29</v>
       </c>
     </row>
     <row r="5">
@@ -2688,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.011208439554259</v>
+        <v>-0.01119116205505237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09595328918680464</v>
+        <v>0.09626347697136026</v>
       </c>
     </row>
     <row r="6">
@@ -2701,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.392058926079076e-07</v>
+        <v>2.803604661309378e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9506132007712181</v>
+        <v>0.9006601446764531</v>
       </c>
     </row>
     <row r="7">
@@ -2714,49 +3078,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.74051618299555</v>
+        <v>-9.156054524738568</v>
       </c>
       <c r="C7" t="n">
-        <v>5.117046604232996e-06</v>
+        <v>0.002611989389503555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1123.174983163417</v>
+        <v>5.050954810603063</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003217705421983618</v>
+        <v>0.2048791069775343</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3561.303882634254</v>
+        <v>-426.7147423494132</v>
       </c>
       <c r="C9" t="n">
-        <v>8.531142374791895e-05</v>
+        <v>0.4121300795980424</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1186.280743655732</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003532680297040837</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3568.894968419712</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.488659204421103e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>17.9745169260304</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1152230750874907</v>
+      <c r="B12" t="n">
+        <v>17.66596132149475</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1210335059134654</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2802,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3274.899487537828</v>
+        <v>2190.218021731046</v>
       </c>
       <c r="C2" t="n">
-        <v>1.54475840923005e-06</v>
+        <v>0.0144344924659478</v>
       </c>
     </row>
     <row r="3">
@@ -2815,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.4066092441162</v>
+        <v>143.3967320490761</v>
       </c>
       <c r="C3" t="n">
-        <v>4.109439753841049e-13</v>
+        <v>1.288928543076344e-12</v>
       </c>
     </row>
     <row r="4">
@@ -2828,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.6105579077099</v>
+        <v>117.8366429082065</v>
       </c>
       <c r="C4" t="n">
-        <v>1.458475232897591e-29</v>
+        <v>9.945199593490553e-30</v>
       </c>
     </row>
     <row r="5">
@@ -2841,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01486422063804502</v>
+        <v>-0.01388691925558626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02657325447772748</v>
+        <v>0.03807458914853536</v>
       </c>
     </row>
     <row r="6">
@@ -2854,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.382301467348584e-08</v>
+        <v>1.754146622650511e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9713888988782126</v>
+        <v>0.9399584733252355</v>
       </c>
     </row>
     <row r="7">
@@ -2867,49 +3257,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.67591007125351</v>
+        <v>-9.032186479024078</v>
       </c>
       <c r="C7" t="n">
-        <v>1.305690744823738e-06</v>
+        <v>0.004307294118359988</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-743.1549689104843</v>
+        <v>8.296984740742264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04156340909150292</v>
+        <v>0.05417592955332089</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4660.057083735577</v>
+        <v>-36.87837205130768</v>
       </c>
       <c r="C9" t="n">
-        <v>3.578232852710343e-07</v>
+        <v>0.9436974463097879</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-709.0190425052932</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07413642343702538</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4616.74078528348</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.748210394656343e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.04053810068263</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1296945566034416</v>
+      <c r="B12" t="n">
+        <v>18.30126537832406</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1230750306517004</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3459.788000421228</v>
+        <v>2825.309282413518</v>
       </c>
       <c r="C2" t="n">
-        <v>6.086045467372716e-07</v>
+        <v>0.0008620662576865951</v>
       </c>
     </row>
     <row r="3">
@@ -2968,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.3176558197531</v>
+        <v>142.1673913146028</v>
       </c>
       <c r="C3" t="n">
-        <v>1.555157435427663e-11</v>
+        <v>1.319326412851396e-10</v>
       </c>
     </row>
     <row r="4">
@@ -2981,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.767370923669</v>
+        <v>111.0889388913793</v>
       </c>
       <c r="C4" t="n">
-        <v>8.891816249422765e-27</v>
+        <v>5.249307245443527e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2994,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01799162929772961</v>
+        <v>-0.01761017194060793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006814429621634649</v>
+        <v>0.008046574355494584</v>
       </c>
     </row>
     <row r="6">
@@ -3007,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.964944857597561e-07</v>
+        <v>-2.339400972035465e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9323455479779161</v>
+        <v>0.9919125044937465</v>
       </c>
     </row>
     <row r="7">
@@ -3020,49 +3436,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.88738130571781</v>
+        <v>-10.75280559173547</v>
       </c>
       <c r="C7" t="n">
-        <v>1.12227617066163e-07</v>
+        <v>0.0006529018986589915</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-474.0886111520263</v>
+        <v>6.082314362150626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2050887363796928</v>
+        <v>0.1381506905578009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5017.082129234101</v>
+        <v>-521.9965395351064</v>
       </c>
       <c r="C9" t="n">
-        <v>8.77177227654873e-07</v>
+        <v>0.3508543611016606</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-553.0975933028631</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.161591101080642</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4815.184910919875</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.286251623309075e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>14.21307375999216</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2416332114683396</v>
+      <c r="B12" t="n">
+        <v>13.64063966453176</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2597214096465508</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3163.87289907787</v>
+        <v>1769.24493831431</v>
       </c>
       <c r="C2" t="n">
-        <v>9.26197077841449e-07</v>
+        <v>0.02619541418491073</v>
       </c>
     </row>
     <row r="3">
@@ -3121,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.5620012456357</v>
+        <v>157.5024390025122</v>
       </c>
       <c r="C3" t="n">
-        <v>1.07605707500223e-16</v>
+        <v>1.436436449896692e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3134,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.1537632014165</v>
+        <v>121.1594261299064</v>
       </c>
       <c r="C4" t="n">
-        <v>1.896289374460344e-28</v>
+        <v>1.865081569758575e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3147,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01491834093970052</v>
+        <v>-0.01394280073492184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02503566827742771</v>
+        <v>0.0336514765163857</v>
       </c>
     </row>
     <row r="6">
@@ -3160,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.263432110596428e-07</v>
+        <v>5.638589244226723e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8673816455698009</v>
+        <v>0.8226082984862414</v>
       </c>
     </row>
     <row r="7">
@@ -3173,49 +3615,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.0718955224544</v>
+        <v>-6.642524869578784</v>
       </c>
       <c r="C7" t="n">
-        <v>1.498830150065467e-06</v>
+        <v>0.02492641797180082</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-110.2917066706998</v>
+        <v>11.58765687600568</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7720958322223685</v>
+        <v>0.00245431804893299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6269.164551752484</v>
+        <v>-161.022682284887</v>
       </c>
       <c r="C9" t="n">
-        <v>1.250535978856227e-11</v>
+        <v>0.7579575325044957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-40.98394677966803</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.918239592413244</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6076.008263992025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.186670370494091e-11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2.475540089271227</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8389945526453003</v>
+      <c r="B12" t="n">
+        <v>0.7503949767256906</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9501356076904925</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3261,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3168.196440770969</v>
+        <v>2428.950583383914</v>
       </c>
       <c r="C2" t="n">
-        <v>2.161189968185539e-06</v>
+        <v>0.004501789383316612</v>
       </c>
     </row>
     <row r="3">
@@ -3274,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164.3053137046925</v>
+        <v>157.3686078010442</v>
       </c>
       <c r="C3" t="n">
-        <v>1.857419597969593e-13</v>
+        <v>2.164674888601083e-12</v>
       </c>
     </row>
     <row r="4">
@@ -3287,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.4028397752743</v>
+        <v>124.8644478021824</v>
       </c>
       <c r="C4" t="n">
-        <v>4.005997082728514e-30</v>
+        <v>2.308737504592701e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3300,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01175372293388437</v>
+        <v>-0.01157116913344442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08373028595629986</v>
+        <v>0.08809433389027257</v>
       </c>
     </row>
     <row r="6">
@@ -3313,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.965559152497651e-07</v>
+        <v>-7.791109062541601e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.897445086829346</v>
+        <v>0.9728936282562539</v>
       </c>
     </row>
     <row r="7">
@@ -3326,49 +3794,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.37313612613295</v>
+        <v>-9.872834205444033</v>
       </c>
       <c r="C7" t="n">
-        <v>1.831679004554088e-07</v>
+        <v>0.001537436830582741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-795.5466026303191</v>
+        <v>6.513350852250374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03879491847404681</v>
+        <v>0.1111453233504271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4538.000243015236</v>
+        <v>-511.4322004910396</v>
       </c>
       <c r="C9" t="n">
-        <v>1.235345559531273e-06</v>
+        <v>0.3355424086534192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-857.0189963863373</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03732048796834534</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4495.233615961004</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.726349361123099e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>20.58359416034956</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08590630334909366</v>
+      <c r="B12" t="n">
+        <v>19.77253685147437</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.09761683223562928</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3414,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2369.220102641873</v>
+        <v>956.1226558998326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002174975302830569</v>
+        <v>0.2324989091199044</v>
       </c>
     </row>
     <row r="3">
@@ -3427,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.6586970909415</v>
+        <v>151.9309405693988</v>
       </c>
       <c r="C3" t="n">
-        <v>1.313027956291648e-15</v>
+        <v>1.364934614569776e-14</v>
       </c>
     </row>
     <row r="4">
@@ -3440,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.7044259010567</v>
+        <v>121.1590579045804</v>
       </c>
       <c r="C4" t="n">
-        <v>2.205419472110798e-28</v>
+        <v>2.711012794675532e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3453,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01691211335847587</v>
+        <v>-0.01627715902870471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01028572322476894</v>
+        <v>0.01214986444323075</v>
       </c>
     </row>
     <row r="6">
@@ -3466,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.076065276173323e-06</v>
+        <v>-9.905698632289678e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6586560301386233</v>
+        <v>0.6797028338810447</v>
       </c>
     </row>
     <row r="7">
@@ -3479,49 +3973,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.9555478111841</v>
+        <v>-8.708838947789044</v>
       </c>
       <c r="C7" t="n">
-        <v>6.254433134768391e-08</v>
+        <v>0.003832803134532491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-750.0193496870785</v>
+        <v>11.37743509328423</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03652015694832882</v>
+        <v>0.00314123431902067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5590.172382800461</v>
+        <v>-169.4468304891161</v>
       </c>
       <c r="C9" t="n">
-        <v>5.037706102859915e-10</v>
+        <v>0.7518915728357283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-705.570973932022</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06548511836472036</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5409.850523033833</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.522516652024021e-09</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>36.02707272952414</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002072513608534586</v>
+      <c r="B12" t="n">
+        <v>35.62017917060305</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.001992399546940232</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3567,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3523.744395687403</v>
+        <v>2918.936801877779</v>
       </c>
       <c r="C2" t="n">
-        <v>4.030108887489739e-08</v>
+        <v>0.0002746484975543561</v>
       </c>
     </row>
     <row r="3">
@@ -3580,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.3547591188411</v>
+        <v>147.1338641455075</v>
       </c>
       <c r="C3" t="n">
-        <v>3.079862231199702e-14</v>
+        <v>3.829912295397885e-13</v>
       </c>
     </row>
     <row r="4">
@@ -3593,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.8606672137159</v>
+        <v>109.1439233418609</v>
       </c>
       <c r="C4" t="n">
-        <v>2.217153994219462e-25</v>
+        <v>3.065713800118543e-25</v>
       </c>
     </row>
     <row r="5">
@@ -3606,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01662288768751822</v>
+        <v>-0.01626850197935079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0165789958672964</v>
+        <v>0.01908441186503478</v>
       </c>
     </row>
     <row r="6">
@@ -3619,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.208038169772482e-06</v>
+        <v>-1.83739175598987e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5053004378340697</v>
+        <v>0.5796761684799487</v>
       </c>
     </row>
     <row r="7">
@@ -3632,49 +4152,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.71338550298508</v>
+        <v>-10.10762881682242</v>
       </c>
       <c r="C7" t="n">
-        <v>6.931309003107888e-07</v>
+        <v>0.0009043928364649884</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-468.5462903936199</v>
+        <v>5.263847598010194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2072042873477772</v>
+        <v>0.1766520860281172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4114.020642111866</v>
+        <v>-312.1340152197472</v>
       </c>
       <c r="C9" t="n">
-        <v>5.539719823737453e-06</v>
+        <v>0.55005319975784</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-518.6936881398336</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1881367744749349</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4112.40587207727</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.691400511681554e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>15.03356326690871</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1731595061429528</v>
+      <c r="B12" t="n">
+        <v>14.288697307958</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1951595499898068</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3720,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3505.079324973729</v>
+        <v>2358.776935361872</v>
       </c>
       <c r="C2" t="n">
-        <v>2.533571406990361e-08</v>
+        <v>0.003469624509569925</v>
       </c>
     </row>
     <row r="3">
@@ -3733,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.0337647211035</v>
+        <v>152.9067903380759</v>
       </c>
       <c r="C3" t="n">
-        <v>1.502059767661414e-14</v>
+        <v>2.765993466325968e-14</v>
       </c>
     </row>
     <row r="4">
@@ -3746,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.8433970416413</v>
+        <v>113.3980890389919</v>
       </c>
       <c r="C4" t="n">
-        <v>1.639483146083661e-29</v>
+        <v>5.0128720005414e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3759,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01694666037554177</v>
+        <v>-0.01603283174022109</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01066956737945862</v>
+        <v>0.01534669589762115</v>
       </c>
     </row>
     <row r="6">
@@ -3772,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.773665249652832e-06</v>
+        <v>1.823358129290164e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4358093036775242</v>
+        <v>0.4208465944880448</v>
       </c>
     </row>
     <row r="7">
@@ -3785,49 +4331,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.28530452695712</v>
+        <v>-8.365486463634891</v>
       </c>
       <c r="C7" t="n">
-        <v>1.537927442223698e-06</v>
+        <v>0.006166818609496728</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-299.5966864664797</v>
+        <v>8.881851233109957</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4031891845537804</v>
+        <v>0.02461761928468317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6300.263438777326</v>
+        <v>128.5851272569043</v>
       </c>
       <c r="C9" t="n">
-        <v>7.146202751459743e-12</v>
+        <v>0.7996595350459161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-197.0550108762509</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6064648041762335</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6082.351327037767</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.733173204851338e-11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-1.025301532498592</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9309275856542649</v>
+      <c r="B12" t="n">
+        <v>-1.26962875900708</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9139937955376042</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3873,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3628.079450721475</v>
+        <v>3045.162501031391</v>
       </c>
       <c r="C2" t="n">
-        <v>2.014978954737396e-08</v>
+        <v>0.0002939980252464297</v>
       </c>
     </row>
     <row r="3">
@@ -3886,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.9495559286579</v>
+        <v>140.47947736317</v>
       </c>
       <c r="C3" t="n">
-        <v>7.146819397426787e-12</v>
+        <v>5.872049726179968e-11</v>
       </c>
     </row>
     <row r="4">
@@ -3899,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7173066814396</v>
+        <v>112.1444535078132</v>
       </c>
       <c r="C4" t="n">
-        <v>4.35102438941332e-29</v>
+        <v>1.145700865942705e-28</v>
       </c>
     </row>
     <row r="5">
@@ -3912,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01231002581171656</v>
+        <v>-0.01192910208873806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06107344721450601</v>
+        <v>0.06933868431519891</v>
       </c>
     </row>
     <row r="6">
@@ -3925,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.676456360683889e-06</v>
+        <v>-2.303793523003914e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4316295470970227</v>
+        <v>0.4984096323416239</v>
       </c>
     </row>
     <row r="7">
@@ -3938,49 +4510,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.44840262583625</v>
+        <v>-8.860402859018354</v>
       </c>
       <c r="C7" t="n">
-        <v>3.080691971986169e-06</v>
+        <v>0.002807881496591811</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-788.1892976291924</v>
+        <v>5.215428576074066</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02980313426807706</v>
+        <v>0.2085762501241593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4627.447649001498</v>
+        <v>-465.2985495627157</v>
       </c>
       <c r="C9" t="n">
-        <v>2.909517324990879e-07</v>
+        <v>0.3643512436428931</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-870.8235085492195</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02666238089828111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4571.153840512426</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.199667597959171e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9.918119519505316</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3856210757794852</v>
+      <c r="B12" t="n">
+        <v>9.842224541341768</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3882280775034006</v>
       </c>
     </row>
   </sheetData>
@@ -3994,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4026,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3836.414522442972</v>
+        <v>2591.862169351405</v>
       </c>
       <c r="C2" t="n">
-        <v>1.153618816662074e-07</v>
+        <v>0.006444077061045887</v>
       </c>
     </row>
     <row r="3">
@@ -4039,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.0075777165103</v>
+        <v>142.2403737153089</v>
       </c>
       <c r="C3" t="n">
-        <v>1.278457224924031e-12</v>
+        <v>4.22886639563749e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4052,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.4978087148307</v>
+        <v>114.6677102824543</v>
       </c>
       <c r="C4" t="n">
-        <v>4.760777294781306e-27</v>
+        <v>2.455678297515992e-27</v>
       </c>
     </row>
     <row r="5">
@@ -4065,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01545977386044495</v>
+        <v>-0.01404759431152869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02533563753799335</v>
+        <v>0.04229887548979933</v>
       </c>
     </row>
     <row r="6">
@@ -4078,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.985276792894547e-07</v>
+        <v>4.229800630571906e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8754568563589769</v>
+        <v>0.8672572409829762</v>
       </c>
     </row>
     <row r="7">
@@ -4091,49 +4689,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.50829390571072</v>
+        <v>-8.497845356811796</v>
       </c>
       <c r="C7" t="n">
-        <v>1.323107011804024e-06</v>
+        <v>0.007173261132315651</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-618.7424427403284</v>
+        <v>10.52653765577813</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1141879633080675</v>
+        <v>0.0397882477024815</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4329.698682444035</v>
+        <v>-171.5617105825115</v>
       </c>
       <c r="C9" t="n">
-        <v>7.627167297591804e-05</v>
+        <v>0.7797426066452597</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-623.8013863771876</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.12963233070877</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4062.040409791658</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0002074643808479852</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>7.756328856784933</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5373752071848595</v>
+      <c r="B12" t="n">
+        <v>8.765917821831984</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.483897837992159</v>
       </c>
     </row>
   </sheetData>
@@ -4147,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4179,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2853.933403819795</v>
+        <v>1542.73778630172</v>
       </c>
       <c r="C2" t="n">
-        <v>1.885669997974749e-05</v>
+        <v>0.06333627183499864</v>
       </c>
     </row>
     <row r="3">
@@ -4192,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.9201844481645</v>
+        <v>149.1535644706123</v>
       </c>
       <c r="C3" t="n">
-        <v>5.670983809179012e-15</v>
+        <v>1.237967541743585e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4205,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.3513048294734</v>
+        <v>124.2023496284808</v>
       </c>
       <c r="C4" t="n">
-        <v>2.668581093876496e-24</v>
+        <v>7.896935901287033e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4218,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01731351560646212</v>
+        <v>-0.01628274146669163</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01021439925592015</v>
+        <v>0.01470748804906227</v>
       </c>
     </row>
     <row r="6">
@@ -4231,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.384984765116364e-06</v>
+        <v>-1.400002186670006e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5820365637055744</v>
+        <v>0.5736995985817765</v>
       </c>
     </row>
     <row r="7">
@@ -4244,49 +4868,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.23968789840169</v>
+        <v>-9.270544622783261</v>
       </c>
       <c r="C7" t="n">
-        <v>1.319248934489812e-07</v>
+        <v>0.003318250528481646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-453.2488297822956</v>
+        <v>10.76223078312544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2217912844556424</v>
+        <v>0.007690331105309793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5186.876748282837</v>
+        <v>-186.3111271047227</v>
       </c>
       <c r="C9" t="n">
-        <v>2.199400000017436e-08</v>
+        <v>0.726745212113781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-425.4757791785428</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2877864622534266</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4969.969610821167</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.328433289474208e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.75669023931793</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03682814283610433</v>
+      <c r="B12" t="n">
+        <v>24.34177511675381</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03779128581686679</v>
       </c>
     </row>
   </sheetData>
@@ -4300,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4332,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3214.333610084076</v>
+        <v>2650.009956264643</v>
       </c>
       <c r="C2" t="n">
-        <v>2.527669725304385e-06</v>
+        <v>0.003014523426689984</v>
       </c>
     </row>
     <row r="3">
@@ -4345,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.7175813154132</v>
+        <v>144.0555059699632</v>
       </c>
       <c r="C3" t="n">
-        <v>5.436761872665186e-12</v>
+        <v>2.677630518873192e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4358,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.8332735328299</v>
+        <v>107.862428875715</v>
       </c>
       <c r="C4" t="n">
-        <v>2.015168178753475e-24</v>
+        <v>3.900234987971028e-24</v>
       </c>
     </row>
     <row r="5">
@@ -4371,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01354680134952173</v>
+        <v>-0.01349395290729635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0537818851870266</v>
+        <v>0.05489524852038788</v>
       </c>
     </row>
     <row r="6">
@@ -4384,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.978188872641805e-06</v>
+        <v>-2.763943276317447e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4333324501987056</v>
+        <v>0.4664517884689915</v>
       </c>
     </row>
     <row r="7">
@@ -4397,49 +5047,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.47195523503881</v>
+        <v>-10.85300768370302</v>
       </c>
       <c r="C7" t="n">
-        <v>8.309767762198651e-07</v>
+        <v>0.0009309975902086278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-699.0581541872782</v>
+        <v>4.996695313093243</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06847969413140996</v>
+        <v>0.2454140136962098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5407.87058784597</v>
+        <v>-585.81918884791</v>
       </c>
       <c r="C9" t="n">
-        <v>9.19228387339944e-09</v>
+        <v>0.2796752218123314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-787.075615385025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05162492021470666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5439.250550294814</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.094742891835357e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.26953581144251</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1363342862564232</v>
+      <c r="B12" t="n">
+        <v>18.26762927649536</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1356765266758248</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4485,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3502.252452462971</v>
+        <v>3093.316545579356</v>
       </c>
       <c r="C2" t="n">
-        <v>2.516416845922764e-07</v>
+        <v>0.0003242603099422243</v>
       </c>
     </row>
     <row r="3">
@@ -4498,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.7977375563621</v>
+        <v>140.2825521831097</v>
       </c>
       <c r="C3" t="n">
-        <v>1.474999741730285e-12</v>
+        <v>2.491432255804023e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4511,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.3895757695556</v>
+        <v>110.4447072130198</v>
       </c>
       <c r="C4" t="n">
-        <v>8.189972314958296e-28</v>
+        <v>2.033026944644285e-27</v>
       </c>
     </row>
     <row r="5">
@@ -4524,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01550648339863189</v>
+        <v>-0.01527202118998911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0201092286637785</v>
+        <v>0.0218364544106273</v>
       </c>
     </row>
     <row r="6">
@@ -4537,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.372283116602582e-07</v>
+        <v>1.053350657366169e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7569755885451783</v>
+        <v>0.6575693051801204</v>
       </c>
     </row>
     <row r="7">
@@ -4550,49 +5226,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.13303544775699</v>
+        <v>-10.78134264431394</v>
       </c>
       <c r="C7" t="n">
-        <v>1.67120751389499e-07</v>
+        <v>0.0004119540512771894</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-908.7168251485866</v>
+        <v>4.210875389798366</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01607117578503022</v>
+        <v>0.3101800735216556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3848.921993104062</v>
+        <v>-886.483793499913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001464837340288325</v>
+        <v>0.112590785815448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1078.359264008963</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.006875339283038326</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4011.068699369527</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.203657734541796e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>21.72058936250705</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.072911212773733</v>
+      <c r="B12" t="n">
+        <v>21.19185474652321</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.07902975605990802</v>
       </c>
     </row>
   </sheetData>
@@ -4606,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4638,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3096.559182593299</v>
+        <v>1335.564886242525</v>
       </c>
       <c r="C2" t="n">
-        <v>3.817235098081932e-07</v>
+        <v>0.08876674516998423</v>
       </c>
     </row>
     <row r="3">
@@ -4651,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.7773266797822</v>
+        <v>138.8854808373954</v>
       </c>
       <c r="C3" t="n">
-        <v>3.184742021732892e-14</v>
+        <v>2.792439138234408e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4664,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.2985531194978</v>
+        <v>119.2083220866776</v>
       </c>
       <c r="C4" t="n">
-        <v>3.631047446130161e-34</v>
+        <v>8.829725646200437e-36</v>
       </c>
     </row>
     <row r="5">
@@ -4677,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01830951515844222</v>
+        <v>-0.01648979042111324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004856370854635296</v>
+        <v>0.009957089752878729</v>
       </c>
     </row>
     <row r="6">
@@ -4690,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.558686058715922e-06</v>
+        <v>1.594386450253302e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4635420202434806</v>
+        <v>0.4451451660982534</v>
       </c>
     </row>
     <row r="7">
@@ -4703,49 +5405,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.67487090195686</v>
+        <v>-6.573328069392211</v>
       </c>
       <c r="C7" t="n">
-        <v>9.527684965226396e-07</v>
+        <v>0.01982967846075106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-239.0194515097428</v>
+        <v>13.85594663413896</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5077839062305254</v>
+        <v>0.0009581207034972553</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6611.940687917388</v>
+        <v>571.3684453188307</v>
       </c>
       <c r="C9" t="n">
-        <v>4.777343647961421e-12</v>
+        <v>0.2806658216697848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-63.20921789577551</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8677852931189044</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6117.580001944072</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.015028558980057e-10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>4.507662780980525</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6835242568738182</v>
+      <c r="B12" t="n">
+        <v>5.305527510670537</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6260590221060993</v>
       </c>
     </row>
   </sheetData>
@@ -4759,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4791,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3540.130382587786</v>
+        <v>2515.32357943865</v>
       </c>
       <c r="C2" t="n">
-        <v>5.506862990176683e-08</v>
+        <v>0.001786899824700185</v>
       </c>
     </row>
     <row r="3">
@@ -4804,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.993078884848</v>
+        <v>177.1226875220738</v>
       </c>
       <c r="C3" t="n">
-        <v>4.641435846172637e-17</v>
+        <v>5.716036364785134e-16</v>
       </c>
     </row>
     <row r="4">
@@ -4817,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.6638103822148</v>
+        <v>122.4971967248187</v>
       </c>
       <c r="C4" t="n">
-        <v>8.258914882437049e-31</v>
+        <v>3.282809558204444e-31</v>
       </c>
     </row>
     <row r="5">
@@ -4830,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01268757762014034</v>
+        <v>-0.01211351715912982</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06406975662745519</v>
+        <v>0.07573542119630478</v>
       </c>
     </row>
     <row r="6">
@@ -4843,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.105961749824213e-08</v>
+        <v>4.803937229075835e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9750881392428934</v>
+        <v>0.9830940471546348</v>
       </c>
     </row>
     <row r="7">
@@ -4856,49 +5584,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.97084762731764</v>
+        <v>-8.371977316383751</v>
       </c>
       <c r="C7" t="n">
-        <v>2.009777878971312e-06</v>
+        <v>0.005286452055902823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-601.6295476502492</v>
+        <v>8.436649027212992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1042170335277193</v>
+        <v>0.03151478615433234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4232.202061583235</v>
+        <v>163.5422774394858</v>
       </c>
       <c r="C9" t="n">
-        <v>2.518728471903565e-06</v>
+        <v>0.7570948800640915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-490.3249542995013</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2146476969018332</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3982.496300153422</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.111263547927604e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9.624714902559617</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4057758019728175</v>
+      <c r="B12" t="n">
+        <v>8.56599681386939</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4577722525991865</v>
       </c>
     </row>
   </sheetData>
@@ -4912,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3230.861248354885</v>
+        <v>2523.091260656649</v>
       </c>
       <c r="C2" t="n">
-        <v>1.635739337998198e-06</v>
+        <v>0.003182255327827362</v>
       </c>
     </row>
     <row r="3">
@@ -4957,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.4078390205881</v>
+        <v>135.9146027028344</v>
       </c>
       <c r="C3" t="n">
-        <v>1.11363565295184e-12</v>
+        <v>2.941953875805309e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4970,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.7485518078469</v>
+        <v>122.2126531785068</v>
       </c>
       <c r="C4" t="n">
-        <v>3.045139986946945e-29</v>
+        <v>7.911350657141252e-30</v>
       </c>
     </row>
     <row r="5">
@@ -4983,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01685846998059261</v>
+        <v>-0.017037484407523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0132609799248739</v>
+        <v>0.0119863985729569</v>
       </c>
     </row>
     <row r="6">
@@ -4996,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.637237102841072e-07</v>
+        <v>4.861205803514526e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9464154502441436</v>
+        <v>0.8411341052027901</v>
       </c>
     </row>
     <row r="7">
@@ -5009,49 +5763,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.20107015153698</v>
+        <v>-9.805483786351093</v>
       </c>
       <c r="C7" t="n">
-        <v>5.363744247444418e-07</v>
+        <v>0.001742105660067888</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-625.2545311024526</v>
+        <v>6.156008703602389</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1039156163576746</v>
+        <v>0.1296382499053988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4889.086633745947</v>
+        <v>-746.0163874845734</v>
       </c>
       <c r="C9" t="n">
-        <v>1.850904599183048e-07</v>
+        <v>0.1831168921692503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-713.9715797359936</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0789883412560527</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4958.572604976822</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.854802716386868e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.88982592528418</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.107981589069891</v>
+      <c r="B12" t="n">
+        <v>18.61009842239656</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1109044885207314</v>
       </c>
     </row>
   </sheetData>
@@ -5065,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5097,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3739.999371878404</v>
+        <v>2513.422771455135</v>
       </c>
       <c r="C2" t="n">
-        <v>5.867762750661033e-08</v>
+        <v>0.002443100215979955</v>
       </c>
     </row>
     <row r="3">
@@ -5110,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.2985945754048</v>
+        <v>147.1525646750302</v>
       </c>
       <c r="C3" t="n">
-        <v>3.887082110187511e-13</v>
+        <v>8.834372960446803e-12</v>
       </c>
     </row>
     <row r="4">
@@ -5123,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.9573635589253</v>
+        <v>121.4208448186925</v>
       </c>
       <c r="C4" t="n">
-        <v>7.028013932929308e-27</v>
+        <v>1.604940883776641e-28</v>
       </c>
     </row>
     <row r="5">
@@ -5136,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01785319875714274</v>
+        <v>-0.01695650366304116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007163141876112666</v>
+        <v>0.009650192257932289</v>
       </c>
     </row>
     <row r="6">
@@ -5149,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.376426765342628e-08</v>
+        <v>1.861366785914103e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9881958543312334</v>
+        <v>0.9341583446116898</v>
       </c>
     </row>
     <row r="7">
@@ -5162,49 +5942,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.88740351945642</v>
+        <v>-8.839711097903511</v>
       </c>
       <c r="C7" t="n">
-        <v>5.696088681500844e-08</v>
+        <v>0.003220200066158635</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-640.7856423181718</v>
+        <v>10.87021457049675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09028151281557129</v>
+        <v>0.006272659452293154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4115.49112520026</v>
+        <v>-360.8478668905079</v>
       </c>
       <c r="C9" t="n">
-        <v>2.685067274404871e-05</v>
+        <v>0.4929750380909456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-640.8491267516392</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1129469507112208</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3759.524634536677</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0001132608502185326</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>12.82154769205798</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2760428239211813</v>
+      <c r="B12" t="n">
+        <v>11.71402535538596</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3131347579179473</v>
       </c>
     </row>
   </sheetData>
@@ -5218,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5250,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2705.26421743459</v>
+        <v>1943.789383035932</v>
       </c>
       <c r="C2" t="n">
-        <v>1.195787129693982e-05</v>
+        <v>0.01104937892339019</v>
       </c>
     </row>
     <row r="3">
@@ -5263,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.8528249383988</v>
+        <v>157.0802829555841</v>
       </c>
       <c r="C3" t="n">
-        <v>4.614512670917429e-17</v>
+        <v>5.262415049384328e-16</v>
       </c>
     </row>
     <row r="4">
@@ -5276,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9898152778058</v>
+        <v>113.2958693156246</v>
       </c>
       <c r="C4" t="n">
-        <v>2.724079751236266e-31</v>
+        <v>3.436152432879294e-31</v>
       </c>
     </row>
     <row r="5">
@@ -5289,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01345358302063334</v>
+        <v>-0.01250176781008326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03901586310018983</v>
+        <v>0.05530358813897</v>
       </c>
     </row>
     <row r="6">
@@ -5302,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.255522158458197e-07</v>
+        <v>2.961808188723714e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.96914013718681</v>
+        <v>0.9273049538117546</v>
       </c>
     </row>
     <row r="7">
@@ -5315,49 +6121,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.00037429403607</v>
+        <v>-8.971720528396752</v>
       </c>
       <c r="C7" t="n">
-        <v>1.707401387447668e-06</v>
+        <v>0.0028491431024784</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-355.673017007867</v>
+        <v>6.393756946337074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3107611716443198</v>
+        <v>0.09073532401229056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6435.143498883755</v>
+        <v>-100.4242361748097</v>
       </c>
       <c r="C9" t="n">
-        <v>3.709128435783894e-12</v>
+        <v>0.8412919954313008</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-357.1333309205477</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3490321952487527</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6355.83590645382</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.276091359672266e-11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>14.38722326707749</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2251488766496856</v>
+      <c r="B12" t="n">
+        <v>13.11646937393312</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2709878087817449</v>
       </c>
     </row>
   </sheetData>
@@ -5371,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5403,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3469.876325596312</v>
+        <v>2149.694725146137</v>
       </c>
       <c r="C2" t="n">
-        <v>1.168128514756171e-07</v>
+        <v>0.0283611097201672</v>
       </c>
     </row>
     <row r="3">
@@ -5416,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.806519246463</v>
+        <v>142.7363438575131</v>
       </c>
       <c r="C3" t="n">
-        <v>3.175857961967319e-12</v>
+        <v>6.868203104830391e-12</v>
       </c>
     </row>
     <row r="4">
@@ -5429,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.2934276345837</v>
+        <v>115.9714101971553</v>
       </c>
       <c r="C4" t="n">
-        <v>8.780649882650748e-26</v>
+        <v>9.162716499366145e-26</v>
       </c>
     </row>
     <row r="5">
@@ -5442,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01384308284595626</v>
+        <v>-0.01255390761948819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04737593772080451</v>
+        <v>0.07315397822074404</v>
       </c>
     </row>
     <row r="6">
@@ -5455,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.228913566368863e-07</v>
+        <v>-6.549821528185152e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9598491900539516</v>
+        <v>0.9785425359863272</v>
       </c>
     </row>
     <row r="7">
@@ -5468,49 +6300,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.98497224755349</v>
+        <v>-10.34274018181894</v>
       </c>
       <c r="C7" t="n">
-        <v>8.383142698943573e-08</v>
+        <v>0.001521659830127582</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-658.5445393327592</v>
+        <v>9.801642555924296</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0748429293775188</v>
+        <v>0.07015504551855271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4866.292708868843</v>
+        <v>20.6913907670596</v>
       </c>
       <c r="C9" t="n">
-        <v>1.870728408741854e-07</v>
+        <v>0.9707731033022036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-641.988984128037</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09685520492404731</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4829.465660026919</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.571641786092057e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>15.09907966361443</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1967760124022278</v>
+      <c r="B12" t="n">
+        <v>17.44368905897728</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1378307492240886</v>
       </c>
     </row>
   </sheetData>
@@ -5524,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5556,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3305.083697191531</v>
+        <v>2170.703181316321</v>
       </c>
       <c r="C2" t="n">
-        <v>4.113127008700128e-07</v>
+        <v>0.008948057838510635</v>
       </c>
     </row>
     <row r="3">
@@ -5569,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.9746086587803</v>
+        <v>157.8809977306112</v>
       </c>
       <c r="C3" t="n">
-        <v>1.868577903175892e-14</v>
+        <v>8.40608698535929e-14</v>
       </c>
     </row>
     <row r="4">
@@ -5582,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.0205513277785</v>
+        <v>116.0604911275372</v>
       </c>
       <c r="C4" t="n">
-        <v>3.025330169829994e-29</v>
+        <v>9.45529024035306e-30</v>
       </c>
     </row>
     <row r="5">
@@ -5595,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01948958481221431</v>
+        <v>-0.01847499222690093</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004098376637430979</v>
+        <v>0.006371493254473962</v>
       </c>
     </row>
     <row r="6">
@@ -5608,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.313304258392085e-06</v>
+        <v>1.545848934121246e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5766951942287523</v>
+        <v>0.5090517161710556</v>
       </c>
     </row>
     <row r="7">
@@ -5621,49 +6479,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.50629297351646</v>
+        <v>-7.351984990230296</v>
       </c>
       <c r="C7" t="n">
-        <v>6.334307973953645e-06</v>
+        <v>0.01763494490057767</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-153.3523486507004</v>
+        <v>8.903399873070398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6876071046847338</v>
+        <v>0.02705646229888728</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5484.031651469613</v>
+        <v>-38.11133617181372</v>
       </c>
       <c r="C9" t="n">
-        <v>3.962184688645782e-08</v>
+        <v>0.9424705206860668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-108.8112342876774</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7862237521716801</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5415.804636972656</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.108436084895853e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>5.189093600279765</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6679359790852286</v>
+      <c r="B12" t="n">
+        <v>4.234645601585825</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7249492671856907</v>
       </c>
     </row>
   </sheetData>
@@ -5677,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5709,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3186.765504995266</v>
+        <v>1906.263733514588</v>
       </c>
       <c r="C2" t="n">
-        <v>1.976376258176762e-06</v>
+        <v>0.02171112278143658</v>
       </c>
     </row>
     <row r="3">
@@ -5722,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.3030575458105</v>
+        <v>166.8215081685044</v>
       </c>
       <c r="C3" t="n">
-        <v>3.113365766249647e-15</v>
+        <v>2.832031944210997e-14</v>
       </c>
     </row>
     <row r="4">
@@ -5735,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.7667178226181</v>
+        <v>112.1205196212258</v>
       </c>
       <c r="C4" t="n">
-        <v>1.102245215281866e-26</v>
+        <v>5.219994766015588e-28</v>
       </c>
     </row>
     <row r="5">
@@ -5748,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01427151174464588</v>
+        <v>-0.01368624868011541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04274329830358717</v>
+        <v>0.04984403521625681</v>
       </c>
     </row>
     <row r="6">
@@ -5761,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.18506353284047e-07</v>
+        <v>-6.644870197705041e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7714705345560183</v>
+        <v>0.786070291987166</v>
       </c>
     </row>
     <row r="7">
@@ -5774,49 +6658,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.10499628543049</v>
+        <v>-7.372916805912272</v>
       </c>
       <c r="C7" t="n">
-        <v>2.977889362743422e-06</v>
+        <v>0.0163293264370662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-699.8938036364193</v>
+        <v>10.56530715586304</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07126271197758688</v>
+        <v>0.007675039219048994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4736.079685820368</v>
+        <v>64.65333555513962</v>
       </c>
       <c r="C9" t="n">
-        <v>7.380064352351887e-07</v>
+        <v>0.9076038045862594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-598.8437654989416</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.145547218751222</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4424.588095432899</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.461558648855769e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.33266871175582</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1317145013147567</v>
+      <c r="B12" t="n">
+        <v>17.31619668275218</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1506461621316156</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5862,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3531.093792977059</v>
+        <v>2572.894684468254</v>
       </c>
       <c r="C2" t="n">
-        <v>3.625913327102302e-07</v>
+        <v>0.003952143718699233</v>
       </c>
     </row>
     <row r="3">
@@ -5875,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.0309905595947</v>
+        <v>142.6632058202395</v>
       </c>
       <c r="C3" t="n">
-        <v>4.783041163886778e-12</v>
+        <v>1.390116600865227e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5888,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.321544942902</v>
+        <v>115.5110867935185</v>
       </c>
       <c r="C4" t="n">
-        <v>4.357973228262282e-24</v>
+        <v>1.85683491493076e-24</v>
       </c>
     </row>
     <row r="5">
@@ -5901,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01619866805554981</v>
+        <v>-0.01558346596829854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01543594369723946</v>
+        <v>0.01958360383735151</v>
       </c>
     </row>
     <row r="6">
@@ -5914,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.174005138881245e-07</v>
+        <v>-2.611312927975056e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9259422344544872</v>
+        <v>0.9910578766594386</v>
       </c>
     </row>
     <row r="7">
@@ -5927,49 +6837,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.14720295594765</v>
+        <v>-8.432276465911739</v>
       </c>
       <c r="C7" t="n">
-        <v>2.814978611689837e-06</v>
+        <v>0.007193013051854596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-555.6350826932676</v>
+        <v>7.669274074257554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1344787179276888</v>
+        <v>0.069116486126562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4717.815176915248</v>
+        <v>-360.9459573164661</v>
       </c>
       <c r="C9" t="n">
-        <v>9.044515108085174e-07</v>
+        <v>0.5143062424703873</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-558.6915935622328</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1541553718630614</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4666.856764754583</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.659997286656894e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10.71640466013935</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3782132216421197</v>
+      <c r="B12" t="n">
+        <v>10.47235952710406</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3874653304739264</v>
       </c>
     </row>
   </sheetData>
@@ -5983,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6015,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3808.171099088694</v>
+        <v>2669.13742787807</v>
       </c>
       <c r="C2" t="n">
-        <v>1.121183402860662e-09</v>
+        <v>0.0005486569890045267</v>
       </c>
     </row>
     <row r="3">
@@ -6028,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.7518223857501</v>
+        <v>151.5452348190009</v>
       </c>
       <c r="C3" t="n">
-        <v>5.437802533436361e-16</v>
+        <v>5.966739993391564e-15</v>
       </c>
     </row>
     <row r="4">
@@ -6041,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.9900851738777</v>
+        <v>108.3392784777739</v>
       </c>
       <c r="C4" t="n">
-        <v>3.896025043962702e-28</v>
+        <v>4.780878207972153e-29</v>
       </c>
     </row>
     <row r="5">
@@ -6054,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01749810918569042</v>
+        <v>-0.01703356724580372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006772645869572435</v>
+        <v>0.007885434028668968</v>
       </c>
     </row>
     <row r="6">
@@ -6067,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.985724423627242e-06</v>
+        <v>2.047691177804001e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3909073494825702</v>
+        <v>0.3735051646496725</v>
       </c>
     </row>
     <row r="7">
@@ -6080,49 +7016,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.91227987112801</v>
+        <v>-8.907042895769907</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1845122773438e-07</v>
+        <v>0.002092972870166161</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-307.3033864264636</v>
+        <v>9.164996113832284</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3786121647930564</v>
+        <v>0.01402611828361523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5821.469344450431</v>
+        <v>188.8610454455697</v>
       </c>
       <c r="C9" t="n">
-        <v>8.423029449923177e-11</v>
+        <v>0.7239458499769861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-151.7013253903103</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6882936447977954</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5619.759527545981</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.961621087797586e-10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-1.662127316758614</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8832788768913274</v>
+      <c r="B12" t="n">
+        <v>-3.199981312836684</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7760132274625864</v>
       </c>
     </row>
   </sheetData>
@@ -6136,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6168,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2841.086033577695</v>
+        <v>2090.771668393856</v>
       </c>
       <c r="C2" t="n">
-        <v>1.188881070515593e-05</v>
+        <v>0.01008685795649145</v>
       </c>
     </row>
     <row r="3">
@@ -6181,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.8986378694292</v>
+        <v>141.4397392308562</v>
       </c>
       <c r="C3" t="n">
-        <v>7.74621872782592e-13</v>
+        <v>8.848779289271104e-12</v>
       </c>
     </row>
     <row r="4">
@@ -6194,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.1447683796569</v>
+        <v>119.172512559979</v>
       </c>
       <c r="C4" t="n">
-        <v>2.351772948420033e-30</v>
+        <v>2.251352019165009e-30</v>
       </c>
     </row>
     <row r="5">
@@ -6207,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01357317133947896</v>
+        <v>-0.01336511034490025</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04752748313383469</v>
+        <v>0.05124799232371944</v>
       </c>
     </row>
     <row r="6">
@@ -6220,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.550708566873592e-07</v>
+        <v>-1.838692348103107e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9139749010965218</v>
+        <v>0.9378272697030078</v>
       </c>
     </row>
     <row r="7">
@@ -6233,49 +7195,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.63082655052523</v>
+        <v>-10.64566883406774</v>
       </c>
       <c r="C7" t="n">
-        <v>5.793173686306066e-08</v>
+        <v>0.0004478614840279058</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-698.3484362888188</v>
+        <v>6.213106560612498</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06536945071545924</v>
+        <v>0.1083516868076799</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4736.379687732252</v>
+        <v>-149.4379770724413</v>
       </c>
       <c r="C9" t="n">
-        <v>2.100204550765767e-07</v>
+        <v>0.7750109653581045</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-692.5661604828431</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08535183203331066</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4598.439453465661</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.557335158740569e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>27.643963982047</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02170459154117368</v>
+      <c r="B12" t="n">
+        <v>27.48755148676266</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02224025732521581</v>
       </c>
     </row>
   </sheetData>
@@ -6289,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6321,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3440.35716298669</v>
+        <v>1367.865689069404</v>
       </c>
       <c r="C2" t="n">
-        <v>1.965780985055018e-07</v>
+        <v>0.1308006858364717</v>
       </c>
     </row>
     <row r="3">
@@ -6334,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.4228827131214</v>
+        <v>135.4901787678235</v>
       </c>
       <c r="C3" t="n">
-        <v>6.965654974211649e-13</v>
+        <v>3.258643009465419e-11</v>
       </c>
     </row>
     <row r="4">
@@ -6347,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.4995389322824</v>
+        <v>124.5914117543541</v>
       </c>
       <c r="C4" t="n">
-        <v>1.916616597539669e-28</v>
+        <v>1.645868065179295e-30</v>
       </c>
     </row>
     <row r="5">
@@ -6360,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01423757786272743</v>
+        <v>-0.01211022386515491</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03930779909004999</v>
+        <v>0.07557276223981529</v>
       </c>
     </row>
     <row r="6">
@@ -6373,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.525509722825136e-06</v>
+        <v>-1.898778135615267e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4526481415406703</v>
+        <v>0.5658523045615751</v>
       </c>
     </row>
     <row r="7">
@@ -6386,49 +7374,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.40876666466572</v>
+        <v>-7.130110882435553</v>
       </c>
       <c r="C7" t="n">
-        <v>3.664902268249216e-07</v>
+        <v>0.02375475063398492</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-680.3851333247828</v>
+        <v>16.689590325392</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08686438847710728</v>
+        <v>0.001080067961879405</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4163.357544947175</v>
+        <v>-97.46542905041088</v>
       </c>
       <c r="C9" t="n">
-        <v>9.96371977989492e-06</v>
+        <v>0.8528326372753795</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-731.3848669790818</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07795340191042031</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4124.77791708198</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.001379990529249e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>18.77237887857257</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1096961784711285</v>
+      <c r="B12" t="n">
+        <v>20.29993917837474</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0785517560349217</v>
       </c>
     </row>
   </sheetData>
@@ -6442,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6474,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2670.802537998554</v>
+        <v>1998.317271559384</v>
       </c>
       <c r="C2" t="n">
-        <v>7.063254908182293e-05</v>
+        <v>0.01742932309520202</v>
       </c>
     </row>
     <row r="3">
@@ -6487,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.7812382993794</v>
+        <v>172.2060261366573</v>
       </c>
       <c r="C3" t="n">
-        <v>3.167237800406993e-16</v>
+        <v>6.459933309914264e-15</v>
       </c>
     </row>
     <row r="4">
@@ -6500,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.2340644926851</v>
+        <v>117.2085039678467</v>
       </c>
       <c r="C4" t="n">
-        <v>6.827922314634367e-29</v>
+        <v>3.083732711492859e-29</v>
       </c>
     </row>
     <row r="5">
@@ -6513,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01606465777849949</v>
+        <v>-0.01518639898229644</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02208994334274864</v>
+        <v>0.02999694387626485</v>
       </c>
     </row>
     <row r="6">
@@ -6526,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.712473356747178e-07</v>
+        <v>-5.514589087512083e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7870441237554704</v>
+        <v>0.8234523738174149</v>
       </c>
     </row>
     <row r="7">
@@ -6539,49 +7553,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.95411068680114</v>
+        <v>-9.68166577852254</v>
       </c>
       <c r="C7" t="n">
-        <v>1.420557809044692e-06</v>
+        <v>0.002326882962092036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-695.0846478512203</v>
+        <v>6.231517981056193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06366656154339624</v>
+        <v>0.1299573628183323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5682.801978973081</v>
+        <v>-657.0843513704228</v>
       </c>
       <c r="C9" t="n">
-        <v>2.36090676018855e-08</v>
+        <v>0.2408744358655333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-811.4618122254192</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04306950713025384</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5573.677280226788</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.409750372067478e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.82731025618736</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03697120143695512</v>
+      <c r="B12" t="n">
+        <v>24.61831563562969</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.03758746839603978</v>
       </c>
     </row>
   </sheetData>
@@ -6595,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6627,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3385.210625563451</v>
+        <v>2691.054149021194</v>
       </c>
       <c r="C2" t="n">
-        <v>1.706618792091937e-07</v>
+        <v>0.001114617372143021</v>
       </c>
     </row>
     <row r="3">
@@ -6640,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.4894339384814</v>
+        <v>159.7727099330764</v>
       </c>
       <c r="C3" t="n">
-        <v>3.655229023350877e-17</v>
+        <v>9.507642225530483e-16</v>
       </c>
     </row>
     <row r="4">
@@ -6653,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.4226369946551</v>
+        <v>110.5008220077321</v>
       </c>
       <c r="C4" t="n">
-        <v>4.185277773659614e-27</v>
+        <v>3.440765199538605e-27</v>
       </c>
     </row>
     <row r="5">
@@ -6666,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01522216628353167</v>
+        <v>-0.01496397996249039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02547946383545469</v>
+        <v>0.02814277234345422</v>
       </c>
     </row>
     <row r="6">
@@ -6679,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.35070365953308e-06</v>
+        <v>2.41335509546484e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3404997998001854</v>
+        <v>0.3272458938891301</v>
       </c>
     </row>
     <row r="7">
@@ -6692,49 +7732,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.5013368388536</v>
+        <v>-10.69962520000253</v>
       </c>
       <c r="C7" t="n">
-        <v>5.154405269271439e-08</v>
+        <v>0.0003168889786239808</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-851.4174911944467</v>
+        <v>5.755929797068461</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01538211183303092</v>
+        <v>0.1436446583199602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5072.657283569792</v>
+        <v>-357.707293730354</v>
       </c>
       <c r="C9" t="n">
-        <v>2.885730443023104e-08</v>
+        <v>0.5133320850200753</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-891.3160374270292</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01685184699455028</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5092.640163489417</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.29819560631542e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>16.38086041615726</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1482182431933827</v>
+      <c r="B12" t="n">
+        <v>16.3738198469737</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1476895282368727</v>
       </c>
     </row>
   </sheetData>
@@ -6748,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6780,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4086.767841931945</v>
+        <v>2849.251354318805</v>
       </c>
       <c r="C2" t="n">
-        <v>2.068141436319605e-09</v>
+        <v>0.0008183616931644321</v>
       </c>
     </row>
     <row r="3">
@@ -6793,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.7731264324894</v>
+        <v>119.0454826844412</v>
       </c>
       <c r="C3" t="n">
-        <v>1.96284271790158e-08</v>
+        <v>1.75049417898007e-08</v>
       </c>
     </row>
     <row r="4">
@@ -6806,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.6771549596529</v>
+        <v>121.7238925743204</v>
       </c>
       <c r="C4" t="n">
-        <v>8.570129198463854e-32</v>
+        <v>3.848505306884382e-32</v>
       </c>
     </row>
     <row r="5">
@@ -6819,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01754457083922067</v>
+        <v>-0.01662801459611085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00744817180308597</v>
+        <v>0.01074555713630937</v>
       </c>
     </row>
     <row r="6">
@@ -6832,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.288156285526418e-07</v>
+        <v>3.528870315804468e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9188933722210566</v>
+        <v>0.8744340640009259</v>
       </c>
     </row>
     <row r="7">
@@ -6845,49 +7911,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.9441089993089</v>
+        <v>-8.773207925762723</v>
       </c>
       <c r="C7" t="n">
-        <v>2.290398866274092e-07</v>
+        <v>0.003797702104825332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-176.7931034641236</v>
+        <v>9.429888463424017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6515785341593621</v>
+        <v>0.01899900147431557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5313.548004334999</v>
+        <v>269.8138883179136</v>
       </c>
       <c r="C9" t="n">
-        <v>2.214122260027982e-07</v>
+        <v>0.6176009466017187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-13.19406813383682</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9747049859158643</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5021.29707563223</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.423156418488719e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-7.889975284109251</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5230553545606398</v>
+      <c r="B12" t="n">
+        <v>-8.605884420314517</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4836892618082897</v>
       </c>
     </row>
   </sheetData>
@@ -6901,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6933,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3063.20520561663</v>
+        <v>2322.130403724902</v>
       </c>
       <c r="C2" t="n">
-        <v>3.678018343299647e-06</v>
+        <v>0.00559309783914744</v>
       </c>
     </row>
     <row r="3">
@@ -6946,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.4456663241401</v>
+        <v>156.7961808666668</v>
       </c>
       <c r="C3" t="n">
-        <v>2.605700829264005e-15</v>
+        <v>6.454159617105335e-14</v>
       </c>
     </row>
     <row r="4">
@@ -6959,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.4466907417159</v>
+        <v>115.120104558532</v>
       </c>
       <c r="C4" t="n">
-        <v>1.042861990087754e-27</v>
+        <v>6.96354196035763e-28</v>
       </c>
     </row>
     <row r="5">
@@ -6972,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0171799187028072</v>
+        <v>-0.01674020813076836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01187012034592034</v>
+        <v>0.01412590422807946</v>
       </c>
     </row>
     <row r="6">
@@ -6985,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.215322355235631e-06</v>
+        <v>-1.131325876060038e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6173414430826862</v>
+        <v>0.6411115764038207</v>
       </c>
     </row>
     <row r="7">
@@ -6998,49 +8090,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.44732444806259</v>
+        <v>-8.41634713444842</v>
       </c>
       <c r="C7" t="n">
-        <v>1.560283490897255e-05</v>
+        <v>0.006825556038020105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-560.5848049785479</v>
+        <v>6.556874219868057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1357205500621555</v>
+        <v>0.110640621787004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4798.361200860301</v>
+        <v>-307.9601636894324</v>
       </c>
       <c r="C9" t="n">
-        <v>2.505184172589378e-07</v>
+        <v>0.5634723505120897</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-603.3434068240862</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.137498394770215</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4723.875013504117</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.565180977495277e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>19.66367762779132</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08867666954964828</v>
+      <c r="B12" t="n">
+        <v>19.06824910731429</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.09796790858263636</v>
       </c>
     </row>
   </sheetData>
@@ -7054,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7086,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2754.532108991401</v>
+        <v>1875.03240973735</v>
       </c>
       <c r="C2" t="n">
-        <v>2.01365545800462e-05</v>
+        <v>0.02109061114242313</v>
       </c>
     </row>
     <row r="3">
@@ -7099,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.6189699002988</v>
+        <v>156.9690729287579</v>
       </c>
       <c r="C3" t="n">
-        <v>1.63334913987814e-15</v>
+        <v>1.305150405467164e-14</v>
       </c>
     </row>
     <row r="4">
@@ -7112,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.2313698322315</v>
+        <v>115.6665409831747</v>
       </c>
       <c r="C4" t="n">
-        <v>2.21879219875578e-27</v>
+        <v>1.025883649904019e-27</v>
       </c>
     </row>
     <row r="5">
@@ -7125,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01298093688130224</v>
+        <v>-0.01239836436321541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05512246189093051</v>
+        <v>0.06680330790256594</v>
       </c>
     </row>
     <row r="6">
@@ -7138,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.199125491761109e-07</v>
+        <v>-3.648092088665569e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9586793432565495</v>
+        <v>0.9873966445113357</v>
       </c>
     </row>
     <row r="7">
@@ -7151,49 +8269,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.98758975684878</v>
+        <v>-10.84791292932242</v>
       </c>
       <c r="C7" t="n">
-        <v>5.150724568208033e-08</v>
+        <v>0.0003477698163720769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-609.8899442300719</v>
+        <v>7.150079101543084</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1040271402834</v>
+        <v>0.07273443093360103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5262.723154733871</v>
+        <v>-69.10161409378009</v>
       </c>
       <c r="C9" t="n">
-        <v>1.141712086565302e-08</v>
+        <v>0.8989791114236536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-560.9900630512782</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1594036971568178</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5130.801471979546</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.416185800739705e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>26.06815578847387</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02575724434078796</v>
+      <c r="B12" t="n">
+        <v>25.7586722567957</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02714668631754653</v>
       </c>
     </row>
   </sheetData>
@@ -7207,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7239,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3819.647999769835</v>
+        <v>2701.973256155619</v>
       </c>
       <c r="C2" t="n">
-        <v>2.400713934741492e-08</v>
+        <v>0.00107850030722591</v>
       </c>
     </row>
     <row r="3">
@@ -7252,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.8590292225207</v>
+        <v>145.1451618526642</v>
       </c>
       <c r="C3" t="n">
-        <v>8.843813986794233e-13</v>
+        <v>6.708449636292414e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7265,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.7559731783918</v>
+        <v>111.8196616473562</v>
       </c>
       <c r="C4" t="n">
-        <v>1.113765374120513e-25</v>
+        <v>1.052109635164609e-26</v>
       </c>
     </row>
     <row r="5">
@@ -7278,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01214390465315411</v>
+        <v>-0.01154820417345927</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07313883211772722</v>
+        <v>0.08606198304470244</v>
       </c>
     </row>
     <row r="6">
@@ -7291,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.995348431843984e-07</v>
+        <v>-1.905960037743549e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9010015414235428</v>
+        <v>0.9364438108440367</v>
       </c>
     </row>
     <row r="7">
@@ -7304,49 +8448,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.28566685757289</v>
+        <v>-10.91434304808549</v>
       </c>
       <c r="C7" t="n">
-        <v>9.434736725620279e-09</v>
+        <v>0.000547550397310706</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-740.1806087655767</v>
+        <v>9.517810355095847</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05331600220895744</v>
+        <v>0.01499308691868947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4828.043008216484</v>
+        <v>-24.88162933185038</v>
       </c>
       <c r="C9" t="n">
-        <v>4.517064451734557e-07</v>
+        <v>0.9668362182956427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-681.3170532256058</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08984897417935098</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4556.132815288422</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.913374688259525e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11.45910896819615</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3394513781627609</v>
+      <c r="B12" t="n">
+        <v>10.01641991037344</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4011683268927908</v>
       </c>
     </row>
   </sheetData>
@@ -7360,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7392,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3152.444581879548</v>
+        <v>1371.198808622434</v>
       </c>
       <c r="C2" t="n">
-        <v>2.259403789692995e-06</v>
+        <v>0.1122240430665162</v>
       </c>
     </row>
     <row r="3">
@@ -7405,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.7629864414556</v>
+        <v>150.1379769375638</v>
       </c>
       <c r="C3" t="n">
-        <v>1.471984324101257e-13</v>
+        <v>4.07150336920063e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7418,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.6178033855575</v>
+        <v>120.0205957035692</v>
       </c>
       <c r="C4" t="n">
-        <v>5.815243344708485e-26</v>
+        <v>1.254462311809856e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7431,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01313570095543729</v>
+        <v>-0.01156037994298228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05860026422632784</v>
+        <v>0.08928913618382052</v>
       </c>
     </row>
     <row r="6">
@@ -7444,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.726587763741839e-06</v>
+        <v>-1.629171160538566e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.427187675088829</v>
+        <v>0.6285252868181214</v>
       </c>
     </row>
     <row r="7">
@@ -7457,49 +8627,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.90181551616129</v>
+        <v>-6.700340608954765</v>
       </c>
       <c r="C7" t="n">
-        <v>2.560770286803829e-07</v>
+        <v>0.03914001619495409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-709.8400050894339</v>
+        <v>15.45308423714742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05922041114687216</v>
+        <v>0.0008179958301338502</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4895.041272293329</v>
+        <v>-516.1409375141058</v>
       </c>
       <c r="C9" t="n">
-        <v>2.070959623782498e-07</v>
+        <v>0.330748672304649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-808.0536491704886</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03964598716388863</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4533.239557932206</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.101252246992276e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>22.13361106836447</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07247815841645788</v>
+      <c r="B12" t="n">
+        <v>21.36225657576547</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0762169125410137</v>
       </c>
     </row>
   </sheetData>
@@ -7513,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7545,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3438.400507780536</v>
+        <v>1611.689444979132</v>
       </c>
       <c r="C2" t="n">
-        <v>9.995979870791138e-08</v>
+        <v>0.05290943132758994</v>
       </c>
     </row>
     <row r="3">
@@ -7558,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.5151197533415</v>
+        <v>150.850779467533</v>
       </c>
       <c r="C3" t="n">
-        <v>1.090348155775713e-13</v>
+        <v>3.347176391063609e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7571,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.9000658427241</v>
+        <v>115.647091296724</v>
       </c>
       <c r="C4" t="n">
-        <v>2.670399833395985e-29</v>
+        <v>3.052852088796766e-31</v>
       </c>
     </row>
     <row r="5">
@@ -7584,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01605539338693351</v>
+        <v>-0.01498260351574632</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01510708811416562</v>
+        <v>0.02111024771505089</v>
       </c>
     </row>
     <row r="6">
@@ -7597,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.033755023042325e-06</v>
+        <v>2.541817678917187e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5741985405162597</v>
+        <v>0.4771643926597957</v>
       </c>
     </row>
     <row r="7">
@@ -7610,49 +8806,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.42350800313195</v>
+        <v>-5.466238103890314</v>
       </c>
       <c r="C7" t="n">
-        <v>4.867815881088614e-06</v>
+        <v>0.07179811273695805</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-509.3420533001213</v>
+        <v>14.70809888885523</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1708721604158631</v>
+        <v>0.001020945478100942</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6176.507983363989</v>
+        <v>286.5295531279312</v>
       </c>
       <c r="C9" t="n">
-        <v>2.009136058044901e-11</v>
+        <v>0.5852727244626452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-381.069348768252</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3276299737532339</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5772.916942759254</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.655392749583266e-10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1.611184499144713</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8952376188680566</v>
+      <c r="B12" t="n">
+        <v>1.91291814913464</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8735690999343493</v>
       </c>
     </row>
   </sheetData>
@@ -7666,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7698,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2850.997946616769</v>
+        <v>2076.162295913332</v>
       </c>
       <c r="C2" t="n">
-        <v>1.715837042133914e-05</v>
+        <v>0.01332282174594332</v>
       </c>
     </row>
     <row r="3">
@@ -7711,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.8524728439541</v>
+        <v>156.6382673045464</v>
       </c>
       <c r="C3" t="n">
-        <v>5.826445210599269e-16</v>
+        <v>1.489772833592608e-14</v>
       </c>
     </row>
     <row r="4">
@@ -7724,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.7964535137885</v>
+        <v>121.4430446075438</v>
       </c>
       <c r="C4" t="n">
-        <v>1.478256444192437e-27</v>
+        <v>6.927558768943063e-28</v>
       </c>
     </row>
     <row r="5">
@@ -7737,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01416786152272095</v>
+        <v>-0.01356633493381301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03523355867283752</v>
+        <v>0.04365045096579442</v>
       </c>
     </row>
     <row r="6">
@@ -7750,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.406719466053141e-07</v>
+        <v>3.316873754354988e-09</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9173521639442451</v>
+        <v>0.9988544966900237</v>
       </c>
     </row>
     <row r="7">
@@ -7763,49 +8985,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.85557453731455</v>
+        <v>-9.658971654128241</v>
       </c>
       <c r="C7" t="n">
-        <v>4.088654421459865e-07</v>
+        <v>0.001299872001732689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-656.4722211620974</v>
+        <v>6.258408032079259</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07640707286965678</v>
+        <v>0.1154657946697902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4753.54821804385</v>
+        <v>-580.1405287253604</v>
       </c>
       <c r="C9" t="n">
-        <v>4.027162061126131e-07</v>
+        <v>0.2725015398644156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-756.2208531480223</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05481447831572497</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4875.75459112821</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.811524916826098e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.79979128617918</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03247498308400899</v>
+      <c r="B12" t="n">
+        <v>25.10087160554938</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.02967611966610121</v>
       </c>
     </row>
   </sheetData>
@@ -7819,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7851,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3762.212670329923</v>
+        <v>2582.204574228125</v>
       </c>
       <c r="C2" t="n">
-        <v>5.533967403649064e-09</v>
+        <v>0.001562851918298207</v>
       </c>
     </row>
     <row r="3">
@@ -7864,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.6005966468292</v>
+        <v>148.1610562530067</v>
       </c>
       <c r="C3" t="n">
-        <v>2.766425630100368e-13</v>
+        <v>1.086013159750414e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7877,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.0608725325033</v>
+        <v>116.9121809010045</v>
       </c>
       <c r="C4" t="n">
-        <v>2.497278341080408e-30</v>
+        <v>6.787144460024887e-31</v>
       </c>
     </row>
     <row r="5">
@@ -7890,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01337211628694057</v>
+        <v>-0.01212713116315846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04801634256838658</v>
+        <v>0.07194349866306823</v>
       </c>
     </row>
     <row r="6">
@@ -7903,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.624442416176378e-07</v>
+        <v>2.800057061824513e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9438502035893488</v>
+        <v>0.9027863586685212</v>
       </c>
     </row>
     <row r="7">
@@ -7916,49 +9164,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.65962329735314</v>
+        <v>-10.76710690713937</v>
       </c>
       <c r="C7" t="n">
-        <v>1.402330289478846e-08</v>
+        <v>0.0005007413358940837</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-717.8522501132911</v>
+        <v>9.567517231506624</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05150998840385901</v>
+        <v>0.02212857214460525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5067.013486494112</v>
+        <v>248.9448771781447</v>
       </c>
       <c r="C9" t="n">
-        <v>7.664775735918291e-08</v>
+        <v>0.6610292149125735</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-603.6314598742109</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1276482142758168</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4757.406119732947</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.476526161289647e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8.582275826694813</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4457979098051665</v>
+      <c r="B12" t="n">
+        <v>7.902944700723596</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4799368719621713</v>
       </c>
     </row>
   </sheetData>
@@ -7972,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8004,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3071.829591733247</v>
+        <v>2609.667788986553</v>
       </c>
       <c r="C2" t="n">
-        <v>7.859710953380144e-06</v>
+        <v>0.003171207313526602</v>
       </c>
     </row>
     <row r="3">
@@ -8017,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.9851753369153</v>
+        <v>126.6919346888974</v>
       </c>
       <c r="C3" t="n">
-        <v>1.432078200257562e-10</v>
+        <v>7.527992336095179e-10</v>
       </c>
     </row>
     <row r="4">
@@ -8030,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.3953040147813</v>
+        <v>116.8340979515995</v>
       </c>
       <c r="C4" t="n">
-        <v>2.176757678650812e-26</v>
+        <v>5.577443626953756e-26</v>
       </c>
     </row>
     <row r="5">
@@ -8043,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0140966762880045</v>
+        <v>-0.01404718493325889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03953521658523602</v>
+        <v>0.04011218034070995</v>
       </c>
     </row>
     <row r="6">
@@ -8056,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.530735585158232e-06</v>
+        <v>-1.423408383025979e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5463778385777402</v>
+        <v>0.5740613287451255</v>
       </c>
     </row>
     <row r="7">
@@ -8069,49 +9343,75 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.10987933230417</v>
+        <v>-11.65662030507724</v>
       </c>
       <c r="C7" t="n">
-        <v>1.746083755223099e-07</v>
+        <v>0.0002714633823663308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-592.5046818291348</v>
+        <v>4.486354093642535</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1254341515422749</v>
+        <v>0.2783879634641618</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4605.014932720265</v>
+        <v>-683.0074031747488</v>
       </c>
       <c r="C9" t="n">
-        <v>4.396579645168694e-06</v>
+        <v>0.2219247063803493</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-719.2727380214981</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07949385980757917</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4578.079041905402</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.544606297562859e-06</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>24.99281588206861</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04109910022614943</v>
+      <c r="B12" t="n">
+        <v>24.93151296341978</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04113278975171306</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Madrid.xlsx
+++ b/outputs/ML_Results/dist_LR/Madrid.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ49436523" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ49540240" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ49639753" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ49740275" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ49842308" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ49951819" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ50051330" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ50253351" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ50354859" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ50455366" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ50557876" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ50659466" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ50758977" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ50861486" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ50962998" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ51067292" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ51167801" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ51268829" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ51368339" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ51468847" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ51572355" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ51674864" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ51774375" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ51880407" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ51983985" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ52088491" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ52194011" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ52293523" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ52393032" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ52495543" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ52612037" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ52725870" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ52839380" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ52955891" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ53069404" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ53181914" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ53296007" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ53409525" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ53523544" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ53636062" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ53748573" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ53861683" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ53977042" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ54091552" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ54203065" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ54317581" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ54433170" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ54550163" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ54664829" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ54778344" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ21403719" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ21523718" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ21648071" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ21760980" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ21863507" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ21965915" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ22066539" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ22275254" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ22389157" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ22500611" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ22610845" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ22722420" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ22834107" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ22943243" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ23051890" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ23155041" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ23265858" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ23378506" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ23500312" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ23631287" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ23754937" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ23904184" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ24054197" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ24198774" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ24334311" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ24478186" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ24661428" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ24841018" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ24982565" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ25158738" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ25289177" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ25440006" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ25571640" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ25700972" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ25834191" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ25983602" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ26118917" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ26250017" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ26390185" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ26522618" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ26656992" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ26785877" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ26931371" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ27084121" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ27263907" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ27442942" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ27613074" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ27747769" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ27894257" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ28019850" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>889.3787087395226</v>
+        <v>889.3787085568702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2931567817911774</v>
+        <v>0.2931567818908907</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.6836398974627</v>
+        <v>134.6836399319844</v>
       </c>
       <c r="C3" t="n">
-        <v>1.030974711165211e-11</v>
+        <v>1.030974711157441e-11</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.8966973794487</v>
+        <v>129.8966973678824</v>
       </c>
       <c r="C4" t="n">
-        <v>1.121322771444949e-31</v>
+        <v>1.121322785249081e-31</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01709646655846566</v>
+        <v>-1.709646655044473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01001932458794366</v>
+        <v>0.01001932462552733</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.033779232837609e-08</v>
+        <v>-0.05033777637461645</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9834139280883935</v>
+        <v>0.9834139333457723</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.534382028148062</v>
+        <v>-7.534382028148009</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01587764697784792</v>
+        <v>0.0158776469778486</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.16417684777739</v>
+        <v>14.16417684777749</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00183044174651427</v>
+        <v>0.001830441746514119</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.60389461975888</v>
+        <v>0.9560389461974594</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8577845048448848</v>
+        <v>0.8577845048449038</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-591.2381541986712</v>
+        <v>-5.912381541986671</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1354690322814007</v>
+        <v>0.1354690322814033</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4865.612411582225</v>
+        <v>48.65612411582228</v>
       </c>
       <c r="C11" t="n">
-        <v>1.371497937773886e-07</v>
+        <v>1.371497937773876e-07</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.1055810150121</v>
+        <v>30.10558101501219</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01062498707413889</v>
+        <v>0.0106249870741386</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2060.461713492299</v>
+        <v>2060.461713439425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01258716993926297</v>
+        <v>0.01258716994155669</v>
       </c>
     </row>
     <row r="3">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.170560487451</v>
+        <v>159.1705604854595</v>
       </c>
       <c r="C3" t="n">
-        <v>7.826793724268398e-15</v>
+        <v>7.826793724338414e-15</v>
       </c>
     </row>
     <row r="4">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.8381052043135</v>
+        <v>113.8381051911317</v>
       </c>
       <c r="C4" t="n">
-        <v>1.233935322536002e-27</v>
+        <v>1.233935339487726e-27</v>
       </c>
     </row>
     <row r="5">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02004367758586516</v>
+        <v>-2.004367757655268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003868345723408024</v>
+        <v>0.00386834574106418</v>
       </c>
     </row>
     <row r="6">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.982967846769983e-07</v>
+        <v>-0.1982967939662919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9310851490052758</v>
+        <v>0.931085145780493</v>
       </c>
     </row>
     <row r="7">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.918692473927718</v>
+        <v>-7.918692473927747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009271066218685314</v>
+        <v>0.009271066218685117</v>
       </c>
     </row>
     <row r="8">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.87918775243776</v>
+        <v>8.879187752437767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02359378377300681</v>
+        <v>0.02359378377300664</v>
       </c>
     </row>
     <row r="9">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-298.0426799981237</v>
+        <v>-2.980426799981079</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5644341044226888</v>
+        <v>0.5644341044227104</v>
       </c>
     </row>
     <row r="10">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-425.5854007596416</v>
+        <v>-4.255854007596359</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2799765274559066</v>
+        <v>0.2799765274559129</v>
       </c>
     </row>
     <row r="11">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4384.507312749474</v>
+        <v>43.84507312749459</v>
       </c>
       <c r="C11" t="n">
-        <v>1.868991208841587e-06</v>
+        <v>1.868991208841791e-06</v>
       </c>
     </row>
     <row r="12">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.28088351992533</v>
+        <v>20.28088351992553</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08700832984774111</v>
+        <v>0.08700832984773725</v>
       </c>
     </row>
   </sheetData>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1956.321637825527</v>
+        <v>1956.321638789042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0134871921950987</v>
+        <v>0.01348719214826198</v>
       </c>
     </row>
     <row r="3">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.1568760273948</v>
+        <v>158.1568760145513</v>
       </c>
       <c r="C3" t="n">
-        <v>5.009717357387572e-14</v>
+        <v>5.009717357494253e-14</v>
       </c>
     </row>
     <row r="4">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.4742224404666</v>
+        <v>115.4742224153262</v>
       </c>
       <c r="C4" t="n">
-        <v>6.323883003071274e-29</v>
+        <v>6.323883158081607e-29</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009318985609069658</v>
+        <v>-0.931898561394539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1585914428762002</v>
+        <v>0.1585914426503733</v>
       </c>
     </row>
     <row r="6">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.60273727159413e-06</v>
+        <v>-6.602737288547447</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08125326791081897</v>
+        <v>0.08125326711907496</v>
       </c>
     </row>
     <row r="7">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.24698661321821</v>
+        <v>-10.2469866132182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001090057117064817</v>
+        <v>0.001090057117064853</v>
       </c>
     </row>
     <row r="8">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.663026525118875</v>
+        <v>5.663026525118863</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1386653159289634</v>
+        <v>0.1386653159289648</v>
       </c>
     </row>
     <row r="9">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-249.3547063065505</v>
+        <v>-2.493547063065506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6537531643260295</v>
+        <v>0.6537531643260293</v>
       </c>
     </row>
     <row r="10">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-769.9381657501401</v>
+        <v>-7.699381657501342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05418617003545237</v>
+        <v>0.05418617003545415</v>
       </c>
     </row>
     <row r="11">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5655.772501646544</v>
+        <v>56.55772501646557</v>
       </c>
       <c r="C11" t="n">
-        <v>1.300174300377273e-09</v>
+        <v>1.30017430037723e-09</v>
       </c>
     </row>
     <row r="12">
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.23237487786811</v>
+        <v>26.23237487786818</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02381855401660291</v>
+        <v>0.02381855401660232</v>
       </c>
     </row>
   </sheetData>
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2823.860097818516</v>
+        <v>2823.860096897221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00112514090108683</v>
+        <v>0.001125140905236002</v>
       </c>
     </row>
     <row r="3">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174.7042150008078</v>
+        <v>174.7042149491314</v>
       </c>
       <c r="C3" t="n">
-        <v>4.796895615155161e-18</v>
+        <v>4.796895615171806e-18</v>
       </c>
     </row>
     <row r="4">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.0671787614718</v>
+        <v>112.0671787897016</v>
       </c>
       <c r="C4" t="n">
-        <v>4.540140384225665e-26</v>
+        <v>4.540140256707179e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01652219202757429</v>
+        <v>-1.652219203296913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009391885631660341</v>
+        <v>0.009391885607338515</v>
       </c>
     </row>
     <row r="6">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.634089393818235e-07</v>
+        <v>0.3634089416528496</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8686652985657118</v>
+        <v>0.8686652977548279</v>
       </c>
     </row>
     <row r="7">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.95228361955102</v>
+        <v>-8.952283619551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004321043658629004</v>
+        <v>0.004321043658629123</v>
       </c>
     </row>
     <row r="8">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.215283165054505</v>
+        <v>5.215283165054442</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2145793925341484</v>
+        <v>0.2145793925341543</v>
       </c>
     </row>
     <row r="9">
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>197.1354748080366</v>
+        <v>1.971354748080259</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6976044687084009</v>
+        <v>0.6976044687084169</v>
       </c>
     </row>
     <row r="10">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-96.59360585751347</v>
+        <v>-0.9659360585752559</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8042921637529755</v>
+        <v>0.8042921637529515</v>
       </c>
     </row>
     <row r="11">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5135.400732365289</v>
+        <v>51.3540073236529</v>
       </c>
       <c r="C11" t="n">
-        <v>4.065720050427265e-08</v>
+        <v>4.065720050427162e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6002540683624105</v>
+        <v>0.6002540683629363</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9595275439344391</v>
+        <v>0.9595275439344035</v>
       </c>
     </row>
   </sheetData>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2662.203668398153</v>
+        <v>2662.203668477718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002252209581619581</v>
+        <v>0.002252209580903547</v>
       </c>
     </row>
     <row r="3">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.6438388822684</v>
+        <v>147.6438389250302</v>
       </c>
       <c r="C3" t="n">
-        <v>1.530290583577078e-12</v>
+        <v>1.530290583576229e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.5794316824273</v>
+        <v>109.5794316807277</v>
       </c>
       <c r="C4" t="n">
-        <v>6.672625266877785e-25</v>
+        <v>6.672625277596376e-25</v>
       </c>
     </row>
     <row r="5">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01965741385596263</v>
+        <v>-1.965741386341969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00452319233484827</v>
+        <v>0.004523192318617761</v>
       </c>
     </row>
     <row r="6">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.679990690371964e-07</v>
+        <v>0.1679990721832043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9449640434811859</v>
+        <v>0.9449640424538386</v>
       </c>
     </row>
     <row r="7">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.0999994263359</v>
+        <v>-10.09999942633604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001150695673040302</v>
+        <v>0.001150695673040106</v>
       </c>
     </row>
     <row r="8">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.783564518685064</v>
+        <v>5.783564518684935</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1718299582461147</v>
+        <v>0.171829958246124</v>
       </c>
     </row>
     <row r="9">
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-365.0462481612956</v>
+        <v>-3.650462481613143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5002671794218785</v>
+        <v>0.5002671794218572</v>
       </c>
     </row>
     <row r="10">
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-423.4797933618941</v>
+        <v>-4.234797933619058</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2868752611830777</v>
+        <v>0.2868752611830641</v>
       </c>
     </row>
     <row r="11">
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4820.253767763365</v>
+        <v>48.20253767763347</v>
       </c>
       <c r="C11" t="n">
-        <v>1.86426318661806e-06</v>
+        <v>1.864263186618188e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.04661253615579</v>
+        <v>16.04661253615528</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1761107576119771</v>
+        <v>0.1761107576119912</v>
       </c>
     </row>
   </sheetData>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1137.303293261014</v>
+        <v>1137.303294618508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1833092468789549</v>
+        <v>0.1833092463521665</v>
       </c>
     </row>
     <row r="3">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.2172213873169</v>
+        <v>133.2172213981037</v>
       </c>
       <c r="C3" t="n">
-        <v>6.815082486287272e-11</v>
+        <v>6.815082486314927e-11</v>
       </c>
     </row>
     <row r="4">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.8605569258829</v>
+        <v>125.8605568958244</v>
       </c>
       <c r="C4" t="n">
-        <v>1.00507096555987e-31</v>
+        <v>1.005070997648591e-31</v>
       </c>
     </row>
     <row r="5">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01187523469952134</v>
+        <v>-1.187523469838255</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08162892070319074</v>
+        <v>0.08162892073425621</v>
       </c>
     </row>
     <row r="6">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.738796801587956e-06</v>
+        <v>1.738796795033003</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4697142948369645</v>
+        <v>0.4697142964920077</v>
       </c>
     </row>
     <row r="7">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.541670352078797</v>
+        <v>-7.541670352078755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01410056477659548</v>
+        <v>0.01410056477659598</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.48463747937254</v>
+        <v>15.48463747937257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007034293322132728</v>
+        <v>0.0007034293322132554</v>
       </c>
     </row>
     <row r="9">
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-48.185186594377</v>
+        <v>-0.4818518659438098</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9265432228378321</v>
+        <v>0.9265432228378261</v>
       </c>
     </row>
     <row r="10">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-867.8543475815243</v>
+        <v>-8.678543475815298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02984335118339094</v>
+        <v>0.02984335118339002</v>
       </c>
     </row>
     <row r="11">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4605.875233123611</v>
+        <v>46.05875233123605</v>
       </c>
       <c r="C11" t="n">
-        <v>6.295939687047899e-07</v>
+        <v>6.295939687048105e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.33014449813165</v>
+        <v>25.33014449813155</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02890324962796665</v>
+        <v>0.02890324962796717</v>
       </c>
     </row>
   </sheetData>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2469.370319751518</v>
+        <v>2469.370319430267</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002138002874978263</v>
+        <v>0.002138002878011142</v>
       </c>
     </row>
     <row r="3">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.2844567120036</v>
+        <v>128.2844567232075</v>
       </c>
       <c r="C3" t="n">
-        <v>1.614997246256722e-09</v>
+        <v>1.614997246274856e-09</v>
       </c>
     </row>
     <row r="4">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.5972743687593</v>
+        <v>117.5972743788367</v>
       </c>
       <c r="C4" t="n">
-        <v>3.067046827227611e-31</v>
+        <v>3.067046795274323e-31</v>
       </c>
     </row>
     <row r="5">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0140383550372064</v>
+        <v>-1.403835503936429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04526135748916596</v>
+        <v>0.04526135745412209</v>
       </c>
     </row>
     <row r="6">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.41327246246556e-07</v>
+        <v>0.3413272487580767</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8825196019486514</v>
+        <v>0.8825196010925498</v>
       </c>
     </row>
     <row r="7">
@@ -1646,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.351186230987157</v>
+        <v>-8.351186230987018</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004272567155203674</v>
+        <v>0.004272567155204285</v>
       </c>
     </row>
     <row r="8">
@@ -1659,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.77922134613604</v>
+        <v>11.77922134613615</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002694191491341868</v>
+        <v>0.002694191491341585</v>
       </c>
     </row>
     <row r="9">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-720.2767259631178</v>
+        <v>-7.202767259631383</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2059816659296761</v>
+        <v>0.2059816659296658</v>
       </c>
     </row>
     <row r="10">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-906.5578301973694</v>
+        <v>-9.065578301973826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02212329834330024</v>
+        <v>0.02212329834329854</v>
       </c>
     </row>
     <row r="11">
@@ -1698,10 +1698,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4270.805538760508</v>
+        <v>42.70805538760496</v>
       </c>
       <c r="C11" t="n">
-        <v>5.445957940328165e-06</v>
+        <v>5.445957940328245e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.45669574017903</v>
+        <v>11.45669574017924</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3279561238087806</v>
+        <v>0.3279561238087713</v>
       </c>
     </row>
   </sheetData>
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2752.857701389874</v>
+        <v>2752.857701838676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000981738226970259</v>
+        <v>0.0009817382250021428</v>
       </c>
     </row>
     <row r="3">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.8591182407918</v>
+        <v>135.8591182496687</v>
       </c>
       <c r="C3" t="n">
-        <v>1.597583182017723e-12</v>
+        <v>1.597583182012365e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.4672443958624</v>
+        <v>111.4672443841903</v>
       </c>
       <c r="C4" t="n">
-        <v>3.012496204489031e-29</v>
+        <v>3.012496242602601e-29</v>
       </c>
     </row>
     <row r="5">
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01464538968646062</v>
+        <v>-1.464538968867711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02406329208713262</v>
+        <v>0.02406329206474276</v>
       </c>
     </row>
     <row r="6">
@@ -1812,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.543712252911129e-06</v>
+        <v>-1.543712246634024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6472162184105005</v>
+        <v>0.6472162197490814</v>
       </c>
     </row>
     <row r="7">
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.3721591542172</v>
+        <v>-11.37215915421715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001052604576922119</v>
+        <v>0.0001052604576922185</v>
       </c>
     </row>
     <row r="8">
@@ -1838,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.03338845509987</v>
+        <v>7.033388455099842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07131312756914633</v>
+        <v>0.07131312756914759</v>
       </c>
     </row>
     <row r="9">
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-517.9592518747866</v>
+        <v>-5.179592518747936</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3143773779162818</v>
+        <v>0.3143773779162747</v>
       </c>
     </row>
     <row r="10">
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-560.5201700007924</v>
+        <v>-5.605201700007925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1488550308900531</v>
+        <v>0.1488550308900525</v>
       </c>
     </row>
     <row r="11">
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4677.222001559365</v>
+        <v>46.77222001559348</v>
       </c>
       <c r="C11" t="n">
-        <v>3.571086446369897e-06</v>
+        <v>3.571086446370215e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1890,10 +1890,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.65633371075226</v>
+        <v>14.65633371075204</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1982814349664165</v>
+        <v>0.1982814349664242</v>
       </c>
     </row>
   </sheetData>
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2156.857207055837</v>
+        <v>2156.857207575728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01159458620773395</v>
+        <v>0.01159458618714436</v>
       </c>
     </row>
     <row r="3">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.1815395227101</v>
+        <v>148.1815395626829</v>
       </c>
       <c r="C3" t="n">
-        <v>1.997014116867838e-12</v>
+        <v>1.997014116909646e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.7407219754958</v>
+        <v>118.7407219384147</v>
       </c>
       <c r="C4" t="n">
-        <v>3.579883758531697e-26</v>
+        <v>3.579883879792374e-26</v>
       </c>
     </row>
     <row r="5">
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01617218403944379</v>
+        <v>-1.617218403162945</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01819996723919582</v>
+        <v>0.01819996729858094</v>
       </c>
     </row>
     <row r="6">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.974361539164598e-07</v>
+        <v>0.1974361333663177</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9327526136877706</v>
+        <v>0.932752620663914</v>
       </c>
     </row>
     <row r="7">
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.723385509948054</v>
+        <v>-7.723385509948221</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01255399096334725</v>
+        <v>0.01255399096334537</v>
       </c>
     </row>
     <row r="8">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.391465512868358</v>
+        <v>6.391465512868248</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1198512485389444</v>
+        <v>0.1198512485389507</v>
       </c>
     </row>
     <row r="9">
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-103.0476822368493</v>
+        <v>-1.03047682236857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8476360068832436</v>
+        <v>0.8476360068832328</v>
       </c>
     </row>
     <row r="10">
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-840.2878424366486</v>
+        <v>-8.402878424366605</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0335804948917633</v>
+        <v>0.0335804948917609</v>
       </c>
     </row>
     <row r="11">
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4511.595329010166</v>
+        <v>45.11595329010161</v>
       </c>
       <c r="C11" t="n">
-        <v>1.049975108707461e-06</v>
+        <v>1.049975108707507e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.75524402224998</v>
+        <v>23.75524402225011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04263322813737359</v>
+        <v>0.04263322813737257</v>
       </c>
     </row>
   </sheetData>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2670.460057750735</v>
+        <v>2670.460057457797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001221079774595083</v>
+        <v>0.001221079776138847</v>
       </c>
     </row>
     <row r="3">
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163.680140372997</v>
+        <v>163.6801403948106</v>
       </c>
       <c r="C3" t="n">
-        <v>2.918109197611114e-14</v>
+        <v>2.918109197577591e-14</v>
       </c>
     </row>
     <row r="4">
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.0844437621171</v>
+        <v>114.0844437564607</v>
       </c>
       <c r="C4" t="n">
-        <v>3.909273737736947e-28</v>
+        <v>3.909273759349466e-28</v>
       </c>
     </row>
     <row r="5">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.008921074442057269</v>
+        <v>-0.8921074438585646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1993867330740271</v>
+        <v>0.1993867332546685</v>
       </c>
     </row>
     <row r="6">
@@ -2170,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.054746659993786e-07</v>
+        <v>-0.1054746786920546</v>
       </c>
       <c r="C6" t="n">
-        <v>0.96394154062906</v>
+        <v>0.9639415362902491</v>
       </c>
     </row>
     <row r="7">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.11475344752601</v>
+        <v>-10.11475344752603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00150269402074215</v>
+        <v>0.001502694020742109</v>
       </c>
     </row>
     <row r="8">
@@ -2196,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.394210942333597</v>
+        <v>8.394210942333423</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03904027745869444</v>
+        <v>0.03904027745869841</v>
       </c>
     </row>
     <row r="9">
@@ -2209,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-565.2104755060143</v>
+        <v>-5.652104755060339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2904043982344852</v>
+        <v>0.2904043982344675</v>
       </c>
     </row>
     <row r="10">
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1110.679306176313</v>
+        <v>-11.10679306176317</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006573005439584595</v>
+        <v>0.006573005439584292</v>
       </c>
     </row>
     <row r="11">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4580.009770704016</v>
+        <v>45.80009770703983</v>
       </c>
       <c r="C11" t="n">
-        <v>1.886009364162055e-06</v>
+        <v>1.886009364162313e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.11393477140027</v>
+        <v>14.11393477139977</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2417338121539686</v>
+        <v>0.2417338121539861</v>
       </c>
     </row>
   </sheetData>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.094609256772</v>
+        <v>2303.094608891643</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004086467594457671</v>
+        <v>0.004086467600445632</v>
       </c>
     </row>
     <row r="3">
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.2310155191157</v>
+        <v>172.2310155024832</v>
       </c>
       <c r="C3" t="n">
-        <v>8.590503018112569e-16</v>
+        <v>8.590503018088774e-16</v>
       </c>
     </row>
     <row r="4">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.0780603635808</v>
+        <v>116.0780603707036</v>
       </c>
       <c r="C4" t="n">
-        <v>8.079504055777915e-29</v>
+        <v>8.079503996246238e-29</v>
       </c>
     </row>
     <row r="5">
@@ -2336,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01283492589236857</v>
+        <v>-1.283492590095212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04842191125316174</v>
+        <v>0.04842191109559668</v>
       </c>
     </row>
     <row r="6">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.357182080036262e-06</v>
+        <v>1.357182085309802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5989447422866624</v>
+        <v>0.5989447408732987</v>
       </c>
     </row>
     <row r="7">
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.431105989708172</v>
+        <v>-8.431105989708051</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0050865277030665</v>
+        <v>0.005086527703067106</v>
       </c>
     </row>
     <row r="8">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.377621023093049</v>
+        <v>8.377621023093045</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03342058456469852</v>
+        <v>0.03342058456469874</v>
       </c>
     </row>
     <row r="9">
@@ -2388,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>248.2518195750094</v>
+        <v>2.482518195750131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6683150550023679</v>
+        <v>0.6683150550023638</v>
       </c>
     </row>
     <row r="10">
@@ -2401,10 +2401,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-196.7936390185657</v>
+        <v>-1.967936390185618</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6194284615467529</v>
+        <v>0.61942846154676</v>
       </c>
     </row>
     <row r="11">
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5859.615285126274</v>
+        <v>58.59615285126267</v>
       </c>
       <c r="C11" t="n">
-        <v>1.353759642454286e-09</v>
+        <v>1.353759642454316e-09</v>
       </c>
     </row>
     <row r="12">
@@ -2427,10 +2427,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.5587417077957966</v>
+        <v>-0.5587417077958392</v>
       </c>
       <c r="C12" t="n">
-        <v>0.962615975484955</v>
+        <v>0.9626159754849523</v>
       </c>
     </row>
   </sheetData>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2226.53735333832</v>
+        <v>2226.537353120011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008787663220811452</v>
+        <v>0.008787663227508145</v>
       </c>
     </row>
     <row r="3">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.572544018084</v>
+        <v>162.5725440377852</v>
       </c>
       <c r="C3" t="n">
-        <v>1.663747566679439e-15</v>
+        <v>1.663747566732284e-15</v>
       </c>
     </row>
     <row r="4">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.2514745625507</v>
+        <v>115.2514745900191</v>
       </c>
       <c r="C4" t="n">
-        <v>4.694499227663066e-27</v>
+        <v>4.694499100075143e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01426008488755263</v>
+        <v>-1.42600848841218</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04314139987538083</v>
+        <v>0.0431413999282259</v>
       </c>
     </row>
     <row r="6">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.112069632095563e-07</v>
+        <v>-0.4112069426731066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8582317833318059</v>
+        <v>0.8582317903483909</v>
       </c>
     </row>
     <row r="7">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.73572103888059</v>
+        <v>-10.73572103888057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004234392090133231</v>
+        <v>0.0004234392090133361</v>
       </c>
     </row>
     <row r="8">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.877827874566544</v>
+        <v>5.877827874566531</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1501270621707323</v>
+        <v>0.1501270621707337</v>
       </c>
     </row>
     <row r="9">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-573.0583027914124</v>
+        <v>-5.730583027914053</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2865795075697797</v>
+        <v>0.2865795075697872</v>
       </c>
     </row>
     <row r="10">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-709.4580843522938</v>
+        <v>-7.094580843522931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07131658860270763</v>
+        <v>0.07131658860270805</v>
       </c>
     </row>
     <row r="11">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4950.130422355018</v>
+        <v>49.50130422355006</v>
       </c>
       <c r="C11" t="n">
-        <v>2.610455338456977e-07</v>
+        <v>2.61045533845703e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2606,10 +2606,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.16456681492967</v>
+        <v>25.1645668149297</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03074215575033704</v>
+        <v>0.03074215575033689</v>
       </c>
     </row>
   </sheetData>
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1021.491781161061</v>
+        <v>1021.491780918723</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2467977826767675</v>
+        <v>0.2467977827895913</v>
       </c>
     </row>
     <row r="3">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.9039695502987</v>
+        <v>125.9039695512142</v>
       </c>
       <c r="C3" t="n">
-        <v>1.137039224154353e-09</v>
+        <v>1.137039224138745e-09</v>
       </c>
     </row>
     <row r="4">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.2258292779611</v>
+        <v>124.2258292781795</v>
       </c>
       <c r="C4" t="n">
-        <v>1.955853011759753e-31</v>
+        <v>1.955853011320797e-31</v>
       </c>
     </row>
     <row r="5">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02065406399263897</v>
+        <v>-2.065406398489882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00312653965060373</v>
+        <v>0.003126539662862948</v>
       </c>
     </row>
     <row r="6">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.312618547549933e-08</v>
+        <v>-0.09312620880410982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9674578839364261</v>
+        <v>0.9674578757829168</v>
       </c>
     </row>
     <row r="7">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.521248402938691</v>
+        <v>-7.521248402938681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01697371334417121</v>
+        <v>0.01697371334417123</v>
       </c>
     </row>
     <row r="8">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.66757262209974</v>
+        <v>14.66757262209978</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001798852578935303</v>
+        <v>0.001798852578935249</v>
       </c>
     </row>
     <row r="9">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.2300703935671</v>
+        <v>1.102300703935686</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8386187125890819</v>
+        <v>0.8386187125890794</v>
       </c>
     </row>
     <row r="10">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-175.6976251965976</v>
+        <v>-1.756976251965909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6599994902190895</v>
+        <v>0.6599994902191019</v>
       </c>
     </row>
     <row r="11">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4762.768692974625</v>
+        <v>47.62768692974621</v>
       </c>
       <c r="C11" t="n">
-        <v>1.077752397033116e-07</v>
+        <v>1.077752397033095e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.45818357104836</v>
+        <v>25.45818357104834</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02974573188026898</v>
+        <v>0.02974573188026914</v>
       </c>
     </row>
   </sheetData>
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1484.193498732592</v>
+        <v>1484.193498085664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08118059676946682</v>
+        <v>0.08118059690390446</v>
       </c>
     </row>
     <row r="3">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.9283198097619</v>
+        <v>137.9283198257052</v>
       </c>
       <c r="C3" t="n">
-        <v>1.563935261729056e-11</v>
+        <v>1.563935261712539e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.9149974666341</v>
+        <v>113.9149974761844</v>
       </c>
       <c r="C4" t="n">
-        <v>2.384802470045002e-26</v>
+        <v>2.38480244726419e-26</v>
       </c>
     </row>
     <row r="5">
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01615040816798899</v>
+        <v>-1.615040817459475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02585071440651212</v>
+        <v>0.02585071434191821</v>
       </c>
     </row>
     <row r="6">
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.245639227838442e-06</v>
+        <v>-1.245639201810267</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7318915408272773</v>
+        <v>0.7318915462276261</v>
       </c>
     </row>
     <row r="7">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.592409936824215</v>
+        <v>-9.592409936824257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001807195217005128</v>
+        <v>0.00180719521700504</v>
       </c>
     </row>
     <row r="8">
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.95296489207871</v>
+        <v>11.95296489207862</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007981314693268729</v>
+        <v>0.00798131469326927</v>
       </c>
     </row>
     <row r="9">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.33221317031757</v>
+        <v>0.1633221317029587</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9775790987123344</v>
+        <v>0.9775790987123643</v>
       </c>
     </row>
     <row r="10">
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-490.2383180447737</v>
+        <v>-4.902383180447771</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2073325794527212</v>
+        <v>0.207332579452719</v>
       </c>
     </row>
     <row r="11">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5222.637041794082</v>
+        <v>52.22637041794081</v>
       </c>
       <c r="C11" t="n">
-        <v>6.844908786650087e-08</v>
+        <v>6.844908786650211e-08</v>
       </c>
     </row>
     <row r="12">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.1129292989321</v>
+        <v>25.11292929893159</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0274431396413221</v>
+        <v>0.02744313964132537</v>
       </c>
     </row>
   </sheetData>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2974.408642330779</v>
+        <v>2974.408642227091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002431200585130702</v>
+        <v>0.0002431200586313724</v>
       </c>
     </row>
     <row r="3">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>175.2771782340622</v>
+        <v>175.2771782967323</v>
       </c>
       <c r="C3" t="n">
-        <v>1.098376543811971e-15</v>
+        <v>1.098376543813968e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3039,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.5541316819979</v>
+        <v>118.5541316632004</v>
       </c>
       <c r="C4" t="n">
-        <v>1.760151231856512e-29</v>
+        <v>1.760151265995414e-29</v>
       </c>
     </row>
     <row r="5">
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01119116205505237</v>
+        <v>-1.119116205533828</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09626347697136026</v>
+        <v>0.09626347696247803</v>
       </c>
     </row>
     <row r="6">
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.803604661309378e-07</v>
+        <v>0.2803604786896587</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9006601446764531</v>
+        <v>0.9006601402551667</v>
       </c>
     </row>
     <row r="7">
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.156054524738568</v>
+        <v>-9.156054524738455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002611989389503555</v>
+        <v>0.00261198938950389</v>
       </c>
     </row>
     <row r="8">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.050954810603063</v>
+        <v>5.050954810603301</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2048791069775343</v>
+        <v>0.2048791069775125</v>
       </c>
     </row>
     <row r="9">
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-426.7147423494132</v>
+        <v>-4.267147423494109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4121300795980424</v>
+        <v>0.4121300795980447</v>
       </c>
     </row>
     <row r="10">
@@ -3117,10 +3117,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1186.280743655732</v>
+        <v>-11.86280743655724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003532680297040837</v>
+        <v>0.003532680297041093</v>
       </c>
     </row>
     <row r="11">
@@ -3130,10 +3130,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3568.894968419712</v>
+        <v>35.68894968419728</v>
       </c>
       <c r="C11" t="n">
-        <v>9.488659204421103e-05</v>
+        <v>9.488659204420488e-05</v>
       </c>
     </row>
     <row r="12">
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.66596132149475</v>
+        <v>17.6659613214948</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1210335059134654</v>
+        <v>0.1210335059134646</v>
       </c>
     </row>
   </sheetData>
@@ -3192,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2190.218021731046</v>
+        <v>2190.218021701237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0144344924659478</v>
+        <v>0.0144344924673528</v>
       </c>
     </row>
     <row r="3">
@@ -3205,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.3967320490761</v>
+        <v>143.3967320763021</v>
       </c>
       <c r="C3" t="n">
-        <v>1.288928543076344e-12</v>
+        <v>1.288928543070033e-12</v>
       </c>
     </row>
     <row r="4">
@@ -3218,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.8366429082065</v>
+        <v>117.8366429266468</v>
       </c>
       <c r="C4" t="n">
-        <v>9.945199593490553e-30</v>
+        <v>9.945199411837945e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01388691925558626</v>
+        <v>-1.388691926374556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03807458914853536</v>
+        <v>0.03807458902924041</v>
       </c>
     </row>
     <row r="6">
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.754146622650511e-07</v>
+        <v>0.1754146506686851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9399584733252355</v>
+        <v>0.9399584772826892</v>
       </c>
     </row>
     <row r="7">
@@ -3257,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.032186479024078</v>
+        <v>-9.032186479023984</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004307294118359988</v>
+        <v>0.004307294118360364</v>
       </c>
     </row>
     <row r="8">
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.296984740742264</v>
+        <v>8.296984740742239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05417592955332089</v>
+        <v>0.05417592955332175</v>
       </c>
     </row>
     <row r="9">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-36.87837205130768</v>
+        <v>-0.3687837205131377</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9436974463097879</v>
+        <v>0.9436974463097787</v>
       </c>
     </row>
     <row r="10">
@@ -3296,10 +3296,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-709.0190425052932</v>
+        <v>-7.090190425053046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07413642343702538</v>
+        <v>0.07413642343702087</v>
       </c>
     </row>
     <row r="11">
@@ -3309,10 +3309,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4616.74078528348</v>
+        <v>46.16740785283461</v>
       </c>
       <c r="C11" t="n">
-        <v>4.748210394656343e-07</v>
+        <v>4.748210394656823e-07</v>
       </c>
     </row>
     <row r="12">
@@ -3322,10 +3322,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.30126537832406</v>
+        <v>18.30126537832382</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1230750306517004</v>
+        <v>0.1230750306517054</v>
       </c>
     </row>
   </sheetData>
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2825.309282413518</v>
+        <v>2825.309282144734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008620662576865951</v>
+        <v>0.0008620662587029515</v>
       </c>
     </row>
     <row r="3">
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.1673913146028</v>
+        <v>142.1673913057867</v>
       </c>
       <c r="C3" t="n">
-        <v>1.319326412851396e-10</v>
+        <v>1.319326412837972e-10</v>
       </c>
     </row>
     <row r="4">
@@ -3397,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.0889388913793</v>
+        <v>111.0889389027323</v>
       </c>
       <c r="C4" t="n">
-        <v>5.249307245443527e-27</v>
+        <v>5.249307188536737e-27</v>
       </c>
     </row>
     <row r="5">
@@ -3410,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01761017194060793</v>
+        <v>-1.76101719326931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008046574355494584</v>
+        <v>0.008046574385548722</v>
       </c>
     </row>
     <row r="6">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.339400972035465e-08</v>
+        <v>-0.02339401662737794</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9919125044937465</v>
+        <v>0.9919125021056727</v>
       </c>
     </row>
     <row r="7">
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.75280559173547</v>
+        <v>-10.75280559173543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0006529018986589915</v>
+        <v>0.0006529018986590271</v>
       </c>
     </row>
     <row r="8">
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.082314362150626</v>
+        <v>6.082314362150699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1381506905578009</v>
+        <v>0.1381506905577961</v>
       </c>
     </row>
     <row r="9">
@@ -3462,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-521.9965395351064</v>
+        <v>-5.219965395351032</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3508543611016606</v>
+        <v>0.3508543611016629</v>
       </c>
     </row>
     <row r="10">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-553.0975933028631</v>
+        <v>-5.53097593302865</v>
       </c>
       <c r="C10" t="n">
-        <v>0.161591101080642</v>
+        <v>0.1615911010806403</v>
       </c>
     </row>
     <row r="11">
@@ -3488,10 +3488,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4815.184910919875</v>
+        <v>48.15184910919865</v>
       </c>
       <c r="C11" t="n">
-        <v>3.286251623309075e-06</v>
+        <v>3.28625162330927e-06</v>
       </c>
     </row>
     <row r="12">
@@ -3501,10 +3501,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.64063966453176</v>
+        <v>13.6406396645317</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2597214096465508</v>
+        <v>0.2597214096465539</v>
       </c>
     </row>
   </sheetData>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1769.24493831431</v>
+        <v>1769.244939156777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02619541418491073</v>
+        <v>0.0261954141123767</v>
       </c>
     </row>
     <row r="3">
@@ -3563,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.5024390025122</v>
+        <v>157.5024389954652</v>
       </c>
       <c r="C3" t="n">
-        <v>1.436436449896692e-15</v>
+        <v>1.436436449883579e-15</v>
       </c>
     </row>
     <row r="4">
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.1594261299064</v>
+        <v>121.1594260984999</v>
       </c>
       <c r="C4" t="n">
-        <v>1.865081569758575e-30</v>
+        <v>1.865081630015257e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3589,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01394280073492184</v>
+        <v>-1.394280073367321</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0336514765163857</v>
+        <v>0.0336514765331165</v>
       </c>
     </row>
     <row r="6">
@@ -3602,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.638589244226723e-07</v>
+        <v>0.563858908102473</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8226082984862414</v>
+        <v>0.8226083035222274</v>
       </c>
     </row>
     <row r="7">
@@ -3615,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.642524869578784</v>
+        <v>-6.642524869578819</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02492641797180082</v>
+        <v>0.02492641797179998</v>
       </c>
     </row>
     <row r="8">
@@ -3628,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.58765687600568</v>
+        <v>11.58765687600572</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00245431804893299</v>
+        <v>0.002454318048932878</v>
       </c>
     </row>
     <row r="9">
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-161.022682284887</v>
+        <v>-1.610226822848911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7579575325044957</v>
+        <v>0.7579575325044903</v>
       </c>
     </row>
     <row r="10">
@@ -3654,10 +3654,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-40.98394677966803</v>
+        <v>-0.4098394677967807</v>
       </c>
       <c r="C10" t="n">
-        <v>0.918239592413244</v>
+        <v>0.9182395924132239</v>
       </c>
     </row>
     <row r="11">
@@ -3667,10 +3667,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6076.008263992025</v>
+        <v>60.76008263992018</v>
       </c>
       <c r="C11" t="n">
-        <v>4.186670370494091e-11</v>
+        <v>4.186670370494198e-11</v>
       </c>
     </row>
     <row r="12">
@@ -3680,10 +3680,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7503949767256906</v>
+        <v>0.7503949767253957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9501356076904925</v>
+        <v>0.9501356076905122</v>
       </c>
     </row>
   </sheetData>
@@ -3729,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2428.950583383914</v>
+        <v>2428.9505837248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004501789383316612</v>
+        <v>0.004501789377661947</v>
       </c>
     </row>
     <row r="3">
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.3686078010442</v>
+        <v>157.3686077835776</v>
       </c>
       <c r="C3" t="n">
-        <v>2.164674888601083e-12</v>
+        <v>2.16467488857603e-12</v>
       </c>
     </row>
     <row r="4">
@@ -3755,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.8644478021824</v>
+        <v>124.8644478087053</v>
       </c>
       <c r="C4" t="n">
-        <v>2.308737504592701e-30</v>
+        <v>2.308737489832555e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3768,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01157116913344442</v>
+        <v>-1.157116913872481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08809433389027257</v>
+        <v>0.08809433373776826</v>
       </c>
     </row>
     <row r="6">
@@ -3781,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.791109062541601e-08</v>
+        <v>-0.07791107681899101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9728936282562539</v>
+        <v>0.9728936330597957</v>
       </c>
     </row>
     <row r="7">
@@ -3794,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.872834205444033</v>
+        <v>-9.87283420544404</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001537436830582741</v>
+        <v>0.001537436830582691</v>
       </c>
     </row>
     <row r="8">
@@ -3807,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.513350852250374</v>
+        <v>6.513350852250458</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1111453233504271</v>
+        <v>0.1111453233504216</v>
       </c>
     </row>
     <row r="9">
@@ -3820,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-511.4322004910396</v>
+        <v>-5.114322004910766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3355424086534192</v>
+        <v>0.3355424086533881</v>
       </c>
     </row>
     <row r="10">
@@ -3833,10 +3833,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-857.0189963863373</v>
+        <v>-8.570189963863626</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03732048796834534</v>
+        <v>0.03732048796834014</v>
       </c>
     </row>
     <row r="11">
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4495.233615961004</v>
+        <v>44.95233615960991</v>
       </c>
       <c r="C11" t="n">
-        <v>1.726349361123099e-06</v>
+        <v>1.726349361123146e-06</v>
       </c>
     </row>
     <row r="12">
@@ -3859,10 +3859,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.77253685147437</v>
+        <v>19.77253685147465</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09761683223562928</v>
+        <v>0.09761683223562405</v>
       </c>
     </row>
   </sheetData>
@@ -3908,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>956.1226558998326</v>
+        <v>956.1226563783446</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2324989091199044</v>
+        <v>0.2324989088828094</v>
       </c>
     </row>
     <row r="3">
@@ -3921,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.9309405693988</v>
+        <v>151.9309405718238</v>
       </c>
       <c r="C3" t="n">
-        <v>1.364934614569776e-14</v>
+        <v>1.364934614568687e-14</v>
       </c>
     </row>
     <row r="4">
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.1590579045804</v>
+        <v>121.1590578857052</v>
       </c>
       <c r="C4" t="n">
-        <v>2.711012794675532e-30</v>
+        <v>2.711012848476048e-30</v>
       </c>
     </row>
     <row r="5">
@@ -3947,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01627715902870471</v>
+        <v>-1.627715902515985</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01214986444323075</v>
+        <v>0.01214986446289777</v>
       </c>
     </row>
     <row r="6">
@@ -3960,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.905698632289678e-07</v>
+        <v>-0.9905698830056995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6797028338810447</v>
+        <v>0.6797028278191299</v>
       </c>
     </row>
     <row r="7">
@@ -3973,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.708838947789044</v>
+        <v>-8.708838947789063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003832803134532491</v>
+        <v>0.003832803134532382</v>
       </c>
     </row>
     <row r="8">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.37743509328423</v>
+        <v>11.37743509328421</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00314123431902067</v>
+        <v>0.00314123431902071</v>
       </c>
     </row>
     <row r="9">
@@ -3999,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-169.4468304891161</v>
+        <v>-1.694468304891272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7518915728357283</v>
+        <v>0.751891572835713</v>
       </c>
     </row>
     <row r="10">
@@ -4012,10 +4012,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-705.570973932022</v>
+        <v>-7.055709739320257</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06548511836472036</v>
+        <v>0.06548511836471935</v>
       </c>
     </row>
     <row r="11">
@@ -4025,10 +4025,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5409.850523033833</v>
+        <v>54.09850523033827</v>
       </c>
       <c r="C11" t="n">
-        <v>1.522516652024021e-09</v>
+        <v>1.522516652024105e-09</v>
       </c>
     </row>
     <row r="12">
@@ -4038,10 +4038,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.62017917060305</v>
+        <v>35.62017917060307</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001992399546940232</v>
+        <v>0.001992399546940252</v>
       </c>
     </row>
   </sheetData>
@@ -4087,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2918.936801877779</v>
+        <v>2918.936802037115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002746484975543561</v>
+        <v>0.0002746484973371949</v>
       </c>
     </row>
     <row r="3">
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.1338641455075</v>
+        <v>147.1338641614313</v>
       </c>
       <c r="C3" t="n">
-        <v>3.829912295397885e-13</v>
+        <v>3.829912295375507e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4113,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.1439233418609</v>
+        <v>109.1439233315602</v>
       </c>
       <c r="C4" t="n">
-        <v>3.065713800118543e-25</v>
+        <v>3.065713829912926e-25</v>
       </c>
     </row>
     <row r="5">
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01626850197935079</v>
+        <v>-1.626850198567783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01908441186503478</v>
+        <v>0.01908441181596887</v>
       </c>
     </row>
     <row r="6">
@@ -4139,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.83739175598987e-06</v>
+        <v>-1.837391769603741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5796761684799487</v>
+        <v>0.5796761656549978</v>
       </c>
     </row>
     <row r="7">
@@ -4152,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.10762881682242</v>
+        <v>-10.10762881682247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009043928364649884</v>
+        <v>0.0009043928364649452</v>
       </c>
     </row>
     <row r="8">
@@ -4165,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.263847598010194</v>
+        <v>5.26384759801009</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1766520860281172</v>
+        <v>0.176652086028126</v>
       </c>
     </row>
     <row r="9">
@@ -4178,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-312.1340152197472</v>
+        <v>-3.121340152197615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.55005319975784</v>
+        <v>0.5500531997578224</v>
       </c>
     </row>
     <row r="10">
@@ -4191,10 +4191,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-518.6936881398336</v>
+        <v>-5.18693688139847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1881367744749349</v>
+        <v>0.1881367744749233</v>
       </c>
     </row>
     <row r="11">
@@ -4204,10 +4204,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4112.40587207727</v>
+        <v>41.12405872077241</v>
       </c>
       <c r="C11" t="n">
-        <v>8.691400511681554e-06</v>
+        <v>8.69140051168233e-06</v>
       </c>
     </row>
     <row r="12">
@@ -4217,10 +4217,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.288697307958</v>
+        <v>14.28869730795794</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1951595499898068</v>
+        <v>0.1951595499898077</v>
       </c>
     </row>
   </sheetData>
@@ -4266,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2358.776935361872</v>
+        <v>2358.776934875458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003469624509569925</v>
+        <v>0.003469624516613523</v>
       </c>
     </row>
     <row r="3">
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.9067903380759</v>
+        <v>152.9067903873863</v>
       </c>
       <c r="C3" t="n">
-        <v>2.765993466325968e-14</v>
+        <v>2.765993466325268e-14</v>
       </c>
     </row>
     <row r="4">
@@ -4292,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.3980890389919</v>
+        <v>113.3980890254162</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0128720005414e-30</v>
+        <v>5.012872070913396e-30</v>
       </c>
     </row>
     <row r="5">
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01603283174022109</v>
+        <v>-1.603283173841141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01534669589762115</v>
+        <v>0.01534669590992631</v>
       </c>
     </row>
     <row r="6">
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.823358129290164e-06</v>
+        <v>1.823358116352807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4208465944880448</v>
+        <v>0.4208465977574992</v>
       </c>
     </row>
     <row r="7">
@@ -4331,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.365486463634891</v>
+        <v>-8.365486463634991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006166818609496728</v>
+        <v>0.006166818609496132</v>
       </c>
     </row>
     <row r="8">
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.881851233109957</v>
+        <v>8.881851233109963</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02461761928468317</v>
+        <v>0.02461761928468293</v>
       </c>
     </row>
     <row r="9">
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>128.5851272569043</v>
+        <v>1.285851272569211</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7996595350459161</v>
+        <v>0.799659535045891</v>
       </c>
     </row>
     <row r="10">
@@ -4370,10 +4370,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-197.0550108762509</v>
+        <v>-1.970550108762538</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6064648041762335</v>
+        <v>0.6064648041762282</v>
       </c>
     </row>
     <row r="11">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6082.351327037767</v>
+        <v>60.82351327037769</v>
       </c>
       <c r="C11" t="n">
-        <v>3.733173204851338e-11</v>
+        <v>3.733173204851243e-11</v>
       </c>
     </row>
     <row r="12">
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.26962875900708</v>
+        <v>-1.269628759006935</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9139937955376042</v>
+        <v>0.913993795537614</v>
       </c>
     </row>
   </sheetData>
@@ -4445,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3045.162501031391</v>
+        <v>3045.162501609113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002939980252464297</v>
+        <v>0.0002939980244241057</v>
       </c>
     </row>
     <row r="3">
@@ -4458,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.47947736317</v>
+        <v>140.4794773619811</v>
       </c>
       <c r="C3" t="n">
-        <v>5.872049726179968e-11</v>
+        <v>5.872049726126197e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4471,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.1444535078132</v>
+        <v>112.1444534893289</v>
       </c>
       <c r="C4" t="n">
-        <v>1.145700865942705e-28</v>
+        <v>1.145700886250923e-28</v>
       </c>
     </row>
     <row r="5">
@@ -4484,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01192910208873806</v>
+        <v>-1.192910209696431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06933868431519891</v>
+        <v>0.06933868411387081</v>
       </c>
     </row>
     <row r="6">
@@ -4497,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.303793523003914e-06</v>
+        <v>-2.303793541017152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4984096323416239</v>
+        <v>0.498409628951524</v>
       </c>
     </row>
     <row r="7">
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.860402859018354</v>
+        <v>-8.860402859018306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002807881496591811</v>
+        <v>0.002807881496591929</v>
       </c>
     </row>
     <row r="8">
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.215428576074066</v>
+        <v>5.215428576074064</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2085762501241593</v>
+        <v>0.2085762501241595</v>
       </c>
     </row>
     <row r="9">
@@ -4536,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-465.2985495627157</v>
+        <v>-4.652985495627231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3643512436428931</v>
+        <v>0.364351243642885</v>
       </c>
     </row>
     <row r="10">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-870.8235085492195</v>
+        <v>-8.708235085492278</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02666238089828111</v>
+        <v>0.02666238089827981</v>
       </c>
     </row>
     <row r="11">
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4571.153840512426</v>
+        <v>45.71153840512418</v>
       </c>
       <c r="C11" t="n">
-        <v>5.199667597959171e-07</v>
+        <v>5.199667597959562e-07</v>
       </c>
     </row>
     <row r="12">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.842224541341768</v>
+        <v>9.842224541341722</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3882280775034006</v>
+        <v>0.3882280775034035</v>
       </c>
     </row>
   </sheetData>
@@ -4624,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2591.862169351405</v>
+        <v>2591.862168871507</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006444077061045887</v>
+        <v>0.006444077070843084</v>
       </c>
     </row>
     <row r="3">
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.2403737153089</v>
+        <v>142.2403737188012</v>
       </c>
       <c r="C3" t="n">
-        <v>4.22886639563749e-11</v>
+        <v>4.228866395618587e-11</v>
       </c>
     </row>
     <row r="4">
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.6677102824543</v>
+        <v>114.6677103112122</v>
       </c>
       <c r="C4" t="n">
-        <v>2.455678297515992e-27</v>
+        <v>2.455678225228341e-27</v>
       </c>
     </row>
     <row r="5">
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01404759431152869</v>
+        <v>-1.404759431034175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04229887548979933</v>
+        <v>0.04229887550822066</v>
       </c>
     </row>
     <row r="6">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.229800630571906e-07</v>
+        <v>0.4229800543854321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8672572409829762</v>
+        <v>0.8672572436727408</v>
       </c>
     </row>
     <row r="7">
@@ -4689,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.497845356811796</v>
+        <v>-8.497845356811707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007173261132315651</v>
+        <v>0.007173261132316262</v>
       </c>
     </row>
     <row r="8">
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.52653765577813</v>
+        <v>10.52653765577824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0397882477024815</v>
+        <v>0.03978824770247937</v>
       </c>
     </row>
     <row r="9">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-171.5617105825115</v>
+        <v>-1.715617105825029</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7797426066452597</v>
+        <v>0.7797426066452704</v>
       </c>
     </row>
     <row r="10">
@@ -4728,10 +4728,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-623.8013863771876</v>
+        <v>-6.238013863771833</v>
       </c>
       <c r="C10" t="n">
-        <v>0.12963233070877</v>
+        <v>0.1296323307087722</v>
       </c>
     </row>
     <row r="11">
@@ -4741,10 +4741,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4062.040409791658</v>
+        <v>40.62040409791663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002074643808479852</v>
+        <v>0.0002074643808479802</v>
       </c>
     </row>
     <row r="12">
@@ -4754,10 +4754,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.765917821831984</v>
+        <v>8.765917821831898</v>
       </c>
       <c r="C12" t="n">
-        <v>0.483897837992159</v>
+        <v>0.4838978379921629</v>
       </c>
     </row>
   </sheetData>
@@ -4803,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.73778630172</v>
+        <v>1542.737786245315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06333627183499864</v>
+        <v>0.06333627184471226</v>
       </c>
     </row>
     <row r="3">
@@ -4816,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.1535644706123</v>
+        <v>149.1535644589365</v>
       </c>
       <c r="C3" t="n">
-        <v>1.237967541743585e-13</v>
+        <v>1.237967541736441e-13</v>
       </c>
     </row>
     <row r="4">
@@ -4829,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.2023496284808</v>
+        <v>124.2023496257699</v>
       </c>
       <c r="C4" t="n">
-        <v>7.896935901287033e-26</v>
+        <v>7.896935921338203e-26</v>
       </c>
     </row>
     <row r="5">
@@ -4842,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01628274146669163</v>
+        <v>-1.628274146398597</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01470748804906227</v>
+        <v>0.01470748806653822</v>
       </c>
     </row>
     <row r="6">
@@ -4855,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.400002186670006e-06</v>
+        <v>-1.400002215517089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5736995985817765</v>
+        <v>0.5736995906532419</v>
       </c>
     </row>
     <row r="7">
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.270544622783261</v>
+        <v>-9.270544622783182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003318250528481646</v>
+        <v>0.003318250528481863</v>
       </c>
     </row>
     <row r="8">
@@ -4881,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.76223078312544</v>
+        <v>10.76223078312553</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007690331105309793</v>
+        <v>0.007690331105309283</v>
       </c>
     </row>
     <row r="9">
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-186.3111271047227</v>
+        <v>-1.863111271047287</v>
       </c>
       <c r="C9" t="n">
-        <v>0.726745212113781</v>
+        <v>0.7267452121137734</v>
       </c>
     </row>
     <row r="10">
@@ -4907,10 +4907,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-425.4757791785428</v>
+        <v>-4.254757791785426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2877864622534266</v>
+        <v>0.2877864622534269</v>
       </c>
     </row>
     <row r="11">
@@ -4920,10 +4920,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4969.969610821167</v>
+        <v>49.69969610821158</v>
       </c>
       <c r="C11" t="n">
-        <v>8.328433289474208e-08</v>
+        <v>8.328433289474347e-08</v>
       </c>
     </row>
     <row r="12">
@@ -4933,10 +4933,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.34177511675381</v>
+        <v>24.341775116754</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03779128581686679</v>
+        <v>0.0377912858168645</v>
       </c>
     </row>
   </sheetData>
@@ -4982,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2650.009956264643</v>
+        <v>2650.009956399344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003014523426689984</v>
+        <v>0.003014523425131476</v>
       </c>
     </row>
     <row r="3">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.0555059699632</v>
+        <v>144.0555059661909</v>
       </c>
       <c r="C3" t="n">
-        <v>2.677630518873192e-11</v>
+        <v>2.67763051886358e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5008,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.862428875715</v>
+        <v>107.8624288683856</v>
       </c>
       <c r="C4" t="n">
-        <v>3.900234987971028e-24</v>
+        <v>3.900235012235183e-24</v>
       </c>
     </row>
     <row r="5">
@@ -5021,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01349395290729635</v>
+        <v>-1.349395292037318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05489524852038788</v>
+        <v>0.05489524827193627</v>
       </c>
     </row>
     <row r="6">
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.763943276317447e-06</v>
+        <v>-2.763943280877452</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4664517884689915</v>
+        <v>0.4664517877307247</v>
       </c>
     </row>
     <row r="7">
@@ -5047,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.85300768370302</v>
+        <v>-10.85300768370303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0009309975902086278</v>
+        <v>0.0009309975902085922</v>
       </c>
     </row>
     <row r="8">
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.996695313093243</v>
+        <v>4.996695313093104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2454140136962098</v>
+        <v>0.245414013696223</v>
       </c>
     </row>
     <row r="9">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-585.81918884791</v>
+        <v>-5.858191888479336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2796752218123314</v>
+        <v>0.2796752218123145</v>
       </c>
     </row>
     <row r="10">
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-787.075615385025</v>
+        <v>-7.870756153850374</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05162492021470666</v>
+        <v>0.05162492021470314</v>
       </c>
     </row>
     <row r="11">
@@ -5099,10 +5099,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5439.250550294814</v>
+        <v>54.39250550294791</v>
       </c>
       <c r="C11" t="n">
-        <v>1.094742891835357e-08</v>
+        <v>1.094742891835521e-08</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.26762927649536</v>
+        <v>18.26762927649504</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1356765266758248</v>
+        <v>0.1356765266758313</v>
       </c>
     </row>
   </sheetData>
@@ -5161,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3093.316545579356</v>
+        <v>3093.316545091014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003242603099422243</v>
+        <v>0.0003242603106698318</v>
       </c>
     </row>
     <row r="3">
@@ -5174,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.2825521831097</v>
+        <v>140.2825522136564</v>
       </c>
       <c r="C3" t="n">
-        <v>2.491432255804023e-11</v>
+        <v>2.491432255816682e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5187,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.4447072130198</v>
+        <v>110.4447071971893</v>
       </c>
       <c r="C4" t="n">
-        <v>2.033026944644285e-27</v>
+        <v>2.033026977204477e-27</v>
       </c>
     </row>
     <row r="5">
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01527202118998911</v>
+        <v>-1.527202119763328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0218364544106273</v>
+        <v>0.02183645434041164</v>
       </c>
     </row>
     <row r="6">
@@ -5213,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.053350657366169e-06</v>
+        <v>1.053350639752968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6575693051801204</v>
+        <v>0.657569310509258</v>
       </c>
     </row>
     <row r="7">
@@ -5226,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.78134264431394</v>
+        <v>-10.78134264431395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004119540512771894</v>
+        <v>0.0004119540512771874</v>
       </c>
     </row>
     <row r="8">
@@ -5239,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.210875389798366</v>
+        <v>4.210875389798179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3101800735216556</v>
+        <v>0.3101800735216778</v>
       </c>
     </row>
     <row r="9">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-886.483793499913</v>
+        <v>-8.86483793499934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.112590785815448</v>
+        <v>0.1125907858154395</v>
       </c>
     </row>
     <row r="10">
@@ -5265,10 +5265,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1078.359264008963</v>
+        <v>-10.78359264008968</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006875339283038326</v>
+        <v>0.006875339283038033</v>
       </c>
     </row>
     <row r="11">
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4011.068699369527</v>
+        <v>40.11068699369503</v>
       </c>
       <c r="C11" t="n">
-        <v>8.203657734541796e-05</v>
+        <v>8.203657734542419e-05</v>
       </c>
     </row>
     <row r="12">
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.19185474652321</v>
+        <v>21.1918547465227</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07902975605990802</v>
+        <v>0.0790297560599148</v>
       </c>
     </row>
   </sheetData>
@@ -5340,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1335.564886242525</v>
+        <v>1335.564886638285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08876674516998423</v>
+        <v>0.08876674507410841</v>
       </c>
     </row>
     <row r="3">
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.8854808373954</v>
+        <v>138.8854808451973</v>
       </c>
       <c r="C3" t="n">
-        <v>2.792439138234408e-13</v>
+        <v>2.792439138244397e-13</v>
       </c>
     </row>
     <row r="4">
@@ -5366,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.2083220866776</v>
+        <v>119.2083220679663</v>
       </c>
       <c r="C4" t="n">
-        <v>8.829725646200437e-36</v>
+        <v>8.829725844033651e-36</v>
       </c>
     </row>
     <row r="5">
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01648979042111324</v>
+        <v>-1.648979041232736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009957089752878729</v>
+        <v>0.009957089794442323</v>
       </c>
     </row>
     <row r="6">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.594386450253302e-06</v>
+        <v>1.594386429691657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4451451660982534</v>
+        <v>0.4451451718951768</v>
       </c>
     </row>
     <row r="7">
@@ -5405,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.573328069392211</v>
+        <v>-6.573328069392186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01982967846075106</v>
+        <v>0.0198296784607515</v>
       </c>
     </row>
     <row r="8">
@@ -5418,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.85594663413896</v>
+        <v>13.85594663413902</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009581207034972553</v>
+        <v>0.0009581207034972054</v>
       </c>
     </row>
     <row r="9">
@@ -5431,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>571.3684453188307</v>
+        <v>5.713684453188193</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2806658216697848</v>
+        <v>0.280665821669794</v>
       </c>
     </row>
     <row r="10">
@@ -5444,10 +5444,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-63.20921789577551</v>
+        <v>-0.6320921789577909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8677852931189044</v>
+        <v>0.8677852931188968</v>
       </c>
     </row>
     <row r="11">
@@ -5457,10 +5457,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6117.580001944072</v>
+        <v>61.17580001944065</v>
       </c>
       <c r="C11" t="n">
-        <v>1.015028558980057e-10</v>
+        <v>1.015028558980083e-10</v>
       </c>
     </row>
     <row r="12">
@@ -5470,10 +5470,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.305527510670537</v>
+        <v>5.305527510670395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6260590221060993</v>
+        <v>0.6260590221061084</v>
       </c>
     </row>
   </sheetData>
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2515.32357943865</v>
+        <v>2515.323579319712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001786899824700185</v>
+        <v>0.001786899825605989</v>
       </c>
     </row>
     <row r="3">
@@ -5532,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177.1226875220738</v>
+        <v>177.1226874991243</v>
       </c>
       <c r="C3" t="n">
-        <v>5.716036364785134e-16</v>
+        <v>5.716036364718686e-16</v>
       </c>
     </row>
     <row r="4">
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.4971967248187</v>
+        <v>122.4971967346697</v>
       </c>
       <c r="C4" t="n">
-        <v>3.282809558204444e-31</v>
+        <v>3.282809524619583e-31</v>
       </c>
     </row>
     <row r="5">
@@ -5558,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01211351715912982</v>
+        <v>-1.211351715375843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07573542119630478</v>
+        <v>0.07573542133172458</v>
       </c>
     </row>
     <row r="6">
@@ -5571,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.803937229075835e-08</v>
+        <v>0.04803938519825213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9830940471546348</v>
+        <v>0.9830940426141317</v>
       </c>
     </row>
     <row r="7">
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.371977316383751</v>
+        <v>-8.371977316383635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005286452055902823</v>
+        <v>0.005286452055903413</v>
       </c>
     </row>
     <row r="8">
@@ -5597,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.436649027212992</v>
+        <v>8.436649027213072</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03151478615433234</v>
+        <v>0.03151478615433065</v>
       </c>
     </row>
     <row r="9">
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.5422774394858</v>
+        <v>1.635422774394852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7570948800640915</v>
+        <v>0.7570948800640939</v>
       </c>
     </row>
     <row r="10">
@@ -5623,10 +5623,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-490.3249542995013</v>
+        <v>-4.903249542995043</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2146476969018332</v>
+        <v>0.2146476969018312</v>
       </c>
     </row>
     <row r="11">
@@ -5636,10 +5636,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3982.496300153422</v>
+        <v>39.82496300153421</v>
       </c>
       <c r="C11" t="n">
-        <v>1.111263547927604e-05</v>
+        <v>1.111263547927588e-05</v>
       </c>
     </row>
     <row r="12">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.56599681386939</v>
+        <v>8.565996813869383</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4577722525991865</v>
+        <v>0.4577722525991872</v>
       </c>
     </row>
   </sheetData>
@@ -5698,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2523.091260656649</v>
+        <v>2523.091260790045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003182255327827362</v>
+        <v>0.003182255326174666</v>
       </c>
     </row>
     <row r="3">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.9146027028344</v>
+        <v>135.9146027174952</v>
       </c>
       <c r="C3" t="n">
-        <v>2.941953875805309e-11</v>
+        <v>2.94195387580157e-11</v>
       </c>
     </row>
     <row r="4">
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122.2126531785068</v>
+        <v>122.2126531665678</v>
       </c>
       <c r="C4" t="n">
-        <v>7.911350657141252e-30</v>
+        <v>7.911350754636786e-30</v>
       </c>
     </row>
     <row r="5">
@@ -5737,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.017037484407523</v>
+        <v>-1.703748441503066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0119863985729569</v>
+        <v>0.01198639853266684</v>
       </c>
     </row>
     <row r="6">
@@ -5750,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.861205803514526e-07</v>
+        <v>0.4861205924799776</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8411341052027901</v>
+        <v>0.8411341013042213</v>
       </c>
     </row>
     <row r="7">
@@ -5763,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.805483786351093</v>
+        <v>-9.80548378635115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001742105660067888</v>
+        <v>0.001742105660067771</v>
       </c>
     </row>
     <row r="8">
@@ -5776,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.156008703602389</v>
+        <v>6.156008703602417</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1296382499053988</v>
+        <v>0.1296382499053965</v>
       </c>
     </row>
     <row r="9">
@@ -5789,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-746.0163874845734</v>
+        <v>-7.4601638748459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1831168921692503</v>
+        <v>0.1831168921692398</v>
       </c>
     </row>
     <row r="10">
@@ -5802,10 +5802,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-713.9715797359936</v>
+        <v>-7.139715797359951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0789883412560527</v>
+        <v>0.07898834125605247</v>
       </c>
     </row>
     <row r="11">
@@ -5815,10 +5815,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4958.572604976822</v>
+        <v>49.58572604976808</v>
       </c>
       <c r="C11" t="n">
-        <v>1.854802716386868e-07</v>
+        <v>1.854802716387012e-07</v>
       </c>
     </row>
     <row r="12">
@@ -5828,10 +5828,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.61009842239656</v>
+        <v>18.61009842239637</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1109044885207314</v>
+        <v>0.1109044885207356</v>
       </c>
     </row>
   </sheetData>
@@ -5877,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2513.422771455135</v>
+        <v>2513.422770885164</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002443100215979955</v>
+        <v>0.002443100221618882</v>
       </c>
     </row>
     <row r="3">
@@ -5890,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.1525646750302</v>
+        <v>147.1525647091831</v>
       </c>
       <c r="C3" t="n">
-        <v>8.834372960446803e-12</v>
+        <v>8.834372960453977e-12</v>
       </c>
     </row>
     <row r="4">
@@ -5903,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.4208448186925</v>
+        <v>121.4208448023429</v>
       </c>
       <c r="C4" t="n">
-        <v>1.604940883776641e-28</v>
+        <v>1.60494090964841e-28</v>
       </c>
     </row>
     <row r="5">
@@ -5916,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01695650366304116</v>
+        <v>-1.695650365594687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009650192257932289</v>
+        <v>0.009650192290782808</v>
       </c>
     </row>
     <row r="6">
@@ -5929,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.861366785914103e-07</v>
+        <v>0.1861366951168488</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9341583446116898</v>
+        <v>0.9341583387845227</v>
       </c>
     </row>
     <row r="7">
@@ -5942,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.839711097903511</v>
+        <v>-8.83971109790366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003220200066158635</v>
+        <v>0.003220200066158092</v>
       </c>
     </row>
     <row r="8">
@@ -5955,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.87021457049675</v>
+        <v>10.87021457049667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006272659452293154</v>
+        <v>0.006272659452293551</v>
       </c>
     </row>
     <row r="9">
@@ -5968,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-360.8478668905079</v>
+        <v>-3.608478668905267</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4929750380909456</v>
+        <v>0.4929750380909216</v>
       </c>
     </row>
     <row r="10">
@@ -5981,10 +5981,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-640.8491267516392</v>
+        <v>-6.408491267516461</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1129469507112208</v>
+        <v>0.1129469507112166</v>
       </c>
     </row>
     <row r="11">
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3759.524634536677</v>
+        <v>37.59524634536638</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001132608502185326</v>
+        <v>0.0001132608502185486</v>
       </c>
     </row>
     <row r="12">
@@ -6007,10 +6007,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.71402535538596</v>
+        <v>11.71402535538543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3131347579179473</v>
+        <v>0.3131347579179696</v>
       </c>
     </row>
   </sheetData>
@@ -6056,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1943.789383035932</v>
+        <v>1943.789382464829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01104937892339019</v>
+        <v>0.01104937894741873</v>
       </c>
     </row>
     <row r="3">
@@ -6069,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.0802829555841</v>
+        <v>157.0802829564174</v>
       </c>
       <c r="C3" t="n">
-        <v>5.262415049384328e-16</v>
+        <v>5.262415049442919e-16</v>
       </c>
     </row>
     <row r="4">
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.2958693156246</v>
+        <v>113.2958693167949</v>
       </c>
       <c r="C4" t="n">
-        <v>3.436152432879294e-31</v>
+        <v>3.4361524284935e-31</v>
       </c>
     </row>
     <row r="5">
@@ -6095,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01250176781008326</v>
+        <v>-1.250176781007779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05530358813897</v>
+        <v>0.05530358813908783</v>
       </c>
     </row>
     <row r="6">
@@ -6108,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.961808188723714e-07</v>
+        <v>0.2961808139270601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9273049538117546</v>
+        <v>0.9273049550211095</v>
       </c>
     </row>
     <row r="7">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.971720528396752</v>
+        <v>-8.971720528396828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0028491431024784</v>
+        <v>0.00284914310247812</v>
       </c>
     </row>
     <row r="8">
@@ -6134,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.393756946337074</v>
+        <v>6.393756946336985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09073532401229056</v>
+        <v>0.09073532401229498</v>
       </c>
     </row>
     <row r="9">
@@ -6147,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-100.4242361748097</v>
+        <v>-1.004242361748092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8412919954313008</v>
+        <v>0.8412919954313024</v>
       </c>
     </row>
     <row r="10">
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-357.1333309205477</v>
+        <v>-3.571333309205478</v>
       </c>
       <c r="C10" t="n">
         <v>0.3490321952487527</v>
@@ -6173,10 +6173,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6355.83590645382</v>
+        <v>63.55835906453814</v>
       </c>
       <c r="C11" t="n">
-        <v>1.276091359672266e-11</v>
+        <v>1.276091359672335e-11</v>
       </c>
     </row>
     <row r="12">
@@ -6186,10 +6186,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.11646937393312</v>
+        <v>13.11646937393308</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2709878087817449</v>
+        <v>0.2709878087817459</v>
       </c>
     </row>
   </sheetData>
@@ -6235,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.694725146137</v>
+        <v>2149.694724904855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0283611097201672</v>
+        <v>0.02836110973837669</v>
       </c>
     </row>
     <row r="3">
@@ -6248,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.7363438575131</v>
+        <v>142.7363438602749</v>
       </c>
       <c r="C3" t="n">
-        <v>6.868203104830391e-12</v>
+        <v>6.868203104760221e-12</v>
       </c>
     </row>
     <row r="4">
@@ -6261,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.9714101971553</v>
+        <v>115.9714101914768</v>
       </c>
       <c r="C4" t="n">
-        <v>9.162716499366145e-26</v>
+        <v>9.162716546152622e-26</v>
       </c>
     </row>
     <row r="5">
@@ -6274,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01255390761948819</v>
+        <v>-1.255390761681696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07315397822074404</v>
+        <v>0.07315397828520787</v>
       </c>
     </row>
     <row r="6">
@@ -6287,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.549821528185152e-08</v>
+        <v>-0.06549823629957086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9785425359863272</v>
+        <v>0.9785425291002734</v>
       </c>
     </row>
     <row r="7">
@@ -6303,7 +6303,7 @@
         <v>-10.34274018181894</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001521659830127582</v>
+        <v>0.001521659830127566</v>
       </c>
     </row>
     <row r="8">
@@ -6313,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.801642555924296</v>
+        <v>9.801642555924172</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07015504551855271</v>
+        <v>0.0701550455185561</v>
       </c>
     </row>
     <row r="9">
@@ -6326,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.6913907670596</v>
+        <v>0.2069139076704438</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9707731033022036</v>
+        <v>0.9707731033022251</v>
       </c>
     </row>
     <row r="10">
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-641.988984128037</v>
+        <v>-6.419889841280453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09685520492404731</v>
+        <v>0.09685520492404352</v>
       </c>
     </row>
     <row r="11">
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4829.465660026919</v>
+        <v>48.29465660026915</v>
       </c>
       <c r="C11" t="n">
-        <v>2.571641786092057e-07</v>
+        <v>2.571641786092099e-07</v>
       </c>
     </row>
     <row r="12">
@@ -6365,10 +6365,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.44368905897728</v>
+        <v>17.44368905897704</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1378307492240886</v>
+        <v>0.1378307492240933</v>
       </c>
     </row>
   </sheetData>
@@ -6414,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2170.703181316321</v>
+        <v>2170.703181389168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008948057838510635</v>
+        <v>0.008948057836153364</v>
       </c>
     </row>
     <row r="3">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8809977306112</v>
+        <v>157.8809977226628</v>
       </c>
       <c r="C3" t="n">
-        <v>8.40608698535929e-14</v>
+        <v>8.406086985508422e-14</v>
       </c>
     </row>
     <row r="4">
@@ -6440,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.0604911275372</v>
+        <v>116.06049111872</v>
       </c>
       <c r="C4" t="n">
-        <v>9.45529024035306e-30</v>
+        <v>9.455290323985925e-30</v>
       </c>
     </row>
     <row r="5">
@@ -6453,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01847499222690093</v>
+        <v>-1.847499221670943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006371493254473962</v>
+        <v>0.006371493285458125</v>
       </c>
     </row>
     <row r="6">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.545848934121246e-06</v>
+        <v>1.5458489254488</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5090517161710556</v>
+        <v>0.5090517185233612</v>
       </c>
     </row>
     <row r="7">
@@ -6479,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.351984990230296</v>
+        <v>-7.351984990230362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01763494490057767</v>
+        <v>0.0176349449005766</v>
       </c>
     </row>
     <row r="8">
@@ -6492,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.903399873070398</v>
+        <v>8.903399873070185</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02705646229888728</v>
+        <v>0.02705646229889102</v>
       </c>
     </row>
     <row r="9">
@@ -6505,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-38.11133617181372</v>
+        <v>-0.3811133617181355</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9424705206860668</v>
+        <v>0.9424705206860673</v>
       </c>
     </row>
     <row r="10">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-108.8112342876774</v>
+        <v>-1.088112342876699</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7862237521716801</v>
+        <v>0.7862237521716945</v>
       </c>
     </row>
     <row r="11">
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5415.804636972656</v>
+        <v>54.15804636972621</v>
       </c>
       <c r="C11" t="n">
-        <v>5.108436084895853e-08</v>
+        <v>5.108436084896787e-08</v>
       </c>
     </row>
     <row r="12">
@@ -6544,10 +6544,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.234645601585825</v>
+        <v>4.234645601585447</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7249492671856907</v>
+        <v>0.7249492671857144</v>
       </c>
     </row>
   </sheetData>
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1906.263733514588</v>
+        <v>1906.263732637159</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02171112278143658</v>
+        <v>0.0217111228432274</v>
       </c>
     </row>
     <row r="3">
@@ -6606,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.8215081685044</v>
+        <v>166.8215081841872</v>
       </c>
       <c r="C3" t="n">
-        <v>2.832031944210997e-14</v>
+        <v>2.832031944160294e-14</v>
       </c>
     </row>
     <row r="4">
@@ -6619,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.1205196212258</v>
+        <v>112.1205196247074</v>
       </c>
       <c r="C4" t="n">
-        <v>5.219994766015588e-28</v>
+        <v>5.21999474795829e-28</v>
       </c>
     </row>
     <row r="5">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01368624868011541</v>
+        <v>-1.368624867844181</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04984403521625681</v>
+        <v>0.04984403524546661</v>
       </c>
     </row>
     <row r="6">
@@ -6645,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.644870197705041e-07</v>
+        <v>-0.6644870058673025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.786070291987166</v>
+        <v>0.7860702963700523</v>
       </c>
     </row>
     <row r="7">
@@ -6658,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.372916805912272</v>
+        <v>-7.372916805912203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0163293264370662</v>
+        <v>0.01632932643706707</v>
       </c>
     </row>
     <row r="8">
@@ -6671,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.56530715586304</v>
+        <v>10.56530715586308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007675039219048994</v>
+        <v>0.007675039219048669</v>
       </c>
     </row>
     <row r="9">
@@ -6684,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.65333555513962</v>
+        <v>0.6465333555511421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9076038045862594</v>
+        <v>0.9076038045862957</v>
       </c>
     </row>
     <row r="10">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-598.8437654989416</v>
+        <v>-5.988437654989546</v>
       </c>
       <c r="C10" t="n">
-        <v>0.145547218751222</v>
+        <v>0.1455472187512138</v>
       </c>
     </row>
     <row r="11">
@@ -6710,10 +6710,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4424.588095432899</v>
+        <v>44.24588095432901</v>
       </c>
       <c r="C11" t="n">
-        <v>3.461558648855769e-06</v>
+        <v>3.46155864885573e-06</v>
       </c>
     </row>
     <row r="12">
@@ -6723,10 +6723,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.31619668275218</v>
+        <v>17.31619668275255</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1506461621316156</v>
+        <v>0.1506461621316064</v>
       </c>
     </row>
   </sheetData>
@@ -6772,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2572.894684468254</v>
+        <v>2572.894685076543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003952143718699233</v>
+        <v>0.003952143709677237</v>
       </c>
     </row>
     <row r="3">
@@ -6785,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.6632058202395</v>
+        <v>142.6632058533843</v>
       </c>
       <c r="C3" t="n">
-        <v>1.390116600865227e-11</v>
+        <v>1.390116600859513e-11</v>
       </c>
     </row>
     <row r="4">
@@ -6798,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.5110867935185</v>
+        <v>115.5110867647691</v>
       </c>
       <c r="C4" t="n">
-        <v>1.85683491493076e-24</v>
+        <v>1.85683495970337e-24</v>
       </c>
     </row>
     <row r="5">
@@ -6811,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01558346596829854</v>
+        <v>-1.558346596867274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01958360383735151</v>
+        <v>0.01958360383420438</v>
       </c>
     </row>
     <row r="6">
@@ -6824,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.611312927975056e-08</v>
+        <v>-0.02611315213839926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9910578766594386</v>
+        <v>0.991057868830916</v>
       </c>
     </row>
     <row r="7">
@@ -6837,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.432276465911739</v>
+        <v>-8.432276465911769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007193013051854596</v>
+        <v>0.007193013051854259</v>
       </c>
     </row>
     <row r="8">
@@ -6850,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.669274074257554</v>
+        <v>7.669274074257524</v>
       </c>
       <c r="C8" t="n">
-        <v>0.069116486126562</v>
+        <v>0.06911648612656314</v>
       </c>
     </row>
     <row r="9">
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-360.9459573164661</v>
+        <v>-3.609459573164752</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5143062424703873</v>
+        <v>0.514306242470376</v>
       </c>
     </row>
     <row r="10">
@@ -6876,10 +6876,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-558.6915935622328</v>
+        <v>-5.586915935622333</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1541553718630614</v>
+        <v>0.1541553718630608</v>
       </c>
     </row>
     <row r="11">
@@ -6889,10 +6889,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4666.856764754583</v>
+        <v>46.66856764754561</v>
       </c>
       <c r="C11" t="n">
-        <v>1.659997286656894e-06</v>
+        <v>1.659997286657029e-06</v>
       </c>
     </row>
     <row r="12">
@@ -6902,10 +6902,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.47235952710406</v>
+        <v>10.47235952710356</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3874653304739264</v>
+        <v>0.3874653304739496</v>
       </c>
     </row>
   </sheetData>
@@ -6951,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2669.13742787807</v>
+        <v>2669.137427380518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005486569890045267</v>
+        <v>0.0005486569903475674</v>
       </c>
     </row>
     <row r="3">
@@ -6964,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.5452348190009</v>
+        <v>151.5452348435832</v>
       </c>
       <c r="C3" t="n">
-        <v>5.966739993391564e-15</v>
+        <v>5.966739993466859e-15</v>
       </c>
     </row>
     <row r="4">
@@ -6977,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.3392784777739</v>
+        <v>108.3392784578354</v>
       </c>
       <c r="C4" t="n">
-        <v>4.780878207972153e-29</v>
+        <v>4.78087831268602e-29</v>
       </c>
     </row>
     <row r="5">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01703356724580372</v>
+        <v>-1.703356721050754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007885434028668968</v>
+        <v>0.007885434163280232</v>
       </c>
     </row>
     <row r="6">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.047691177804001e-06</v>
+        <v>2.047691161275818</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3735051646496725</v>
+        <v>0.3735051684736581</v>
       </c>
     </row>
     <row r="7">
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.907042895769907</v>
+        <v>-8.907042895770015</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002092972870166161</v>
+        <v>0.002092972870165887</v>
       </c>
     </row>
     <row r="8">
@@ -7029,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.164996113832284</v>
+        <v>9.164996113832085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01402611828361523</v>
+        <v>0.01402611828361735</v>
       </c>
     </row>
     <row r="9">
@@ -7042,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>188.8610454455697</v>
+        <v>1.888610454455822</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7239458499769861</v>
+        <v>0.7239458499769693</v>
       </c>
     </row>
     <row r="10">
@@ -7055,10 +7055,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-151.7013253903103</v>
+        <v>-1.517013253903158</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6882936447977954</v>
+        <v>0.6882936447977845</v>
       </c>
     </row>
     <row r="11">
@@ -7068,10 +7068,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5619.759527545981</v>
+        <v>56.19759527545962</v>
       </c>
       <c r="C11" t="n">
-        <v>2.961621087797586e-10</v>
+        <v>2.961621087797996e-10</v>
       </c>
     </row>
     <row r="12">
@@ -7081,10 +7081,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.199981312836684</v>
+        <v>-3.199981312837153</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7760132274625864</v>
+        <v>0.7760132274625546</v>
       </c>
     </row>
   </sheetData>
@@ -7130,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2090.771668393856</v>
+        <v>2090.771668010571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01008685795649145</v>
+        <v>0.01008685797055324</v>
       </c>
     </row>
     <row r="3">
@@ -7143,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.4397392308562</v>
+        <v>141.4397392297996</v>
       </c>
       <c r="C3" t="n">
-        <v>8.848779289271104e-12</v>
+        <v>8.848779289298989e-12</v>
       </c>
     </row>
     <row r="4">
@@ -7156,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.172512559979</v>
+        <v>119.1725125774247</v>
       </c>
       <c r="C4" t="n">
-        <v>2.251352019165009e-30</v>
+        <v>2.251351976813435e-30</v>
       </c>
     </row>
     <row r="5">
@@ -7169,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01336511034490025</v>
+        <v>-1.336511035410529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05124799232371944</v>
+        <v>0.05124799215282173</v>
       </c>
     </row>
     <row r="6">
@@ -7182,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.838692348103107e-07</v>
+        <v>-0.183869246886498</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9378272697030078</v>
+        <v>0.9378272656221013</v>
       </c>
     </row>
     <row r="7">
@@ -7195,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.64566883406774</v>
+        <v>-10.64566883406782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004478614840279058</v>
+        <v>0.0004478614840278613</v>
       </c>
     </row>
     <row r="8">
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.213106560612498</v>
+        <v>6.213106560612422</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1083516868076799</v>
+        <v>0.1083516868076843</v>
       </c>
     </row>
     <row r="9">
@@ -7221,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-149.4379770724413</v>
+        <v>-1.494379770724585</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7750109653581045</v>
+        <v>0.775010965358079</v>
       </c>
     </row>
     <row r="10">
@@ -7234,10 +7234,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-692.5661604828431</v>
+        <v>-6.925661604828464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08535183203331066</v>
+        <v>0.08535183203330923</v>
       </c>
     </row>
     <row r="11">
@@ -7247,10 +7247,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4598.439453465661</v>
+        <v>45.98439453465641</v>
       </c>
       <c r="C11" t="n">
-        <v>5.557335158740569e-07</v>
+        <v>5.557335158741039e-07</v>
       </c>
     </row>
     <row r="12">
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.48755148676266</v>
+        <v>27.48755148676229</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02224025732521581</v>
+        <v>0.02224025732521759</v>
       </c>
     </row>
   </sheetData>
@@ -7309,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1367.865689069404</v>
+        <v>1367.865688912107</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1308006858364717</v>
+        <v>0.1308006858807678</v>
       </c>
     </row>
     <row r="3">
@@ -7322,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.4901787678235</v>
+        <v>135.4901787788901</v>
       </c>
       <c r="C3" t="n">
-        <v>3.258643009465419e-11</v>
+        <v>3.258643009448939e-11</v>
       </c>
     </row>
     <row r="4">
@@ -7335,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.5914117543541</v>
+        <v>124.5914117391325</v>
       </c>
       <c r="C4" t="n">
-        <v>1.645868065179295e-30</v>
+        <v>1.645868091534738e-30</v>
       </c>
     </row>
     <row r="5">
@@ -7348,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01211022386515491</v>
+        <v>-1.211022386302194</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07557276223981529</v>
+        <v>0.07557276229387762</v>
       </c>
     </row>
     <row r="6">
@@ -7361,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.898778135615267e-06</v>
+        <v>-1.898778123402928</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5658523045615751</v>
+        <v>0.5658523070847614</v>
       </c>
     </row>
     <row r="7">
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.130110882435553</v>
+        <v>-7.130110882435598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02375475063398492</v>
+        <v>0.02375475063398385</v>
       </c>
     </row>
     <row r="8">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.689590325392</v>
+        <v>16.68959032539193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001080067961879405</v>
+        <v>0.001080067961879451</v>
       </c>
     </row>
     <row r="9">
@@ -7400,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-97.46542905041088</v>
+        <v>-0.9746542905043878</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8528326372753795</v>
+        <v>0.8528326372753383</v>
       </c>
     </row>
     <row r="10">
@@ -7413,10 +7413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-731.3848669790818</v>
+        <v>-7.313848669790977</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07795340191042031</v>
+        <v>0.07795340191041425</v>
       </c>
     </row>
     <row r="11">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4124.77791708198</v>
+        <v>41.24777917081983</v>
       </c>
       <c r="C11" t="n">
-        <v>1.001379990529249e-05</v>
+        <v>1.00137999052927e-05</v>
       </c>
     </row>
     <row r="12">
@@ -7439,10 +7439,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.29993917837474</v>
+        <v>20.29993917837496</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0785517560349217</v>
+        <v>0.07855175603491818</v>
       </c>
     </row>
   </sheetData>
@@ -7488,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1998.317271559384</v>
+        <v>1998.317271930942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01742932309520202</v>
+        <v>0.01742932307418963</v>
       </c>
     </row>
     <row r="3">
@@ -7501,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.2060261366573</v>
+        <v>172.2060261886325</v>
       </c>
       <c r="C3" t="n">
-        <v>6.459933309914264e-15</v>
+        <v>6.459933309871987e-15</v>
       </c>
     </row>
     <row r="4">
@@ -7514,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117.2085039678467</v>
+        <v>117.2085039671207</v>
       </c>
       <c r="C4" t="n">
-        <v>3.083732711492859e-29</v>
+        <v>3.083732713723016e-29</v>
       </c>
     </row>
     <row r="5">
@@ -7527,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01518639898229644</v>
+        <v>-1.518639897763502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02999694387626485</v>
+        <v>0.02999694392914536</v>
       </c>
     </row>
     <row r="6">
@@ -7540,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.514589087512083e-07</v>
+        <v>-0.5514589114951076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8234523738174149</v>
+        <v>0.8234523729486469</v>
       </c>
     </row>
     <row r="7">
@@ -7553,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.68166577852254</v>
+        <v>-9.681665778522428</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002326882962092036</v>
+        <v>0.002326882962092242</v>
       </c>
     </row>
     <row r="8">
@@ -7566,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.231517981056193</v>
+        <v>6.231517981056162</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1299573628183323</v>
+        <v>0.1299573628183336</v>
       </c>
     </row>
     <row r="9">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-657.0843513704228</v>
+        <v>-6.570843513704698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2408744358655333</v>
+        <v>0.2408744358655017</v>
       </c>
     </row>
     <row r="10">
@@ -7592,10 +7592,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-811.4618122254192</v>
+        <v>-8.114618122254345</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04306950713025384</v>
+        <v>0.04306950713025003</v>
       </c>
     </row>
     <row r="11">
@@ -7605,10 +7605,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5573.677280226788</v>
+        <v>55.73677280226774</v>
       </c>
       <c r="C11" t="n">
-        <v>6.409750372067478e-08</v>
+        <v>6.409750372067816e-08</v>
       </c>
     </row>
     <row r="12">
@@ -7618,10 +7618,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.61831563562969</v>
+        <v>24.61831563562979</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03758746839603978</v>
+        <v>0.03758746839603891</v>
       </c>
     </row>
   </sheetData>
@@ -7667,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2691.054149021194</v>
+        <v>2691.054148860243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001114617372143021</v>
+        <v>0.00111461737290644</v>
       </c>
     </row>
     <row r="3">
@@ -7680,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.7727099330764</v>
+        <v>159.7727099391617</v>
       </c>
       <c r="C3" t="n">
-        <v>9.507642225530483e-16</v>
+        <v>9.507642225747258e-16</v>
       </c>
     </row>
     <row r="4">
@@ -7693,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.5008220077321</v>
+        <v>110.5008219810463</v>
       </c>
       <c r="C4" t="n">
-        <v>3.440765199538605e-27</v>
+        <v>3.440765295671209e-27</v>
       </c>
     </row>
     <row r="5">
@@ -7706,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01496397996249039</v>
+        <v>-1.496397995267796</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02814277234345422</v>
+        <v>0.02814277245167509</v>
       </c>
     </row>
     <row r="6">
@@ -7719,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.41335509546484e-06</v>
+        <v>2.413355054831887</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3272458938891301</v>
+        <v>0.3272459019689956</v>
       </c>
     </row>
     <row r="7">
@@ -7735,7 +7735,7 @@
         <v>-10.69962520000253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003168889786239808</v>
+        <v>0.0003168889786239771</v>
       </c>
     </row>
     <row r="8">
@@ -7745,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.755929797068461</v>
+        <v>5.755929797068504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1436446583199602</v>
+        <v>0.1436446583199564</v>
       </c>
     </row>
     <row r="9">
@@ -7758,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-357.707293730354</v>
+        <v>-3.577072937303594</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5133320850200753</v>
+        <v>0.513332085020069</v>
       </c>
     </row>
     <row r="10">
@@ -7771,10 +7771,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-891.3160374270292</v>
+        <v>-8.913160374270236</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01685184699455028</v>
+        <v>0.01685184699455089</v>
       </c>
     </row>
     <row r="11">
@@ -7784,10 +7784,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5092.640163489417</v>
+        <v>50.92640163489425</v>
       </c>
       <c r="C11" t="n">
-        <v>3.29819560631542e-08</v>
+        <v>3.298195606315365e-08</v>
       </c>
     </row>
     <row r="12">
@@ -7797,10 +7797,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.3738198469737</v>
+        <v>16.37381984697355</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1476895282368727</v>
+        <v>0.1476895282368764</v>
       </c>
     </row>
   </sheetData>
@@ -7846,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2849.251354318805</v>
+        <v>2849.251354293961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008183616931644321</v>
+        <v>0.0008183616932589759</v>
       </c>
     </row>
     <row r="3">
@@ -7859,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.0454826844412</v>
+        <v>119.0454826802997</v>
       </c>
       <c r="C3" t="n">
-        <v>1.75049417898007e-08</v>
+        <v>1.750494178981869e-08</v>
       </c>
     </row>
     <row r="4">
@@ -7872,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.7238925743204</v>
+        <v>121.7238925520922</v>
       </c>
       <c r="C4" t="n">
-        <v>3.848505306884382e-32</v>
+        <v>3.84850539430106e-32</v>
       </c>
     </row>
     <row r="5">
@@ -7885,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01662801459611085</v>
+        <v>-1.662801458496838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01074555713630937</v>
+        <v>0.01074555719331117</v>
       </c>
     </row>
     <row r="6">
@@ -7898,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.528870315804468e-07</v>
+        <v>0.3528870095998338</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8744340640009259</v>
+        <v>0.8744340717390147</v>
       </c>
     </row>
     <row r="7">
@@ -7911,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.773207925762723</v>
+        <v>-8.7732079257627</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003797702104825332</v>
+        <v>0.003797702104825371</v>
       </c>
     </row>
     <row r="8">
@@ -7924,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.429888463424017</v>
+        <v>9.429888463424021</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01899900147431557</v>
+        <v>0.01899900147431552</v>
       </c>
     </row>
     <row r="9">
@@ -7937,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>269.8138883179136</v>
+        <v>2.698138883179066</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6176009466017187</v>
+        <v>0.6176009466017275</v>
       </c>
     </row>
     <row r="10">
@@ -7950,10 +7950,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.19406813383682</v>
+        <v>-0.1319406813383868</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9747049859158643</v>
+        <v>0.9747049859158607</v>
       </c>
     </row>
     <row r="11">
@@ -7963,10 +7963,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5021.29707563223</v>
+        <v>50.21297075632237</v>
       </c>
       <c r="C11" t="n">
-        <v>9.423156418488719e-07</v>
+        <v>9.423156418488271e-07</v>
       </c>
     </row>
     <row r="12">
@@ -7976,10 +7976,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-8.605884420314517</v>
+        <v>-8.605884420314503</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4836892618082897</v>
+        <v>0.4836892618082907</v>
       </c>
     </row>
   </sheetData>
@@ -8025,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2322.130403724902</v>
+        <v>2322.130403980572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00559309783914744</v>
+        <v>0.005593097833790989</v>
       </c>
     </row>
     <row r="3">
@@ -8038,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.7961808666668</v>
+        <v>156.7961808338741</v>
       </c>
       <c r="C3" t="n">
-        <v>6.454159617105335e-14</v>
+        <v>6.454159617140021e-14</v>
       </c>
     </row>
     <row r="4">
@@ -8051,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.120104558532</v>
+        <v>115.1201045594556</v>
       </c>
       <c r="C4" t="n">
-        <v>6.96354196035763e-28</v>
+        <v>6.963541954023434e-28</v>
       </c>
     </row>
     <row r="5">
@@ -8064,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01674020813076836</v>
+        <v>-1.674020814469901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01412590422807946</v>
+        <v>0.01412590414291278</v>
       </c>
     </row>
     <row r="6">
@@ -8077,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.131325876060038e-06</v>
+        <v>-1.13132587601859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6411115764038207</v>
+        <v>0.6411115764162492</v>
       </c>
     </row>
     <row r="7">
@@ -8090,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.41634713444842</v>
+        <v>-8.416347134448509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006825556038020105</v>
+        <v>0.006825556038019489</v>
       </c>
     </row>
     <row r="8">
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.556874219868057</v>
+        <v>6.556874219868018</v>
       </c>
       <c r="C8" t="n">
-        <v>0.110640621787004</v>
+        <v>0.1106406217870056</v>
       </c>
     </row>
     <row r="9">
@@ -8116,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-307.9601636894324</v>
+        <v>-3.079601636894651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5634723505120897</v>
+        <v>0.5634723505120502</v>
       </c>
     </row>
     <row r="10">
@@ -8129,10 +8129,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-603.3434068240862</v>
+        <v>-6.033434068241064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.137498394770215</v>
+        <v>0.1374983947702026</v>
       </c>
     </row>
     <row r="11">
@@ -8142,10 +8142,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4723.875013504117</v>
+        <v>47.2387501350409</v>
       </c>
       <c r="C11" t="n">
-        <v>4.565180977495277e-07</v>
+        <v>4.565180977495755e-07</v>
       </c>
     </row>
     <row r="12">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.06824910731429</v>
+        <v>19.06824910731435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09796790858263636</v>
+        <v>0.09796790858263507</v>
       </c>
     </row>
   </sheetData>
@@ -8204,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1875.03240973735</v>
+        <v>1875.032409266465</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02109061114242313</v>
+        <v>0.02109061117546241</v>
       </c>
     </row>
     <row r="3">
@@ -8217,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.9690729287579</v>
+        <v>156.9690729275745</v>
       </c>
       <c r="C3" t="n">
-        <v>1.305150405467164e-14</v>
+        <v>1.305150405508849e-14</v>
       </c>
     </row>
     <row r="4">
@@ -8230,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.6665409831747</v>
+        <v>115.6665409838956</v>
       </c>
       <c r="C4" t="n">
-        <v>1.025883649904019e-27</v>
+        <v>1.025883649164123e-27</v>
       </c>
     </row>
     <row r="5">
@@ -8243,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01239836436321541</v>
+        <v>-1.23983643713906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06680330790256594</v>
+        <v>0.06680330771440987</v>
       </c>
     </row>
     <row r="6">
@@ -8256,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.648092088665569e-08</v>
+        <v>-0.03648094493243415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9873966445113357</v>
+        <v>0.9873966362034955</v>
       </c>
     </row>
     <row r="7">
@@ -8269,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.84791292932242</v>
+        <v>-10.8479129293225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003477698163720769</v>
+        <v>0.0003477698163720417</v>
       </c>
     </row>
     <row r="8">
@@ -8282,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.150079101543084</v>
+        <v>7.150079101543121</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07273443093360103</v>
+        <v>0.07273443093359973</v>
       </c>
     </row>
     <row r="9">
@@ -8295,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-69.10161409378009</v>
+        <v>-0.6910161409380091</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8989791114236536</v>
+        <v>0.8989791114236239</v>
       </c>
     </row>
     <row r="10">
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-560.9900630512782</v>
+        <v>-5.609900630512868</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1594036971568178</v>
+        <v>0.1594036971568123</v>
       </c>
     </row>
     <row r="11">
@@ -8321,10 +8321,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5130.801471979546</v>
+        <v>51.30801471979522</v>
       </c>
       <c r="C11" t="n">
-        <v>4.416185800739705e-08</v>
+        <v>4.416185800740375e-08</v>
       </c>
     </row>
     <row r="12">
@@ -8334,10 +8334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.7586722567957</v>
+        <v>25.75867225679582</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02714668631754653</v>
+        <v>0.0271466863175458</v>
       </c>
     </row>
   </sheetData>
@@ -8383,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2701.973256155619</v>
+        <v>2701.973255430058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00107850030722591</v>
+        <v>0.001078500310664512</v>
       </c>
     </row>
     <row r="3">
@@ -8396,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.1451618526642</v>
+        <v>145.1451618836145</v>
       </c>
       <c r="C3" t="n">
-        <v>6.708449636292414e-12</v>
+        <v>6.708449636197514e-12</v>
       </c>
     </row>
     <row r="4">
@@ -8409,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111.8196616473562</v>
+        <v>111.8196616196523</v>
       </c>
       <c r="C4" t="n">
-        <v>1.052109635164609e-26</v>
+        <v>1.052109664273303e-26</v>
       </c>
     </row>
     <row r="5">
@@ -8422,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01154820417345927</v>
+        <v>-1.15482041705872</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08606198304470244</v>
+        <v>0.08606198312596101</v>
       </c>
     </row>
     <row r="6">
@@ -8435,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.905960037743549e-07</v>
+        <v>-0.190596019281243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9364438108440367</v>
+        <v>0.9364438056782773</v>
       </c>
     </row>
     <row r="7">
@@ -8448,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.91434304808549</v>
+        <v>-10.91434304808536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000547550397310706</v>
+        <v>0.0005475503973107913</v>
       </c>
     </row>
     <row r="8">
@@ -8461,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.517810355095847</v>
+        <v>9.517810355095868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01499308691868947</v>
+        <v>0.01499308691868941</v>
       </c>
     </row>
     <row r="9">
@@ -8474,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-24.88162933185038</v>
+        <v>-0.2488162933185762</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9668362182956427</v>
+        <v>0.9668362182956329</v>
       </c>
     </row>
     <row r="10">
@@ -8487,10 +8487,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-681.3170532256058</v>
+        <v>-6.813170532256079</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08984897417935098</v>
+        <v>0.08984897417934963</v>
       </c>
     </row>
     <row r="11">
@@ -8500,10 +8500,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4556.132815288422</v>
+        <v>45.56132815288406</v>
       </c>
       <c r="C11" t="n">
-        <v>1.913374688259525e-06</v>
+        <v>1.913374688259648e-06</v>
       </c>
     </row>
     <row r="12">
@@ -8513,10 +8513,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.01641991037344</v>
+        <v>10.01641991037346</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4011683268927908</v>
+        <v>0.4011683268927888</v>
       </c>
     </row>
   </sheetData>
@@ -8562,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1371.198808622434</v>
+        <v>1371.198809528574</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1122240430665162</v>
+        <v>0.1122240428287129</v>
       </c>
     </row>
     <row r="3">
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.1379769375638</v>
+        <v>150.1379769516024</v>
       </c>
       <c r="C3" t="n">
-        <v>4.07150336920063e-12</v>
+        <v>4.071503369212967e-12</v>
       </c>
     </row>
     <row r="4">
@@ -8588,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.0205957035692</v>
+        <v>120.0205956503277</v>
       </c>
       <c r="C4" t="n">
-        <v>1.254462311809856e-28</v>
+        <v>1.2544623761835e-28</v>
       </c>
     </row>
     <row r="5">
@@ -8601,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01156037994298228</v>
+        <v>-1.156037994004601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08928913618382052</v>
+        <v>0.08928913626840106</v>
       </c>
     </row>
     <row r="6">
@@ -8614,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.629171160538566e-06</v>
+        <v>-1.629171203294973</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6285252868181214</v>
+        <v>0.6285252777597005</v>
       </c>
     </row>
     <row r="7">
@@ -8627,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.700340608954765</v>
+        <v>-6.700340608954777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03914001619495409</v>
+        <v>0.03914001619495373</v>
       </c>
     </row>
     <row r="8">
@@ -8640,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.45308423714742</v>
+        <v>15.4530842371473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008179958301338502</v>
+        <v>0.0008179958301339236</v>
       </c>
     </row>
     <row r="9">
@@ -8653,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-516.1409375141058</v>
+        <v>-5.161409375141169</v>
       </c>
       <c r="C9" t="n">
-        <v>0.330748672304649</v>
+        <v>0.3307486723046379</v>
       </c>
     </row>
     <row r="10">
@@ -8666,10 +8666,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-808.0536491704886</v>
+        <v>-8.080536491704898</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03964598716388863</v>
+        <v>0.03964598716388856</v>
       </c>
     </row>
     <row r="11">
@@ -8679,10 +8679,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4533.239557932206</v>
+        <v>45.33239557932206</v>
       </c>
       <c r="C11" t="n">
-        <v>1.101252246992276e-06</v>
+        <v>1.101252246992268e-06</v>
       </c>
     </row>
     <row r="12">
@@ -8692,10 +8692,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.36225657576547</v>
+        <v>21.36225657576558</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0762169125410137</v>
+        <v>0.07621691254101273</v>
       </c>
     </row>
   </sheetData>
@@ -8741,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1611.689444979132</v>
+        <v>1611.689445176007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05290943132758994</v>
+        <v>0.05290943129857888</v>
       </c>
     </row>
     <row r="3">
@@ -8754,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.850779467533</v>
+        <v>150.8507794411518</v>
       </c>
       <c r="C3" t="n">
-        <v>3.347176391063609e-12</v>
+        <v>3.347176391001548e-12</v>
       </c>
     </row>
     <row r="4">
@@ -8767,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.647091296724</v>
+        <v>115.6470912955237</v>
       </c>
       <c r="C4" t="n">
-        <v>3.052852088796766e-31</v>
+        <v>3.052852092672604e-31</v>
       </c>
     </row>
     <row r="5">
@@ -8780,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01498260351574632</v>
+        <v>-1.498260352416339</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02111024771505089</v>
+        <v>0.02111024763928942</v>
       </c>
     </row>
     <row r="6">
@@ -8793,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.541817678917187e-06</v>
+        <v>2.541817676181359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4771643926597957</v>
+        <v>0.4771643931340611</v>
       </c>
     </row>
     <row r="7">
@@ -8806,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.466238103890314</v>
+        <v>-5.466238103890338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07179811273695805</v>
+        <v>0.07179811273695726</v>
       </c>
     </row>
     <row r="8">
@@ -8819,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.70809888885523</v>
+        <v>14.70809888885513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001020945478100942</v>
+        <v>0.001020945478101036</v>
       </c>
     </row>
     <row r="9">
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>286.5295531279312</v>
+        <v>2.865295531279259</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5852727244626452</v>
+        <v>0.5852727244626523</v>
       </c>
     </row>
     <row r="10">
@@ -8845,10 +8845,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-381.069348768252</v>
+        <v>-3.810693487682549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3276299737532339</v>
+        <v>0.3276299737532309</v>
       </c>
     </row>
     <row r="11">
@@ -8858,10 +8858,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5772.916942759254</v>
+        <v>57.72916942759263</v>
       </c>
       <c r="C11" t="n">
-        <v>2.655392749583266e-10</v>
+        <v>2.655392749583179e-10</v>
       </c>
     </row>
     <row r="12">
@@ -8871,10 +8871,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.91291814913464</v>
+        <v>1.912918149134953</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8735690999343493</v>
+        <v>0.873569099934329</v>
       </c>
     </row>
   </sheetData>
@@ -8920,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2076.162295913332</v>
+        <v>2076.162295536363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01332282174594332</v>
+        <v>0.01332282176293218</v>
       </c>
     </row>
     <row r="3">
@@ -8933,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.6382673045464</v>
+        <v>156.638267305703</v>
       </c>
       <c r="C3" t="n">
-        <v>1.489772833592608e-14</v>
+        <v>1.489772833590386e-14</v>
       </c>
     </row>
     <row r="4">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.4430446075438</v>
+        <v>121.4430446144172</v>
       </c>
       <c r="C4" t="n">
-        <v>6.927558768943063e-28</v>
+        <v>6.927558722346561e-28</v>
       </c>
     </row>
     <row r="5">
@@ -8959,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01356633493381301</v>
+        <v>-1.356633493630914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04365045096579442</v>
+        <v>0.04365045092522477</v>
       </c>
     </row>
     <row r="6">
@@ -8972,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.316873754354988e-09</v>
+        <v>0.003316873229258555</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9988544966900237</v>
+        <v>0.9988544968713409</v>
       </c>
     </row>
     <row r="7">
@@ -8985,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.658971654128241</v>
+        <v>-9.658971654128136</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001299872001732689</v>
+        <v>0.001299872001732803</v>
       </c>
     </row>
     <row r="8">
@@ -8998,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.258408032079259</v>
+        <v>6.258408032079426</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1154657946697902</v>
+        <v>0.1154657946697799</v>
       </c>
     </row>
     <row r="9">
@@ -9011,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-580.1405287253604</v>
+        <v>-5.801405287253671</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2725015398644156</v>
+        <v>0.2725015398644106</v>
       </c>
     </row>
     <row r="10">
@@ -9024,10 +9024,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-756.2208531480223</v>
+        <v>-7.562208531480284</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05481447831572497</v>
+        <v>0.05481447831572266</v>
       </c>
     </row>
     <row r="11">
@@ -9037,10 +9037,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4875.75459112821</v>
+        <v>48.757545911282</v>
       </c>
       <c r="C11" t="n">
-        <v>2.811524916826098e-07</v>
+        <v>2.811524916826201e-07</v>
       </c>
     </row>
     <row r="12">
@@ -9050,10 +9050,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25.10087160554938</v>
+        <v>25.10087160554853</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02967611966610121</v>
+        <v>0.02967611966610698</v>
       </c>
     </row>
   </sheetData>
@@ -9099,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2582.204574228125</v>
+        <v>2582.204573832325</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001562851918298207</v>
+        <v>0.001562851920987925</v>
       </c>
     </row>
     <row r="3">
@@ -9112,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.1610562530067</v>
+        <v>148.1610562932393</v>
       </c>
       <c r="C3" t="n">
-        <v>1.086013159750414e-12</v>
+        <v>1.086013159759422e-12</v>
       </c>
     </row>
     <row r="4">
@@ -9125,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.9121809010045</v>
+        <v>116.9121809041213</v>
       </c>
       <c r="C4" t="n">
-        <v>6.787144460024887e-31</v>
+        <v>6.787144437905063e-31</v>
       </c>
     </row>
     <row r="5">
@@ -9138,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01212713116315846</v>
+        <v>-1.212713116131128</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07194349866306823</v>
+        <v>0.07194349870857292</v>
       </c>
     </row>
     <row r="6">
@@ -9151,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.800057061824513e-07</v>
+        <v>0.2800057170364958</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9027863586685212</v>
+        <v>0.9027863549249695</v>
       </c>
     </row>
     <row r="7">
@@ -9167,7 +9167,7 @@
         <v>-10.76710690713937</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005007413358940837</v>
+        <v>0.0005007413358940887</v>
       </c>
     </row>
     <row r="8">
@@ -9177,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.567517231506624</v>
+        <v>9.567517231506702</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02212857214460525</v>
+        <v>0.02212857214460374</v>
       </c>
     </row>
     <row r="9">
@@ -9190,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>248.9448771781447</v>
+        <v>2.489448771781291</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6610292149125735</v>
+        <v>0.6610292149125956</v>
       </c>
     </row>
     <row r="10">
@@ -9203,10 +9203,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-603.6314598742109</v>
+        <v>-6.036314598742193</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1276482142758168</v>
+        <v>0.1276482142758114</v>
       </c>
     </row>
     <row r="11">
@@ -9216,10 +9216,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4757.406119732947</v>
+        <v>47.5740611973294</v>
       </c>
       <c r="C11" t="n">
-        <v>5.476526161289647e-07</v>
+        <v>5.476526161289788e-07</v>
       </c>
     </row>
     <row r="12">
@@ -9229,10 +9229,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.902944700723596</v>
+        <v>7.902944700723937</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4799368719621713</v>
+        <v>0.4799368719621515</v>
       </c>
     </row>
   </sheetData>
@@ -9278,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2609.667788986553</v>
+        <v>2609.667788110158</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003171207313526602</v>
+        <v>0.00317120732432582</v>
       </c>
     </row>
     <row r="3">
@@ -9291,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.6919346888974</v>
+        <v>126.6919347036588</v>
       </c>
       <c r="C3" t="n">
-        <v>7.527992336095179e-10</v>
+        <v>7.527992335976865e-10</v>
       </c>
     </row>
     <row r="4">
@@ -9304,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.8340979515995</v>
+        <v>116.8340979683937</v>
       </c>
       <c r="C4" t="n">
-        <v>5.577443626953756e-26</v>
+        <v>5.577443543283316e-26</v>
       </c>
     </row>
     <row r="5">
@@ -9317,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01404718493325889</v>
+        <v>-1.404718493758965</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04011218034070995</v>
+        <v>0.0401121802751345</v>
       </c>
     </row>
     <row r="6">
@@ -9330,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.423408383025979e-06</v>
+        <v>-1.42340836736564</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5740613287451255</v>
+        <v>0.574061332992275</v>
       </c>
     </row>
     <row r="7">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.65662030507724</v>
+        <v>-11.65662030507735</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002714633823663308</v>
+        <v>0.0002714633823662989</v>
       </c>
     </row>
     <row r="8">
@@ -9356,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.486354093642535</v>
+        <v>4.486354093642313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2783879634641618</v>
+        <v>0.278387963464186</v>
       </c>
     </row>
     <row r="9">
@@ -9369,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-683.0074031747488</v>
+        <v>-6.830074031747682</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2219247063803493</v>
+        <v>0.2219247063803342</v>
       </c>
     </row>
     <row r="10">
@@ -9382,10 +9382,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-719.2727380214981</v>
+        <v>-7.192727380214958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07949385980757917</v>
+        <v>0.07949385980758086</v>
       </c>
     </row>
     <row r="11">
@@ -9395,10 +9395,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4578.079041905402</v>
+        <v>45.78079041905385</v>
       </c>
       <c r="C11" t="n">
-        <v>5.544606297562859e-06</v>
+        <v>5.544606297563456e-06</v>
       </c>
     </row>
     <row r="12">
@@ -9408,10 +9408,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.93151296341978</v>
+        <v>24.93151296341929</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04113278975171306</v>
+        <v>0.04113278975171688</v>
       </c>
     </row>
   </sheetData>
